--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A14B3A4-3AA7-424D-ABB4-2599EE93B6C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D41002F-B2DA-4531-99F8-266D6B0A8EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27435" windowHeight="11100" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
     <sheet name="Main" sheetId="1" r:id="rId2"/>
+    <sheet name="Private Equity" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>Ticker</t>
   </si>
@@ -128,9 +132,6 @@
     <t>LSE</t>
   </si>
   <si>
-    <t>API/Programming</t>
-  </si>
-  <si>
     <t>$MDB</t>
   </si>
   <si>
@@ -147,14 +148,147 @@
   </si>
   <si>
     <t>MongoDB, Inc.</t>
+  </si>
+  <si>
+    <t>Sub-Sector</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>$ORCL</t>
+  </si>
+  <si>
+    <t>Oracle Corporation</t>
+  </si>
+  <si>
+    <t>Notifications (SMS)</t>
+  </si>
+  <si>
+    <t>Cloud CRM</t>
+  </si>
+  <si>
+    <t>Cloud CRM/ERP &amp; Database</t>
+  </si>
+  <si>
+    <t>Cloud ERP</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>$NET</t>
+  </si>
+  <si>
+    <t>Cloudflare Inc.</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>DNS, Cyber-Security</t>
+  </si>
+  <si>
+    <t>$WORK</t>
+  </si>
+  <si>
+    <t>Slack Technologies Inc.</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Instant Messaging</t>
+  </si>
+  <si>
+    <t>$U</t>
+  </si>
+  <si>
+    <t>$RBLX</t>
+  </si>
+  <si>
+    <t>Unity Software Inc.</t>
+  </si>
+  <si>
+    <t>Roblox Corporation</t>
+  </si>
+  <si>
+    <t>Video Games</t>
+  </si>
+  <si>
+    <t>Game Dev</t>
+  </si>
+  <si>
+    <t>Game Dev, Metaverse</t>
+  </si>
+  <si>
+    <t>$GTLB</t>
+  </si>
+  <si>
+    <t>GitLab Inc.</t>
+  </si>
+  <si>
+    <t>Source Control</t>
+  </si>
+  <si>
+    <t>£DARK</t>
+  </si>
+  <si>
+    <t>DarkTrace Plc.</t>
+  </si>
+  <si>
+    <t>$MCFE</t>
+  </si>
+  <si>
+    <t>McAfee Corp.</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Acquired by Salesforce (CRM) in July 2021</t>
+  </si>
+  <si>
+    <t>M&amp;A Value</t>
+  </si>
+  <si>
+    <t>M&amp;A Date</t>
+  </si>
+  <si>
+    <t>$27.7bn</t>
+  </si>
+  <si>
+    <t>July 21 2021</t>
+  </si>
+  <si>
+    <t>$TEAM</t>
+  </si>
+  <si>
+    <t>Atalassian Corporation</t>
+  </si>
+  <si>
+    <t>Developer Software</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>$MRDB</t>
+  </si>
+  <si>
+    <t>MariaDB Plc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -363,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,6 +540,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,82 +574,80 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
-      <sheetName val="Price History"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>49.02</v>
+            <v>191.75</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>183.692564</v>
+            <v>68.916813000000005</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>9004.6094872800004</v>
+            <v>13214.798892750001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>3196.7179999999998</v>
+            <v>648.49</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>5807.8914872800005</v>
+            <v>12566.308892750001</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>San Francisco, CA</v>
+            <v>New York City, NY</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2008</v>
+            <v>2007</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2016</v>
+            <v>2017</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>Q322</v>
+            <v>FQ323</v>
           </cell>
           <cell r="D28">
-            <v>37926</v>
+            <v>44901</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="24">
-          <cell r="U24">
-            <v>0.47005177868427206</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="U25">
-            <v>-0.46488611741249003</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="U26">
-            <v>-0.49065338799426272</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="U27">
-            <v>-7.4778536471246807E-3</v>
+        <row r="29">
+          <cell r="X29">
+            <v>0.70928999538958049</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="X30">
+            <v>-0.37819600869393383</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="X31">
+            <v>-0.39144108542448774</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="X32">
+            <v>-2.6326241624645998E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -526,55 +659,232 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Price History"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>178.79</v>
+            <v>49.02</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>68.709999999999994</v>
+            <v>183.692564</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>12284.660899999999</v>
+            <v>9004.6094872800004</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0</v>
+            <v>3196.7179999999998</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>12284.660899999999</v>
+            <v>5807.8914872800005</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>New York City, US</v>
+            <v>San Francisco, CA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2007</v>
+            <v>2008</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2017</v>
+            <v>2016</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>FQ323</v>
+            <v>Q322</v>
           </cell>
           <cell r="D28">
-            <v>44901</v>
+            <v>37926</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="24">
+          <cell r="U24">
+            <v>0.47005177868427206</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="U25">
+            <v>-0.46488611741249003</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="U26">
+            <v>-0.49065338799426272</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="U27">
+            <v>-7.4778536471246807E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Newcastle, UK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1981</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1989</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+      <sheetName val="Metrics"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>31.68</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>San Mateo, CA</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>597.779</v>
+          </cell>
+          <cell r="G7">
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>18937.638719999999</v>
+          </cell>
+          <cell r="G8">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>2032.8440000000001</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>Q322</v>
+          </cell>
+          <cell r="H11"/>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>16904.794719999998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="22">
+          <cell r="M22">
+            <v>0.75577498469211346</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="M23">
+            <v>-0.5794918747476856</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="M24">
+            <v>-0.5831522463478378</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="M25">
+            <v>-1.1673022715967497E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>4.0199999999999996</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>67.489999999999995</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>271.30979999999994</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Redwood City, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2022</v>
           </cell>
         </row>
       </sheetData>
@@ -901,20 +1211,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="6"/>
     <col min="6" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="9.140625" style="6"/>
@@ -926,19 +1236,20 @@
     <col min="21" max="21" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="1"/>
     <col min="23" max="23" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="24" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F1" s="22" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -996,87 +1307,153 @@
         <v>11</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="17">
-        <f>[2]Main!$C$6*F25</f>
-        <v>148.39569999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <f>[2]Main!$C$7</f>
-        <v>68.709999999999994</v>
+        <f>[1]Main!$C$6*F29</f>
+        <v>159.1525</v>
+      </c>
+      <c r="G5" s="20">
+        <f>[1]Main!$C$7</f>
+        <v>68.916813000000005</v>
       </c>
       <c r="H5" s="18">
-        <f>[2]Main!$C$8*F25</f>
-        <v>10196.268546999998</v>
+        <f>[1]Main!$C$8*F29</f>
+        <v>10968.283080982501</v>
       </c>
       <c r="I5" s="18">
-        <f>[2]Main!$C$11*F25</f>
-        <v>0</v>
+        <f>[1]Main!$C$11*F29</f>
+        <v>538.24670000000003</v>
       </c>
       <c r="J5" s="18">
-        <f>[2]Main!$C$12*F25</f>
-        <v>10196.268546999998</v>
+        <f>[1]Main!$C$12*F29</f>
+        <v>10430.036380982501</v>
       </c>
       <c r="K5" s="6" t="str">
-        <f>[2]Main!$C$28</f>
+        <f>[1]Main!$C$28</f>
         <v>FQ323</v>
       </c>
       <c r="L5" s="9">
-        <f>[2]Main!$D$28</f>
+        <f>[1]Main!$D$28</f>
         <v>44901</v>
       </c>
+      <c r="N5" s="19">
+        <f>'[1]Financial Model'!$X$29</f>
+        <v>0.70928999538958049</v>
+      </c>
+      <c r="O5" s="19">
+        <f>'[1]Financial Model'!$X$30</f>
+        <v>-0.37819600869393383</v>
+      </c>
+      <c r="P5" s="19">
+        <f>'[1]Financial Model'!$X$31</f>
+        <v>-0.39144108542448774</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>'[1]Financial Model'!$X$32</f>
+        <v>-2.6326241624645998E-2</v>
+      </c>
       <c r="S5" s="6">
-        <f>[2]Main!$C24</f>
+        <f>[1]Main!$C24</f>
         <v>2007</v>
       </c>
       <c r="T5" s="6">
-        <f>[2]Main!$C$25</f>
+        <f>[1]Main!$C$25</f>
         <v>2017</v>
       </c>
       <c r="U5" s="6" t="str">
-        <f>[2]Main!$C$23</f>
-        <v>New York City, US</v>
+        <f>[1]Main!$C$23</f>
+        <v>New York City, NY</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="F6" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17">
+        <f>[5]Main!$C$6*F29</f>
+        <v>3.3365999999999993</v>
+      </c>
+      <c r="G6" s="18">
+        <f>[5]Main!$C$7</f>
+        <v>67.489999999999995</v>
+      </c>
+      <c r="H6" s="18">
+        <f>[5]Main!$C$8*F29</f>
+        <v>225.18713399999993</v>
+      </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="S6" s="6">
+        <f>[5]Main!$C$24</f>
+        <v>2010</v>
+      </c>
+      <c r="T6" s="6">
+        <f>[5]Main!$C$25</f>
+        <v>2022</v>
+      </c>
+      <c r="U6" s="6" t="str">
+        <f>[5]Main!$C$23</f>
+        <v>Redwood City, CA</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1090,66 +1467,69 @@
         <v>17</v>
       </c>
       <c r="F8" s="17">
-        <f>[1]Main!$C$6*$F$25</f>
+        <f>[2]Main!$C$6*$F$29</f>
         <v>40.686599999999999</v>
       </c>
       <c r="G8" s="18">
-        <f>[1]Main!$C$7</f>
+        <f>[2]Main!$C$7</f>
         <v>183.692564</v>
       </c>
       <c r="H8" s="18">
-        <f>[1]Main!$C$8*$F$25</f>
+        <f>[2]Main!$C$8*$F$29</f>
         <v>7473.8258744424002</v>
       </c>
       <c r="I8" s="18">
-        <f>[1]Main!$C$11*F25</f>
+        <f>[2]Main!$C$11*F29</f>
         <v>2653.2759399999995</v>
       </c>
       <c r="J8" s="18">
-        <f>[1]Main!$C$12*F25</f>
+        <f>[2]Main!$C$12*F29</f>
         <v>4820.5499344424006</v>
       </c>
       <c r="K8" s="6" t="str">
-        <f>[1]Main!$C$28</f>
+        <f>[2]Main!$C$28</f>
         <v>Q322</v>
       </c>
       <c r="L8" s="9">
-        <f>[1]Main!$D$28</f>
+        <f>[2]Main!$D$28</f>
         <v>37926</v>
       </c>
       <c r="N8" s="19">
-        <f>'[1]Financial Model'!$U$24</f>
+        <f>'[2]Financial Model'!$U$24</f>
         <v>0.47005177868427206</v>
       </c>
       <c r="O8" s="19">
-        <f>'[1]Financial Model'!$U$25</f>
+        <f>'[2]Financial Model'!$U$25</f>
         <v>-0.46488611741249003</v>
       </c>
       <c r="P8" s="19">
-        <f>'[1]Financial Model'!$U$26</f>
+        <f>'[2]Financial Model'!$U$26</f>
         <v>-0.49065338799426272</v>
       </c>
       <c r="Q8" s="19">
-        <f>'[1]Financial Model'!$U$27</f>
+        <f>'[2]Financial Model'!$U$27</f>
         <v>-7.4778536471246807E-3</v>
       </c>
       <c r="S8" s="6">
-        <f>[1]Main!$C$24</f>
+        <f>[2]Main!$C$24</f>
         <v>2008</v>
       </c>
       <c r="T8" s="6">
-        <f>[1]Main!$C$25</f>
+        <f>[2]Main!$C$25</f>
         <v>2016</v>
       </c>
       <c r="U8" s="6" t="str">
-        <f>[1]Main!$C$23</f>
+        <f>[2]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
@@ -1161,81 +1541,409 @@
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>9</v>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="17"/>
+        <v>17</v>
+      </c>
       <c r="W10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="X10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E24" s="20" t="s">
+      <c r="X11" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="S12" s="6">
+        <f>[3]Main!$C$24</f>
+        <v>1981</v>
+      </c>
+      <c r="T12" s="6">
+        <f>[3]Main!$C$25</f>
+        <v>1989</v>
+      </c>
+      <c r="U12" s="6" t="str">
+        <f>[3]Main!$C$23</f>
+        <v>Newcastle, UK</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="F13" s="17"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2002</v>
+      </c>
+      <c r="T14" s="6">
+        <v>2015</v>
+      </c>
+      <c r="U14" s="6" t="str">
+        <f>[2]Main!$C$23</f>
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="18">
+        <f>[4]Main!$C$6*F29</f>
+        <v>26.2944</v>
+      </c>
+      <c r="G21" s="18">
+        <f>[4]Main!$C$7</f>
+        <v>597.779</v>
+      </c>
+      <c r="H21" s="18">
+        <f>[4]Main!$C$8*F29</f>
+        <v>15718.240137599998</v>
+      </c>
+      <c r="I21" s="18">
+        <f>[4]Main!$C$11*F29</f>
+        <v>1687.26052</v>
+      </c>
+      <c r="J21" s="18">
+        <f>[4]Main!$C$12*F29</f>
+        <v>14030.979617599998</v>
+      </c>
+      <c r="K21" s="6" t="str">
+        <f>[4]Main!$G$11</f>
+        <v>Q322</v>
+      </c>
+      <c r="L21" s="6">
+        <f>[4]Main!$H$11</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <f>'[4]Financial Model'!$M$22</f>
+        <v>0.75577498469211346</v>
+      </c>
+      <c r="O21" s="19">
+        <f>'[4]Financial Model'!$M$23</f>
+        <v>-0.5794918747476856</v>
+      </c>
+      <c r="P21" s="19">
+        <f>'[4]Financial Model'!$M$24</f>
+        <v>-0.5831522463478378</v>
+      </c>
+      <c r="Q21" s="19">
+        <f>'[4]Financial Model'!$M$25</f>
+        <v>-1.1673022715967497E-3</v>
+      </c>
+      <c r="S21" s="6">
+        <f>[4]Main!$G$8</f>
+        <v>2004</v>
+      </c>
+      <c r="T21" s="6">
+        <f>[4]Main!$G$7</f>
+        <v>2021</v>
+      </c>
+      <c r="U21" s="6" t="str">
+        <f>[4]Main!$G$6</f>
+        <v>San Mateo, CA</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="10" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E25" s="11" t="s">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F29" s="12">
         <v>0.83</v>
       </c>
-      <c r="G25" s="13">
-        <f>1/F25</f>
+      <c r="G29" s="13">
+        <f>1/F29</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E26" s="14" t="s">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F30" s="15">
         <v>0.87</v>
       </c>
-      <c r="G26" s="16">
-        <f>1/F26</f>
+      <c r="G30" s="16">
+        <f>1/F30</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="F1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{3A7AD427-356A-4438-8466-A299ED0C08D2}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{1CE3F47D-3D30-470A-966F-AA684282F9ED}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{1CE3F47D-3D30-470A-966F-AA684282F9ED}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{6DFD8629-A4A2-4A11-B5F1-5FDD02B4DC40}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{3673F69E-DE49-452E-9A7F-9067CB704A93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B01D97B-8BB0-4FE5-A0B0-49C57E74A2A8}">
+  <dimension ref="A2:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D41002F-B2DA-4531-99F8-266D6B0A8EC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA808D-C43F-844C-BB67-2AB3C43BBBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27435" windowHeight="11100" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -497,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -507,7 +517,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -527,14 +536,14 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -659,48 +668,47 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
-      <sheetName val="Price History"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>49.02</v>
+            <v>4.0199999999999996</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>183.692564</v>
+            <v>58.801357000000003</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>9004.6094872800004</v>
+            <v>236.38145513999999</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>3196.7179999999998</v>
+            <v>16.010999999999999</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>5807.8914872800005</v>
+            <v>220.37045513999999</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>San Francisco, CA</v>
+            <v>Redwood City, CA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2008</v>
+            <v>2010</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2016</v>
+            <v>2022</v>
           </cell>
         </row>
         <row r="28">
@@ -708,33 +716,32 @@
             <v>Q322</v>
           </cell>
           <cell r="D28">
-            <v>37926</v>
+            <v>42705</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="24">
-          <cell r="U24">
-            <v>0.47005177868427206</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="U25">
-            <v>-0.46488611741249003</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="U26">
-            <v>-0.49065338799426272</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="U27">
-            <v>-7.4778536471246807E-3</v>
+        <row r="28">
+          <cell r="J28">
+            <v>0.68957308000457829</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29">
+            <v>-1.1077257639922169</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30">
+            <v>-1.1136774636602953</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31">
+            <v>-1.6676961087090797E-3</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -746,6 +753,93 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Price History"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>49.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>183.692564</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9004.6094872800004</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>3196.7179999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>5807.8914872800005</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>San Francisco, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q322</v>
+          </cell>
+          <cell r="D28">
+            <v>37926</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="24">
+          <cell r="U24">
+            <v>0.47005177868427206</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="U25">
+            <v>-0.46488611741249003</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="U26">
+            <v>-0.49065338799426272</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="U27">
+            <v>-7.4778536471246807E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -771,7 +865,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -848,54 +942,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>4.0199999999999996</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>67.489999999999995</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>271.30979999999994</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Redwood City, CA</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>2022</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1183,7 +1231,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1200,9 +1248,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1217,39 +1265,39 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="21" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
-    <col min="6" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="6"/>
-    <col min="12" max="12" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="17" width="9.140625" style="6"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="20" width="9.140625" style="6"/>
-    <col min="21" max="21" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="5"/>
+    <col min="6" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="17" width="9.1640625" style="5"/>
+    <col min="18" max="18" width="9.1640625" style="1"/>
+    <col min="19" max="20" width="9.1640625" style="5"/>
+    <col min="21" max="21" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="1"/>
+    <col min="23" max="23" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F1" s="23" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1313,520 +1361,549 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="X3" s="6"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f>[1]Main!$C$6*F29</f>
         <v>159.1525</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <f>[1]Main!$C$7</f>
         <v>68.916813000000005</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f>[1]Main!$C$8*F29</f>
         <v>10968.283080982501</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <f>[1]Main!$C$11*F29</f>
         <v>538.24670000000003</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <f>[1]Main!$C$12*F29</f>
         <v>10430.036380982501</v>
       </c>
-      <c r="K5" s="6" t="str">
+      <c r="K5" s="5" t="str">
         <f>[1]Main!$C$28</f>
         <v>FQ323</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f>[1]Main!$D$28</f>
         <v>44901</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <f>'[1]Financial Model'!$X$29</f>
         <v>0.70928999538958049</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="18">
         <f>'[1]Financial Model'!$X$30</f>
         <v>-0.37819600869393383</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="18">
         <f>'[1]Financial Model'!$X$31</f>
         <v>-0.39144108542448774</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <f>'[1]Financial Model'!$X$32</f>
         <v>-2.6326241624645998E-2</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <f>[1]Main!$C24</f>
         <v>2007</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <f>[1]Main!$C$25</f>
         <v>2017</v>
       </c>
-      <c r="U5" s="6" t="str">
+      <c r="U5" s="5" t="str">
         <f>[1]Main!$C$23</f>
         <v>New York City, NY</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17">
-        <f>[5]Main!$C$6*F29</f>
+      <c r="F6" s="16">
+        <f>[2]Main!$C$6*F29</f>
         <v>3.3365999999999993</v>
       </c>
-      <c r="G6" s="18">
-        <f>[5]Main!$C$7</f>
-        <v>67.489999999999995</v>
-      </c>
-      <c r="H6" s="18">
-        <f>[5]Main!$C$8*F29</f>
-        <v>225.18713399999993</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="S6" s="6">
-        <f>[5]Main!$C$24</f>
-        <v>2010</v>
-      </c>
-      <c r="T6" s="6">
-        <f>[5]Main!$C$25</f>
-        <v>2022</v>
-      </c>
-      <c r="U6" s="6" t="str">
-        <f>[5]Main!$C$23</f>
-        <v>Redwood City, CA</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="17">
-        <f>[2]Main!$C$6*$F$29</f>
-        <v>40.686599999999999</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="G6" s="17">
         <f>[2]Main!$C$7</f>
-        <v>183.692564</v>
-      </c>
-      <c r="H8" s="18">
-        <f>[2]Main!$C$8*$F$29</f>
-        <v>7473.8258744424002</v>
-      </c>
-      <c r="I8" s="18">
+        <v>58.801357000000003</v>
+      </c>
+      <c r="H6" s="17">
+        <f>[2]Main!$C$8*F29</f>
+        <v>196.19660776619997</v>
+      </c>
+      <c r="I6" s="17">
         <f>[2]Main!$C$11*F29</f>
-        <v>2653.2759399999995</v>
-      </c>
-      <c r="J8" s="18">
+        <v>13.289129999999998</v>
+      </c>
+      <c r="J6" s="17">
         <f>[2]Main!$C$12*F29</f>
-        <v>4820.5499344424006</v>
-      </c>
-      <c r="K8" s="6" t="str">
+        <v>182.90747776619997</v>
+      </c>
+      <c r="K6" s="5" t="str">
         <f>[2]Main!$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L6" s="8">
         <f>[2]Main!$D$28</f>
+        <v>42705</v>
+      </c>
+      <c r="N6" s="18">
+        <f>'[2]Financial Model'!$J$28</f>
+        <v>0.68957308000457829</v>
+      </c>
+      <c r="O6" s="18">
+        <f>'[2]Financial Model'!$J$29</f>
+        <v>-1.1077257639922169</v>
+      </c>
+      <c r="P6" s="18">
+        <f>'[2]Financial Model'!$J$30</f>
+        <v>-1.1136774636602953</v>
+      </c>
+      <c r="Q6" s="18">
+        <f>'[2]Financial Model'!$J$31</f>
+        <v>-1.6676961087090797E-3</v>
+      </c>
+      <c r="S6" s="5">
+        <f>[2]Main!$C$24</f>
+        <v>2010</v>
+      </c>
+      <c r="T6" s="5">
+        <f>[2]Main!$C$25</f>
+        <v>2022</v>
+      </c>
+      <c r="U6" s="5" t="str">
+        <f>[2]Main!$C$23</f>
+        <v>Redwood City, CA</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16">
+        <f>[3]Main!$C$6*$F$29</f>
+        <v>40.686599999999999</v>
+      </c>
+      <c r="G8" s="17">
+        <f>[3]Main!$C$7</f>
+        <v>183.692564</v>
+      </c>
+      <c r="H8" s="17">
+        <f>[3]Main!$C$8*$F$29</f>
+        <v>7473.8258744424002</v>
+      </c>
+      <c r="I8" s="17">
+        <f>[3]Main!$C$11*F29</f>
+        <v>2653.2759399999995</v>
+      </c>
+      <c r="J8" s="17">
+        <f>[3]Main!$C$12*F29</f>
+        <v>4820.5499344424006</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f>[3]Main!$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="L8" s="8">
+        <f>[3]Main!$D$28</f>
         <v>37926</v>
       </c>
-      <c r="N8" s="19">
-        <f>'[2]Financial Model'!$U$24</f>
+      <c r="N8" s="18">
+        <f>'[3]Financial Model'!$U$24</f>
         <v>0.47005177868427206</v>
       </c>
-      <c r="O8" s="19">
-        <f>'[2]Financial Model'!$U$25</f>
+      <c r="O8" s="18">
+        <f>'[3]Financial Model'!$U$25</f>
         <v>-0.46488611741249003</v>
       </c>
-      <c r="P8" s="19">
-        <f>'[2]Financial Model'!$U$26</f>
+      <c r="P8" s="18">
+        <f>'[3]Financial Model'!$U$26</f>
         <v>-0.49065338799426272</v>
       </c>
-      <c r="Q8" s="19">
-        <f>'[2]Financial Model'!$U$27</f>
+      <c r="Q8" s="18">
+        <f>'[3]Financial Model'!$U$27</f>
         <v>-7.4778536471246807E-3</v>
       </c>
-      <c r="S8" s="6">
-        <f>[2]Main!$C$24</f>
+      <c r="S8" s="5">
+        <f>[3]Main!$C$24</f>
         <v>2008</v>
       </c>
-      <c r="T8" s="6">
-        <f>[2]Main!$C$25</f>
+      <c r="T8" s="5">
+        <f>[3]Main!$C$25</f>
         <v>2016</v>
       </c>
-      <c r="U8" s="6" t="str">
-        <f>[2]Main!$C$23</f>
+      <c r="U8" s="5" t="str">
+        <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="L9" s="9"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="X9" s="6"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="L9" s="8"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="W10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="X10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="W11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="X11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="S12" s="6">
-        <f>[3]Main!$C$24</f>
+      <c r="F12" s="16"/>
+      <c r="S12" s="5">
+        <f>[4]Main!$C$24</f>
         <v>1981</v>
       </c>
-      <c r="T12" s="6">
-        <f>[3]Main!$C$25</f>
+      <c r="T12" s="5">
+        <f>[4]Main!$C$25</f>
         <v>1989</v>
       </c>
-      <c r="U12" s="6" t="str">
-        <f>[3]Main!$C$23</f>
+      <c r="U12" s="5" t="str">
+        <f>[4]Main!$C$23</f>
         <v>Newcastle, UK</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="W12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="X12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="F13" s="17"/>
-      <c r="X13" s="6"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B13" s="7"/>
+      <c r="F13" s="16"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>2002</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>2015</v>
       </c>
-      <c r="U14" s="6" t="str">
-        <f>[2]Main!$C$23</f>
+      <c r="U14" s="5" t="str">
+        <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="W14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="X14" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="W16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="X16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="W17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="X17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="W20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="X20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <f>[4]Main!$C$6*F29</f>
+      <c r="F21" s="17">
+        <f>[5]Main!$C$6*F29</f>
         <v>26.2944</v>
       </c>
-      <c r="G21" s="18">
-        <f>[4]Main!$C$7</f>
+      <c r="G21" s="17">
+        <f>[5]Main!$C$7</f>
         <v>597.779</v>
       </c>
-      <c r="H21" s="18">
-        <f>[4]Main!$C$8*F29</f>
+      <c r="H21" s="17">
+        <f>[5]Main!$C$8*F29</f>
         <v>15718.240137599998</v>
       </c>
-      <c r="I21" s="18">
-        <f>[4]Main!$C$11*F29</f>
+      <c r="I21" s="17">
+        <f>[5]Main!$C$11*F29</f>
         <v>1687.26052</v>
       </c>
-      <c r="J21" s="18">
-        <f>[4]Main!$C$12*F29</f>
+      <c r="J21" s="17">
+        <f>[5]Main!$C$12*F29</f>
         <v>14030.979617599998</v>
       </c>
-      <c r="K21" s="6" t="str">
-        <f>[4]Main!$G$11</f>
+      <c r="K21" s="5" t="str">
+        <f>[5]Main!$G$11</f>
         <v>Q322</v>
       </c>
-      <c r="L21" s="6">
-        <f>[4]Main!$H$11</f>
+      <c r="L21" s="5">
+        <f>[5]Main!$H$11</f>
         <v>0</v>
       </c>
-      <c r="N21" s="19">
-        <f>'[4]Financial Model'!$M$22</f>
+      <c r="N21" s="18">
+        <f>'[5]Financial Model'!$M$22</f>
         <v>0.75577498469211346</v>
       </c>
-      <c r="O21" s="19">
-        <f>'[4]Financial Model'!$M$23</f>
+      <c r="O21" s="18">
+        <f>'[5]Financial Model'!$M$23</f>
         <v>-0.5794918747476856</v>
       </c>
-      <c r="P21" s="19">
-        <f>'[4]Financial Model'!$M$24</f>
+      <c r="P21" s="18">
+        <f>'[5]Financial Model'!$M$24</f>
         <v>-0.5831522463478378</v>
       </c>
-      <c r="Q21" s="19">
-        <f>'[4]Financial Model'!$M$25</f>
+      <c r="Q21" s="18">
+        <f>'[5]Financial Model'!$M$25</f>
         <v>-1.1673022715967497E-3</v>
       </c>
-      <c r="S21" s="6">
-        <f>[4]Main!$G$8</f>
+      <c r="S21" s="5">
+        <f>[5]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="T21" s="6">
-        <f>[4]Main!$G$7</f>
+      <c r="T21" s="5">
+        <f>[5]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="U21" s="6" t="str">
-        <f>[4]Main!$G$6</f>
+      <c r="U21" s="5" t="str">
+        <f>[5]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="W21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="X21" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W23" s="6" t="s">
+      <c r="W23" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W24" s="6" t="s">
+      <c r="W24" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E28" s="21" t="s">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="21"/>
+      <c r="G28" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E29" s="11" t="s">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>0.83</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <f>1/F29</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E30" s="14" t="s">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="E30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <v>0.87</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <f>1/F30</f>
         <v>1.1494252873563218</v>
       </c>
@@ -1850,7 +1927,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B01D97B-8BB0-4FE5-A0B0-49C57E74A2A8}">
-  <dimension ref="A2:M10"/>
+  <dimension ref="A2:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1859,21 +1936,21 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1906,42 +1983,39 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA808D-C43F-844C-BB67-2AB3C43BBBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3935E6-D42E-4338-AB13-2CA17F2F25C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -28,16 +28,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -507,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,6 +549,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,6 +836,31 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>7.4459999999999997</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1020</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>7594.92</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-729</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>8323.92</v>
+          </cell>
+        </row>
         <row r="23">
           <cell r="C23" t="str">
             <v>Newcastle, UK</v>
@@ -858,8 +876,37 @@
             <v>1989</v>
           </cell>
         </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>FY22</v>
+          </cell>
+          <cell r="D27">
+            <v>44881</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="17">
+          <cell r="V17">
+            <v>0.92912172573189522</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="V18">
+            <v>0.18849512069851052</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="V19">
+            <v>0.13045711350796096</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="V20">
+            <v>0.24629080118694363</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -943,7 +990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1231,7 +1278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1248,9 +1295,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1265,30 +1312,30 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="5"/>
-    <col min="6" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="5"/>
-    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="17" width="9.1640625" style="5"/>
-    <col min="18" max="18" width="9.1640625" style="1"/>
-    <col min="19" max="20" width="9.1640625" style="5"/>
-    <col min="21" max="21" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="1"/>
-    <col min="23" max="23" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="17" width="9.140625" style="5"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="20" width="9.140625" style="5"/>
+    <col min="21" max="21" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F1" s="22" t="s">
         <v>29</v>
       </c>
@@ -1297,7 +1344,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1361,19 +1408,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1449,7 +1496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
@@ -1525,13 +1572,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1607,7 +1654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -1621,7 +1668,7 @@
       <c r="Q9" s="18"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1655,7 +1702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1715,50 @@
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16">
+        <f>[4]Main!$C$6</f>
+        <v>7.4459999999999997</v>
+      </c>
+      <c r="G12" s="17">
+        <f>[4]Main!$C$7</f>
+        <v>1020</v>
+      </c>
+      <c r="H12" s="17">
+        <f>[4]Main!$C$8</f>
+        <v>7594.92</v>
+      </c>
+      <c r="I12" s="17">
+        <f>[4]Main!$C$11</f>
+        <v>-729</v>
+      </c>
+      <c r="J12" s="17">
+        <f>[4]Main!$C$12</f>
+        <v>8323.92</v>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f>[4]Main!$C$27</f>
+        <v>FY22</v>
+      </c>
+      <c r="L12" s="23">
+        <f>[4]Main!$D$27</f>
+        <v>44881</v>
+      </c>
+      <c r="N12" s="18">
+        <f>'[4]Financial Model'!$V$17</f>
+        <v>0.92912172573189522</v>
+      </c>
+      <c r="O12" s="18">
+        <f>'[4]Financial Model'!$V$18</f>
+        <v>0.18849512069851052</v>
+      </c>
+      <c r="P12" s="18">
+        <f>'[4]Financial Model'!$V$19</f>
+        <v>0.13045711350796096</v>
+      </c>
+      <c r="Q12" s="18">
+        <f>'[4]Financial Model'!$V$20</f>
+        <v>0.24629080118694363</v>
+      </c>
       <c r="S12" s="5">
         <f>[4]Main!$C$24</f>
         <v>1981</v>
@@ -1688,12 +1778,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="F13" s="16"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
@@ -1717,7 +1807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1734,7 +1824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1751,7 +1841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1768,7 +1858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
@@ -1844,7 +1934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
@@ -1861,7 +1951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1875,7 +1965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E29" s="10" t="s">
         <v>27</v>
       </c>
@@ -1896,7 +1986,7 @@
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E30" s="13" t="s">
         <v>28</v>
       </c>
@@ -1936,21 +2026,21 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.1640625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1983,7 +2073,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2009,11 +2099,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3935E6-D42E-4338-AB13-2CA17F2F25C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C0E621-E6E7-4870-916E-29B80C0EB207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>Ticker</t>
   </si>
@@ -280,6 +281,21 @@
   </si>
   <si>
     <t>MariaDB Plc.</t>
+  </si>
+  <si>
+    <t>$EBAY</t>
+  </si>
+  <si>
+    <t>$AMZN</t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t>eBay Inc.</t>
+  </si>
+  <si>
+    <t>Online Auction</t>
   </si>
 </sst>
 </file>
@@ -540,6 +556,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,9 +566,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +940,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>31.68</v>
+            <v>26.16</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -940,7 +956,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>18937.638719999999</v>
+            <v>15637.898639999999</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -957,7 +973,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>16904.794719999998</v>
+            <v>13605.05464</v>
           </cell>
         </row>
       </sheetData>
@@ -984,6 +1000,52 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>40.78</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>542.66</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>22129.674800000001</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>San Jose, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1995</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1306,13 +1368,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1336,13 +1398,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1434,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[1]Main!$C$6*F29</f>
+        <f>[1]Main!$C$6*F33</f>
         <v>159.1525</v>
       </c>
       <c r="G5" s="19">
@@ -1442,15 +1504,15 @@
         <v>68.916813000000005</v>
       </c>
       <c r="H5" s="17">
-        <f>[1]Main!$C$8*F29</f>
+        <f>[1]Main!$C$8*F33</f>
         <v>10968.283080982501</v>
       </c>
       <c r="I5" s="17">
-        <f>[1]Main!$C$11*F29</f>
+        <f>[1]Main!$C$11*F33</f>
         <v>538.24670000000003</v>
       </c>
       <c r="J5" s="17">
-        <f>[1]Main!$C$12*F29</f>
+        <f>[1]Main!$C$12*F33</f>
         <v>10430.036380982501</v>
       </c>
       <c r="K5" s="5" t="str">
@@ -1510,7 +1572,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="16">
-        <f>[2]Main!$C$6*F29</f>
+        <f>[2]Main!$C$6*F33</f>
         <v>3.3365999999999993</v>
       </c>
       <c r="G6" s="17">
@@ -1518,15 +1580,15 @@
         <v>58.801357000000003</v>
       </c>
       <c r="H6" s="17">
-        <f>[2]Main!$C$8*F29</f>
+        <f>[2]Main!$C$8*F33</f>
         <v>196.19660776619997</v>
       </c>
       <c r="I6" s="17">
-        <f>[2]Main!$C$11*F29</f>
+        <f>[2]Main!$C$11*F33</f>
         <v>13.289129999999998</v>
       </c>
       <c r="J6" s="17">
-        <f>[2]Main!$C$12*F29</f>
+        <f>[2]Main!$C$12*F33</f>
         <v>182.90747776619997</v>
       </c>
       <c r="K6" s="5" t="str">
@@ -1592,7 +1654,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="16">
-        <f>[3]Main!$C$6*$F$29</f>
+        <f>[3]Main!$C$6*$F$33</f>
         <v>40.686599999999999</v>
       </c>
       <c r="G8" s="17">
@@ -1600,15 +1662,15 @@
         <v>183.692564</v>
       </c>
       <c r="H8" s="17">
-        <f>[3]Main!$C$8*$F$29</f>
+        <f>[3]Main!$C$8*$F$33</f>
         <v>7473.8258744424002</v>
       </c>
       <c r="I8" s="17">
-        <f>[3]Main!$C$11*F29</f>
+        <f>[3]Main!$C$11*F33</f>
         <v>2653.2759399999995</v>
       </c>
       <c r="J8" s="17">
-        <f>[3]Main!$C$12*F29</f>
+        <f>[3]Main!$C$12*F33</f>
         <v>4820.5499344424006</v>
       </c>
       <c r="K8" s="5" t="str">
@@ -1739,7 +1801,7 @@
         <f>[4]Main!$C$27</f>
         <v>FY22</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <f>[4]Main!$D$27</f>
         <v>44881</v>
       </c>
@@ -1872,24 +1934,24 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <f>[5]Main!$C$6*F29</f>
-        <v>26.2944</v>
+        <f>[5]Main!$C$6*F33</f>
+        <v>21.712799999999998</v>
       </c>
       <c r="G21" s="17">
         <f>[5]Main!$C$7</f>
         <v>597.779</v>
       </c>
       <c r="H21" s="17">
-        <f>[5]Main!$C$8*F29</f>
-        <v>15718.240137599998</v>
+        <f>[5]Main!$C$8*F33</f>
+        <v>12979.455871199998</v>
       </c>
       <c r="I21" s="17">
-        <f>[5]Main!$C$11*F29</f>
+        <f>[5]Main!$C$11*F33</f>
         <v>1687.26052</v>
       </c>
       <c r="J21" s="17">
-        <f>[5]Main!$C$12*F29</f>
-        <v>14030.979617599998</v>
+        <f>[5]Main!$C$12*F33</f>
+        <v>11292.1953512</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>[5]Main!$G$11</f>
@@ -1935,72 +1997,125 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>66</v>
+      <c r="B23" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F23" s="16">
+        <f>[6]Main!$C$6*F33</f>
+        <v>33.8474</v>
+      </c>
+      <c r="G23" s="19">
+        <f>[6]Main!$C$7</f>
+        <v>542.66</v>
+      </c>
+      <c r="H23" s="17">
+        <f>[6]Main!$C$8*F33</f>
+        <v>18367.630084</v>
+      </c>
+      <c r="S23" s="5">
+        <f>[6]Main!$C$24</f>
+        <v>1995</v>
+      </c>
+      <c r="T23" s="5">
+        <f>[6]Main!$C$25</f>
+        <v>1998</v>
+      </c>
+      <c r="U23" s="5" t="str">
+        <f>[6]Main!$C$23</f>
+        <v>San Jose, CA</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="W28" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E28" s="20" t="s">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E32" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="9" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E29" s="10" t="s">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F33" s="11">
         <v>0.83</v>
       </c>
-      <c r="G29" s="12">
-        <f>1/F29</f>
+      <c r="G33" s="12">
+        <f>1/F33</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E30" s="13" t="s">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E34" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F34" s="14">
         <v>0.87</v>
       </c>
-      <c r="G30" s="15">
-        <f>1/F30</f>
+      <c r="G34" s="15">
+        <f>1/F34</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="F1:J1"/>
   </mergeCells>
   <hyperlinks>
@@ -2009,9 +2124,10 @@
     <hyperlink ref="B5" r:id="rId3" xr:uid="{6DFD8629-A4A2-4A11-B5F1-5FDD02B4DC40}"/>
     <hyperlink ref="B21" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{3673F69E-DE49-452E-9A7F-9067CB704A93}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C0E621-E6E7-4870-916E-29B80C0EB207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27124C95-EFEA-4CC6-8CE2-C6A34BC17467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>Ticker</t>
   </si>
@@ -296,6 +296,30 @@
   </si>
   <si>
     <t>Online Auction</t>
+  </si>
+  <si>
+    <t>$SHOP</t>
+  </si>
+  <si>
+    <t>Shopify Inc.</t>
+  </si>
+  <si>
+    <t>$ETSY</t>
+  </si>
+  <si>
+    <t>Etsy Inc.</t>
+  </si>
+  <si>
+    <t>$BABA</t>
+  </si>
+  <si>
+    <t>Alibaba Group Holding Ltd</t>
+  </si>
+  <si>
+    <t>$JD</t>
+  </si>
+  <si>
+    <t>JD.com, Inc.</t>
   </si>
 </sst>
 </file>
@@ -1021,12 +1045,22 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>542.66</v>
+            <v>542.659087</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>22129.674800000001</v>
+            <v>22129.637567860002</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-4235</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>26364.637567860002</v>
           </cell>
         </row>
         <row r="23">
@@ -1044,8 +1078,37 @@
             <v>1998</v>
           </cell>
         </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q322</v>
+          </cell>
+          <cell r="D28">
+            <v>37561</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="27">
+          <cell r="U27">
+            <v>0.72815126050420165</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="U28">
+            <v>0.23865546218487396</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="U29">
+            <v>2.8991596638655463E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="U30">
+            <v>0.29629629629629628</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1368,20 +1431,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="5"/>
     <col min="6" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
@@ -1496,7 +1559,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[1]Main!$C$6*F33</f>
+        <f>[1]Main!$C$6*F37</f>
         <v>159.1525</v>
       </c>
       <c r="G5" s="19">
@@ -1504,15 +1567,15 @@
         <v>68.916813000000005</v>
       </c>
       <c r="H5" s="17">
-        <f>[1]Main!$C$8*F33</f>
+        <f>[1]Main!$C$8*F37</f>
         <v>10968.283080982501</v>
       </c>
       <c r="I5" s="17">
-        <f>[1]Main!$C$11*F33</f>
+        <f>[1]Main!$C$11*F37</f>
         <v>538.24670000000003</v>
       </c>
       <c r="J5" s="17">
-        <f>[1]Main!$C$12*F33</f>
+        <f>[1]Main!$C$12*F37</f>
         <v>10430.036380982501</v>
       </c>
       <c r="K5" s="5" t="str">
@@ -1572,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="16">
-        <f>[2]Main!$C$6*F33</f>
+        <f>[2]Main!$C$6*F37</f>
         <v>3.3365999999999993</v>
       </c>
       <c r="G6" s="17">
@@ -1580,15 +1643,15 @@
         <v>58.801357000000003</v>
       </c>
       <c r="H6" s="17">
-        <f>[2]Main!$C$8*F33</f>
+        <f>[2]Main!$C$8*F37</f>
         <v>196.19660776619997</v>
       </c>
       <c r="I6" s="17">
-        <f>[2]Main!$C$11*F33</f>
+        <f>[2]Main!$C$11*F37</f>
         <v>13.289129999999998</v>
       </c>
       <c r="J6" s="17">
-        <f>[2]Main!$C$12*F33</f>
+        <f>[2]Main!$C$12*F37</f>
         <v>182.90747776619997</v>
       </c>
       <c r="K6" s="5" t="str">
@@ -1654,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="16">
-        <f>[3]Main!$C$6*$F$33</f>
+        <f>[3]Main!$C$6*$F$37</f>
         <v>40.686599999999999</v>
       </c>
       <c r="G8" s="17">
@@ -1662,15 +1725,15 @@
         <v>183.692564</v>
       </c>
       <c r="H8" s="17">
-        <f>[3]Main!$C$8*$F$33</f>
+        <f>[3]Main!$C$8*$F$37</f>
         <v>7473.8258744424002</v>
       </c>
       <c r="I8" s="17">
-        <f>[3]Main!$C$11*F33</f>
+        <f>[3]Main!$C$11*F37</f>
         <v>2653.2759399999995</v>
       </c>
       <c r="J8" s="17">
-        <f>[3]Main!$C$12*F33</f>
+        <f>[3]Main!$C$12*F37</f>
         <v>4820.5499344424006</v>
       </c>
       <c r="K8" s="5" t="str">
@@ -1934,7 +1997,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <f>[5]Main!$C$6*F33</f>
+        <f>[5]Main!$C$6*F37</f>
         <v>21.712799999999998</v>
       </c>
       <c r="G21" s="17">
@@ -1942,15 +2005,15 @@
         <v>597.779</v>
       </c>
       <c r="H21" s="17">
-        <f>[5]Main!$C$8*F33</f>
+        <f>[5]Main!$C$8*F37</f>
         <v>12979.455871199998</v>
       </c>
       <c r="I21" s="17">
-        <f>[5]Main!$C$11*F33</f>
+        <f>[5]Main!$C$11*F37</f>
         <v>1687.26052</v>
       </c>
       <c r="J21" s="17">
-        <f>[5]Main!$C$12*F33</f>
+        <f>[5]Main!$C$12*F37</f>
         <v>11292.1953512</v>
       </c>
       <c r="K21" s="5" t="str">
@@ -2010,16 +2073,48 @@
         <v>17</v>
       </c>
       <c r="F23" s="16">
-        <f>[6]Main!$C$6*F33</f>
+        <f>[6]Main!$C$6*F37</f>
         <v>33.8474</v>
       </c>
       <c r="G23" s="19">
         <f>[6]Main!$C$7</f>
-        <v>542.66</v>
+        <v>542.659087</v>
       </c>
       <c r="H23" s="17">
-        <f>[6]Main!$C$8*F33</f>
-        <v>18367.630084</v>
+        <f>[6]Main!$C$8*F37</f>
+        <v>18367.5991813238</v>
+      </c>
+      <c r="I23" s="17">
+        <f>[6]Main!$C$11*F37</f>
+        <v>-3515.0499999999997</v>
+      </c>
+      <c r="J23" s="17">
+        <f>[6]Main!$C$12*F37</f>
+        <v>21882.649181323799</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>[6]Main!$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="L23" s="8">
+        <f>[6]Main!$D$28</f>
+        <v>37561</v>
+      </c>
+      <c r="N23" s="18">
+        <f>'[6]Financial Model'!$U$27</f>
+        <v>0.72815126050420165</v>
+      </c>
+      <c r="O23" s="18">
+        <f>'[6]Financial Model'!$U$28</f>
+        <v>0.23865546218487396</v>
+      </c>
+      <c r="P23" s="18">
+        <f>'[6]Financial Model'!$U$29</f>
+        <v>2.8991596638655463E-2</v>
+      </c>
+      <c r="Q23" s="18">
+        <f>'[6]Financial Model'!$U$30</f>
+        <v>0.29629629629629628</v>
       </c>
       <c r="S23" s="5">
         <f>[6]Main!$C$24</f>
@@ -2044,78 +2139,147 @@
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="W24" s="5" t="s">
         <v>84</v>
       </c>
       <c r="X24" s="5"/>
     </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26" s="5"/>
+    </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="X27" s="5"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W28" s="5" t="s">
+      <c r="W32" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="E32" s="21" t="s">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E36" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="9" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E33" s="10" t="s">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F37" s="11">
         <v>0.83</v>
       </c>
-      <c r="G33" s="12">
-        <f>1/F33</f>
+      <c r="G37" s="12">
+        <f>1/F37</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E34" s="13" t="s">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F38" s="14">
         <v>0.87</v>
       </c>
-      <c r="G34" s="15">
-        <f>1/F34</f>
+      <c r="G38" s="15">
+        <f>1/F38</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="F1:J1"/>
   </mergeCells>
   <hyperlinks>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27124C95-EFEA-4CC6-8CE2-C6A34BC17467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75F72B-EC2A-434D-AED4-570941CC1FAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>Ticker</t>
   </si>
@@ -320,15 +320,49 @@
   </si>
   <si>
     <t>JD.com, Inc.</t>
+  </si>
+  <si>
+    <t>P/B [C]</t>
+  </si>
+  <si>
+    <t>P/S [C]</t>
+  </si>
+  <si>
+    <t>EV/S [C]</t>
+  </si>
+  <si>
+    <t>P/E [C]</t>
+  </si>
+  <si>
+    <t>EV/E [C]</t>
+  </si>
+  <si>
+    <t>FY21 E</t>
+  </si>
+  <si>
+    <t>FY20 E</t>
+  </si>
+  <si>
+    <t>FY19 E</t>
+  </si>
+  <si>
+    <t>FY18 E</t>
+  </si>
+  <si>
+    <t>FY22 E</t>
+  </si>
+  <si>
+    <t>Normalised to Pound Sterling (GBP) [millions]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -537,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -592,6 +626,21 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -667,8 +716,28 @@
             <v>44901</v>
           </cell>
         </row>
+        <row r="33">
+          <cell r="C33">
+            <v>19.311919490429393</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>11.112137929461445</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="15">
+          <cell r="AG15">
+            <v>-209.30399999999997</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AH21">
+            <v>-306.86599999999999</v>
+          </cell>
+        </row>
         <row r="29">
           <cell r="X29">
             <v>0.70928999538958049</v>
@@ -750,6 +819,11 @@
           </cell>
           <cell r="D28">
             <v>42705</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>26.782399177430296</v>
           </cell>
         </row>
       </sheetData>
@@ -838,8 +912,47 @@
             <v>37926</v>
           </cell>
         </row>
+        <row r="33">
+          <cell r="C33">
+            <v>0.85506649460900186</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>2.4707454311946444</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>1.5936084043780052</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>-6.7618910307413636</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>-4.4061966235825452</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="17">
+          <cell r="Y17">
+            <v>-121.94900000000001</v>
+          </cell>
+          <cell r="Z17">
+            <v>-307.06299999999993</v>
+          </cell>
+          <cell r="AA17">
+            <v>-490.97899999999981</v>
+          </cell>
+          <cell r="AB17">
+            <v>-949.90000000000009</v>
+          </cell>
+        </row>
         <row r="24">
           <cell r="U24">
             <v>0.47005177868427206</v>
@@ -861,7 +974,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -924,8 +1037,50 @@
             <v>44881</v>
           </cell>
         </row>
+        <row r="32">
+          <cell r="C32">
+            <v>29.901259842519682</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>3.9008320493066257</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>5.5155555555555553</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>4.2752542372881353</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>32.771338582677167</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="13">
+          <cell r="R13">
+            <v>295</v>
+          </cell>
+          <cell r="S13">
+            <v>266</v>
+          </cell>
+          <cell r="T13">
+            <v>310</v>
+          </cell>
+          <cell r="U13">
+            <v>285</v>
+          </cell>
+          <cell r="V13">
+            <v>254</v>
+          </cell>
+        </row>
         <row r="17">
           <cell r="V17">
             <v>0.92912172573189522</v>
@@ -993,7 +1148,6 @@
           <cell r="G11" t="str">
             <v>Q322</v>
           </cell>
-          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="C12">
@@ -1023,7 +1177,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1086,6 +1240,16 @@
             <v>37561</v>
           </cell>
         </row>
+        <row r="33">
+          <cell r="C33">
+            <v>4.5599912565134968</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>2.235768596469994</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="27">
@@ -1100,7 +1264,7 @@
         </row>
         <row r="29">
           <cell r="U29">
-            <v>2.8991596638655463E-2</v>
+            <v>-2.8991596638655463E-2</v>
           </cell>
         </row>
         <row r="30">
@@ -1431,13 +1595,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1449,18 +1613,20 @@
     <col min="6" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="17" width="9.140625" style="5"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="20" width="9.140625" style="5"/>
-    <col min="21" max="21" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="19" width="9.42578125" style="5" customWidth="1"/>
+    <col min="20" max="23" width="9.42578125" style="26" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="28" width="9.140625" style="5"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="30" max="31" width="9.140625" style="5"/>
+    <col min="32" max="32" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
+    <col min="34" max="34" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
@@ -1468,8 +1634,16 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1504,48 +1678,89 @@
       <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="N2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S3" s="25"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="AI3" s="5"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S4" s="25"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="AI4" s="5"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1586,42 +1801,65 @@
         <f>[1]Main!$D$28</f>
         <v>44901</v>
       </c>
-      <c r="N5" s="18">
+      <c r="M5" s="24">
+        <f>[1]Main!$C$33</f>
+        <v>19.311919490429393</v>
+      </c>
+      <c r="N5" s="24">
+        <f>[1]Main!$C$34</f>
+        <v>11.112137929461445</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="28">
+        <f>'[1]Financial Model'!$AH$21*F37</f>
+        <v>-254.69877999999997</v>
+      </c>
+      <c r="U5" s="28">
+        <f>'[1]Financial Model'!$AG$15*F37</f>
+        <v>-173.72231999999997</v>
+      </c>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="Y5" s="18">
         <f>'[1]Financial Model'!$X$29</f>
         <v>0.70928999538958049</v>
       </c>
-      <c r="O5" s="18">
+      <c r="Z5" s="18">
         <f>'[1]Financial Model'!$X$30</f>
         <v>-0.37819600869393383</v>
       </c>
-      <c r="P5" s="18">
+      <c r="AA5" s="18">
         <f>'[1]Financial Model'!$X$31</f>
         <v>-0.39144108542448774</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="AB5" s="18">
         <f>'[1]Financial Model'!$X$32</f>
         <v>-2.6326241624645998E-2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="AD5" s="5">
         <f>[1]Main!$C24</f>
         <v>2007</v>
       </c>
-      <c r="T5" s="5">
+      <c r="AE5" s="5">
         <f>[1]Main!$C$25</f>
         <v>2017</v>
       </c>
-      <c r="U5" s="5" t="str">
+      <c r="AF5" s="5" t="str">
         <f>[1]Main!$C$23</f>
         <v>New York City, NY</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
@@ -1662,48 +1900,71 @@
         <f>[2]Main!$D$28</f>
         <v>42705</v>
       </c>
-      <c r="N6" s="18">
+      <c r="M6" s="24">
+        <f>[2]Main!$C$34</f>
+        <v>26.782399177430296</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="Y6" s="18">
         <f>'[2]Financial Model'!$J$28</f>
         <v>0.68957308000457829</v>
       </c>
-      <c r="O6" s="18">
+      <c r="Z6" s="18">
         <f>'[2]Financial Model'!$J$29</f>
         <v>-1.1077257639922169</v>
       </c>
-      <c r="P6" s="18">
+      <c r="AA6" s="18">
         <f>'[2]Financial Model'!$J$30</f>
         <v>-1.1136774636602953</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="AB6" s="18">
         <f>'[2]Financial Model'!$J$31</f>
         <v>-1.6676961087090797E-3</v>
       </c>
-      <c r="S6" s="5">
+      <c r="AD6" s="5">
         <f>[2]Main!$C$24</f>
         <v>2010</v>
       </c>
-      <c r="T6" s="5">
+      <c r="AE6" s="5">
         <f>[2]Main!$C$25</f>
         <v>2022</v>
       </c>
-      <c r="U6" s="5" t="str">
+      <c r="AF6" s="5" t="str">
         <f>[2]Main!$C$23</f>
         <v>Redwood City, CA</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="AH6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="AI6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="AI7" s="5"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1744,42 +2005,80 @@
         <f>[3]Main!$D$28</f>
         <v>37926</v>
       </c>
-      <c r="N8" s="18">
+      <c r="M8" s="24">
+        <f>[3]Main!$C$33</f>
+        <v>0.85506649460900186</v>
+      </c>
+      <c r="N8" s="24">
+        <f>[3]Main!$C$34</f>
+        <v>2.4707454311946444</v>
+      </c>
+      <c r="O8" s="24">
+        <f>[3]Main!$C$35</f>
+        <v>1.5936084043780052</v>
+      </c>
+      <c r="P8" s="24">
+        <f>[3]Main!$C$36</f>
+        <v>-6.7618910307413636</v>
+      </c>
+      <c r="Q8" s="24">
+        <f>[3]Main!$C$37</f>
+        <v>-4.4061966235825452</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="28">
+        <f>'[3]Financial Model'!$AB$17*$F$37</f>
+        <v>-788.41700000000003</v>
+      </c>
+      <c r="U8" s="28">
+        <f>'[3]Financial Model'!$AA$17*$F$37</f>
+        <v>-407.51256999999981</v>
+      </c>
+      <c r="V8" s="28">
+        <f>'[3]Financial Model'!$Z$17*$F$37</f>
+        <v>-254.86228999999994</v>
+      </c>
+      <c r="W8" s="28">
+        <f>'[3]Financial Model'!$Y$17*F37</f>
+        <v>-101.21767</v>
+      </c>
+      <c r="Y8" s="18">
         <f>'[3]Financial Model'!$U$24</f>
         <v>0.47005177868427206</v>
       </c>
-      <c r="O8" s="18">
+      <c r="Z8" s="18">
         <f>'[3]Financial Model'!$U$25</f>
         <v>-0.46488611741249003</v>
       </c>
-      <c r="P8" s="18">
+      <c r="AA8" s="18">
         <f>'[3]Financial Model'!$U$26</f>
         <v>-0.49065338799426272</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="AB8" s="18">
         <f>'[3]Financial Model'!$U$27</f>
         <v>-7.4778536471246807E-3</v>
       </c>
-      <c r="S8" s="5">
+      <c r="AD8" s="5">
         <f>[3]Main!$C$24</f>
         <v>2008</v>
       </c>
-      <c r="T8" s="5">
+      <c r="AE8" s="5">
         <f>[3]Main!$C$25</f>
         <v>2016</v>
       </c>
-      <c r="U8" s="5" t="str">
+      <c r="AF8" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="AH8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="AI8" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -1787,13 +2086,24 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="L9" s="8"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="M9" s="8"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AI9" s="5"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1803,14 +2113,23 @@
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="AH10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="AI10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1820,14 +2139,19 @@
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="S11" s="25"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="AH11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="AI11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1868,71 +2192,112 @@
         <f>[4]Main!$D$27</f>
         <v>44881</v>
       </c>
-      <c r="N12" s="18">
+      <c r="M12" s="24">
+        <f>[4]Main!$C$34</f>
+        <v>5.5155555555555553</v>
+      </c>
+      <c r="N12" s="24">
+        <f>[4]Main!$C$33</f>
+        <v>3.9008320493066257</v>
+      </c>
+      <c r="O12" s="24">
+        <f>[4]Main!$C$35</f>
+        <v>4.2752542372881353</v>
+      </c>
+      <c r="P12" s="24">
+        <f>[4]Main!$C$32</f>
+        <v>29.901259842519682</v>
+      </c>
+      <c r="Q12" s="24">
+        <f>[4]Main!$C$36</f>
+        <v>32.771338582677167</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="28">
+        <f>'[4]Financial Model'!$V$13</f>
+        <v>254</v>
+      </c>
+      <c r="T12" s="28">
+        <f>'[4]Financial Model'!$U$13</f>
+        <v>285</v>
+      </c>
+      <c r="U12" s="28">
+        <f>'[4]Financial Model'!$T$13</f>
+        <v>310</v>
+      </c>
+      <c r="V12" s="28">
+        <f>'[4]Financial Model'!$S$13</f>
+        <v>266</v>
+      </c>
+      <c r="W12" s="28">
+        <f>'[4]Financial Model'!$R$13</f>
+        <v>295</v>
+      </c>
+      <c r="Y12" s="18">
         <f>'[4]Financial Model'!$V$17</f>
         <v>0.92912172573189522</v>
       </c>
-      <c r="O12" s="18">
+      <c r="Z12" s="18">
         <f>'[4]Financial Model'!$V$18</f>
         <v>0.18849512069851052</v>
       </c>
-      <c r="P12" s="18">
+      <c r="AA12" s="18">
         <f>'[4]Financial Model'!$V$19</f>
         <v>0.13045711350796096</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="AB12" s="18">
         <f>'[4]Financial Model'!$V$20</f>
         <v>0.24629080118694363</v>
       </c>
-      <c r="S12" s="5">
+      <c r="AD12" s="5">
         <f>[4]Main!$C$24</f>
         <v>1981</v>
       </c>
-      <c r="T12" s="5">
+      <c r="AE12" s="5">
         <f>[4]Main!$C$25</f>
         <v>1989</v>
       </c>
-      <c r="U12" s="5" t="str">
+      <c r="AF12" s="5" t="str">
         <f>[4]Main!$C$23</f>
         <v>Newcastle, UK</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="AH12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="AI12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="F13" s="16"/>
-      <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AI13" s="5"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S14" s="5">
+      <c r="AD14" s="5">
         <v>2002</v>
       </c>
-      <c r="T14" s="5">
+      <c r="AE14" s="5">
         <v>2015</v>
       </c>
-      <c r="U14" s="5" t="str">
+      <c r="AF14" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="AH14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="AI14" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1942,14 +2307,14 @@
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="AH16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="X16" s="5" t="s">
+      <c r="AI16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1959,14 +2324,14 @@
       <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="5" t="s">
+      <c r="AH17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="X17" s="5" t="s">
+      <c r="AI17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1976,14 +2341,14 @@
       <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="AH20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X20" s="5" t="s">
+      <c r="AI20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
@@ -2024,42 +2389,42 @@
         <f>[5]Main!$H$11</f>
         <v>0</v>
       </c>
-      <c r="N21" s="18">
+      <c r="Y21" s="18">
         <f>'[5]Financial Model'!$M$22</f>
         <v>0.75577498469211346</v>
       </c>
-      <c r="O21" s="18">
+      <c r="Z21" s="18">
         <f>'[5]Financial Model'!$M$23</f>
         <v>-0.5794918747476856</v>
       </c>
-      <c r="P21" s="18">
+      <c r="AA21" s="18">
         <f>'[5]Financial Model'!$M$24</f>
         <v>-0.5831522463478378</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="AB21" s="18">
         <f>'[5]Financial Model'!$M$25</f>
         <v>-1.1673022715967497E-3</v>
       </c>
-      <c r="S21" s="5">
+      <c r="AD21" s="5">
         <f>[5]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="T21" s="5">
+      <c r="AE21" s="5">
         <f>[5]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="U21" s="5" t="str">
+      <c r="AF21" s="5" t="str">
         <f>[5]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="W21" s="5" t="s">
+      <c r="AH21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="AI21" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -2100,42 +2465,59 @@
         <f>[6]Main!$D$28</f>
         <v>37561</v>
       </c>
-      <c r="N23" s="18">
+      <c r="M23" s="24">
+        <f>[6]Main!$C$33</f>
+        <v>4.5599912565134968</v>
+      </c>
+      <c r="N23" s="24">
+        <f>[6]Main!$C$34</f>
+        <v>2.235768596469994</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="Y23" s="18">
         <f>'[6]Financial Model'!$U$27</f>
         <v>0.72815126050420165</v>
       </c>
-      <c r="O23" s="18">
+      <c r="Z23" s="18">
         <f>'[6]Financial Model'!$U$28</f>
         <v>0.23865546218487396</v>
       </c>
-      <c r="P23" s="18">
+      <c r="AA23" s="18">
         <f>'[6]Financial Model'!$U$29</f>
-        <v>2.8991596638655463E-2</v>
-      </c>
-      <c r="Q23" s="18">
+        <v>-2.8991596638655463E-2</v>
+      </c>
+      <c r="AB23" s="18">
         <f>'[6]Financial Model'!$U$30</f>
         <v>0.29629629629629628</v>
       </c>
-      <c r="S23" s="5">
+      <c r="AD23" s="5">
         <f>[6]Main!$C$24</f>
         <v>1995</v>
       </c>
-      <c r="T23" s="5">
+      <c r="AE23" s="5">
         <f>[6]Main!$C$25</f>
         <v>1998</v>
       </c>
-      <c r="U23" s="5" t="str">
+      <c r="AF23" s="5" t="str">
         <f>[6]Main!$C$23</f>
         <v>San Jose, CA</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="AH23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="AI23" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2145,12 +2527,12 @@
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W24" s="5" t="s">
+      <c r="AH24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X24" s="5"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AI24" s="5"/>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2163,12 +2545,12 @@
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="AH25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X25" s="5"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AI25" s="5"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
@@ -2181,12 +2563,12 @@
       <c r="E26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="AH26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X26" s="5"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AI26" s="5"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -2196,12 +2578,12 @@
       <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="AH27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X27" s="5"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AI27" s="5"/>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2211,9 +2593,9 @@
       <c r="D28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="X28" s="5"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AI28" s="5"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2226,11 +2608,11 @@
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W31" s="5" t="s">
+      <c r="AH31" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2240,7 +2622,7 @@
       <c r="E32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="AH32" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2278,9 +2660,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="F1:J1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{3A7AD427-356A-4438-8466-A299ED0C08D2}"/>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75F72B-EC2A-434D-AED4-570941CC1FAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2039089-C14B-8C49-AA38-4D5320790AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
   <si>
     <t>Ticker</t>
   </si>
@@ -353,6 +363,27 @@
   </si>
   <si>
     <t>Normalised to Pound Sterling (GBP) [millions]</t>
+  </si>
+  <si>
+    <t>$CVNA</t>
+  </si>
+  <si>
+    <t>Carvana</t>
+  </si>
+  <si>
+    <t>£AUTO</t>
+  </si>
+  <si>
+    <t>Auto Trader Group Plc</t>
+  </si>
+  <si>
+    <t>$CZOO</t>
+  </si>
+  <si>
+    <t>Cazoo Group Ltd</t>
+  </si>
+  <si>
+    <t>Online Auto Sales</t>
   </si>
 </sst>
 </file>
@@ -571,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -617,15 +648,6 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,6 +661,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -974,7 +1008,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1148,6 +1182,7 @@
           <cell r="G11" t="str">
             <v>Q322</v>
           </cell>
+          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="C12">
@@ -1177,7 +1212,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1250,8 +1285,34 @@
             <v>2.235768596469994</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="C35">
+            <v>2.663632811462922</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>-347.03384754378123</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>941.59419885214288</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="20">
+          <cell r="AC20">
+            <v>1786</v>
+          </cell>
+          <cell r="AD20">
+            <v>5667</v>
+          </cell>
+          <cell r="AE20">
+            <v>13608</v>
+          </cell>
+        </row>
         <row r="27">
           <cell r="U27">
             <v>0.72815126050420165</v>
@@ -1279,7 +1340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1567,7 +1628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1584,9 +1645,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1595,55 +1656,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AI38"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="R26:S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5"/>
-    <col min="6" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="9.42578125" style="5" customWidth="1"/>
-    <col min="20" max="23" width="9.42578125" style="26" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="1"/>
-    <col min="25" max="28" width="9.140625" style="5"/>
-    <col min="29" max="29" width="9.140625" style="1"/>
-    <col min="30" max="31" width="9.140625" style="5"/>
-    <col min="32" max="32" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="1"/>
-    <col min="34" max="34" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.1640625" style="5"/>
+    <col min="6" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="9.5" style="5" customWidth="1"/>
+    <col min="20" max="23" width="9.5" style="23" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" style="1"/>
+    <col min="25" max="28" width="9.1640625" style="5"/>
+    <col min="29" max="29" width="9.1640625" style="1"/>
+    <col min="30" max="31" width="9.1640625" style="5"/>
+    <col min="32" max="32" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.1640625" style="1"/>
+    <col min="34" max="34" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="23" t="s">
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="S1" s="23" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1738,29 +1799,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
       <c r="AI3" s="5"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="F4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
       <c r="AI4" s="5"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1774,7 +1835,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[1]Main!$C$6*F37</f>
+        <f>[1]Main!$C$6*F43</f>
         <v>159.1525</v>
       </c>
       <c r="G5" s="19">
@@ -1782,15 +1843,15 @@
         <v>68.916813000000005</v>
       </c>
       <c r="H5" s="17">
-        <f>[1]Main!$C$8*F37</f>
+        <f>[1]Main!$C$8*F43</f>
         <v>10968.283080982501</v>
       </c>
       <c r="I5" s="17">
-        <f>[1]Main!$C$11*F37</f>
+        <f>[1]Main!$C$11*F43</f>
         <v>538.24670000000003</v>
       </c>
       <c r="J5" s="17">
-        <f>[1]Main!$C$12*F37</f>
+        <f>[1]Main!$C$12*F43</f>
         <v>10430.036380982501</v>
       </c>
       <c r="K5" s="5" t="str">
@@ -1801,11 +1862,11 @@
         <f>[1]Main!$D$28</f>
         <v>44901</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="21">
         <f>[1]Main!$C$33</f>
         <v>19.311919490429393</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="21">
         <f>[1]Main!$C$34</f>
         <v>11.112137929461445</v>
       </c>
@@ -1813,17 +1874,17 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="28">
-        <f>'[1]Financial Model'!$AH$21*F37</f>
+      <c r="S5" s="22"/>
+      <c r="T5" s="25">
+        <f>'[1]Financial Model'!$AH$21*F43</f>
         <v>-254.69877999999997</v>
       </c>
-      <c r="U5" s="28">
-        <f>'[1]Financial Model'!$AG$15*F37</f>
+      <c r="U5" s="25">
+        <f>'[1]Financial Model'!$AG$15*F43</f>
         <v>-173.72231999999997</v>
       </c>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
       <c r="Y5" s="18">
         <f>'[1]Financial Model'!$X$29</f>
         <v>0.70928999538958049</v>
@@ -1859,7 +1920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
@@ -1873,7 +1934,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="16">
-        <f>[2]Main!$C$6*F37</f>
+        <f>[2]Main!$C$6*F43</f>
         <v>3.3365999999999993</v>
       </c>
       <c r="G6" s="17">
@@ -1881,15 +1942,15 @@
         <v>58.801357000000003</v>
       </c>
       <c r="H6" s="17">
-        <f>[2]Main!$C$8*F37</f>
+        <f>[2]Main!$C$8*F43</f>
         <v>196.19660776619997</v>
       </c>
       <c r="I6" s="17">
-        <f>[2]Main!$C$11*F37</f>
+        <f>[2]Main!$C$11*F43</f>
         <v>13.289129999999998</v>
       </c>
       <c r="J6" s="17">
-        <f>[2]Main!$C$12*F37</f>
+        <f>[2]Main!$C$12*F43</f>
         <v>182.90747776619997</v>
       </c>
       <c r="K6" s="5" t="str">
@@ -1900,20 +1961,20 @@
         <f>[2]Main!$D$28</f>
         <v>42705</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <f>[2]Main!$C$34</f>
         <v>26.782399177430296</v>
       </c>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
       <c r="Y6" s="18">
         <f>'[2]Financial Model'!$J$28</f>
         <v>0.68957308000457829</v>
@@ -1949,22 +2010,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
       <c r="F7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
       <c r="AI7" s="5"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1978,7 +2039,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="16">
-        <f>[3]Main!$C$6*$F$37</f>
+        <f>[3]Main!$C$6*$F$43</f>
         <v>40.686599999999999</v>
       </c>
       <c r="G8" s="17">
@@ -1986,15 +2047,15 @@
         <v>183.692564</v>
       </c>
       <c r="H8" s="17">
-        <f>[3]Main!$C$8*$F$37</f>
+        <f>[3]Main!$C$8*$F$43</f>
         <v>7473.8258744424002</v>
       </c>
       <c r="I8" s="17">
-        <f>[3]Main!$C$11*F37</f>
+        <f>[3]Main!$C$11*F43</f>
         <v>2653.2759399999995</v>
       </c>
       <c r="J8" s="17">
-        <f>[3]Main!$C$12*F37</f>
+        <f>[3]Main!$C$12*F43</f>
         <v>4820.5499344424006</v>
       </c>
       <c r="K8" s="5" t="str">
@@ -2005,42 +2066,42 @@
         <f>[3]Main!$D$28</f>
         <v>37926</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <f>[3]Main!$C$33</f>
         <v>0.85506649460900186</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="21">
         <f>[3]Main!$C$34</f>
         <v>2.4707454311946444</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="21">
         <f>[3]Main!$C$35</f>
         <v>1.5936084043780052</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="21">
         <f>[3]Main!$C$36</f>
         <v>-6.7618910307413636</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="21">
         <f>[3]Main!$C$37</f>
         <v>-4.4061966235825452</v>
       </c>
       <c r="R8" s="8"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="28">
-        <f>'[3]Financial Model'!$AB$17*$F$37</f>
+      <c r="S8" s="22"/>
+      <c r="T8" s="25">
+        <f>'[3]Financial Model'!$AB$17*$F$43</f>
         <v>-788.41700000000003</v>
       </c>
-      <c r="U8" s="28">
-        <f>'[3]Financial Model'!$AA$17*$F$37</f>
+      <c r="U8" s="25">
+        <f>'[3]Financial Model'!$AA$17*$F$43</f>
         <v>-407.51256999999981</v>
       </c>
-      <c r="V8" s="28">
-        <f>'[3]Financial Model'!$Z$17*$F$37</f>
+      <c r="V8" s="25">
+        <f>'[3]Financial Model'!$Z$17*$F$43</f>
         <v>-254.86228999999994</v>
       </c>
-      <c r="W8" s="28">
-        <f>'[3]Financial Model'!$Y$17*F37</f>
+      <c r="W8" s="25">
+        <f>'[3]Financial Model'!$Y$17*F43</f>
         <v>-101.21767</v>
       </c>
       <c r="Y8" s="18">
@@ -2078,7 +2139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -2087,23 +2148,23 @@
       <c r="J9" s="17"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
       <c r="AI9" s="5"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2113,15 +2174,15 @@
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
       <c r="AH10" s="5" t="s">
         <v>15</v>
       </c>
@@ -2129,7 +2190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2139,11 +2200,11 @@
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
       <c r="AH11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2151,7 +2212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2192,44 +2253,44 @@
         <f>[4]Main!$D$27</f>
         <v>44881</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="21">
         <f>[4]Main!$C$34</f>
         <v>5.5155555555555553</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="21">
         <f>[4]Main!$C$33</f>
         <v>3.9008320493066257</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="21">
         <f>[4]Main!$C$35</f>
         <v>4.2752542372881353</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="21">
         <f>[4]Main!$C$32</f>
         <v>29.901259842519682</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="21">
         <f>[4]Main!$C$36</f>
         <v>32.771338582677167</v>
       </c>
       <c r="R12" s="20"/>
-      <c r="S12" s="28">
+      <c r="S12" s="25">
         <f>'[4]Financial Model'!$V$13</f>
         <v>254</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="25">
         <f>'[4]Financial Model'!$U$13</f>
         <v>285</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="25">
         <f>'[4]Financial Model'!$T$13</f>
         <v>310</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="25">
         <f>'[4]Financial Model'!$S$13</f>
         <v>266</v>
       </c>
-      <c r="W12" s="28">
+      <c r="W12" s="25">
         <f>'[4]Financial Model'!$R$13</f>
         <v>295</v>
       </c>
@@ -2268,17 +2329,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="F13" s="16"/>
       <c r="AI13" s="5"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>77</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="AD14" s="5">
         <v>2002</v>
@@ -2297,7 +2364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2314,7 +2381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2331,7 +2398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2348,7 +2415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
@@ -2362,7 +2429,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <f>[5]Main!$C$6*F37</f>
+        <f>[5]Main!$C$6*F43</f>
         <v>21.712799999999998</v>
       </c>
       <c r="G21" s="17">
@@ -2370,15 +2437,15 @@
         <v>597.779</v>
       </c>
       <c r="H21" s="17">
-        <f>[5]Main!$C$8*F37</f>
+        <f>[5]Main!$C$8*F43</f>
         <v>12979.455871199998</v>
       </c>
       <c r="I21" s="17">
-        <f>[5]Main!$C$11*F37</f>
+        <f>[5]Main!$C$11*F43</f>
         <v>1687.26052</v>
       </c>
       <c r="J21" s="17">
-        <f>[5]Main!$C$12*F37</f>
+        <f>[5]Main!$C$12*F43</f>
         <v>11292.1953512</v>
       </c>
       <c r="K21" s="5" t="str">
@@ -2424,7 +2491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -2438,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="16">
-        <f>[6]Main!$C$6*F37</f>
+        <f>[6]Main!$C$6*F43</f>
         <v>33.8474</v>
       </c>
       <c r="G23" s="19">
@@ -2446,15 +2513,15 @@
         <v>542.659087</v>
       </c>
       <c r="H23" s="17">
-        <f>[6]Main!$C$8*F37</f>
+        <f>[6]Main!$C$8*F43</f>
         <v>18367.5991813238</v>
       </c>
       <c r="I23" s="17">
-        <f>[6]Main!$C$11*F37</f>
+        <f>[6]Main!$C$11*F43</f>
         <v>-3515.0499999999997</v>
       </c>
       <c r="J23" s="17">
-        <f>[6]Main!$C$12*F37</f>
+        <f>[6]Main!$C$12*F43</f>
         <v>21882.649181323799</v>
       </c>
       <c r="K23" s="5" t="str">
@@ -2465,23 +2532,41 @@
         <f>[6]Main!$D$28</f>
         <v>37561</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="21">
         <f>[6]Main!$C$33</f>
         <v>4.5599912565134968</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="21">
         <f>[6]Main!$C$34</f>
         <v>2.235768596469994</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="O23" s="21">
+        <f>[6]Main!$C$35</f>
+        <v>2.663632811462922</v>
+      </c>
+      <c r="P23" s="21">
+        <f>[6]Main!$C$36</f>
+        <v>-347.03384754378123</v>
+      </c>
+      <c r="Q23" s="21">
+        <f>[6]Main!$C$37</f>
+        <v>941.59419885214288</v>
+      </c>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
+      <c r="T23" s="29">
+        <f>'[6]Financial Model'!$AE$20*F43</f>
+        <v>11294.64</v>
+      </c>
+      <c r="U23" s="29">
+        <f>'[6]Financial Model'!$AD$20*F43</f>
+        <v>4703.6099999999997</v>
+      </c>
+      <c r="V23" s="29">
+        <f>'[6]Financial Model'!$AC$20*F43</f>
+        <v>1482.3799999999999</v>
+      </c>
+      <c r="W23" s="24"/>
       <c r="Y23" s="18">
         <f>'[6]Financial Model'!$U$27</f>
         <v>0.72815126050420165</v>
@@ -2517,7 +2602,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2532,7 +2617,7 @@
       </c>
       <c r="AI24" s="5"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2550,7 +2635,7 @@
       </c>
       <c r="AI25" s="5"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
@@ -2568,7 +2653,7 @@
       </c>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -2583,7 +2668,7 @@
       </c>
       <c r="AI27" s="5"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2595,7 +2680,7 @@
       </c>
       <c r="AI28" s="5"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2612,7 +2697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2626,42 +2711,90 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E36" s="21" t="s">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI35" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI37" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="E42" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="9" t="s">
+      <c r="F42" s="27"/>
+      <c r="G42" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E37" s="10" t="s">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="E43" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F43" s="11">
         <v>0.83</v>
       </c>
-      <c r="G37" s="12">
-        <f>1/F37</f>
+      <c r="G43" s="12">
+        <f>1/F43</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E38" s="13" t="s">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="E44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F44" s="14">
         <v>0.87</v>
       </c>
-      <c r="G38" s="15">
-        <f>1/F38</f>
+      <c r="G44" s="15">
+        <f>1/F44</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E42:F42"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="S1:W1"/>
   </mergeCells>
@@ -2686,24 +2819,24 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2736,7 +2869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2762,11 +2895,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2039089-C14B-8C49-AA38-4D5320790AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F5142-8C2A-864F-9ABE-8BAE54FFD8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
   <si>
     <t>Ticker</t>
   </si>
@@ -384,6 +384,24 @@
   </si>
   <si>
     <t>Online Auto Sales</t>
+  </si>
+  <si>
+    <t>E-Commerce, Logistics</t>
+  </si>
+  <si>
+    <t>£TRST</t>
+  </si>
+  <si>
+    <t>Trustpilot Group Plc</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Copenhagen, Denmark</t>
   </si>
 </sst>
 </file>
@@ -602,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -657,10 +675,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1304,33 +1319,33 @@
       <sheetData sheetId="1">
         <row r="20">
           <cell r="AC20">
-            <v>1786</v>
+            <v>1725</v>
           </cell>
           <cell r="AD20">
-            <v>5667</v>
+            <v>7266</v>
           </cell>
           <cell r="AE20">
-            <v>13608</v>
+            <v>-1347</v>
           </cell>
         </row>
         <row r="27">
           <cell r="U27">
-            <v>0.72815126050420165</v>
+            <v>0.72890843662534988</v>
           </cell>
         </row>
         <row r="28">
           <cell r="U28">
-            <v>0.23865546218487396</v>
+            <v>0.2646941223510596</v>
           </cell>
         </row>
         <row r="29">
           <cell r="U29">
-            <v>-2.8991596638655463E-2</v>
+            <v>0.10555777688924431</v>
           </cell>
         </row>
         <row r="30">
           <cell r="U30">
-            <v>0.29629629629629628</v>
+            <v>0.34792626728110598</v>
           </cell>
         </row>
       </sheetData>
@@ -1340,7 +1355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1628,7 +1643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1656,18 +1671,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S26" sqref="R26:S26"/>
+      <selection pane="bottomRight" activeCell="AD41" sqref="AD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.1640625" style="5"/>
@@ -1680,7 +1695,7 @@
     <col min="25" max="28" width="9.1640625" style="5"/>
     <col min="29" max="29" width="9.1640625" style="1"/>
     <col min="30" max="31" width="9.1640625" style="5"/>
-    <col min="32" max="32" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.1640625" style="1"/>
     <col min="34" max="34" width="16.5" style="5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1804,10 +1819,10 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
       <c r="AI3" s="5"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
@@ -1815,10 +1830,10 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="S4" s="22"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
       <c r="AI4" s="5"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
@@ -1835,7 +1850,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[1]Main!$C$6*F43</f>
+        <f>[1]Main!$C$6*F45</f>
         <v>159.1525</v>
       </c>
       <c r="G5" s="19">
@@ -1843,15 +1858,15 @@
         <v>68.916813000000005</v>
       </c>
       <c r="H5" s="17">
-        <f>[1]Main!$C$8*F43</f>
+        <f>[1]Main!$C$8*F45</f>
         <v>10968.283080982501</v>
       </c>
       <c r="I5" s="17">
-        <f>[1]Main!$C$11*F43</f>
+        <f>[1]Main!$C$11*F45</f>
         <v>538.24670000000003</v>
       </c>
       <c r="J5" s="17">
-        <f>[1]Main!$C$12*F43</f>
+        <f>[1]Main!$C$12*F45</f>
         <v>10430.036380982501</v>
       </c>
       <c r="K5" s="5" t="str">
@@ -1875,16 +1890,16 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="22"/>
-      <c r="T5" s="25">
-        <f>'[1]Financial Model'!$AH$21*F43</f>
+      <c r="T5" s="24">
+        <f>'[1]Financial Model'!$AH$21*F45</f>
         <v>-254.69877999999997</v>
       </c>
-      <c r="U5" s="25">
-        <f>'[1]Financial Model'!$AG$15*F43</f>
+      <c r="U5" s="24">
+        <f>'[1]Financial Model'!$AG$15*F45</f>
         <v>-173.72231999999997</v>
       </c>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
       <c r="Y5" s="18">
         <f>'[1]Financial Model'!$X$29</f>
         <v>0.70928999538958049</v>
@@ -1934,7 +1949,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="16">
-        <f>[2]Main!$C$6*F43</f>
+        <f>[2]Main!$C$6*F45</f>
         <v>3.3365999999999993</v>
       </c>
       <c r="G6" s="17">
@@ -1942,15 +1957,15 @@
         <v>58.801357000000003</v>
       </c>
       <c r="H6" s="17">
-        <f>[2]Main!$C$8*F43</f>
+        <f>[2]Main!$C$8*F45</f>
         <v>196.19660776619997</v>
       </c>
       <c r="I6" s="17">
-        <f>[2]Main!$C$11*F43</f>
+        <f>[2]Main!$C$11*F45</f>
         <v>13.289129999999998</v>
       </c>
       <c r="J6" s="17">
-        <f>[2]Main!$C$12*F43</f>
+        <f>[2]Main!$C$12*F45</f>
         <v>182.90747776619997</v>
       </c>
       <c r="K6" s="5" t="str">
@@ -1971,10 +1986,10 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="8"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
       <c r="Y6" s="18">
         <f>'[2]Financial Model'!$J$28</f>
         <v>0.68957308000457829</v>
@@ -2019,10 +2034,10 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
       <c r="AI7" s="5"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
@@ -2039,7 +2054,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="16">
-        <f>[3]Main!$C$6*$F$43</f>
+        <f>[3]Main!$C$6*$F$45</f>
         <v>40.686599999999999</v>
       </c>
       <c r="G8" s="17">
@@ -2047,15 +2062,15 @@
         <v>183.692564</v>
       </c>
       <c r="H8" s="17">
-        <f>[3]Main!$C$8*$F$43</f>
+        <f>[3]Main!$C$8*$F$45</f>
         <v>7473.8258744424002</v>
       </c>
       <c r="I8" s="17">
-        <f>[3]Main!$C$11*F43</f>
+        <f>[3]Main!$C$11*F45</f>
         <v>2653.2759399999995</v>
       </c>
       <c r="J8" s="17">
-        <f>[3]Main!$C$12*F43</f>
+        <f>[3]Main!$C$12*F45</f>
         <v>4820.5499344424006</v>
       </c>
       <c r="K8" s="5" t="str">
@@ -2088,20 +2103,20 @@
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="25">
-        <f>'[3]Financial Model'!$AB$17*$F$43</f>
+      <c r="T8" s="24">
+        <f>'[3]Financial Model'!$AB$17*$F$45</f>
         <v>-788.41700000000003</v>
       </c>
-      <c r="U8" s="25">
-        <f>'[3]Financial Model'!$AA$17*$F$43</f>
+      <c r="U8" s="24">
+        <f>'[3]Financial Model'!$AA$17*$F$45</f>
         <v>-407.51256999999981</v>
       </c>
-      <c r="V8" s="25">
-        <f>'[3]Financial Model'!$Z$17*$F$43</f>
+      <c r="V8" s="24">
+        <f>'[3]Financial Model'!$Z$17*$F$45</f>
         <v>-254.86228999999994</v>
       </c>
-      <c r="W8" s="25">
-        <f>'[3]Financial Model'!$Y$17*F43</f>
+      <c r="W8" s="24">
+        <f>'[3]Financial Model'!$Y$17*F45</f>
         <v>-101.21767</v>
       </c>
       <c r="Y8" s="18">
@@ -2154,10 +2169,10 @@
       <c r="Q9" s="21"/>
       <c r="R9" s="8"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
@@ -2179,10 +2194,10 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
       <c r="AH10" s="5" t="s">
         <v>15</v>
       </c>
@@ -2201,10 +2216,10 @@
         <v>17</v>
       </c>
       <c r="S11" s="22"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
       <c r="AH11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2274,23 +2289,23 @@
         <v>32.771338582677167</v>
       </c>
       <c r="R12" s="20"/>
-      <c r="S12" s="25">
+      <c r="S12" s="24">
         <f>'[4]Financial Model'!$V$13</f>
         <v>254</v>
       </c>
-      <c r="T12" s="25">
+      <c r="T12" s="24">
         <f>'[4]Financial Model'!$U$13</f>
         <v>285</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="24">
         <f>'[4]Financial Model'!$T$13</f>
         <v>310</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="24">
         <f>'[4]Financial Model'!$S$13</f>
         <v>266</v>
       </c>
-      <c r="W12" s="25">
+      <c r="W12" s="24">
         <f>'[4]Financial Model'!$R$13</f>
         <v>295</v>
       </c>
@@ -2429,7 +2444,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <f>[5]Main!$C$6*F43</f>
+        <f>[5]Main!$C$6*F45</f>
         <v>21.712799999999998</v>
       </c>
       <c r="G21" s="17">
@@ -2437,15 +2452,15 @@
         <v>597.779</v>
       </c>
       <c r="H21" s="17">
-        <f>[5]Main!$C$8*F43</f>
+        <f>[5]Main!$C$8*F45</f>
         <v>12979.455871199998</v>
       </c>
       <c r="I21" s="17">
-        <f>[5]Main!$C$11*F43</f>
+        <f>[5]Main!$C$11*F45</f>
         <v>1687.26052</v>
       </c>
       <c r="J21" s="17">
-        <f>[5]Main!$C$12*F43</f>
+        <f>[5]Main!$C$12*F45</f>
         <v>11292.1953512</v>
       </c>
       <c r="K21" s="5" t="str">
@@ -2505,7 +2520,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="16">
-        <f>[6]Main!$C$6*F43</f>
+        <f>[6]Main!$C$6*F45</f>
         <v>33.8474</v>
       </c>
       <c r="G23" s="19">
@@ -2513,15 +2528,15 @@
         <v>542.659087</v>
       </c>
       <c r="H23" s="17">
-        <f>[6]Main!$C$8*F43</f>
+        <f>[6]Main!$C$8*F45</f>
         <v>18367.5991813238</v>
       </c>
       <c r="I23" s="17">
-        <f>[6]Main!$C$11*F43</f>
+        <f>[6]Main!$C$11*F45</f>
         <v>-3515.0499999999997</v>
       </c>
       <c r="J23" s="17">
-        <f>[6]Main!$C$12*F43</f>
+        <f>[6]Main!$C$12*F45</f>
         <v>21882.649181323799</v>
       </c>
       <c r="K23" s="5" t="str">
@@ -2554,34 +2569,37 @@
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="29">
-        <f>'[6]Financial Model'!$AE$20*F43</f>
-        <v>11294.64</v>
-      </c>
-      <c r="U23" s="29">
-        <f>'[6]Financial Model'!$AD$20*F43</f>
-        <v>4703.6099999999997</v>
-      </c>
-      <c r="V23" s="29">
-        <f>'[6]Financial Model'!$AC$20*F43</f>
-        <v>1482.3799999999999</v>
-      </c>
-      <c r="W23" s="24"/>
+      <c r="T23" s="25">
+        <f>'[6]Financial Model'!$AE$20*F45</f>
+        <v>-1118.01</v>
+      </c>
+      <c r="U23" s="25">
+        <f>'[6]Financial Model'!$AD$20*F45</f>
+        <v>6030.78</v>
+      </c>
+      <c r="V23" s="25">
+        <f>'[6]Financial Model'!$AC$20*F45</f>
+        <v>1431.75</v>
+      </c>
+      <c r="W23" s="25">
+        <f>'[6]Financial Model'!$AC$20*G45</f>
+        <v>2078.3132530120483</v>
+      </c>
       <c r="Y23" s="18">
         <f>'[6]Financial Model'!$U$27</f>
-        <v>0.72815126050420165</v>
+        <v>0.72890843662534988</v>
       </c>
       <c r="Z23" s="18">
         <f>'[6]Financial Model'!$U$28</f>
-        <v>0.23865546218487396</v>
+        <v>0.2646941223510596</v>
       </c>
       <c r="AA23" s="18">
         <f>'[6]Financial Model'!$U$29</f>
-        <v>-2.8991596638655463E-2</v>
+        <v>0.10555777688924431</v>
       </c>
       <c r="AB23" s="18">
         <f>'[6]Financial Model'!$U$30</f>
-        <v>0.29629629629629628</v>
+        <v>0.34792626728110598</v>
       </c>
       <c r="AD23" s="5">
         <f>[6]Main!$C$24</f>
@@ -2615,7 +2633,9 @@
       <c r="AH24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
@@ -2735,6 +2755,9 @@
       <c r="D36" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="AH36" s="5" t="s">
         <v>84</v>
       </c>
@@ -2759,42 +2782,81 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="E42" s="26" t="s">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G40" s="19">
+        <v>416.24</v>
+      </c>
+      <c r="H40" s="17">
+        <f>G40*F40</f>
+        <v>482.83839999999998</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>2007</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>2021</v>
+      </c>
+      <c r="AF40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI40" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="E44" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="9" t="s">
+      <c r="F44" s="27"/>
+      <c r="G44" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="E43" s="10" t="s">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="E45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F45" s="11">
         <v>0.83</v>
       </c>
-      <c r="G43" s="12">
-        <f>1/F43</f>
+      <c r="G45" s="12">
+        <f>1/F45</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="E44" s="13" t="s">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="E46" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F46" s="14">
         <v>0.87</v>
       </c>
-      <c r="G44" s="15">
-        <f>1/F44</f>
+      <c r="G46" s="15">
+        <f>1/F46</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="S1:W1"/>
   </mergeCells>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F5142-8C2A-864F-9ABE-8BAE54FFD8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF2797-268F-3E47-839B-0F7AAEACBB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
   <si>
     <t>Ticker</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Online Auto Sales</t>
   </si>
   <si>
-    <t>E-Commerce, Logistics</t>
-  </si>
-  <si>
     <t>£TRST</t>
   </si>
   <si>
@@ -402,6 +399,51 @@
   </si>
   <si>
     <t>Copenhagen, Denmark</t>
+  </si>
+  <si>
+    <t>E-Commerce, Logistics, Cloud</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>$SPOT</t>
+  </si>
+  <si>
+    <t>$NFLX</t>
+  </si>
+  <si>
+    <t>Spotify Technology S.A.</t>
+  </si>
+  <si>
+    <t>Netflix, Inc.</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>SaaS Streaming</t>
+  </si>
+  <si>
+    <t>Computacenter Plc</t>
+  </si>
+  <si>
+    <t>Idox Plc</t>
+  </si>
+  <si>
+    <t>Softcat Plc</t>
+  </si>
+  <si>
+    <t>£IDOX</t>
+  </si>
+  <si>
+    <t>£CCC</t>
+  </si>
+  <si>
+    <t>£SCT</t>
   </si>
 </sst>
 </file>
@@ -1671,13 +1713,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD41" sqref="AD41"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1850,24 +1892,24 @@
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[1]Main!$C$6*F45</f>
-        <v>159.1525</v>
+        <f>[1]Main!$C$6*F54</f>
+        <v>157.23499999999999</v>
       </c>
       <c r="G5" s="19">
         <f>[1]Main!$C$7</f>
         <v>68.916813000000005</v>
       </c>
       <c r="H5" s="17">
-        <f>[1]Main!$C$8*F45</f>
-        <v>10968.283080982501</v>
+        <f>[1]Main!$C$8*F54</f>
+        <v>10836.135092054999</v>
       </c>
       <c r="I5" s="17">
-        <f>[1]Main!$C$11*F45</f>
-        <v>538.24670000000003</v>
+        <f>[1]Main!$C$11*F54</f>
+        <v>531.76179999999999</v>
       </c>
       <c r="J5" s="17">
-        <f>[1]Main!$C$12*F45</f>
-        <v>10430.036380982501</v>
+        <f>[1]Main!$C$12*F54</f>
+        <v>10304.373292055001</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>[1]Main!$C$28</f>
@@ -1891,12 +1933,12 @@
       <c r="R5" s="8"/>
       <c r="S5" s="22"/>
       <c r="T5" s="24">
-        <f>'[1]Financial Model'!$AH$21*F45</f>
-        <v>-254.69877999999997</v>
+        <f>'[1]Financial Model'!$AH$21*F54</f>
+        <v>-251.63011999999998</v>
       </c>
       <c r="U5" s="24">
-        <f>'[1]Financial Model'!$AG$15*F45</f>
-        <v>-173.72231999999997</v>
+        <f>'[1]Financial Model'!$AG$15*F54</f>
+        <v>-171.62927999999997</v>
       </c>
       <c r="V5" s="24"/>
       <c r="W5" s="24"/>
@@ -1949,24 +1991,24 @@
         <v>17</v>
       </c>
       <c r="F6" s="16">
-        <f>[2]Main!$C$6*F45</f>
-        <v>3.3365999999999993</v>
+        <f>[2]Main!$C$6*F54</f>
+        <v>3.2963999999999993</v>
       </c>
       <c r="G6" s="17">
         <f>[2]Main!$C$7</f>
         <v>58.801357000000003</v>
       </c>
       <c r="H6" s="17">
-        <f>[2]Main!$C$8*F45</f>
-        <v>196.19660776619997</v>
+        <f>[2]Main!$C$8*F54</f>
+        <v>193.83279321479998</v>
       </c>
       <c r="I6" s="17">
-        <f>[2]Main!$C$11*F45</f>
-        <v>13.289129999999998</v>
+        <f>[2]Main!$C$11*F54</f>
+        <v>13.129019999999999</v>
       </c>
       <c r="J6" s="17">
-        <f>[2]Main!$C$12*F45</f>
-        <v>182.90747776619997</v>
+        <f>[2]Main!$C$12*F54</f>
+        <v>180.70377321479998</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>[2]Main!$C$28</f>
@@ -2054,24 +2096,24 @@
         <v>17</v>
       </c>
       <c r="F8" s="16">
-        <f>[3]Main!$C$6*$F$45</f>
-        <v>40.686599999999999</v>
+        <f>[3]Main!$C$6*$F$54</f>
+        <v>40.196399999999997</v>
       </c>
       <c r="G8" s="17">
         <f>[3]Main!$C$7</f>
         <v>183.692564</v>
       </c>
       <c r="H8" s="17">
-        <f>[3]Main!$C$8*$F$45</f>
-        <v>7473.8258744424002</v>
+        <f>[3]Main!$C$8*$F$54</f>
+        <v>7383.7797795695997</v>
       </c>
       <c r="I8" s="17">
-        <f>[3]Main!$C$11*F45</f>
-        <v>2653.2759399999995</v>
+        <f>[3]Main!$C$11*F54</f>
+        <v>2621.3087599999999</v>
       </c>
       <c r="J8" s="17">
-        <f>[3]Main!$C$12*F45</f>
-        <v>4820.5499344424006</v>
+        <f>[3]Main!$C$12*F54</f>
+        <v>4762.4710195695998</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>[3]Main!$C$28</f>
@@ -2104,20 +2146,20 @@
       <c r="R8" s="8"/>
       <c r="S8" s="22"/>
       <c r="T8" s="24">
-        <f>'[3]Financial Model'!$AB$17*$F$45</f>
-        <v>-788.41700000000003</v>
+        <f>'[3]Financial Model'!$AB$17*$F$54</f>
+        <v>-778.91800000000001</v>
       </c>
       <c r="U8" s="24">
-        <f>'[3]Financial Model'!$AA$17*$F$45</f>
-        <v>-407.51256999999981</v>
+        <f>'[3]Financial Model'!$AA$17*$F$54</f>
+        <v>-402.60277999999983</v>
       </c>
       <c r="V8" s="24">
-        <f>'[3]Financial Model'!$Z$17*$F$45</f>
-        <v>-254.86228999999994</v>
+        <f>'[3]Financial Model'!$Z$17*$F$54</f>
+        <v>-251.79165999999992</v>
       </c>
       <c r="W8" s="24">
-        <f>'[3]Financial Model'!$Y$17*F45</f>
-        <v>-101.21767</v>
+        <f>'[3]Financial Model'!$Y$17*F54</f>
+        <v>-99.998180000000005</v>
       </c>
       <c r="Y8" s="18">
         <f>'[3]Financial Model'!$U$24</f>
@@ -2444,24 +2486,24 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <f>[5]Main!$C$6*F45</f>
-        <v>21.712799999999998</v>
+        <f>[5]Main!$C$6*F54</f>
+        <v>21.4512</v>
       </c>
       <c r="G21" s="17">
         <f>[5]Main!$C$7</f>
         <v>597.779</v>
       </c>
       <c r="H21" s="17">
-        <f>[5]Main!$C$8*F45</f>
-        <v>12979.455871199998</v>
+        <f>[5]Main!$C$8*F54</f>
+        <v>12823.076884799999</v>
       </c>
       <c r="I21" s="17">
-        <f>[5]Main!$C$11*F45</f>
-        <v>1687.26052</v>
+        <f>[5]Main!$C$11*F54</f>
+        <v>1666.93208</v>
       </c>
       <c r="J21" s="17">
-        <f>[5]Main!$C$12*F45</f>
-        <v>11292.1953512</v>
+        <f>[5]Main!$C$12*F54</f>
+        <v>11156.1448048</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>[5]Main!$G$11</f>
@@ -2520,24 +2562,24 @@
         <v>17</v>
       </c>
       <c r="F23" s="16">
-        <f>[6]Main!$C$6*F45</f>
-        <v>33.8474</v>
+        <f>[6]Main!$C$6*F54</f>
+        <v>33.439599999999999</v>
       </c>
       <c r="G23" s="19">
         <f>[6]Main!$C$7</f>
         <v>542.659087</v>
       </c>
       <c r="H23" s="17">
-        <f>[6]Main!$C$8*F45</f>
-        <v>18367.5991813238</v>
+        <f>[6]Main!$C$8*F54</f>
+        <v>18146.302805645199</v>
       </c>
       <c r="I23" s="17">
-        <f>[6]Main!$C$11*F45</f>
-        <v>-3515.0499999999997</v>
+        <f>[6]Main!$C$11*F54</f>
+        <v>-3472.7</v>
       </c>
       <c r="J23" s="17">
-        <f>[6]Main!$C$12*F45</f>
-        <v>21882.649181323799</v>
+        <f>[6]Main!$C$12*F54</f>
+        <v>21619.002805645199</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>[6]Main!$C$28</f>
@@ -2570,20 +2612,20 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="25">
-        <f>'[6]Financial Model'!$AE$20*F45</f>
-        <v>-1118.01</v>
+        <f>'[6]Financial Model'!$AE$20*F54</f>
+        <v>-1104.54</v>
       </c>
       <c r="U23" s="25">
-        <f>'[6]Financial Model'!$AD$20*F45</f>
-        <v>6030.78</v>
+        <f>'[6]Financial Model'!$AD$20*F54</f>
+        <v>5958.12</v>
       </c>
       <c r="V23" s="25">
-        <f>'[6]Financial Model'!$AC$20*F45</f>
-        <v>1431.75</v>
+        <f>'[6]Financial Model'!$AC$20*F54</f>
+        <v>1414.5</v>
       </c>
       <c r="W23" s="25">
-        <f>'[6]Financial Model'!$AC$20*G45</f>
-        <v>2078.3132530120483</v>
+        <f>'[6]Financial Model'!$AC$20*G54</f>
+        <v>2103.6585365853657</v>
       </c>
       <c r="Y23" s="18">
         <f>'[6]Financial Model'!$U$27</f>
@@ -2634,7 +2676,7 @@
         <v>84</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.15">
@@ -2758,6 +2800,9 @@
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="Q36" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="AH36" s="5" t="s">
         <v>84</v>
       </c>
@@ -2784,10 +2829,10 @@
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>31</v>
@@ -2812,51 +2857,163 @@
         <v>2021</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="G41" s="19"/>
+      <c r="H41" s="17"/>
+      <c r="AI41" s="5"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="G42" s="19"/>
+      <c r="H42" s="17"/>
+      <c r="AI42" s="5"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="16">
+        <f>332.82*F54</f>
+        <v>272.91239999999999</v>
+      </c>
+      <c r="G43" s="19">
+        <v>445.02</v>
+      </c>
+      <c r="H43" s="17">
+        <f>G43*F43</f>
+        <v>121451.47624799999</v>
+      </c>
+      <c r="AH43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI43" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="E44" s="26" t="s">
+      <c r="B44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="16">
+        <f>92.06*F54</f>
+        <v>75.489199999999997</v>
+      </c>
+      <c r="G44" s="19">
+        <v>193.13</v>
+      </c>
+      <c r="H44" s="17">
+        <f>G44*F44</f>
+        <v>14579.229195999998</v>
+      </c>
+      <c r="AH44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI44" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="G45" s="19"/>
+      <c r="H45" s="17"/>
+      <c r="AI45" s="5"/>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="17"/>
+      <c r="AI46" s="5"/>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="17"/>
+      <c r="AI47" s="5"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="17"/>
+      <c r="AI48" s="5"/>
+    </row>
+    <row r="49" spans="5:35" x14ac:dyDescent="0.15">
+      <c r="G49" s="19"/>
+      <c r="H49" s="17"/>
+      <c r="AI49" s="5"/>
+    </row>
+    <row r="53" spans="5:35" x14ac:dyDescent="0.15">
+      <c r="E53" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="9" t="s">
+      <c r="F53" s="27"/>
+      <c r="G53" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="E45" s="10" t="s">
+    <row r="54" spans="5:35" x14ac:dyDescent="0.15">
+      <c r="E54" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="G45" s="12">
-        <f>1/F45</f>
-        <v>1.2048192771084338</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="E46" s="13" t="s">
+      <c r="F54" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="G54" s="12">
+        <f>1/F54</f>
+        <v>1.2195121951219512</v>
+      </c>
+    </row>
+    <row r="55" spans="5:35" x14ac:dyDescent="0.15">
+      <c r="E55" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F55" s="14">
         <v>0.87</v>
       </c>
-      <c r="G46" s="15">
-        <f>1/F46</f>
+      <c r="G55" s="15">
+        <f>1/F55</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="S1:W1"/>
   </mergeCells>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF2797-268F-3E47-839B-0F7AAEACBB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706CD44-6DB1-4617-BCE7-B295F814A13A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -30,22 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>Ticker</t>
   </si>
@@ -444,6 +434,21 @@
   </si>
   <si>
     <t>£SCT</t>
+  </si>
+  <si>
+    <t>£BOOM</t>
+  </si>
+  <si>
+    <t>Audioboom Group Plc.</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>Saas Streaming</t>
+  </si>
+  <si>
+    <t>Podcasts</t>
   </si>
 </sst>
 </file>
@@ -1702,9 +1707,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1713,38 +1718,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AI55"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="5"/>
-    <col min="6" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="5"/>
-    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="9.5" style="5" customWidth="1"/>
-    <col min="20" max="23" width="9.5" style="23" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="1"/>
-    <col min="25" max="28" width="9.1640625" style="5"/>
-    <col min="29" max="29" width="9.1640625" style="1"/>
-    <col min="30" max="31" width="9.1640625" style="5"/>
-    <col min="32" max="32" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.1640625" style="1"/>
-    <col min="34" max="34" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="9.42578125" style="5" customWidth="1"/>
+    <col min="20" max="23" width="9.42578125" style="23" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="28" width="9.140625" style="5"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="30" max="31" width="9.140625" style="5"/>
+    <col min="32" max="32" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
+    <col min="34" max="34" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="28" t="s">
         <v>29</v>
       </c>
@@ -1761,7 +1768,7 @@
       <c r="W1" s="28"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1856,7 +1863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -1867,7 +1874,7 @@
       <c r="W3" s="24"/>
       <c r="AI3" s="5"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -1878,7 +1885,7 @@
       <c r="W4" s="24"/>
       <c r="AI4" s="5"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[1]Main!$C$6*F54</f>
+        <f>[1]Main!$C$6*F55</f>
         <v>157.23499999999999</v>
       </c>
       <c r="G5" s="19">
@@ -1900,15 +1907,15 @@
         <v>68.916813000000005</v>
       </c>
       <c r="H5" s="17">
-        <f>[1]Main!$C$8*F54</f>
+        <f>[1]Main!$C$8*F55</f>
         <v>10836.135092054999</v>
       </c>
       <c r="I5" s="17">
-        <f>[1]Main!$C$11*F54</f>
+        <f>[1]Main!$C$11*F55</f>
         <v>531.76179999999999</v>
       </c>
       <c r="J5" s="17">
-        <f>[1]Main!$C$12*F54</f>
+        <f>[1]Main!$C$12*F55</f>
         <v>10304.373292055001</v>
       </c>
       <c r="K5" s="5" t="str">
@@ -1933,11 +1940,11 @@
       <c r="R5" s="8"/>
       <c r="S5" s="22"/>
       <c r="T5" s="24">
-        <f>'[1]Financial Model'!$AH$21*F54</f>
+        <f>'[1]Financial Model'!$AH$21*F55</f>
         <v>-251.63011999999998</v>
       </c>
       <c r="U5" s="24">
-        <f>'[1]Financial Model'!$AG$15*F54</f>
+        <f>'[1]Financial Model'!$AG$15*F55</f>
         <v>-171.62927999999997</v>
       </c>
       <c r="V5" s="24"/>
@@ -1977,7 +1984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
@@ -1991,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="16">
-        <f>[2]Main!$C$6*F54</f>
+        <f>[2]Main!$C$6*F55</f>
         <v>3.2963999999999993</v>
       </c>
       <c r="G6" s="17">
@@ -1999,15 +2006,15 @@
         <v>58.801357000000003</v>
       </c>
       <c r="H6" s="17">
-        <f>[2]Main!$C$8*F54</f>
+        <f>[2]Main!$C$8*F55</f>
         <v>193.83279321479998</v>
       </c>
       <c r="I6" s="17">
-        <f>[2]Main!$C$11*F54</f>
+        <f>[2]Main!$C$11*F55</f>
         <v>13.129019999999999</v>
       </c>
       <c r="J6" s="17">
-        <f>[2]Main!$C$12*F54</f>
+        <f>[2]Main!$C$12*F55</f>
         <v>180.70377321479998</v>
       </c>
       <c r="K6" s="5" t="str">
@@ -2067,7 +2074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="F7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2082,7 +2089,7 @@
       <c r="W7" s="24"/>
       <c r="AI7" s="5"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2096,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="16">
-        <f>[3]Main!$C$6*$F$54</f>
+        <f>[3]Main!$C$6*$F$55</f>
         <v>40.196399999999997</v>
       </c>
       <c r="G8" s="17">
@@ -2104,15 +2111,15 @@
         <v>183.692564</v>
       </c>
       <c r="H8" s="17">
-        <f>[3]Main!$C$8*$F$54</f>
+        <f>[3]Main!$C$8*$F$55</f>
         <v>7383.7797795695997</v>
       </c>
       <c r="I8" s="17">
-        <f>[3]Main!$C$11*F54</f>
+        <f>[3]Main!$C$11*F55</f>
         <v>2621.3087599999999</v>
       </c>
       <c r="J8" s="17">
-        <f>[3]Main!$C$12*F54</f>
+        <f>[3]Main!$C$12*F55</f>
         <v>4762.4710195695998</v>
       </c>
       <c r="K8" s="5" t="str">
@@ -2146,19 +2153,19 @@
       <c r="R8" s="8"/>
       <c r="S8" s="22"/>
       <c r="T8" s="24">
-        <f>'[3]Financial Model'!$AB$17*$F$54</f>
+        <f>'[3]Financial Model'!$AB$17*$F$55</f>
         <v>-778.91800000000001</v>
       </c>
       <c r="U8" s="24">
-        <f>'[3]Financial Model'!$AA$17*$F$54</f>
+        <f>'[3]Financial Model'!$AA$17*$F$55</f>
         <v>-402.60277999999983</v>
       </c>
       <c r="V8" s="24">
-        <f>'[3]Financial Model'!$Z$17*$F$54</f>
+        <f>'[3]Financial Model'!$Z$17*$F$55</f>
         <v>-251.79165999999992</v>
       </c>
       <c r="W8" s="24">
-        <f>'[3]Financial Model'!$Y$17*F54</f>
+        <f>'[3]Financial Model'!$Y$17*F55</f>
         <v>-99.998180000000005</v>
       </c>
       <c r="Y8" s="18">
@@ -2196,7 +2203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -2221,7 +2228,7 @@
       <c r="AB9" s="18"/>
       <c r="AI9" s="5"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2247,7 +2254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2269,7 +2276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2386,12 +2393,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="F13" s="16"/>
       <c r="AI13" s="5"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2438,7 +2445,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2455,7 +2462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,7 +2479,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
@@ -2486,7 +2493,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <f>[5]Main!$C$6*F54</f>
+        <f>[5]Main!$C$6*F55</f>
         <v>21.4512</v>
       </c>
       <c r="G21" s="17">
@@ -2494,15 +2501,15 @@
         <v>597.779</v>
       </c>
       <c r="H21" s="17">
-        <f>[5]Main!$C$8*F54</f>
+        <f>[5]Main!$C$8*F55</f>
         <v>12823.076884799999</v>
       </c>
       <c r="I21" s="17">
-        <f>[5]Main!$C$11*F54</f>
+        <f>[5]Main!$C$11*F55</f>
         <v>1666.93208</v>
       </c>
       <c r="J21" s="17">
-        <f>[5]Main!$C$12*F54</f>
+        <f>[5]Main!$C$12*F55</f>
         <v>11156.1448048</v>
       </c>
       <c r="K21" s="5" t="str">
@@ -2548,7 +2555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -2562,7 +2569,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="16">
-        <f>[6]Main!$C$6*F54</f>
+        <f>[6]Main!$C$6*F55</f>
         <v>33.439599999999999</v>
       </c>
       <c r="G23" s="19">
@@ -2570,15 +2577,15 @@
         <v>542.659087</v>
       </c>
       <c r="H23" s="17">
-        <f>[6]Main!$C$8*F54</f>
+        <f>[6]Main!$C$8*F55</f>
         <v>18146.302805645199</v>
       </c>
       <c r="I23" s="17">
-        <f>[6]Main!$C$11*F54</f>
+        <f>[6]Main!$C$11*F55</f>
         <v>-3472.7</v>
       </c>
       <c r="J23" s="17">
-        <f>[6]Main!$C$12*F54</f>
+        <f>[6]Main!$C$12*F55</f>
         <v>21619.002805645199</v>
       </c>
       <c r="K23" s="5" t="str">
@@ -2612,19 +2619,19 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="25">
-        <f>'[6]Financial Model'!$AE$20*F54</f>
+        <f>'[6]Financial Model'!$AE$20*F55</f>
         <v>-1104.54</v>
       </c>
       <c r="U23" s="25">
-        <f>'[6]Financial Model'!$AD$20*F54</f>
+        <f>'[6]Financial Model'!$AD$20*F55</f>
         <v>5958.12</v>
       </c>
       <c r="V23" s="25">
-        <f>'[6]Financial Model'!$AC$20*F54</f>
+        <f>'[6]Financial Model'!$AC$20*F55</f>
         <v>1414.5</v>
       </c>
       <c r="W23" s="25">
-        <f>'[6]Financial Model'!$AC$20*G54</f>
+        <f>'[6]Financial Model'!$AC$20*G55</f>
         <v>2103.6585365853657</v>
       </c>
       <c r="Y23" s="18">
@@ -2662,7 +2669,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2679,7 +2686,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2697,7 +2704,7 @@
       </c>
       <c r="AI25" s="5"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
@@ -2715,7 +2722,7 @@
       </c>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -2730,7 +2737,7 @@
       </c>
       <c r="AI27" s="5"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2742,7 +2749,7 @@
       </c>
       <c r="AI28" s="5"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2759,7 +2766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2773,7 +2780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
@@ -2787,7 +2794,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
@@ -2810,7 +2817,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -2827,7 +2834,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
@@ -2866,17 +2873,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="AI41" s="5"/>
     </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
       <c r="G42" s="19"/>
       <c r="H42" s="17"/>
       <c r="AI42" s="5"/>
     </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
@@ -2890,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="F43" s="16">
-        <f>332.82*F54</f>
+        <f>332.82*F55</f>
         <v>272.91239999999999</v>
       </c>
       <c r="G43" s="19">
@@ -2907,7 +2914,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
@@ -2917,8 +2924,11 @@
       <c r="D44" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="E44" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F44" s="16">
-        <f>92.06*F54</f>
+        <f>92.06*F55</f>
         <v>75.489199999999997</v>
       </c>
       <c r="G44" s="19">
@@ -2935,85 +2945,115 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="G45" s="19"/>
-      <c r="H45" s="17"/>
-      <c r="AI45" s="5"/>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>128</v>
-      </c>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="16">
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="G45" s="19">
+        <v>16.3</v>
+      </c>
+      <c r="H45" s="17">
+        <f>G45*F45</f>
+        <v>65.118500000000012</v>
+      </c>
+      <c r="AH45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI45" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
       <c r="AI46" s="5"/>
     </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
       <c r="AI47" s="5"/>
     </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
       <c r="AI48" s="5"/>
     </row>
-    <row r="49" spans="5:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="AI49" s="5"/>
     </row>
-    <row r="53" spans="5:35" x14ac:dyDescent="0.15">
-      <c r="E53" s="26" t="s">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="G50" s="19"/>
+      <c r="H50" s="17"/>
+      <c r="AI50" s="5"/>
+    </row>
+    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="E54" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="9" t="s">
+      <c r="F54" s="27"/>
+      <c r="G54" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="5:35" x14ac:dyDescent="0.15">
-      <c r="E54" s="10" t="s">
+    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="E55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>0.82</v>
       </c>
-      <c r="G54" s="12">
-        <f>1/F54</f>
+      <c r="G55" s="12">
+        <f>1/F55</f>
         <v>1.2195121951219512</v>
       </c>
     </row>
-    <row r="55" spans="5:35" x14ac:dyDescent="0.15">
-      <c r="E55" s="13" t="s">
+    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="E56" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F56" s="14">
         <v>0.87</v>
       </c>
-      <c r="G55" s="15">
-        <f>1/F55</f>
+      <c r="G56" s="15">
+        <f>1/F56</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="S1:W1"/>
   </mergeCells>
@@ -3041,21 +3081,21 @@
       <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.1640625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3088,7 +3128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3114,11 +3154,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706CD44-6DB1-4617-BCE7-B295F814A13A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8AAF17-B0ED-4547-8E0D-D0531AE59932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="142">
   <si>
     <t>Ticker</t>
   </si>
@@ -449,6 +450,18 @@
   </si>
   <si>
     <t>Podcasts</t>
+  </si>
+  <si>
+    <t>Amazon.com, Inc.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
@@ -460,7 +473,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,8 +523,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +577,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -737,6 +769,27 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -962,7 +1015,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>49.02</v>
+            <v>59.4</v>
           </cell>
         </row>
         <row r="7">
@@ -972,7 +1025,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>9004.6094872800004</v>
+            <v>10911.338301600001</v>
           </cell>
         </row>
         <row r="11">
@@ -982,7 +1035,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>5807.8914872800005</v>
+            <v>7714.6203016000009</v>
           </cell>
         </row>
         <row r="23">
@@ -1010,27 +1063,27 @@
         </row>
         <row r="33">
           <cell r="C33">
-            <v>0.85506649460900186</v>
+            <v>1.0361270864907119</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>2.4707454311946444</v>
+            <v>2.9939265322921638</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>1.5936084043780052</v>
+            <v>2.1167895054755248</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-6.7618910307413636</v>
+            <v>-8.1937235256229481</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-4.4061966235825452</v>
+            <v>-5.8527494874135044</v>
           </cell>
         </row>
       </sheetData>
@@ -1069,8 +1122,18 @@
             <v>-7.4778536471246807E-3</v>
           </cell>
         </row>
+        <row r="29">
+          <cell r="AP29">
+            <v>53.068343281910693</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AP31">
+            <v>-0.10659354744258087</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1195,6 +1258,16 @@
         <row r="20">
           <cell r="V20">
             <v>0.24629080118694363</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AH22">
+            <v>6.3308923646501336</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AH24">
+            <v>-0.14975928489791379</v>
           </cell>
         </row>
       </sheetData>
@@ -1215,7 +1288,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>26.16</v>
+            <v>35.53</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -1231,7 +1304,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>15637.898639999999</v>
+            <v>21239.087869999999</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -1244,15 +1317,32 @@
           <cell r="G11" t="str">
             <v>Q322</v>
           </cell>
-          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>13605.05464</v>
+            <v>19206.243869999998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>50.022345852017764</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>11.06674559095781</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="18">
+          <cell r="V18">
+            <v>-260.81599999999992</v>
+          </cell>
+          <cell r="W18">
+            <v>-503.48999999999995</v>
+          </cell>
+        </row>
         <row r="22">
           <cell r="M22">
             <v>0.75577498469211346</v>
@@ -1396,6 +1486,52 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>33.43</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>296.01300300000003</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>9895.7146902900004</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-525.80999999999995</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>10421.52469029</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>Q122</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1718,13 +1854,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AI56"/>
+  <dimension ref="A1:AL56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42:E42"/>
+      <selection pane="bottomRight" activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1738,20 +1874,22 @@
     <col min="9" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="9.42578125" style="5" customWidth="1"/>
-    <col min="20" max="23" width="9.42578125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="1"/>
-    <col min="25" max="28" width="9.140625" style="5"/>
-    <col min="29" max="29" width="9.140625" style="1"/>
-    <col min="30" max="31" width="9.140625" style="5"/>
-    <col min="32" max="32" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="1"/>
-    <col min="34" max="34" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.42578125" style="30" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="31" customWidth="1"/>
+    <col min="15" max="22" width="9.42578125" style="5" customWidth="1"/>
+    <col min="23" max="26" width="9.42578125" style="23" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="1"/>
+    <col min="28" max="31" width="9.140625" style="5"/>
+    <col min="32" max="32" width="9.140625" style="1"/>
+    <col min="33" max="34" width="9.140625" style="5"/>
+    <col min="35" max="35" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="1"/>
+    <col min="37" max="37" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="28" t="s">
         <v>29</v>
       </c>
@@ -1759,16 +1897,16 @@
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
       <c r="W1" s="28"/>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="5"/>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1803,89 +1941,96 @@
       <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="V3" s="22"/>
       <c r="W3" s="24"/>
-      <c r="AI3" s="5"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="F4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="V4" s="22"/>
       <c r="W4" s="24"/>
-      <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1926,65 +2071,67 @@
         <f>[1]Main!$D$28</f>
         <v>44901</v>
       </c>
-      <c r="M5" s="21">
+      <c r="N5" s="34"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="21">
         <f>[1]Main!$C$33</f>
         <v>19.311919490429393</v>
       </c>
-      <c r="N5" s="21">
+      <c r="Q5" s="21">
         <f>[1]Main!$C$34</f>
         <v>11.112137929461445</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="24">
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="24">
         <f>'[1]Financial Model'!$AH$21*F55</f>
         <v>-251.63011999999998</v>
       </c>
-      <c r="U5" s="24">
+      <c r="X5" s="24">
         <f>'[1]Financial Model'!$AG$15*F55</f>
         <v>-171.62927999999997</v>
       </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="Y5" s="18">
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AB5" s="18">
         <f>'[1]Financial Model'!$X$29</f>
         <v>0.70928999538958049</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AC5" s="18">
         <f>'[1]Financial Model'!$X$30</f>
         <v>-0.37819600869393383</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AD5" s="18">
         <f>'[1]Financial Model'!$X$31</f>
         <v>-0.39144108542448774</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AE5" s="18">
         <f>'[1]Financial Model'!$X$32</f>
         <v>-2.6326241624645998E-2</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AG5" s="5">
         <f>[1]Main!$C24</f>
         <v>2007</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AH5" s="5">
         <f>[1]Main!$C$25</f>
         <v>2017</v>
       </c>
-      <c r="AF5" s="5" t="str">
+      <c r="AI5" s="5" t="str">
         <f>[1]Main!$C$23</f>
         <v>New York City, NY</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
@@ -2025,71 +2172,73 @@
         <f>[2]Main!$D$28</f>
         <v>42705</v>
       </c>
-      <c r="M6" s="21">
+      <c r="N6" s="34"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="21">
         <f>[2]Main!$C$34</f>
         <v>26.782399177430296</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="24"/>
-      <c r="Y6" s="18">
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AB6" s="18">
         <f>'[2]Financial Model'!$J$28</f>
         <v>0.68957308000457829</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AC6" s="18">
         <f>'[2]Financial Model'!$J$29</f>
         <v>-1.1077257639922169</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AD6" s="18">
         <f>'[2]Financial Model'!$J$30</f>
         <v>-1.1136774636602953</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AE6" s="18">
         <f>'[2]Financial Model'!$J$31</f>
         <v>-1.6676961087090797E-3</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AG6" s="5">
         <f>[2]Main!$C$24</f>
         <v>2010</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AH6" s="5">
         <f>[2]Main!$C$25</f>
         <v>2022</v>
       </c>
-      <c r="AF6" s="5" t="str">
+      <c r="AI6" s="5" t="str">
         <f>[2]Main!$C$23</f>
         <v>Redwood City, CA</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AK6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AI6" s="5" t="s">
+      <c r="AL6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="F7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="V7" s="22"/>
       <c r="W7" s="24"/>
-      <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2104,7 +2253,7 @@
       </c>
       <c r="F8" s="16">
         <f>[3]Main!$C$6*$F$55</f>
-        <v>40.196399999999997</v>
+        <v>48.707999999999998</v>
       </c>
       <c r="G8" s="17">
         <f>[3]Main!$C$7</f>
@@ -2112,7 +2261,7 @@
       </c>
       <c r="H8" s="17">
         <f>[3]Main!$C$8*$F$55</f>
-        <v>7383.7797795695997</v>
+        <v>8947.2974073120004</v>
       </c>
       <c r="I8" s="17">
         <f>[3]Main!$C$11*F55</f>
@@ -2120,7 +2269,7 @@
       </c>
       <c r="J8" s="17">
         <f>[3]Main!$C$12*F55</f>
-        <v>4762.4710195695998</v>
+        <v>6325.9886473120005</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>[3]Main!$C$28</f>
@@ -2130,80 +2279,89 @@
         <f>[3]Main!$D$28</f>
         <v>37926</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="30">
+        <f>'[3]Financial Model'!$AP$29*F55</f>
+        <v>43.516041491166767</v>
+      </c>
+      <c r="N8" s="35">
+        <f>'[3]Financial Model'!$AP$31</f>
+        <v>-0.10659354744258087</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="21">
         <f>[3]Main!$C$33</f>
-        <v>0.85506649460900186</v>
-      </c>
-      <c r="N8" s="21">
+        <v>1.0361270864907119</v>
+      </c>
+      <c r="Q8" s="21">
         <f>[3]Main!$C$34</f>
-        <v>2.4707454311946444</v>
-      </c>
-      <c r="O8" s="21">
+        <v>2.9939265322921638</v>
+      </c>
+      <c r="R8" s="21">
         <f>[3]Main!$C$35</f>
-        <v>1.5936084043780052</v>
-      </c>
-      <c r="P8" s="21">
+        <v>2.1167895054755248</v>
+      </c>
+      <c r="S8" s="21">
         <f>[3]Main!$C$36</f>
-        <v>-6.7618910307413636</v>
-      </c>
-      <c r="Q8" s="21">
+        <v>-8.1937235256229481</v>
+      </c>
+      <c r="T8" s="21">
         <f>[3]Main!$C$37</f>
-        <v>-4.4061966235825452</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="24">
+        <v>-5.8527494874135044</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="24">
         <f>'[3]Financial Model'!$AB$17*$F$55</f>
         <v>-778.91800000000001</v>
       </c>
-      <c r="U8" s="24">
+      <c r="X8" s="24">
         <f>'[3]Financial Model'!$AA$17*$F$55</f>
         <v>-402.60277999999983</v>
       </c>
-      <c r="V8" s="24">
+      <c r="Y8" s="24">
         <f>'[3]Financial Model'!$Z$17*$F$55</f>
         <v>-251.79165999999992</v>
       </c>
-      <c r="W8" s="24">
+      <c r="Z8" s="24">
         <f>'[3]Financial Model'!$Y$17*F55</f>
         <v>-99.998180000000005</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="AB8" s="18">
         <f>'[3]Financial Model'!$U$24</f>
         <v>0.47005177868427206</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="AC8" s="18">
         <f>'[3]Financial Model'!$U$25</f>
         <v>-0.46488611741249003</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AD8" s="18">
         <f>'[3]Financial Model'!$U$26</f>
         <v>-0.49065338799426272</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AE8" s="18">
         <f>'[3]Financial Model'!$U$27</f>
         <v>-7.4778536471246807E-3</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AG8" s="5">
         <f>[3]Main!$C$24</f>
         <v>2008</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AH8" s="5">
         <f>[3]Main!$C$25</f>
         <v>2016</v>
       </c>
-      <c r="AF8" s="5" t="str">
+      <c r="AI8" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AH8" s="5" t="s">
+      <c r="AK8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="AL8" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -2211,24 +2369,26 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="24"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
       <c r="AB9" s="18"/>
-      <c r="AI9" s="5"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2238,23 +2398,23 @@
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="24"/>
-      <c r="AH10" s="5" t="s">
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AK10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AI10" s="5" t="s">
+      <c r="AL10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2264,19 +2424,19 @@
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="24"/>
-      <c r="AH11" s="5" t="s">
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AK11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AI11" s="5" t="s">
+      <c r="AL11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2317,88 +2477,97 @@
         <f>[4]Main!$D$27</f>
         <v>44881</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="30">
+        <f>'[4]Financial Model'!$AH$22</f>
+        <v>6.3308923646501336</v>
+      </c>
+      <c r="N12" s="35">
+        <f>'[4]Financial Model'!$AH$24</f>
+        <v>-0.14975928489791379</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21">
         <f>[4]Main!$C$34</f>
         <v>5.5155555555555553</v>
       </c>
-      <c r="N12" s="21">
+      <c r="Q12" s="21">
         <f>[4]Main!$C$33</f>
         <v>3.9008320493066257</v>
       </c>
-      <c r="O12" s="21">
+      <c r="R12" s="21">
         <f>[4]Main!$C$35</f>
         <v>4.2752542372881353</v>
       </c>
-      <c r="P12" s="21">
+      <c r="S12" s="21">
         <f>[4]Main!$C$32</f>
         <v>29.901259842519682</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="T12" s="21">
         <f>[4]Main!$C$36</f>
         <v>32.771338582677167</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="24">
+      <c r="U12" s="20"/>
+      <c r="V12" s="24">
         <f>'[4]Financial Model'!$V$13</f>
         <v>254</v>
       </c>
-      <c r="T12" s="24">
+      <c r="W12" s="24">
         <f>'[4]Financial Model'!$U$13</f>
         <v>285</v>
       </c>
-      <c r="U12" s="24">
+      <c r="X12" s="24">
         <f>'[4]Financial Model'!$T$13</f>
         <v>310</v>
       </c>
-      <c r="V12" s="24">
+      <c r="Y12" s="24">
         <f>'[4]Financial Model'!$S$13</f>
         <v>266</v>
       </c>
-      <c r="W12" s="24">
+      <c r="Z12" s="24">
         <f>'[4]Financial Model'!$R$13</f>
         <v>295</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="AB12" s="18">
         <f>'[4]Financial Model'!$V$17</f>
         <v>0.92912172573189522</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="AC12" s="18">
         <f>'[4]Financial Model'!$V$18</f>
         <v>0.18849512069851052</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AD12" s="18">
         <f>'[4]Financial Model'!$V$19</f>
         <v>0.13045711350796096</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AE12" s="18">
         <f>'[4]Financial Model'!$V$20</f>
         <v>0.24629080118694363</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AG12" s="5">
         <f>[4]Main!$C$24</f>
         <v>1981</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AH12" s="5">
         <f>[4]Main!$C$25</f>
         <v>1989</v>
       </c>
-      <c r="AF12" s="5" t="str">
+      <c r="AI12" s="5" t="str">
         <f>[4]Main!$C$23</f>
         <v>Newcastle, UK</v>
       </c>
-      <c r="AH12" s="5" t="s">
+      <c r="AK12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AI12" s="5" t="s">
+      <c r="AL12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="F13" s="16"/>
-      <c r="AI13" s="5"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
@@ -2411,24 +2580,24 @@
       <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AG14" s="5">
         <v>2002</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AH14" s="5">
         <v>2015</v>
       </c>
-      <c r="AF14" s="5" t="str">
+      <c r="AI14" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AH14" s="5" t="s">
+      <c r="AK14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AI14" s="5" t="s">
+      <c r="AL14" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2438,14 +2607,14 @@
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH16" s="5" t="s">
+      <c r="AK16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI16" s="5" t="s">
+      <c r="AL16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2455,36 +2624,117 @@
       <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH17" s="5" t="s">
+      <c r="AK17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AI17" s="5" t="s">
+      <c r="AL17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>56</v>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH20" s="5" t="s">
+      <c r="F20" s="17">
+        <f>[5]Main!$C$6*F55</f>
+        <v>29.134599999999999</v>
+      </c>
+      <c r="G20" s="17">
+        <f>[5]Main!$C$7</f>
+        <v>597.779</v>
+      </c>
+      <c r="H20" s="17">
+        <f>[5]Main!$C$8*F55</f>
+        <v>17416.052053399999</v>
+      </c>
+      <c r="I20" s="17">
+        <f>[5]Main!$C$11*F55</f>
+        <v>1666.93208</v>
+      </c>
+      <c r="J20" s="17">
+        <f>[5]Main!$C$12*F55</f>
+        <v>15749.119973399998</v>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f>[5]Main!$G$11</f>
+        <v>Q322</v>
+      </c>
+      <c r="L20" s="5">
+        <f>[5]Main!$H$11</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="21">
+        <f>[5]Main!$G$16</f>
+        <v>50.022345852017764</v>
+      </c>
+      <c r="Q20" s="21">
+        <f>[5]Main!$G$17</f>
+        <v>11.06674559095781</v>
+      </c>
+      <c r="W20" s="25">
+        <f>'[5]Financial Model'!$W$18*F55</f>
+        <v>-412.86179999999996</v>
+      </c>
+      <c r="X20" s="25">
+        <f>'[5]Financial Model'!$V$18*F55</f>
+        <v>-213.86911999999992</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB20" s="18">
+        <f>'[5]Financial Model'!$M$22</f>
+        <v>0.75577498469211346</v>
+      </c>
+      <c r="AC20" s="18">
+        <f>'[5]Financial Model'!$M$23</f>
+        <v>-0.5794918747476856</v>
+      </c>
+      <c r="AD20" s="18">
+        <f>'[5]Financial Model'!$M$24</f>
+        <v>-0.5831522463478378</v>
+      </c>
+      <c r="AE20" s="18">
+        <f>'[5]Financial Model'!$M$25</f>
+        <v>-1.1673022715967497E-3</v>
+      </c>
+      <c r="AG20" s="5">
+        <f>[5]Main!$G$8</f>
+        <v>2004</v>
+      </c>
+      <c r="AH20" s="5">
+        <f>[5]Main!$G$7</f>
+        <v>2021</v>
+      </c>
+      <c r="AI20" s="5" t="str">
+        <f>[5]Main!$G$6</f>
+        <v>San Mateo, CA</v>
+      </c>
+      <c r="AK20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL20" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>30</v>
@@ -2493,69 +2743,41 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <f>[5]Main!$C$6*F55</f>
-        <v>21.4512</v>
+        <f>[7]Main!$C$6*F55</f>
+        <v>27.412599999999998</v>
       </c>
       <c r="G21" s="17">
-        <f>[5]Main!$C$7</f>
-        <v>597.779</v>
+        <f>[7]Main!$C$7</f>
+        <v>296.01300300000003</v>
       </c>
       <c r="H21" s="17">
-        <f>[5]Main!$C$8*F55</f>
-        <v>12823.076884799999</v>
-      </c>
-      <c r="I21" s="17">
-        <f>[5]Main!$C$11*F55</f>
-        <v>1666.93208</v>
+        <f>[7]Main!$C$8*F55</f>
+        <v>8114.4860460377995</v>
+      </c>
+      <c r="I21" s="19">
+        <f>[7]Main!$C$11*F55</f>
+        <v>-431.16419999999994</v>
       </c>
       <c r="J21" s="17">
-        <f>[5]Main!$C$12*F55</f>
-        <v>11156.1448048</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f>[5]Main!$G$11</f>
-        <v>Q322</v>
-      </c>
-      <c r="L21" s="5">
-        <f>[5]Main!$H$11</f>
+        <f>[7]Main!$C$12*F55</f>
+        <v>8545.6502460377997</v>
+      </c>
+      <c r="K21" s="29" t="str">
+        <f>[7]Main!$C$26</f>
+        <v>Q122</v>
+      </c>
+      <c r="L21" s="29">
+        <f>[7]Main!$D$26</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="18">
-        <f>'[5]Financial Model'!$M$22</f>
-        <v>0.75577498469211346</v>
-      </c>
-      <c r="Z21" s="18">
-        <f>'[5]Financial Model'!$M$23</f>
-        <v>-0.5794918747476856</v>
-      </c>
-      <c r="AA21" s="18">
-        <f>'[5]Financial Model'!$M$24</f>
-        <v>-0.5831522463478378</v>
-      </c>
-      <c r="AB21" s="18">
-        <f>'[5]Financial Model'!$M$25</f>
-        <v>-1.1673022715967497E-3</v>
-      </c>
-      <c r="AD21" s="5">
-        <f>[5]Main!$G$8</f>
-        <v>2004</v>
-      </c>
-      <c r="AE21" s="5">
-        <f>[5]Main!$G$7</f>
-        <v>2021</v>
-      </c>
-      <c r="AF21" s="5" t="str">
-        <f>[5]Main!$G$6</f>
-        <v>San Mateo, CA</v>
-      </c>
-      <c r="AH21" s="5" t="s">
+      <c r="AK21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -2596,97 +2818,102 @@
         <f>[6]Main!$D$28</f>
         <v>37561</v>
       </c>
-      <c r="M23" s="21">
+      <c r="N23" s="34"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="21">
         <f>[6]Main!$C$33</f>
         <v>4.5599912565134968</v>
       </c>
-      <c r="N23" s="21">
+      <c r="Q23" s="21">
         <f>[6]Main!$C$34</f>
         <v>2.235768596469994</v>
       </c>
-      <c r="O23" s="21">
+      <c r="R23" s="21">
         <f>[6]Main!$C$35</f>
         <v>2.663632811462922</v>
       </c>
-      <c r="P23" s="21">
+      <c r="S23" s="21">
         <f>[6]Main!$C$36</f>
         <v>-347.03384754378123</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="T23" s="21">
         <f>[6]Main!$C$37</f>
         <v>941.59419885214288</v>
       </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="25">
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="25">
         <f>'[6]Financial Model'!$AE$20*F55</f>
         <v>-1104.54</v>
       </c>
-      <c r="U23" s="25">
+      <c r="X23" s="25">
         <f>'[6]Financial Model'!$AD$20*F55</f>
         <v>5958.12</v>
       </c>
-      <c r="V23" s="25">
+      <c r="Y23" s="25">
         <f>'[6]Financial Model'!$AC$20*F55</f>
         <v>1414.5</v>
       </c>
-      <c r="W23" s="25">
+      <c r="Z23" s="25">
         <f>'[6]Financial Model'!$AC$20*G55</f>
         <v>2103.6585365853657</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="AB23" s="18">
         <f>'[6]Financial Model'!$U$27</f>
         <v>0.72890843662534988</v>
       </c>
-      <c r="Z23" s="18">
+      <c r="AC23" s="18">
         <f>'[6]Financial Model'!$U$28</f>
         <v>0.2646941223510596</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AD23" s="18">
         <f>'[6]Financial Model'!$U$29</f>
         <v>0.10555777688924431</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AE23" s="18">
         <f>'[6]Financial Model'!$U$30</f>
         <v>0.34792626728110598</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AG23" s="5">
         <f>[6]Main!$C$24</f>
         <v>1995</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AH23" s="5">
         <f>[6]Main!$C$25</f>
         <v>1998</v>
       </c>
-      <c r="AF23" s="5" t="str">
+      <c r="AI23" s="5" t="str">
         <f>[6]Main!$C$23</f>
         <v>San Jose, CA</v>
       </c>
-      <c r="AH23" s="5" t="s">
+      <c r="AK23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI23" s="5" t="s">
+      <c r="AL23" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C24" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH24" s="5" t="s">
+      <c r="AK24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI24" s="5" t="s">
+      <c r="AL24" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2699,12 +2926,12 @@
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH25" s="5" t="s">
+      <c r="AK25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
@@ -2717,12 +2944,12 @@
       <c r="E26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH26" s="5" t="s">
+      <c r="AK26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -2732,12 +2959,12 @@
       <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AH27" s="5" t="s">
+      <c r="AK27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2747,9 +2974,9 @@
       <c r="D28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI28" s="5"/>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2762,11 +2989,11 @@
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AH31" s="5" t="s">
+      <c r="AK31" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2776,25 +3003,25 @@
       <c r="E32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH32" s="5" t="s">
+      <c r="AK32" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AH35" s="5" t="s">
+      <c r="AK35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI35" s="5" t="s">
+      <c r="AL35" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
@@ -2807,17 +3034,17 @@
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="T36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AH36" s="5" t="s">
+      <c r="AK36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI36" s="5" t="s">
+      <c r="AL36" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -2827,14 +3054,14 @@
       <c r="D37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AH37" s="5" t="s">
+      <c r="AK37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI37" s="5" t="s">
+      <c r="AL37" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
@@ -2857,33 +3084,33 @@
         <f>G40*F40</f>
         <v>482.83839999999998</v>
       </c>
-      <c r="AD40" s="5">
+      <c r="AG40" s="5">
         <v>2007</v>
       </c>
-      <c r="AE40" s="5">
+      <c r="AH40" s="5">
         <v>2021</v>
       </c>
-      <c r="AF40" s="5" t="s">
+      <c r="AI40" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AH40" s="5" t="s">
+      <c r="AK40" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AI40" s="5" t="s">
+      <c r="AL40" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
-      <c r="AI41" s="5"/>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL41" s="5"/>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G42" s="19"/>
       <c r="H42" s="17"/>
-      <c r="AI42" s="5"/>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
@@ -2907,14 +3134,14 @@
         <f>G43*F43</f>
         <v>121451.47624799999</v>
       </c>
-      <c r="AH43" s="5" t="s">
+      <c r="AK43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AI43" s="5" t="s">
+      <c r="AL43" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
@@ -2938,14 +3165,14 @@
         <f>G44*F44</f>
         <v>14579.229195999998</v>
       </c>
-      <c r="AH44" s="5" t="s">
+      <c r="AK44" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AI44" s="5" t="s">
+      <c r="AL44" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>133</v>
       </c>
@@ -2968,19 +3195,19 @@
         <f>G45*F45</f>
         <v>65.118500000000012</v>
       </c>
-      <c r="AH45" s="5" t="s">
+      <c r="AK45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AI45" s="5" t="s">
+      <c r="AL45" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
-      <c r="AI46" s="5"/>
-    </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL46" s="5"/>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>130</v>
       </c>
@@ -2989,9 +3216,9 @@
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
-      <c r="AI47" s="5"/>
-    </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL47" s="5"/>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>131</v>
       </c>
@@ -3000,9 +3227,9 @@
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
-      <c r="AI48" s="5"/>
-    </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL48" s="5"/>
+    </row>
+    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
@@ -3011,14 +3238,14 @@
       </c>
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
-      <c r="AI49" s="5"/>
-    </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL49" s="5"/>
+    </row>
+    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
-      <c r="AI50" s="5"/>
-    </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AL50" s="5"/>
+    </row>
+    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
       <c r="E54" s="26" t="s">
         <v>25</v>
       </c>
@@ -3027,7 +3254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
       <c r="E55" s="10" t="s">
         <v>27</v>
       </c>
@@ -3039,7 +3266,7 @@
         <v>1.2195121951219512</v>
       </c>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
       <c r="E56" s="13" t="s">
         <v>28</v>
       </c>
@@ -3055,18 +3282,19 @@
   <mergeCells count="3">
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{3A7AD427-356A-4438-8466-A299ED0C08D2}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{1CE3F47D-3D30-470A-966F-AA684282F9ED}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{6DFD8629-A4A2-4A11-B5F1-5FDD02B4DC40}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{3673F69E-DE49-452E-9A7F-9067CB704A93}"/>
     <hyperlink ref="B23" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
+    <hyperlink ref="B21" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8AAF17-B0ED-4547-8E0D-D0531AE59932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C6D6B0-F6CF-40C5-9D0A-C47D4FCBD04E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -760,15 +760,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,6 +779,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,9 +887,17 @@
             <v>-306.86599999999999</v>
           </cell>
         </row>
+        <row r="27">
+          <cell r="AU27">
+            <v>178.03749057058687</v>
+          </cell>
+        </row>
         <row r="29">
           <cell r="X29">
             <v>0.70928999538958049</v>
+          </cell>
+          <cell r="AU29">
+            <v>-7.1512435094722937E-2</v>
           </cell>
         </row>
         <row r="30">
@@ -1133,7 +1141,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1317,6 +1325,7 @@
           <cell r="G11" t="str">
             <v>Q322</v>
           </cell>
+          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="C12">
@@ -1381,111 +1390,37 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>40.78</v>
+            <v>33.43</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>542.659087</v>
+            <v>296.01300300000003</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>22129.637567860002</v>
+            <v>9895.7146902900004</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-4235</v>
+            <v>-525.80999999999995</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>26364.637567860002</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>San Jose, CA</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>1995</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>1998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Q322</v>
-          </cell>
-          <cell r="D28">
-            <v>37561</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>4.5599912565134968</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>2.235768596469994</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>2.663632811462922</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>-347.03384754378123</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>941.59419885214288</v>
-          </cell>
+            <v>10421.52469029</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>Q122</v>
+          </cell>
+          <cell r="D26"/>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="20">
-          <cell r="AC20">
-            <v>1725</v>
-          </cell>
-          <cell r="AD20">
-            <v>7266</v>
-          </cell>
-          <cell r="AE20">
-            <v>-1347</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="U27">
-            <v>0.72890843662534988</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="U28">
-            <v>0.2646941223510596</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="U29">
-            <v>0.10555777688924431</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="U30">
-            <v>0.34792626728110598</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1502,36 +1437,111 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>33.43</v>
+            <v>40.78</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>296.01300300000003</v>
+            <v>542.659087</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>9895.7146902900004</v>
+            <v>22129.637567860002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-525.80999999999995</v>
+            <v>-4235</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>10421.52469029</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>Q122</v>
+            <v>26364.637567860002</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>San Jose, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1995</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1998</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q322</v>
+          </cell>
+          <cell r="D28">
+            <v>37561</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>4.5599912565134968</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>2.235768596469994</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>2.663632811462922</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>-347.03384754378123</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>941.59419885214288</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="20">
+          <cell r="AC20">
+            <v>1725</v>
+          </cell>
+          <cell r="AD20">
+            <v>7266</v>
+          </cell>
+          <cell r="AE20">
+            <v>-1347</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="U27">
+            <v>0.72890843662534988</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="U28">
+            <v>0.2646941223510596</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="U29">
+            <v>0.10555777688924431</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="U30">
+            <v>0.34792626728110598</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1860,7 +1870,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V27" sqref="V27"/>
+      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1874,8 +1884,8 @@
     <col min="9" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="30" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="28" customWidth="1"/>
     <col min="15" max="22" width="9.42578125" style="5" customWidth="1"/>
     <col min="23" max="26" width="9.42578125" style="23" customWidth="1"/>
     <col min="27" max="27" width="9.140625" style="1"/>
@@ -1890,20 +1900,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="V1" s="28" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="V1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
       <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1941,10 +1951,10 @@
       <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="30" t="s">
         <v>141</v>
       </c>
       <c r="O2" s="4"/>
@@ -2071,7 +2081,14 @@
         <f>[1]Main!$D$28</f>
         <v>44901</v>
       </c>
-      <c r="N5" s="34"/>
+      <c r="M5" s="27">
+        <f>'[1]Financial Model'!$AU$27</f>
+        <v>178.03749057058687</v>
+      </c>
+      <c r="N5" s="32">
+        <f>'[1]Financial Model'!$AU$29</f>
+        <v>-7.1512435094722937E-2</v>
+      </c>
       <c r="O5" s="8"/>
       <c r="P5" s="21">
         <f>[1]Main!$C$33</f>
@@ -2172,7 +2189,7 @@
         <f>[2]Main!$D$28</f>
         <v>42705</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="8"/>
       <c r="P6" s="21">
         <f>[2]Main!$C$34</f>
@@ -2279,11 +2296,11 @@
         <f>[3]Main!$D$28</f>
         <v>37926</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="27">
         <f>'[3]Financial Model'!$AP$29*F55</f>
         <v>43.516041491166767</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="32">
         <f>'[3]Financial Model'!$AP$31</f>
         <v>-0.10659354744258087</v>
       </c>
@@ -2369,7 +2386,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="L9" s="8"/>
-      <c r="N9" s="34"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="21"/>
@@ -2477,11 +2494,11 @@
         <f>[4]Main!$D$27</f>
         <v>44881</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="27">
         <f>'[4]Financial Model'!$AH$22</f>
         <v>6.3308923646501336</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="32">
         <f>'[4]Financial Model'!$AH$24</f>
         <v>-0.14975928489791379</v>
       </c>
@@ -2743,31 +2760,31 @@
         <v>17</v>
       </c>
       <c r="F21" s="17">
-        <f>[7]Main!$C$6*F55</f>
+        <f>[6]Main!$C$6*F55</f>
         <v>27.412599999999998</v>
       </c>
       <c r="G21" s="17">
-        <f>[7]Main!$C$7</f>
+        <f>[6]Main!$C$7</f>
         <v>296.01300300000003</v>
       </c>
       <c r="H21" s="17">
-        <f>[7]Main!$C$8*F55</f>
+        <f>[6]Main!$C$8*F55</f>
         <v>8114.4860460377995</v>
       </c>
       <c r="I21" s="19">
-        <f>[7]Main!$C$11*F55</f>
+        <f>[6]Main!$C$11*F55</f>
         <v>-431.16419999999994</v>
       </c>
       <c r="J21" s="17">
-        <f>[7]Main!$C$12*F55</f>
+        <f>[6]Main!$C$12*F55</f>
         <v>8545.6502460377997</v>
       </c>
-      <c r="K21" s="29" t="str">
-        <f>[7]Main!$C$26</f>
+      <c r="K21" s="26" t="str">
+        <f>[6]Main!$C$26</f>
         <v>Q122</v>
       </c>
-      <c r="L21" s="29">
-        <f>[7]Main!$D$26</f>
+      <c r="L21" s="26">
+        <f>[6]Main!$D$26</f>
         <v>0</v>
       </c>
       <c r="AK21" s="5" t="s">
@@ -2791,99 +2808,99 @@
         <v>17</v>
       </c>
       <c r="F23" s="16">
-        <f>[6]Main!$C$6*F55</f>
+        <f>[7]Main!$C$6*F55</f>
         <v>33.439599999999999</v>
       </c>
       <c r="G23" s="19">
-        <f>[6]Main!$C$7</f>
+        <f>[7]Main!$C$7</f>
         <v>542.659087</v>
       </c>
       <c r="H23" s="17">
-        <f>[6]Main!$C$8*F55</f>
+        <f>[7]Main!$C$8*F55</f>
         <v>18146.302805645199</v>
       </c>
       <c r="I23" s="17">
-        <f>[6]Main!$C$11*F55</f>
+        <f>[7]Main!$C$11*F55</f>
         <v>-3472.7</v>
       </c>
       <c r="J23" s="17">
-        <f>[6]Main!$C$12*F55</f>
+        <f>[7]Main!$C$12*F55</f>
         <v>21619.002805645199</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f>[6]Main!$C$28</f>
+        <f>[7]Main!$C$28</f>
         <v>Q322</v>
       </c>
       <c r="L23" s="8">
-        <f>[6]Main!$D$28</f>
+        <f>[7]Main!$D$28</f>
         <v>37561</v>
       </c>
-      <c r="N23" s="34"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="8"/>
       <c r="P23" s="21">
-        <f>[6]Main!$C$33</f>
+        <f>[7]Main!$C$33</f>
         <v>4.5599912565134968</v>
       </c>
       <c r="Q23" s="21">
-        <f>[6]Main!$C$34</f>
+        <f>[7]Main!$C$34</f>
         <v>2.235768596469994</v>
       </c>
       <c r="R23" s="21">
-        <f>[6]Main!$C$35</f>
+        <f>[7]Main!$C$35</f>
         <v>2.663632811462922</v>
       </c>
       <c r="S23" s="21">
-        <f>[6]Main!$C$36</f>
+        <f>[7]Main!$C$36</f>
         <v>-347.03384754378123</v>
       </c>
       <c r="T23" s="21">
-        <f>[6]Main!$C$37</f>
+        <f>[7]Main!$C$37</f>
         <v>941.59419885214288</v>
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="25">
-        <f>'[6]Financial Model'!$AE$20*F55</f>
+        <f>'[7]Financial Model'!$AE$20*F55</f>
         <v>-1104.54</v>
       </c>
       <c r="X23" s="25">
-        <f>'[6]Financial Model'!$AD$20*F55</f>
+        <f>'[7]Financial Model'!$AD$20*F55</f>
         <v>5958.12</v>
       </c>
       <c r="Y23" s="25">
-        <f>'[6]Financial Model'!$AC$20*F55</f>
+        <f>'[7]Financial Model'!$AC$20*F55</f>
         <v>1414.5</v>
       </c>
       <c r="Z23" s="25">
-        <f>'[6]Financial Model'!$AC$20*G55</f>
+        <f>'[7]Financial Model'!$AC$20*G55</f>
         <v>2103.6585365853657</v>
       </c>
       <c r="AB23" s="18">
-        <f>'[6]Financial Model'!$U$27</f>
+        <f>'[7]Financial Model'!$U$27</f>
         <v>0.72890843662534988</v>
       </c>
       <c r="AC23" s="18">
-        <f>'[6]Financial Model'!$U$28</f>
+        <f>'[7]Financial Model'!$U$28</f>
         <v>0.2646941223510596</v>
       </c>
       <c r="AD23" s="18">
-        <f>'[6]Financial Model'!$U$29</f>
+        <f>'[7]Financial Model'!$U$29</f>
         <v>0.10555777688924431</v>
       </c>
       <c r="AE23" s="18">
-        <f>'[6]Financial Model'!$U$30</f>
+        <f>'[7]Financial Model'!$U$30</f>
         <v>0.34792626728110598</v>
       </c>
       <c r="AG23" s="5">
-        <f>[6]Main!$C$24</f>
+        <f>[7]Main!$C$24</f>
         <v>1995</v>
       </c>
       <c r="AH23" s="5">
-        <f>[6]Main!$C$25</f>
+        <f>[7]Main!$C$25</f>
         <v>1998</v>
       </c>
       <c r="AI23" s="5" t="str">
-        <f>[6]Main!$C$23</f>
+        <f>[7]Main!$C$23</f>
         <v>San Jose, CA</v>
       </c>
       <c r="AK23" s="5" t="s">
@@ -3246,10 +3263,10 @@
       <c r="AL50" s="5"/>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="27"/>
+      <c r="F54" s="34"/>
       <c r="G54" s="9" t="s">
         <v>26</v>
       </c>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C6D6B0-F6CF-40C5-9D0A-C47D4FCBD04E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421092B2-79E3-1540-A4B0-57119970D5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1853,9 +1863,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1870,36 +1880,36 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="28" customWidth="1"/>
-    <col min="15" max="22" width="9.42578125" style="5" customWidth="1"/>
-    <col min="23" max="26" width="9.42578125" style="23" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="1"/>
-    <col min="28" max="31" width="9.140625" style="5"/>
-    <col min="32" max="32" width="9.140625" style="1"/>
-    <col min="33" max="34" width="9.140625" style="5"/>
-    <col min="35" max="35" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.1640625" style="5"/>
+    <col min="6" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="27" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="28" customWidth="1"/>
+    <col min="15" max="22" width="9.5" style="5" customWidth="1"/>
+    <col min="23" max="26" width="9.5" style="23" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" style="1"/>
+    <col min="28" max="31" width="9.1640625" style="5"/>
+    <col min="32" max="32" width="9.1640625" style="1"/>
+    <col min="33" max="34" width="9.1640625" style="5"/>
+    <col min="35" max="35" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.1640625" style="1"/>
+    <col min="37" max="37" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F1" s="35" t="s">
         <v>29</v>
       </c>
@@ -1916,7 +1926,7 @@
       <c r="Z1" s="35"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2018,7 +2028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2029,7 +2039,7 @@
       <c r="Z3" s="24"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="F4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2040,7 +2050,7 @@
       <c r="Z4" s="24"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
@@ -2082,8 +2092,8 @@
         <v>44901</v>
       </c>
       <c r="M5" s="27">
-        <f>'[1]Financial Model'!$AU$27</f>
-        <v>178.03749057058687</v>
+        <f>'[1]Financial Model'!$AU$27*F55</f>
+        <v>145.99074226788122</v>
       </c>
       <c r="N5" s="32">
         <f>'[1]Financial Model'!$AU$29</f>
@@ -2148,7 +2158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
@@ -2240,7 +2250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="F7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2255,7 +2265,7 @@
       <c r="Z7" s="24"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -2405,7 +2415,7 @@
       <c r="AE9" s="18"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2453,7 +2463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2579,12 +2589,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="F13" s="16"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
@@ -2614,7 +2624,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2631,7 +2641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2648,7 +2658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
         <v>56</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -2910,7 +2920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2930,7 +2940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2948,7 +2958,7 @@
       </c>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
@@ -2966,7 +2976,7 @@
       </c>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -2981,7 +2991,7 @@
       </c>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2993,7 +3003,7 @@
       </c>
       <c r="AL28" s="5"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
@@ -3010,7 +3020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -3024,7 +3034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
@@ -3038,7 +3048,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3061,7 +3071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
@@ -3117,17 +3127,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.15">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.15">
       <c r="G42" s="19"/>
       <c r="H42" s="17"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
@@ -3158,7 +3168,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
@@ -3189,7 +3199,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3219,12 +3229,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.15">
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
       <c r="AL46" s="5"/>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>130</v>
       </c>
@@ -3235,7 +3245,7 @@
       <c r="H47" s="17"/>
       <c r="AL47" s="5"/>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>131</v>
       </c>
@@ -3246,7 +3256,7 @@
       <c r="H48" s="17"/>
       <c r="AL48" s="5"/>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
@@ -3257,12 +3267,12 @@
       <c r="H49" s="17"/>
       <c r="AL49" s="5"/>
     </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:38" x14ac:dyDescent="0.15">
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
       <c r="AL50" s="5"/>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.15">
       <c r="E54" s="33" t="s">
         <v>25</v>
       </c>
@@ -3271,7 +3281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.15">
       <c r="E55" s="10" t="s">
         <v>27</v>
       </c>
@@ -3283,7 +3293,7 @@
         <v>1.2195121951219512</v>
       </c>
     </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.15">
       <c r="E56" s="13" t="s">
         <v>28</v>
       </c>
@@ -3326,21 +3336,21 @@
       <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3373,7 +3383,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,11 +3409,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421092B2-79E3-1540-A4B0-57119970D5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB235A60-E14A-4476-BC13-CF09A35D7271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -30,16 +30,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1447,7 +1437,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>40.78</v>
+            <v>49.5</v>
           </cell>
         </row>
         <row r="7">
@@ -1457,7 +1447,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>22129.637567860002</v>
+            <v>26861.6248065</v>
           </cell>
         </row>
         <row r="11">
@@ -1467,7 +1457,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>26364.637567860002</v>
+            <v>31096.6248065</v>
           </cell>
         </row>
         <row r="23">
@@ -1495,27 +1485,27 @@
         </row>
         <row r="33">
           <cell r="C33">
-            <v>4.5599912565134968</v>
+            <v>5.5350555958170204</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>2.235768596469994</v>
+            <v>2.7138436862497475</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>2.663632811462922</v>
+            <v>3.1417079012426754</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-347.03384754378123</v>
+            <v>-421.2402023888468</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>941.59419885214288</v>
+            <v>1110.5937430892857</v>
           </cell>
         </row>
       </sheetData>
@@ -1545,10 +1535,18 @@
           <cell r="U29">
             <v>0.10555777688924431</v>
           </cell>
+          <cell r="AW29">
+            <v>57.281112716189718</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="U30">
             <v>0.34792626728110598</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AW31">
+            <v>0.15719419628666098</v>
           </cell>
         </row>
       </sheetData>
@@ -1863,9 +1861,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,36 +1878,36 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="5"/>
-    <col min="6" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="5"/>
-    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="27" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="28" customWidth="1"/>
-    <col min="15" max="22" width="9.5" style="5" customWidth="1"/>
-    <col min="23" max="26" width="9.5" style="23" customWidth="1"/>
-    <col min="27" max="27" width="9.1640625" style="1"/>
-    <col min="28" max="31" width="9.1640625" style="5"/>
-    <col min="32" max="32" width="9.1640625" style="1"/>
-    <col min="33" max="34" width="9.1640625" style="5"/>
-    <col min="35" max="35" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.1640625" style="1"/>
-    <col min="37" max="37" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="28" customWidth="1"/>
+    <col min="15" max="22" width="9.42578125" style="5" customWidth="1"/>
+    <col min="23" max="26" width="9.42578125" style="23" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="1"/>
+    <col min="28" max="31" width="9.140625" style="5"/>
+    <col min="32" max="32" width="9.140625" style="1"/>
+    <col min="33" max="34" width="9.140625" style="5"/>
+    <col min="35" max="35" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="1"/>
+    <col min="37" max="37" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="35" t="s">
         <v>29</v>
       </c>
@@ -1926,7 +1924,7 @@
       <c r="Z1" s="35"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2028,7 +2026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2039,7 +2037,7 @@
       <c r="Z3" s="24"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="F4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2050,7 +2048,7 @@
       <c r="Z4" s="24"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
@@ -2065,7 +2063,7 @@
       </c>
       <c r="F5" s="16">
         <f>[1]Main!$C$6*F55</f>
-        <v>157.23499999999999</v>
+        <v>155.31750000000002</v>
       </c>
       <c r="G5" s="19">
         <f>[1]Main!$C$7</f>
@@ -2073,15 +2071,15 @@
       </c>
       <c r="H5" s="17">
         <f>[1]Main!$C$8*F55</f>
-        <v>10836.135092054999</v>
+        <v>10703.987103127502</v>
       </c>
       <c r="I5" s="17">
         <f>[1]Main!$C$11*F55</f>
-        <v>531.76179999999999</v>
+        <v>525.27690000000007</v>
       </c>
       <c r="J5" s="17">
         <f>[1]Main!$C$12*F55</f>
-        <v>10304.373292055001</v>
+        <v>10178.710203127501</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>[1]Main!$C$28</f>
@@ -2093,7 +2091,7 @@
       </c>
       <c r="M5" s="27">
         <f>'[1]Financial Model'!$AU$27*F55</f>
-        <v>145.99074226788122</v>
+        <v>144.21036736217536</v>
       </c>
       <c r="N5" s="32">
         <f>'[1]Financial Model'!$AU$29</f>
@@ -2115,11 +2113,11 @@
       <c r="V5" s="22"/>
       <c r="W5" s="24">
         <f>'[1]Financial Model'!$AH$21*F55</f>
-        <v>-251.63011999999998</v>
+        <v>-248.56146000000001</v>
       </c>
       <c r="X5" s="24">
         <f>'[1]Financial Model'!$AG$15*F55</f>
-        <v>-171.62927999999997</v>
+        <v>-169.53623999999999</v>
       </c>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
@@ -2158,7 +2156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>80</v>
       </c>
@@ -2173,7 +2171,7 @@
       </c>
       <c r="F6" s="16">
         <f>[2]Main!$C$6*F55</f>
-        <v>3.2963999999999993</v>
+        <v>3.2561999999999998</v>
       </c>
       <c r="G6" s="17">
         <f>[2]Main!$C$7</f>
@@ -2181,15 +2179,15 @@
       </c>
       <c r="H6" s="17">
         <f>[2]Main!$C$8*F55</f>
-        <v>193.83279321479998</v>
+        <v>191.46897866340001</v>
       </c>
       <c r="I6" s="17">
         <f>[2]Main!$C$11*F55</f>
-        <v>13.129019999999999</v>
+        <v>12.968910000000001</v>
       </c>
       <c r="J6" s="17">
         <f>[2]Main!$C$12*F55</f>
-        <v>180.70377321479998</v>
+        <v>178.50006866340001</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>[2]Main!$C$28</f>
@@ -2250,7 +2248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="F7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2265,7 +2263,7 @@
       <c r="Z7" s="24"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2280,7 +2278,7 @@
       </c>
       <c r="F8" s="16">
         <f>[3]Main!$C$6*$F$55</f>
-        <v>48.707999999999998</v>
+        <v>48.114000000000004</v>
       </c>
       <c r="G8" s="17">
         <f>[3]Main!$C$7</f>
@@ -2288,15 +2286,15 @@
       </c>
       <c r="H8" s="17">
         <f>[3]Main!$C$8*$F$55</f>
-        <v>8947.2974073120004</v>
+        <v>8838.1840242960006</v>
       </c>
       <c r="I8" s="17">
         <f>[3]Main!$C$11*F55</f>
-        <v>2621.3087599999999</v>
+        <v>2589.3415800000002</v>
       </c>
       <c r="J8" s="17">
         <f>[3]Main!$C$12*F55</f>
-        <v>6325.9886473120005</v>
+        <v>6248.8424442960013</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>[3]Main!$C$28</f>
@@ -2308,7 +2306,7 @@
       </c>
       <c r="M8" s="27">
         <f>'[3]Financial Model'!$AP$29*F55</f>
-        <v>43.516041491166767</v>
+        <v>42.985358058347664</v>
       </c>
       <c r="N8" s="32">
         <f>'[3]Financial Model'!$AP$31</f>
@@ -2339,19 +2337,19 @@
       <c r="V8" s="22"/>
       <c r="W8" s="24">
         <f>'[3]Financial Model'!$AB$17*$F$55</f>
-        <v>-778.91800000000001</v>
+        <v>-769.4190000000001</v>
       </c>
       <c r="X8" s="24">
         <f>'[3]Financial Model'!$AA$17*$F$55</f>
-        <v>-402.60277999999983</v>
+        <v>-397.6929899999999</v>
       </c>
       <c r="Y8" s="24">
         <f>'[3]Financial Model'!$Z$17*$F$55</f>
-        <v>-251.79165999999992</v>
+        <v>-248.72102999999996</v>
       </c>
       <c r="Z8" s="24">
         <f>'[3]Financial Model'!$Y$17*F55</f>
-        <v>-99.998180000000005</v>
+        <v>-98.778690000000012</v>
       </c>
       <c r="AB8" s="18">
         <f>'[3]Financial Model'!$U$24</f>
@@ -2388,7 +2386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="F9" s="16"/>
       <c r="G9" s="17"/>
@@ -2415,7 +2413,7 @@
       <c r="AE9" s="18"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2441,7 +2439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2463,7 +2461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2589,12 +2587,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="F13" s="16"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
@@ -2624,7 +2622,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2641,7 +2639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2658,7 +2656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
@@ -2673,7 +2671,7 @@
       </c>
       <c r="F20" s="17">
         <f>[5]Main!$C$6*F55</f>
-        <v>29.134599999999999</v>
+        <v>28.779300000000003</v>
       </c>
       <c r="G20" s="17">
         <f>[5]Main!$C$7</f>
@@ -2681,15 +2679,15 @@
       </c>
       <c r="H20" s="17">
         <f>[5]Main!$C$8*F55</f>
-        <v>17416.052053399999</v>
+        <v>17203.661174700002</v>
       </c>
       <c r="I20" s="17">
         <f>[5]Main!$C$11*F55</f>
-        <v>1666.93208</v>
+        <v>1646.60364</v>
       </c>
       <c r="J20" s="17">
         <f>[5]Main!$C$12*F55</f>
-        <v>15749.119973399998</v>
+        <v>15557.057534699999</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>[5]Main!$G$11</f>
@@ -2709,11 +2707,11 @@
       </c>
       <c r="W20" s="25">
         <f>'[5]Financial Model'!$W$18*F55</f>
-        <v>-412.86179999999996</v>
+        <v>-407.82689999999997</v>
       </c>
       <c r="X20" s="25">
         <f>'[5]Financial Model'!$V$18*F55</f>
-        <v>-213.86911999999992</v>
+        <v>-211.26095999999995</v>
       </c>
       <c r="Y20" s="23" t="s">
         <v>139</v>
@@ -2756,7 +2754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>56</v>
       </c>
@@ -2771,7 +2769,7 @@
       </c>
       <c r="F21" s="17">
         <f>[6]Main!$C$6*F55</f>
-        <v>27.412599999999998</v>
+        <v>27.078300000000002</v>
       </c>
       <c r="G21" s="17">
         <f>[6]Main!$C$7</f>
@@ -2779,15 +2777,15 @@
       </c>
       <c r="H21" s="17">
         <f>[6]Main!$C$8*F55</f>
-        <v>8114.4860460377995</v>
+        <v>8015.5288991349007</v>
       </c>
       <c r="I21" s="19">
         <f>[6]Main!$C$11*F55</f>
-        <v>-431.16419999999994</v>
+        <v>-425.90609999999998</v>
       </c>
       <c r="J21" s="17">
         <f>[6]Main!$C$12*F55</f>
-        <v>8545.6502460377997</v>
+        <v>8441.4349991349009</v>
       </c>
       <c r="K21" s="26" t="str">
         <f>[6]Main!$C$26</f>
@@ -2804,7 +2802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -2819,7 +2817,7 @@
       </c>
       <c r="F23" s="16">
         <f>[7]Main!$C$6*F55</f>
-        <v>33.439599999999999</v>
+        <v>40.095000000000006</v>
       </c>
       <c r="G23" s="19">
         <f>[7]Main!$C$7</f>
@@ -2827,15 +2825,15 @@
       </c>
       <c r="H23" s="17">
         <f>[7]Main!$C$8*F55</f>
-        <v>18146.302805645199</v>
+        <v>21757.916093265001</v>
       </c>
       <c r="I23" s="17">
         <f>[7]Main!$C$11*F55</f>
-        <v>-3472.7</v>
+        <v>-3430.3500000000004</v>
       </c>
       <c r="J23" s="17">
         <f>[7]Main!$C$12*F55</f>
-        <v>21619.002805645199</v>
+        <v>25188.266093265003</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>[7]Main!$C$28</f>
@@ -2845,45 +2843,52 @@
         <f>[7]Main!$D$28</f>
         <v>37561</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="M23" s="27">
+        <f>'[7]Financial Model'!$AW$29*F55</f>
+        <v>46.397701300113674</v>
+      </c>
+      <c r="N23" s="32">
+        <f>'[7]Financial Model'!$AW$31</f>
+        <v>0.15719419628666098</v>
+      </c>
       <c r="O23" s="8"/>
       <c r="P23" s="21">
         <f>[7]Main!$C$33</f>
-        <v>4.5599912565134968</v>
+        <v>5.5350555958170204</v>
       </c>
       <c r="Q23" s="21">
         <f>[7]Main!$C$34</f>
-        <v>2.235768596469994</v>
+        <v>2.7138436862497475</v>
       </c>
       <c r="R23" s="21">
         <f>[7]Main!$C$35</f>
-        <v>2.663632811462922</v>
+        <v>3.1417079012426754</v>
       </c>
       <c r="S23" s="21">
         <f>[7]Main!$C$36</f>
-        <v>-347.03384754378123</v>
+        <v>-421.2402023888468</v>
       </c>
       <c r="T23" s="21">
         <f>[7]Main!$C$37</f>
-        <v>941.59419885214288</v>
+        <v>1110.5937430892857</v>
       </c>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="25">
         <f>'[7]Financial Model'!$AE$20*F55</f>
-        <v>-1104.54</v>
+        <v>-1091.0700000000002</v>
       </c>
       <c r="X23" s="25">
         <f>'[7]Financial Model'!$AD$20*F55</f>
-        <v>5958.12</v>
+        <v>5885.46</v>
       </c>
       <c r="Y23" s="25">
         <f>'[7]Financial Model'!$AC$20*F55</f>
-        <v>1414.5</v>
+        <v>1397.25</v>
       </c>
       <c r="Z23" s="25">
         <f>'[7]Financial Model'!$AC$20*G55</f>
-        <v>2103.6585365853657</v>
+        <v>2129.6296296296296</v>
       </c>
       <c r="AB23" s="18">
         <f>'[7]Financial Model'!$U$27</f>
@@ -2920,7 +2925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2940,7 +2945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2958,7 +2963,7 @@
       </c>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
@@ -2976,7 +2981,7 @@
       </c>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
@@ -2991,7 +2996,7 @@
       </c>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
@@ -3003,7 +3008,7 @@
       </c>
       <c r="AL28" s="5"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,7 +3025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3071,7 +3076,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3088,7 +3093,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
@@ -3127,17 +3132,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G42" s="19"/>
       <c r="H42" s="17"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
@@ -3152,14 +3157,14 @@
       </c>
       <c r="F43" s="16">
         <f>332.82*F55</f>
-        <v>272.91239999999999</v>
+        <v>269.58420000000001</v>
       </c>
       <c r="G43" s="19">
         <v>445.02</v>
       </c>
       <c r="H43" s="17">
         <f>G43*F43</f>
-        <v>121451.47624799999</v>
+        <v>119970.360684</v>
       </c>
       <c r="AK43" s="5" t="s">
         <v>126</v>
@@ -3168,7 +3173,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
@@ -3183,14 +3188,14 @@
       </c>
       <c r="F44" s="16">
         <f>92.06*F55</f>
-        <v>75.489199999999997</v>
+        <v>74.568600000000004</v>
       </c>
       <c r="G44" s="19">
         <v>193.13</v>
       </c>
       <c r="H44" s="17">
         <f>G44*F44</f>
-        <v>14579.229195999998</v>
+        <v>14401.433718</v>
       </c>
       <c r="AK44" s="5" t="s">
         <v>126</v>
@@ -3199,7 +3204,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3229,12 +3234,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
       <c r="AL46" s="5"/>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>130</v>
       </c>
@@ -3245,7 +3250,7 @@
       <c r="H47" s="17"/>
       <c r="AL47" s="5"/>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>131</v>
       </c>
@@ -3256,7 +3261,7 @@
       <c r="H48" s="17"/>
       <c r="AL48" s="5"/>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
@@ -3267,12 +3272,12 @@
       <c r="H49" s="17"/>
       <c r="AL49" s="5"/>
     </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
       <c r="AL50" s="5"/>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
       <c r="E54" s="33" t="s">
         <v>25</v>
       </c>
@@ -3281,19 +3286,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
       <c r="E55" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="11">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="G55" s="12">
         <f>1/F55</f>
-        <v>1.2195121951219512</v>
-      </c>
-    </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.15">
+        <v>1.2345679012345678</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
       <c r="E56" s="13" t="s">
         <v>28</v>
       </c>
@@ -3336,21 +3341,21 @@
       <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.1640625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3383,7 +3388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3409,11 +3414,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB235A60-E14A-4476-BC13-CF09A35D7271}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB35AC7D-B02C-4FDA-921A-EE6464BCF3A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
   <si>
     <t>Ticker</t>
   </si>
@@ -1296,7 +1296,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>35.53</v>
+            <v>37.21</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -1312,7 +1312,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>21239.087869999999</v>
+            <v>22243.356589999999</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -1325,21 +1325,20 @@
           <cell r="G11" t="str">
             <v>Q322</v>
           </cell>
-          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>19206.243869999998</v>
+            <v>20210.512589999998</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>50.022345852017764</v>
+            <v>52.387601721181568</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>11.06674559095781</v>
+            <v>11.590025427513091</v>
           </cell>
         </row>
       </sheetData>
@@ -1372,8 +1371,18 @@
             <v>-1.1673022715967497E-3</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="AP26">
+            <v>66.171403527895578</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AP28">
+            <v>0.77832312625357636</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1878,7 +1887,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2629,6 +2638,9 @@
       <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2646,6 +2658,9 @@
       <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
@@ -2671,7 +2686,7 @@
       </c>
       <c r="F20" s="17">
         <f>[5]Main!$C$6*F55</f>
-        <v>28.779300000000003</v>
+        <v>30.140100000000004</v>
       </c>
       <c r="G20" s="17">
         <f>[5]Main!$C$7</f>
@@ -2679,7 +2694,7 @@
       </c>
       <c r="H20" s="17">
         <f>[5]Main!$C$8*F55</f>
-        <v>17203.661174700002</v>
+        <v>18017.118837900001</v>
       </c>
       <c r="I20" s="17">
         <f>[5]Main!$C$11*F55</f>
@@ -2687,7 +2702,7 @@
       </c>
       <c r="J20" s="17">
         <f>[5]Main!$C$12*F55</f>
-        <v>15557.057534699999</v>
+        <v>16370.5151979</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>[5]Main!$G$11</f>
@@ -2697,13 +2712,21 @@
         <f>[5]Main!$H$11</f>
         <v>0</v>
       </c>
+      <c r="M20" s="27">
+        <f>'[5]Financial Model'!$AP$26*F55</f>
+        <v>53.598836857595423</v>
+      </c>
+      <c r="N20" s="32">
+        <f>'[5]Financial Model'!$AP$28</f>
+        <v>0.77832312625357636</v>
+      </c>
       <c r="P20" s="21">
         <f>[5]Main!$G$16</f>
-        <v>50.022345852017764</v>
+        <v>52.387601721181568</v>
       </c>
       <c r="Q20" s="21">
         <f>[5]Main!$G$17</f>
-        <v>11.06674559095781</v>
+        <v>11.590025427513091</v>
       </c>
       <c r="W20" s="25">
         <f>'[5]Financial Model'!$W$18*F55</f>
@@ -2844,7 +2867,7 @@
         <v>37561</v>
       </c>
       <c r="M23" s="27">
-        <f>'[7]Financial Model'!$AW$29*F55</f>
+        <f>'[7]Financial Model'!$AW$29*$F$55</f>
         <v>46.397701300113674</v>
       </c>
       <c r="N23" s="32">
@@ -3032,6 +3055,9 @@
       <c r="C32" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E32" s="5" t="s">
         <v>17</v>
       </c>
@@ -3045,6 +3071,9 @@
       </c>
       <c r="C35" s="6" t="s">
         <v>107</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="AK35" s="5" t="s">
         <v>84</v>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB35AC7D-B02C-4FDA-921A-EE6464BCF3A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAFA06-352C-470B-AAD4-6C0D2E2EEED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
     <sheet name="Main" sheetId="1" r:id="rId2"/>
-    <sheet name="Private Equity" sheetId="3" r:id="rId3"/>
+    <sheet name="M&amp;A" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
   <si>
     <t>Ticker</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>E-Commerce, Hosting</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1144,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1881,13 +1884,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AL56"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="P25" sqref="P24:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2047,116 +2050,197 @@
       <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="F4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="16">
+        <f>[1]Main!$C$6*F54</f>
+        <v>155.31750000000002</v>
+      </c>
+      <c r="G4" s="19">
+        <f>[1]Main!$C$7</f>
+        <v>68.916813000000005</v>
+      </c>
+      <c r="H4" s="17">
+        <f>[1]Main!$C$8*F54</f>
+        <v>10703.987103127502</v>
+      </c>
+      <c r="I4" s="17">
+        <f>[1]Main!$C$11*F54</f>
+        <v>525.27690000000007</v>
+      </c>
+      <c r="J4" s="17">
+        <f>[1]Main!$C$12*F54</f>
+        <v>10178.710203127501</v>
+      </c>
+      <c r="K4" s="5" t="str">
+        <f>[1]Main!$C$28</f>
+        <v>FQ323</v>
+      </c>
+      <c r="L4" s="8">
+        <f>[1]Main!$D$28</f>
+        <v>44901</v>
+      </c>
+      <c r="M4" s="27">
+        <f>'[1]Financial Model'!$AU$27*F54</f>
+        <v>144.21036736217536</v>
+      </c>
+      <c r="N4" s="32">
+        <f>'[1]Financial Model'!$AU$29</f>
+        <v>-7.1512435094722937E-2</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="21">
+        <f>[1]Main!$C$33</f>
+        <v>19.311919490429393</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>[1]Main!$C$34</f>
+        <v>11.112137929461445</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="22"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
+      <c r="W4" s="24">
+        <f>'[1]Financial Model'!$AH$21*F54</f>
+        <v>-248.56146000000001</v>
+      </c>
+      <c r="X4" s="24">
+        <f>'[1]Financial Model'!$AG$15*F54</f>
+        <v>-169.53623999999999</v>
+      </c>
       <c r="Y4" s="24"/>
       <c r="Z4" s="24"/>
-      <c r="AL4" s="5"/>
+      <c r="AB4" s="18">
+        <f>'[1]Financial Model'!$X$29</f>
+        <v>0.70928999538958049</v>
+      </c>
+      <c r="AC4" s="18">
+        <f>'[1]Financial Model'!$X$30</f>
+        <v>-0.37819600869393383</v>
+      </c>
+      <c r="AD4" s="18">
+        <f>'[1]Financial Model'!$X$31</f>
+        <v>-0.39144108542448774</v>
+      </c>
+      <c r="AE4" s="18">
+        <f>'[1]Financial Model'!$X$32</f>
+        <v>-2.6326241624645998E-2</v>
+      </c>
+      <c r="AG4" s="5">
+        <f>[1]Main!$C24</f>
+        <v>2007</v>
+      </c>
+      <c r="AH4" s="5">
+        <f>[1]Main!$C$25</f>
+        <v>2017</v>
+      </c>
+      <c r="AI4" s="5" t="str">
+        <f>[1]Main!$C$23</f>
+        <v>New York City, NY</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[1]Main!$C$6*F55</f>
-        <v>155.31750000000002</v>
-      </c>
-      <c r="G5" s="19">
-        <f>[1]Main!$C$7</f>
-        <v>68.916813000000005</v>
+        <f>[2]Main!$C$6*F54</f>
+        <v>3.2561999999999998</v>
+      </c>
+      <c r="G5" s="17">
+        <f>[2]Main!$C$7</f>
+        <v>58.801357000000003</v>
       </c>
       <c r="H5" s="17">
-        <f>[1]Main!$C$8*F55</f>
-        <v>10703.987103127502</v>
+        <f>[2]Main!$C$8*F54</f>
+        <v>191.46897866340001</v>
       </c>
       <c r="I5" s="17">
-        <f>[1]Main!$C$11*F55</f>
-        <v>525.27690000000007</v>
+        <f>[2]Main!$C$11*F54</f>
+        <v>12.968910000000001</v>
       </c>
       <c r="J5" s="17">
-        <f>[1]Main!$C$12*F55</f>
-        <v>10178.710203127501</v>
+        <f>[2]Main!$C$12*F54</f>
+        <v>178.50006866340001</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f>[1]Main!$C$28</f>
-        <v>FQ323</v>
+        <f>[2]Main!$C$28</f>
+        <v>Q322</v>
       </c>
       <c r="L5" s="8">
-        <f>[1]Main!$D$28</f>
-        <v>44901</v>
-      </c>
-      <c r="M5" s="27">
-        <f>'[1]Financial Model'!$AU$27*F55</f>
-        <v>144.21036736217536</v>
-      </c>
-      <c r="N5" s="32">
-        <f>'[1]Financial Model'!$AU$29</f>
-        <v>-7.1512435094722937E-2</v>
-      </c>
+        <f>[2]Main!$D$28</f>
+        <v>42705</v>
+      </c>
+      <c r="N5" s="31"/>
       <c r="O5" s="8"/>
       <c r="P5" s="21">
-        <f>[1]Main!$C$33</f>
-        <v>19.311919490429393</v>
-      </c>
-      <c r="Q5" s="21">
-        <f>[1]Main!$C$34</f>
-        <v>11.112137929461445</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+        <f>[2]Main!$C$34</f>
+        <v>26.782399177430296</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
       <c r="U5" s="8"/>
       <c r="V5" s="22"/>
-      <c r="W5" s="24">
-        <f>'[1]Financial Model'!$AH$21*F55</f>
-        <v>-248.56146000000001</v>
-      </c>
-      <c r="X5" s="24">
-        <f>'[1]Financial Model'!$AG$15*F55</f>
-        <v>-169.53623999999999</v>
-      </c>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
       <c r="AB5" s="18">
-        <f>'[1]Financial Model'!$X$29</f>
-        <v>0.70928999538958049</v>
+        <f>'[2]Financial Model'!$J$28</f>
+        <v>0.68957308000457829</v>
       </c>
       <c r="AC5" s="18">
-        <f>'[1]Financial Model'!$X$30</f>
-        <v>-0.37819600869393383</v>
+        <f>'[2]Financial Model'!$J$29</f>
+        <v>-1.1077257639922169</v>
       </c>
       <c r="AD5" s="18">
-        <f>'[1]Financial Model'!$X$31</f>
-        <v>-0.39144108542448774</v>
+        <f>'[2]Financial Model'!$J$30</f>
+        <v>-1.1136774636602953</v>
       </c>
       <c r="AE5" s="18">
-        <f>'[1]Financial Model'!$X$32</f>
-        <v>-2.6326241624645998E-2</v>
+        <f>'[2]Financial Model'!$J$31</f>
+        <v>-1.6676961087090797E-3</v>
       </c>
       <c r="AG5" s="5">
-        <f>[1]Main!$C24</f>
-        <v>2007</v>
+        <f>[2]Main!$C$24</f>
+        <v>2010</v>
       </c>
       <c r="AH5" s="5">
-        <f>[1]Main!$C$25</f>
-        <v>2017</v>
+        <f>[2]Main!$C$25</f>
+        <v>2022</v>
       </c>
       <c r="AI5" s="5" t="str">
-        <f>[1]Main!$C$23</f>
-        <v>New York City, NY</v>
+        <f>[2]Main!$C$23</f>
+        <v>Redwood City, CA</v>
       </c>
       <c r="AK5" s="5" t="s">
         <v>47</v>
@@ -2166,276 +2250,206 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="16">
-        <f>[2]Main!$C$6*F55</f>
-        <v>3.2561999999999998</v>
-      </c>
-      <c r="G6" s="17">
-        <f>[2]Main!$C$7</f>
-        <v>58.801357000000003</v>
-      </c>
-      <c r="H6" s="17">
-        <f>[2]Main!$C$8*F55</f>
-        <v>191.46897866340001</v>
-      </c>
-      <c r="I6" s="17">
-        <f>[2]Main!$C$11*F55</f>
-        <v>12.968910000000001</v>
-      </c>
-      <c r="J6" s="17">
-        <f>[2]Main!$C$12*F55</f>
-        <v>178.50006866340001</v>
-      </c>
-      <c r="K6" s="5" t="str">
-        <f>[2]Main!$C$28</f>
-        <v>Q322</v>
-      </c>
-      <c r="L6" s="8">
-        <f>[2]Main!$D$28</f>
-        <v>42705</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="21">
-        <f>[2]Main!$C$34</f>
-        <v>26.782399177430296</v>
-      </c>
+      <c r="F6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="8"/>
       <c r="V6" s="22"/>
       <c r="W6" s="24"/>
       <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
-      <c r="AB6" s="18">
-        <f>'[2]Financial Model'!$J$28</f>
-        <v>0.68957308000457829</v>
-      </c>
-      <c r="AC6" s="18">
-        <f>'[2]Financial Model'!$J$29</f>
-        <v>-1.1077257639922169</v>
-      </c>
-      <c r="AD6" s="18">
-        <f>'[2]Financial Model'!$J$30</f>
-        <v>-1.1136774636602953</v>
-      </c>
-      <c r="AE6" s="18">
-        <f>'[2]Financial Model'!$J$31</f>
-        <v>-1.6676961087090797E-3</v>
-      </c>
-      <c r="AG6" s="5">
-        <f>[2]Main!$C$24</f>
-        <v>2010</v>
-      </c>
-      <c r="AH6" s="5">
-        <f>[2]Main!$C$25</f>
-        <v>2022</v>
-      </c>
-      <c r="AI6" s="5" t="str">
-        <f>[2]Main!$C$23</f>
-        <v>Redwood City, CA</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="F7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AL7" s="5"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16">
-        <f>[3]Main!$C$6*$F$55</f>
+      <c r="F7" s="16">
+        <f>[3]Main!$C$6*$F$54</f>
         <v>48.114000000000004</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G7" s="17">
         <f>[3]Main!$C$7</f>
         <v>183.692564</v>
       </c>
-      <c r="H8" s="17">
-        <f>[3]Main!$C$8*$F$55</f>
+      <c r="H7" s="17">
+        <f>[3]Main!$C$8*$F$54</f>
         <v>8838.1840242960006</v>
       </c>
-      <c r="I8" s="17">
-        <f>[3]Main!$C$11*F55</f>
+      <c r="I7" s="17">
+        <f>[3]Main!$C$11*F54</f>
         <v>2589.3415800000002</v>
       </c>
-      <c r="J8" s="17">
-        <f>[3]Main!$C$12*F55</f>
+      <c r="J7" s="17">
+        <f>[3]Main!$C$12*F54</f>
         <v>6248.8424442960013</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="K7" s="5" t="str">
         <f>[3]Main!$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L7" s="8">
         <f>[3]Main!$D$28</f>
         <v>37926</v>
       </c>
-      <c r="M8" s="27">
-        <f>'[3]Financial Model'!$AP$29*F55</f>
+      <c r="M7" s="27">
+        <f>'[3]Financial Model'!$AP$29*F54</f>
         <v>42.985358058347664</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N7" s="32">
         <f>'[3]Financial Model'!$AP$31</f>
         <v>-0.10659354744258087</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="21">
+      <c r="O7" s="8"/>
+      <c r="P7" s="21">
         <f>[3]Main!$C$33</f>
         <v>1.0361270864907119</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q7" s="21">
         <f>[3]Main!$C$34</f>
         <v>2.9939265322921638</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R7" s="21">
         <f>[3]Main!$C$35</f>
         <v>2.1167895054755248</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S7" s="21">
         <f>[3]Main!$C$36</f>
         <v>-8.1937235256229481</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T7" s="21">
         <f>[3]Main!$C$37</f>
         <v>-5.8527494874135044</v>
       </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="24">
+        <f>'[3]Financial Model'!$AB$17*$F$54</f>
+        <v>-769.4190000000001</v>
+      </c>
+      <c r="X7" s="24">
+        <f>'[3]Financial Model'!$AA$17*$F$54</f>
+        <v>-397.6929899999999</v>
+      </c>
+      <c r="Y7" s="24">
+        <f>'[3]Financial Model'!$Z$17*$F$54</f>
+        <v>-248.72102999999996</v>
+      </c>
+      <c r="Z7" s="24">
+        <f>'[3]Financial Model'!$Y$17*F54</f>
+        <v>-98.778690000000012</v>
+      </c>
+      <c r="AB7" s="18">
+        <f>'[3]Financial Model'!$U$24</f>
+        <v>0.47005177868427206</v>
+      </c>
+      <c r="AC7" s="18">
+        <f>'[3]Financial Model'!$U$25</f>
+        <v>-0.46488611741249003</v>
+      </c>
+      <c r="AD7" s="18">
+        <f>'[3]Financial Model'!$U$26</f>
+        <v>-0.49065338799426272</v>
+      </c>
+      <c r="AE7" s="18">
+        <f>'[3]Financial Model'!$U$27</f>
+        <v>-7.4778536471246807E-3</v>
+      </c>
+      <c r="AG7" s="5">
+        <f>[3]Main!$C$24</f>
+        <v>2008</v>
+      </c>
+      <c r="AH7" s="5">
+        <f>[3]Main!$C$25</f>
+        <v>2016</v>
+      </c>
+      <c r="AI7" s="5" t="str">
+        <f>[3]Main!$C$23</f>
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="L8" s="8"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
       <c r="U8" s="8"/>
       <c r="V8" s="22"/>
-      <c r="W8" s="24">
-        <f>'[3]Financial Model'!$AB$17*$F$55</f>
-        <v>-769.4190000000001</v>
-      </c>
-      <c r="X8" s="24">
-        <f>'[3]Financial Model'!$AA$17*$F$55</f>
-        <v>-397.6929899999999</v>
-      </c>
-      <c r="Y8" s="24">
-        <f>'[3]Financial Model'!$Z$17*$F$55</f>
-        <v>-248.72102999999996</v>
-      </c>
-      <c r="Z8" s="24">
-        <f>'[3]Financial Model'!$Y$17*F55</f>
-        <v>-98.778690000000012</v>
-      </c>
-      <c r="AB8" s="18">
-        <f>'[3]Financial Model'!$U$24</f>
-        <v>0.47005177868427206</v>
-      </c>
-      <c r="AC8" s="18">
-        <f>'[3]Financial Model'!$U$25</f>
-        <v>-0.46488611741249003</v>
-      </c>
-      <c r="AD8" s="18">
-        <f>'[3]Financial Model'!$U$26</f>
-        <v>-0.49065338799426272</v>
-      </c>
-      <c r="AE8" s="18">
-        <f>'[3]Financial Model'!$U$27</f>
-        <v>-7.4778536471246807E-3</v>
-      </c>
-      <c r="AG8" s="5">
-        <f>[3]Main!$C$24</f>
-        <v>2008</v>
-      </c>
-      <c r="AH8" s="5">
-        <f>[3]Main!$C$25</f>
-        <v>2016</v>
-      </c>
-      <c r="AI8" s="5" t="str">
-        <f>[3]Main!$C$23</f>
-        <v>San Francisco, CA</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="L9" s="8"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="8"/>
       <c r="V9" s="22"/>
       <c r="W9" s="24"/>
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AL9" s="5"/>
+      <c r="AK9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
       <c r="V10" s="22"/>
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
@@ -2445,201 +2459,199 @@
         <v>15</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>41</v>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="V11" s="22"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="F11" s="16">
+        <f>[4]Main!$C$6</f>
+        <v>7.4459999999999997</v>
+      </c>
+      <c r="G11" s="17">
+        <f>[4]Main!$C$7</f>
+        <v>1020</v>
+      </c>
+      <c r="H11" s="17">
+        <f>[4]Main!$C$8</f>
+        <v>7594.92</v>
+      </c>
+      <c r="I11" s="17">
+        <f>[4]Main!$C$11</f>
+        <v>-729</v>
+      </c>
+      <c r="J11" s="17">
+        <f>[4]Main!$C$12</f>
+        <v>8323.92</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f>[4]Main!$C$27</f>
+        <v>FY22</v>
+      </c>
+      <c r="L11" s="20">
+        <f>[4]Main!$D$27</f>
+        <v>44881</v>
+      </c>
+      <c r="M11" s="27">
+        <f>'[4]Financial Model'!$AH$22</f>
+        <v>6.3308923646501336</v>
+      </c>
+      <c r="N11" s="32">
+        <f>'[4]Financial Model'!$AH$24</f>
+        <v>-0.14975928489791379</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21">
+        <f>[4]Main!$C$34</f>
+        <v>5.5155555555555553</v>
+      </c>
+      <c r="Q11" s="21">
+        <f>[4]Main!$C$33</f>
+        <v>3.9008320493066257</v>
+      </c>
+      <c r="R11" s="21">
+        <f>[4]Main!$C$35</f>
+        <v>4.2752542372881353</v>
+      </c>
+      <c r="S11" s="21">
+        <f>[4]Main!$C$32</f>
+        <v>29.901259842519682</v>
+      </c>
+      <c r="T11" s="21">
+        <f>[4]Main!$C$36</f>
+        <v>32.771338582677167</v>
+      </c>
+      <c r="U11" s="20"/>
+      <c r="V11" s="24">
+        <f>'[4]Financial Model'!$V$13</f>
+        <v>254</v>
+      </c>
+      <c r="W11" s="24">
+        <f>'[4]Financial Model'!$U$13</f>
+        <v>285</v>
+      </c>
+      <c r="X11" s="24">
+        <f>'[4]Financial Model'!$T$13</f>
+        <v>310</v>
+      </c>
+      <c r="Y11" s="24">
+        <f>'[4]Financial Model'!$S$13</f>
+        <v>266</v>
+      </c>
+      <c r="Z11" s="24">
+        <f>'[4]Financial Model'!$R$13</f>
+        <v>295</v>
+      </c>
+      <c r="AB11" s="18">
+        <f>'[4]Financial Model'!$V$17</f>
+        <v>0.92912172573189522</v>
+      </c>
+      <c r="AC11" s="18">
+        <f>'[4]Financial Model'!$V$18</f>
+        <v>0.18849512069851052</v>
+      </c>
+      <c r="AD11" s="18">
+        <f>'[4]Financial Model'!$V$19</f>
+        <v>0.13045711350796096</v>
+      </c>
+      <c r="AE11" s="18">
+        <f>'[4]Financial Model'!$V$20</f>
+        <v>0.24629080118694363</v>
+      </c>
+      <c r="AG11" s="5">
+        <f>[4]Main!$C$24</f>
+        <v>1981</v>
+      </c>
+      <c r="AH11" s="5">
+        <f>[4]Main!$C$25</f>
+        <v>1989</v>
+      </c>
+      <c r="AI11" s="5" t="str">
+        <f>[4]Main!$C$23</f>
+        <v>Newcastle, UK</v>
+      </c>
       <c r="AK11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="16">
-        <f>[4]Main!$C$6</f>
-        <v>7.4459999999999997</v>
-      </c>
-      <c r="G12" s="17">
-        <f>[4]Main!$C$7</f>
-        <v>1020</v>
-      </c>
-      <c r="H12" s="17">
-        <f>[4]Main!$C$8</f>
-        <v>7594.92</v>
-      </c>
-      <c r="I12" s="17">
-        <f>[4]Main!$C$11</f>
-        <v>-729</v>
-      </c>
-      <c r="J12" s="17">
-        <f>[4]Main!$C$12</f>
-        <v>8323.92</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f>[4]Main!$C$27</f>
-        <v>FY22</v>
-      </c>
-      <c r="L12" s="20">
-        <f>[4]Main!$D$27</f>
-        <v>44881</v>
-      </c>
-      <c r="M12" s="27">
-        <f>'[4]Financial Model'!$AH$22</f>
-        <v>6.3308923646501336</v>
-      </c>
-      <c r="N12" s="32">
-        <f>'[4]Financial Model'!$AH$24</f>
-        <v>-0.14975928489791379</v>
-      </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21">
-        <f>[4]Main!$C$34</f>
-        <v>5.5155555555555553</v>
-      </c>
-      <c r="Q12" s="21">
-        <f>[4]Main!$C$33</f>
-        <v>3.9008320493066257</v>
-      </c>
-      <c r="R12" s="21">
-        <f>[4]Main!$C$35</f>
-        <v>4.2752542372881353</v>
-      </c>
-      <c r="S12" s="21">
-        <f>[4]Main!$C$32</f>
-        <v>29.901259842519682</v>
-      </c>
-      <c r="T12" s="21">
-        <f>[4]Main!$C$36</f>
-        <v>32.771338582677167</v>
-      </c>
-      <c r="U12" s="20"/>
-      <c r="V12" s="24">
-        <f>'[4]Financial Model'!$V$13</f>
-        <v>254</v>
-      </c>
-      <c r="W12" s="24">
-        <f>'[4]Financial Model'!$U$13</f>
-        <v>285</v>
-      </c>
-      <c r="X12" s="24">
-        <f>'[4]Financial Model'!$T$13</f>
-        <v>310</v>
-      </c>
-      <c r="Y12" s="24">
-        <f>'[4]Financial Model'!$S$13</f>
-        <v>266</v>
-      </c>
-      <c r="Z12" s="24">
-        <f>'[4]Financial Model'!$R$13</f>
-        <v>295</v>
-      </c>
-      <c r="AB12" s="18">
-        <f>'[4]Financial Model'!$V$17</f>
-        <v>0.92912172573189522</v>
-      </c>
-      <c r="AC12" s="18">
-        <f>'[4]Financial Model'!$V$18</f>
-        <v>0.18849512069851052</v>
-      </c>
-      <c r="AD12" s="18">
-        <f>'[4]Financial Model'!$V$19</f>
-        <v>0.13045711350796096</v>
-      </c>
-      <c r="AE12" s="18">
-        <f>'[4]Financial Model'!$V$20</f>
-        <v>0.24629080118694363</v>
-      </c>
-      <c r="AG12" s="5">
-        <f>[4]Main!$C$24</f>
-        <v>1981</v>
-      </c>
-      <c r="AH12" s="5">
-        <f>[4]Main!$C$25</f>
-        <v>1989</v>
-      </c>
-      <c r="AI12" s="5" t="str">
-        <f>[4]Main!$C$23</f>
-        <v>Newcastle, UK</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="F12" s="16"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="F13" s="16"/>
-      <c r="AL13" s="5"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AG13" s="5">
         <v>2002</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AH13" s="5">
         <v>2015</v>
       </c>
-      <c r="AI14" s="5" t="str">
+      <c r="AI13" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AK14" s="5" t="s">
+      <c r="AK13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AL14" s="5" t="s">
+      <c r="AL13" s="5" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>17</v>
@@ -2648,35 +2660,121 @@
         <v>50</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AK17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>65</v>
+      <c r="F19" s="17">
+        <f>[5]Main!$C$6*F54</f>
+        <v>30.140100000000004</v>
+      </c>
+      <c r="G19" s="17">
+        <f>[5]Main!$C$7</f>
+        <v>597.779</v>
+      </c>
+      <c r="H19" s="17">
+        <f>[5]Main!$C$8*F54</f>
+        <v>18017.118837900001</v>
+      </c>
+      <c r="I19" s="17">
+        <f>[5]Main!$C$11*F54</f>
+        <v>1646.60364</v>
+      </c>
+      <c r="J19" s="17">
+        <f>[5]Main!$C$12*F54</f>
+        <v>16370.5151979</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f>[5]Main!$G$11</f>
+        <v>Q322</v>
+      </c>
+      <c r="L19" s="5">
+        <f>[5]Main!$H$11</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="27">
+        <f>'[5]Financial Model'!$AP$26*F54</f>
+        <v>53.598836857595423</v>
+      </c>
+      <c r="N19" s="32">
+        <f>'[5]Financial Model'!$AP$28</f>
+        <v>0.77832312625357636</v>
+      </c>
+      <c r="P19" s="21">
+        <f>[5]Main!$G$16</f>
+        <v>52.387601721181568</v>
+      </c>
+      <c r="Q19" s="21">
+        <f>[5]Main!$G$17</f>
+        <v>11.590025427513091</v>
+      </c>
+      <c r="W19" s="25">
+        <f>'[5]Financial Model'!$W$18*F54</f>
+        <v>-407.82689999999997</v>
+      </c>
+      <c r="X19" s="25">
+        <f>'[5]Financial Model'!$V$18*F54</f>
+        <v>-211.26095999999995</v>
+      </c>
+      <c r="Y19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB19" s="18">
+        <f>'[5]Financial Model'!$M$22</f>
+        <v>0.75577498469211346</v>
+      </c>
+      <c r="AC19" s="18">
+        <f>'[5]Financial Model'!$M$23</f>
+        <v>-0.5794918747476856</v>
+      </c>
+      <c r="AD19" s="18">
+        <f>'[5]Financial Model'!$M$24</f>
+        <v>-0.5831522463478378</v>
+      </c>
+      <c r="AE19" s="18">
+        <f>'[5]Financial Model'!$M$25</f>
+        <v>-1.1673022715967497E-3</v>
+      </c>
+      <c r="AG19" s="5">
+        <f>[5]Main!$G$8</f>
+        <v>2004</v>
+      </c>
+      <c r="AH19" s="5">
+        <f>[5]Main!$G$7</f>
+        <v>2021</v>
+      </c>
+      <c r="AI19" s="5" t="str">
+        <f>[5]Main!$G$6</f>
+        <v>San Mateo, CA</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>30</v>
@@ -2685,152 +2783,169 @@
         <v>17</v>
       </c>
       <c r="F20" s="17">
-        <f>[5]Main!$C$6*F55</f>
-        <v>30.140100000000004</v>
+        <f>[6]Main!$C$6*F54</f>
+        <v>27.078300000000002</v>
       </c>
       <c r="G20" s="17">
-        <f>[5]Main!$C$7</f>
-        <v>597.779</v>
+        <f>[6]Main!$C$7</f>
+        <v>296.01300300000003</v>
       </c>
       <c r="H20" s="17">
-        <f>[5]Main!$C$8*F55</f>
-        <v>18017.118837900001</v>
-      </c>
-      <c r="I20" s="17">
-        <f>[5]Main!$C$11*F55</f>
-        <v>1646.60364</v>
+        <f>[6]Main!$C$8*F54</f>
+        <v>8015.5288991349007</v>
+      </c>
+      <c r="I20" s="19">
+        <f>[6]Main!$C$11*F54</f>
+        <v>-425.90609999999998</v>
       </c>
       <c r="J20" s="17">
-        <f>[5]Main!$C$12*F55</f>
-        <v>16370.5151979</v>
-      </c>
-      <c r="K20" s="5" t="str">
-        <f>[5]Main!$G$11</f>
-        <v>Q322</v>
-      </c>
-      <c r="L20" s="5">
-        <f>[5]Main!$H$11</f>
+        <f>[6]Main!$C$12*F54</f>
+        <v>8441.4349991349009</v>
+      </c>
+      <c r="K20" s="26" t="str">
+        <f>[6]Main!$C$26</f>
+        <v>Q122</v>
+      </c>
+      <c r="L20" s="26">
+        <f>[6]Main!$D$26</f>
         <v>0</v>
-      </c>
-      <c r="M20" s="27">
-        <f>'[5]Financial Model'!$AP$26*F55</f>
-        <v>53.598836857595423</v>
-      </c>
-      <c r="N20" s="32">
-        <f>'[5]Financial Model'!$AP$28</f>
-        <v>0.77832312625357636</v>
-      </c>
-      <c r="P20" s="21">
-        <f>[5]Main!$G$16</f>
-        <v>52.387601721181568</v>
-      </c>
-      <c r="Q20" s="21">
-        <f>[5]Main!$G$17</f>
-        <v>11.590025427513091</v>
-      </c>
-      <c r="W20" s="25">
-        <f>'[5]Financial Model'!$W$18*F55</f>
-        <v>-407.82689999999997</v>
-      </c>
-      <c r="X20" s="25">
-        <f>'[5]Financial Model'!$V$18*F55</f>
-        <v>-211.26095999999995</v>
-      </c>
-      <c r="Y20" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z20" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB20" s="18">
-        <f>'[5]Financial Model'!$M$22</f>
-        <v>0.75577498469211346</v>
-      </c>
-      <c r="AC20" s="18">
-        <f>'[5]Financial Model'!$M$23</f>
-        <v>-0.5794918747476856</v>
-      </c>
-      <c r="AD20" s="18">
-        <f>'[5]Financial Model'!$M$24</f>
-        <v>-0.5831522463478378</v>
-      </c>
-      <c r="AE20" s="18">
-        <f>'[5]Financial Model'!$M$25</f>
-        <v>-1.1673022715967497E-3</v>
-      </c>
-      <c r="AG20" s="5">
-        <f>[5]Main!$G$8</f>
-        <v>2004</v>
-      </c>
-      <c r="AH20" s="5">
-        <f>[5]Main!$G$7</f>
-        <v>2021</v>
-      </c>
-      <c r="AI20" s="5" t="str">
-        <f>[5]Main!$G$6</f>
-        <v>San Mateo, CA</v>
       </c>
       <c r="AK20" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AL20" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="17">
-        <f>[6]Main!$C$6*F55</f>
-        <v>27.078300000000002</v>
-      </c>
-      <c r="G21" s="17">
-        <f>[6]Main!$C$7</f>
-        <v>296.01300300000003</v>
-      </c>
-      <c r="H21" s="17">
-        <f>[6]Main!$C$8*F55</f>
-        <v>8015.5288991349007</v>
-      </c>
-      <c r="I21" s="19">
-        <f>[6]Main!$C$11*F55</f>
-        <v>-425.90609999999998</v>
-      </c>
-      <c r="J21" s="17">
-        <f>[6]Main!$C$12*F55</f>
-        <v>8441.4349991349009</v>
-      </c>
-      <c r="K21" s="26" t="str">
-        <f>[6]Main!$C$26</f>
-        <v>Q122</v>
-      </c>
-      <c r="L21" s="26">
-        <f>[6]Main!$D$26</f>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>61</v>
+      <c r="F22" s="16">
+        <f>[7]Main!$C$6*F54</f>
+        <v>40.095000000000006</v>
+      </c>
+      <c r="G22" s="19">
+        <f>[7]Main!$C$7</f>
+        <v>542.659087</v>
+      </c>
+      <c r="H22" s="17">
+        <f>[7]Main!$C$8*F54</f>
+        <v>21757.916093265001</v>
+      </c>
+      <c r="I22" s="17">
+        <f>[7]Main!$C$11*F54</f>
+        <v>-3430.3500000000004</v>
+      </c>
+      <c r="J22" s="17">
+        <f>[7]Main!$C$12*F54</f>
+        <v>25188.266093265003</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>[7]Main!$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="L22" s="8">
+        <f>[7]Main!$D$28</f>
+        <v>37561</v>
+      </c>
+      <c r="M22" s="27">
+        <f>'[7]Financial Model'!$AW$29*$F$54</f>
+        <v>46.397701300113674</v>
+      </c>
+      <c r="N22" s="32">
+        <f>'[7]Financial Model'!$AW$31</f>
+        <v>0.15719419628666098</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="21">
+        <f>[7]Main!$C$33</f>
+        <v>5.5350555958170204</v>
+      </c>
+      <c r="Q22" s="21">
+        <f>[7]Main!$C$34</f>
+        <v>2.7138436862497475</v>
+      </c>
+      <c r="R22" s="21">
+        <f>[7]Main!$C$35</f>
+        <v>3.1417079012426754</v>
+      </c>
+      <c r="S22" s="21">
+        <f>[7]Main!$C$36</f>
+        <v>-421.2402023888468</v>
+      </c>
+      <c r="T22" s="21">
+        <f>[7]Main!$C$37</f>
+        <v>1110.5937430892857</v>
+      </c>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="25">
+        <f>'[7]Financial Model'!$AE$20*F54</f>
+        <v>-1091.0700000000002</v>
+      </c>
+      <c r="X22" s="25">
+        <f>'[7]Financial Model'!$AD$20*F54</f>
+        <v>5885.46</v>
+      </c>
+      <c r="Y22" s="25">
+        <f>'[7]Financial Model'!$AC$20*F54</f>
+        <v>1397.25</v>
+      </c>
+      <c r="Z22" s="25">
+        <f>'[7]Financial Model'!$AC$20*G54</f>
+        <v>2129.6296296296296</v>
+      </c>
+      <c r="AB22" s="18">
+        <f>'[7]Financial Model'!$U$27</f>
+        <v>0.72890843662534988</v>
+      </c>
+      <c r="AC22" s="18">
+        <f>'[7]Financial Model'!$U$28</f>
+        <v>0.2646941223510596</v>
+      </c>
+      <c r="AD22" s="18">
+        <f>'[7]Financial Model'!$U$29</f>
+        <v>0.10555777688924431</v>
+      </c>
+      <c r="AE22" s="18">
+        <f>'[7]Financial Model'!$U$30</f>
+        <v>0.34792626728110598</v>
+      </c>
+      <c r="AG22" s="5">
+        <f>[7]Main!$C$24</f>
+        <v>1995</v>
+      </c>
+      <c r="AH22" s="5">
+        <f>[7]Main!$C$25</f>
+        <v>1998</v>
+      </c>
+      <c r="AI22" s="5" t="str">
+        <f>[7]Main!$C$23</f>
+        <v>San Jose, CA</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
-        <v>82</v>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>33</v>
@@ -2838,125 +2953,22 @@
       <c r="E23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="16">
-        <f>[7]Main!$C$6*F55</f>
-        <v>40.095000000000006</v>
-      </c>
-      <c r="G23" s="19">
-        <f>[7]Main!$C$7</f>
-        <v>542.659087</v>
-      </c>
-      <c r="H23" s="17">
-        <f>[7]Main!$C$8*F55</f>
-        <v>21757.916093265001</v>
-      </c>
-      <c r="I23" s="17">
-        <f>[7]Main!$C$11*F55</f>
-        <v>-3430.3500000000004</v>
-      </c>
-      <c r="J23" s="17">
-        <f>[7]Main!$C$12*F55</f>
-        <v>25188.266093265003</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>[7]Main!$C$28</f>
-        <v>Q322</v>
-      </c>
-      <c r="L23" s="8">
-        <f>[7]Main!$D$28</f>
-        <v>37561</v>
-      </c>
-      <c r="M23" s="27">
-        <f>'[7]Financial Model'!$AW$29*$F$55</f>
-        <v>46.397701300113674</v>
-      </c>
-      <c r="N23" s="32">
-        <f>'[7]Financial Model'!$AW$31</f>
-        <v>0.15719419628666098</v>
-      </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="21">
-        <f>[7]Main!$C$33</f>
-        <v>5.5350555958170204</v>
-      </c>
-      <c r="Q23" s="21">
-        <f>[7]Main!$C$34</f>
-        <v>2.7138436862497475</v>
-      </c>
-      <c r="R23" s="21">
-        <f>[7]Main!$C$35</f>
-        <v>3.1417079012426754</v>
-      </c>
-      <c r="S23" s="21">
-        <f>[7]Main!$C$36</f>
-        <v>-421.2402023888468</v>
-      </c>
-      <c r="T23" s="21">
-        <f>[7]Main!$C$37</f>
-        <v>1110.5937430892857</v>
-      </c>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="25">
-        <f>'[7]Financial Model'!$AE$20*F55</f>
-        <v>-1091.0700000000002</v>
-      </c>
-      <c r="X23" s="25">
-        <f>'[7]Financial Model'!$AD$20*F55</f>
-        <v>5885.46</v>
-      </c>
-      <c r="Y23" s="25">
-        <f>'[7]Financial Model'!$AC$20*F55</f>
-        <v>1397.25</v>
-      </c>
-      <c r="Z23" s="25">
-        <f>'[7]Financial Model'!$AC$20*G55</f>
-        <v>2129.6296296296296</v>
-      </c>
-      <c r="AB23" s="18">
-        <f>'[7]Financial Model'!$U$27</f>
-        <v>0.72890843662534988</v>
-      </c>
-      <c r="AC23" s="18">
-        <f>'[7]Financial Model'!$U$28</f>
-        <v>0.2646941223510596</v>
-      </c>
-      <c r="AD23" s="18">
-        <f>'[7]Financial Model'!$U$29</f>
-        <v>0.10555777688924431</v>
-      </c>
-      <c r="AE23" s="18">
-        <f>'[7]Financial Model'!$U$30</f>
-        <v>0.34792626728110598</v>
-      </c>
-      <c r="AG23" s="5">
-        <f>[7]Main!$C$24</f>
-        <v>1995</v>
-      </c>
-      <c r="AH23" s="5">
-        <f>[7]Main!$C$25</f>
-        <v>1998</v>
-      </c>
-      <c r="AI23" s="5" t="str">
-        <f>[7]Main!$C$23</f>
-        <v>San Jose, CA</v>
-      </c>
       <c r="AK23" s="5" t="s">
         <v>84</v>
       </c>
       <c r="AL23" s="5" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>17</v>
@@ -2965,18 +2977,18 @@
         <v>84</v>
       </c>
       <c r="AL24" s="5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>17</v>
@@ -2988,16 +3000,13 @@
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>84</v>
@@ -3006,74 +3015,82 @@
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28" s="5"/>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK31" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>70</v>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="AK35" s="5" t="s">
         <v>84</v>
@@ -3084,19 +3101,13 @@
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="AK36" s="5" t="s">
         <v>84</v>
@@ -3105,61 +3116,49 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>112</v>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G39" s="19">
+        <v>416.24</v>
+      </c>
+      <c r="H39" s="17">
+        <f>G39*F39</f>
+        <v>482.83839999999998</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>2007</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>2021</v>
+      </c>
+      <c r="AI39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL39" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G40" s="19">
-        <v>416.24</v>
-      </c>
-      <c r="H40" s="17">
-        <f>G40*F40</f>
-        <v>482.83839999999998</v>
-      </c>
-      <c r="AG40" s="5">
-        <v>2007</v>
-      </c>
-      <c r="AH40" s="5">
-        <v>2021</v>
-      </c>
-      <c r="AI40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK40" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL40" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="17"/>
+      <c r="AL40" s="5"/>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
@@ -3167,113 +3166,119 @@
       <c r="AL41" s="5"/>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="G42" s="19"/>
-      <c r="H42" s="17"/>
-      <c r="AL42" s="5"/>
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="16">
+        <f>332.82*F54</f>
+        <v>269.58420000000001</v>
+      </c>
+      <c r="G42" s="19">
+        <v>445.02</v>
+      </c>
+      <c r="H42" s="17">
+        <f>G42*F42</f>
+        <v>119970.360684</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="16">
-        <f>332.82*F55</f>
-        <v>269.58420000000001</v>
+        <f>92.06*F54</f>
+        <v>74.568600000000004</v>
       </c>
       <c r="G43" s="19">
-        <v>445.02</v>
+        <v>193.13</v>
       </c>
       <c r="H43" s="17">
         <f>G43*F43</f>
-        <v>119970.360684</v>
+        <v>14401.433718</v>
       </c>
       <c r="AK43" s="5" t="s">
         <v>126</v>
       </c>
       <c r="AL43" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="16">
-        <f>92.06*F55</f>
-        <v>74.568600000000004</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="G44" s="19">
-        <v>193.13</v>
+        <v>16.3</v>
       </c>
       <c r="H44" s="17">
         <f>G44*F44</f>
-        <v>14401.433718</v>
+        <v>65.118500000000012</v>
       </c>
       <c r="AK44" s="5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AL44" s="5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="16">
-        <v>3.9950000000000001</v>
-      </c>
-      <c r="G45" s="19">
-        <v>16.3</v>
-      </c>
-      <c r="H45" s="17">
-        <f>G45*F45</f>
-        <v>65.118500000000012</v>
-      </c>
-      <c r="AK45" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL45" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="17"/>
+      <c r="AL45" s="5"/>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
       <c r="AL46" s="5"/>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
@@ -3281,78 +3286,67 @@
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
       <c r="AL48" s="5"/>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>129</v>
-      </c>
+    <row r="49" spans="5:38" x14ac:dyDescent="0.2">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="AL49" s="5"/>
     </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="G50" s="19"/>
-      <c r="H50" s="17"/>
-      <c r="AL50" s="5"/>
-    </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="E54" s="33" t="s">
+    <row r="53" spans="5:38" x14ac:dyDescent="0.2">
+      <c r="E53" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="9" t="s">
+      <c r="F53" s="34"/>
+      <c r="G53" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="E55" s="10" t="s">
+    <row r="54" spans="5:38" x14ac:dyDescent="0.2">
+      <c r="E54" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F54" s="11">
         <v>0.81</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G54" s="12">
+        <f>1/F54</f>
+        <v>1.2345679012345678</v>
+      </c>
+    </row>
+    <row r="55" spans="5:38" x14ac:dyDescent="0.2">
+      <c r="E55" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="G55" s="15">
         <f>1/F55</f>
-        <v>1.2345679012345678</v>
-      </c>
-    </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="E56" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="14">
-        <v>0.87</v>
-      </c>
-      <c r="G56" s="15">
-        <f>1/F56</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{3A7AD427-356A-4438-8466-A299ED0C08D2}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{1CE3F47D-3D30-470A-966F-AA684282F9ED}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{6DFD8629-A4A2-4A11-B5F1-5FDD02B4DC40}"/>
-    <hyperlink ref="B20" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{3673F69E-DE49-452E-9A7F-9067CB704A93}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
-    <hyperlink ref="B21" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{3A7AD427-356A-4438-8466-A299ED0C08D2}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{1CE3F47D-3D30-470A-966F-AA684282F9ED}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6DFD8629-A4A2-4A11-B5F1-5FDD02B4DC40}"/>
+    <hyperlink ref="B19" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{3673F69E-DE49-452E-9A7F-9067CB704A93}"/>
+    <hyperlink ref="B22" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
+    <hyperlink ref="B20" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
@@ -3367,7 +3361,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAFA06-352C-470B-AAD4-6C0D2E2EEED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FFFB00-7598-43DE-8743-C8C97AFE34D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
   <si>
     <t>Ticker</t>
   </si>
@@ -465,6 +466,9 @@
   </si>
   <si>
     <t>E-Commerce, Hosting</t>
+  </si>
+  <si>
+    <t>Discount</t>
   </si>
 </sst>
 </file>
@@ -890,6 +894,11 @@
             <v>-306.86599999999999</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="AU23">
+            <v>0.08</v>
+          </cell>
+        </row>
         <row r="27">
           <cell r="AU27">
             <v>178.03749057058687</v>
@@ -1122,6 +1131,9 @@
           <cell r="U25">
             <v>-0.46488611741249003</v>
           </cell>
+          <cell r="AP25">
+            <v>0.08</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="U26">
@@ -1144,7 +1156,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1259,6 +1271,9 @@
         <row r="18">
           <cell r="V18">
             <v>0.18849512069851052</v>
+          </cell>
+          <cell r="AH18">
+            <v>0.06</v>
           </cell>
         </row>
         <row r="19">
@@ -1328,6 +1343,7 @@
           <cell r="G11" t="str">
             <v>Q322</v>
           </cell>
+          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="C12">
@@ -1358,6 +1374,9 @@
           <cell r="M22">
             <v>0.75577498469211346</v>
           </cell>
+          <cell r="AP22">
+            <v>0.09</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="M23">
@@ -1385,7 +1404,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1533,6 +1552,11 @@
             <v>-1347</v>
           </cell>
         </row>
+        <row r="25">
+          <cell r="AW25">
+            <v>0.08</v>
+          </cell>
+        </row>
         <row r="27">
           <cell r="U27">
             <v>0.72890843662534988</v>
@@ -1562,6 +1586,62 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>52.93</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1190</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>62986.7</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>62986.7</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Ottowa, Canada</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2015</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1884,13 +1964,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AL55"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P25" sqref="P24:P25"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1905,21 +1985,21 @@
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="28" customWidth="1"/>
-    <col min="15" max="22" width="9.42578125" style="5" customWidth="1"/>
-    <col min="23" max="26" width="9.42578125" style="23" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="1"/>
-    <col min="28" max="31" width="9.140625" style="5"/>
-    <col min="32" max="32" width="9.140625" style="1"/>
-    <col min="33" max="34" width="9.140625" style="5"/>
-    <col min="35" max="35" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="9.42578125" style="28" customWidth="1"/>
+    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.42578125" style="23" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="32" width="9.140625" style="5"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
+    <col min="34" max="35" width="9.140625" style="5"/>
+    <col min="36" max="36" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="1"/>
+    <col min="38" max="38" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="35" t="s">
         <v>29</v>
       </c>
@@ -1927,16 +2007,16 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="35"/>
       <c r="X1" s="35"/>
       <c r="Y1" s="35"/>
       <c r="Z1" s="35"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1977,79 +2057,82 @@
       <c r="N2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="24"/>
+      <c r="W3" s="22"/>
       <c r="X3" s="24"/>
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
-      <c r="AL3" s="5"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AA3" s="24"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2098,66 +2181,70 @@
         <f>'[1]Financial Model'!$AU$29</f>
         <v>-7.1512435094722937E-2</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="21">
+      <c r="O4" s="32">
+        <f>'[1]Financial Model'!$AU$23</f>
+        <v>0.08</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="21">
         <f>[1]Main!$C$33</f>
         <v>19.311919490429393</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="R4" s="21">
         <f>[1]Main!$C$34</f>
         <v>11.112137929461445</v>
       </c>
-      <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="24">
+      <c r="V4" s="8"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="24">
         <f>'[1]Financial Model'!$AH$21*F54</f>
         <v>-248.56146000000001</v>
       </c>
-      <c r="X4" s="24">
+      <c r="Y4" s="24">
         <f>'[1]Financial Model'!$AG$15*F54</f>
         <v>-169.53623999999999</v>
       </c>
-      <c r="Y4" s="24"/>
       <c r="Z4" s="24"/>
-      <c r="AB4" s="18">
+      <c r="AA4" s="24"/>
+      <c r="AC4" s="18">
         <f>'[1]Financial Model'!$X$29</f>
         <v>0.70928999538958049</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AD4" s="18">
         <f>'[1]Financial Model'!$X$30</f>
         <v>-0.37819600869393383</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AE4" s="18">
         <f>'[1]Financial Model'!$X$31</f>
         <v>-0.39144108542448774</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AF4" s="18">
         <f>'[1]Financial Model'!$X$32</f>
         <v>-2.6326241624645998E-2</v>
       </c>
-      <c r="AG4" s="5">
+      <c r="AH4" s="5">
         <f>[1]Main!$C24</f>
         <v>2007</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AI4" s="5">
         <f>[1]Main!$C$25</f>
         <v>2017</v>
       </c>
-      <c r="AI4" s="5" t="str">
+      <c r="AJ4" s="5" t="str">
         <f>[1]Main!$C$23</f>
         <v>New York City, NY</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2199,72 +2286,73 @@
         <v>42705</v>
       </c>
       <c r="N5" s="31"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="21">
+      <c r="O5" s="31"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="21">
         <f>[2]Main!$C$34</f>
         <v>26.782399177430296</v>
       </c>
-      <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="24"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="22"/>
       <c r="X5" s="24"/>
       <c r="Y5" s="24"/>
       <c r="Z5" s="24"/>
-      <c r="AB5" s="18">
+      <c r="AA5" s="24"/>
+      <c r="AC5" s="18">
         <f>'[2]Financial Model'!$J$28</f>
         <v>0.68957308000457829</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AD5" s="18">
         <f>'[2]Financial Model'!$J$29</f>
         <v>-1.1077257639922169</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AE5" s="18">
         <f>'[2]Financial Model'!$J$30</f>
         <v>-1.1136774636602953</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AF5" s="18">
         <f>'[2]Financial Model'!$J$31</f>
         <v>-1.6676961087090797E-3</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AH5" s="5">
         <f>[2]Main!$C$24</f>
         <v>2010</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AI5" s="5">
         <f>[2]Main!$C$25</f>
         <v>2022</v>
       </c>
-      <c r="AI5" s="5" t="str">
+      <c r="AJ5" s="5" t="str">
         <f>[2]Main!$C$23</f>
         <v>Redwood City, CA</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-      <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="24"/>
+      <c r="U6" s="21"/>
+      <c r="W6" s="22"/>
       <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
-      <c r="AL6" s="5"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AA6" s="24"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2313,81 +2401,85 @@
         <f>'[3]Financial Model'!$AP$31</f>
         <v>-0.10659354744258087</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="21">
+      <c r="O7" s="32">
+        <f>'[3]Financial Model'!$AP$25</f>
+        <v>0.08</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="21">
         <f>[3]Main!$C$33</f>
         <v>1.0361270864907119</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="R7" s="21">
         <f>[3]Main!$C$34</f>
         <v>2.9939265322921638</v>
       </c>
-      <c r="R7" s="21">
+      <c r="S7" s="21">
         <f>[3]Main!$C$35</f>
         <v>2.1167895054755248</v>
       </c>
-      <c r="S7" s="21">
+      <c r="T7" s="21">
         <f>[3]Main!$C$36</f>
         <v>-8.1937235256229481</v>
       </c>
-      <c r="T7" s="21">
+      <c r="U7" s="21">
         <f>[3]Main!$C$37</f>
         <v>-5.8527494874135044</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="24">
+      <c r="V7" s="8"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="24">
         <f>'[3]Financial Model'!$AB$17*$F$54</f>
         <v>-769.4190000000001</v>
       </c>
-      <c r="X7" s="24">
+      <c r="Y7" s="24">
         <f>'[3]Financial Model'!$AA$17*$F$54</f>
         <v>-397.6929899999999</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Z7" s="24">
         <f>'[3]Financial Model'!$Z$17*$F$54</f>
         <v>-248.72102999999996</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="AA7" s="24">
         <f>'[3]Financial Model'!$Y$17*F54</f>
         <v>-98.778690000000012</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AC7" s="18">
         <f>'[3]Financial Model'!$U$24</f>
         <v>0.47005177868427206</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AD7" s="18">
         <f>'[3]Financial Model'!$U$25</f>
         <v>-0.46488611741249003</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AE7" s="18">
         <f>'[3]Financial Model'!$U$26</f>
         <v>-0.49065338799426272</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AF7" s="18">
         <f>'[3]Financial Model'!$U$27</f>
         <v>-7.4778536471246807E-3</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AH7" s="5">
         <f>[3]Main!$C$24</f>
         <v>2008</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AI7" s="5">
         <f>[3]Main!$C$25</f>
         <v>2016</v>
       </c>
-      <c r="AI7" s="5" t="str">
+      <c r="AJ7" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AK7" s="5" t="s">
+      <c r="AL7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AM7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -2396,25 +2488,26 @@
       <c r="J8" s="17"/>
       <c r="L8" s="8"/>
       <c r="N8" s="31"/>
-      <c r="O8" s="8"/>
+      <c r="O8" s="31"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="21"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="24"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="22"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
-      <c r="AB8" s="18"/>
+      <c r="AA8" s="24"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
-      <c r="AL8" s="5"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AF8" s="18"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2424,23 +2517,23 @@
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="24"/>
+      <c r="U9" s="21"/>
+      <c r="W9" s="22"/>
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
-      <c r="AK9" s="5" t="s">
+      <c r="AA9" s="24"/>
+      <c r="AL9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="5" t="s">
+      <c r="AM9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2450,19 +2543,19 @@
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="22"/>
-      <c r="W10" s="24"/>
+      <c r="W10" s="22"/>
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
-      <c r="AK10" s="5" t="s">
+      <c r="AA10" s="24"/>
+      <c r="AL10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AL10" s="5" t="s">
+      <c r="AM10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -2511,89 +2604,93 @@
         <f>'[4]Financial Model'!$AH$24</f>
         <v>-0.14975928489791379</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21">
+      <c r="O11" s="32">
+        <f>'[4]Financial Model'!$AH$18</f>
+        <v>0.06</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21">
         <f>[4]Main!$C$34</f>
         <v>5.5155555555555553</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="R11" s="21">
         <f>[4]Main!$C$33</f>
         <v>3.9008320493066257</v>
       </c>
-      <c r="R11" s="21">
+      <c r="S11" s="21">
         <f>[4]Main!$C$35</f>
         <v>4.2752542372881353</v>
       </c>
-      <c r="S11" s="21">
+      <c r="T11" s="21">
         <f>[4]Main!$C$32</f>
         <v>29.901259842519682</v>
       </c>
-      <c r="T11" s="21">
+      <c r="U11" s="21">
         <f>[4]Main!$C$36</f>
         <v>32.771338582677167</v>
       </c>
-      <c r="U11" s="20"/>
-      <c r="V11" s="24">
+      <c r="V11" s="20"/>
+      <c r="W11" s="24">
         <f>'[4]Financial Model'!$V$13</f>
         <v>254</v>
       </c>
-      <c r="W11" s="24">
+      <c r="X11" s="24">
         <f>'[4]Financial Model'!$U$13</f>
         <v>285</v>
       </c>
-      <c r="X11" s="24">
+      <c r="Y11" s="24">
         <f>'[4]Financial Model'!$T$13</f>
         <v>310</v>
       </c>
-      <c r="Y11" s="24">
+      <c r="Z11" s="24">
         <f>'[4]Financial Model'!$S$13</f>
         <v>266</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="AA11" s="24">
         <f>'[4]Financial Model'!$R$13</f>
         <v>295</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AC11" s="18">
         <f>'[4]Financial Model'!$V$17</f>
         <v>0.92912172573189522</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AD11" s="18">
         <f>'[4]Financial Model'!$V$18</f>
         <v>0.18849512069851052</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AE11" s="18">
         <f>'[4]Financial Model'!$V$19</f>
         <v>0.13045711350796096</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AF11" s="18">
         <f>'[4]Financial Model'!$V$20</f>
         <v>0.24629080118694363</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AH11" s="5">
         <f>[4]Main!$C$24</f>
         <v>1981</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AI11" s="5">
         <f>[4]Main!$C$25</f>
         <v>1989</v>
       </c>
-      <c r="AI11" s="5" t="str">
+      <c r="AJ11" s="5" t="str">
         <f>[4]Main!$C$23</f>
         <v>Newcastle, UK</v>
       </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AL11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AL11" s="5" t="s">
+      <c r="AM11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
-      <c r="AL12" s="5"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -2606,24 +2703,24 @@
       <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AH13" s="5">
         <v>2002</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AI13" s="5">
         <v>2015</v>
       </c>
-      <c r="AI13" s="5" t="str">
+      <c r="AJ13" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AK13" s="5" t="s">
+      <c r="AL13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AL13" s="5" t="s">
+      <c r="AM13" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2636,14 +2733,14 @@
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AK15" s="5" t="s">
+      <c r="AL15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AL15" s="5" t="s">
+      <c r="AM15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2656,14 +2753,14 @@
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AK16" s="5" t="s">
+      <c r="AL16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AL16" s="5" t="s">
+      <c r="AM16" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -2712,64 +2809,68 @@
         <f>'[5]Financial Model'!$AP$28</f>
         <v>0.77832312625357636</v>
       </c>
-      <c r="P19" s="21">
+      <c r="O19" s="32">
+        <f>'[5]Financial Model'!$AP$22</f>
+        <v>0.09</v>
+      </c>
+      <c r="Q19" s="21">
         <f>[5]Main!$G$16</f>
         <v>52.387601721181568</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="R19" s="21">
         <f>[5]Main!$G$17</f>
         <v>11.590025427513091</v>
       </c>
-      <c r="W19" s="25">
+      <c r="X19" s="25">
         <f>'[5]Financial Model'!$W$18*F54</f>
         <v>-407.82689999999997</v>
       </c>
-      <c r="X19" s="25">
+      <c r="Y19" s="25">
         <f>'[5]Financial Model'!$V$18*F54</f>
         <v>-211.26095999999995</v>
       </c>
-      <c r="Y19" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="Z19" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AA19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC19" s="18">
         <f>'[5]Financial Model'!$M$22</f>
         <v>0.75577498469211346</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AD19" s="18">
         <f>'[5]Financial Model'!$M$23</f>
         <v>-0.5794918747476856</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AE19" s="18">
         <f>'[5]Financial Model'!$M$24</f>
         <v>-0.5831522463478378</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AF19" s="18">
         <f>'[5]Financial Model'!$M$25</f>
         <v>-1.1673022715967497E-3</v>
       </c>
-      <c r="AG19" s="5">
+      <c r="AH19" s="5">
         <f>[5]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AI19" s="5">
         <f>[5]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="AI19" s="5" t="str">
+      <c r="AJ19" s="5" t="str">
         <f>[5]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="AK19" s="5" t="s">
+      <c r="AL19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL19" s="5" t="s">
+      <c r="AM19" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -2810,177 +2911,213 @@
         <f>[6]Main!$D$26</f>
         <v>0</v>
       </c>
-      <c r="AK20" s="5" t="s">
+      <c r="AL20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL20" s="5" t="s">
+      <c r="AM20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="16">
+        <f>[8]Main!$C$6*$F$54</f>
+        <v>42.8733</v>
+      </c>
+      <c r="G22" s="17">
+        <f>[8]Main!$C$7</f>
+        <v>1190</v>
+      </c>
+      <c r="H22" s="17">
+        <f>[8]Main!$C$8*F54</f>
+        <v>51019.226999999999</v>
+      </c>
+      <c r="I22" s="17">
+        <f>[8]Main!$C$11*F54</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <f>[8]Main!$C$12*F54</f>
+        <v>51019.226999999999</v>
+      </c>
+      <c r="AH22" s="5">
+        <f>[8]Main!$C$24</f>
+        <v>2004</v>
+      </c>
+      <c r="AI22" s="5">
+        <f>[8]Main!$C$25</f>
+        <v>2015</v>
+      </c>
+      <c r="AJ22" s="5" t="str">
+        <f>[8]Main!$C$23</f>
+        <v>Ottowa, Canada</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM22" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="16">
         <f>[7]Main!$C$6*F54</f>
         <v>40.095000000000006</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G23" s="19">
         <f>[7]Main!$C$7</f>
         <v>542.659087</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="17">
         <f>[7]Main!$C$8*F54</f>
         <v>21757.916093265001</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="17">
         <f>[7]Main!$C$11*F54</f>
         <v>-3430.3500000000004</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J23" s="17">
         <f>[7]Main!$C$12*F54</f>
         <v>25188.266093265003</v>
       </c>
-      <c r="K22" s="5" t="str">
+      <c r="K23" s="5" t="str">
         <f>[7]Main!$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L23" s="8">
         <f>[7]Main!$D$28</f>
         <v>37561</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M23" s="27">
         <f>'[7]Financial Model'!$AW$29*$F$54</f>
         <v>46.397701300113674</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N23" s="32">
         <f>'[7]Financial Model'!$AW$31</f>
         <v>0.15719419628666098</v>
       </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="21">
+      <c r="O23" s="32">
+        <f>'[7]Financial Model'!$AW$25</f>
+        <v>0.08</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="21">
         <f>[7]Main!$C$33</f>
         <v>5.5350555958170204</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="R23" s="21">
         <f>[7]Main!$C$34</f>
         <v>2.7138436862497475</v>
       </c>
-      <c r="R22" s="21">
+      <c r="S23" s="21">
         <f>[7]Main!$C$35</f>
         <v>3.1417079012426754</v>
       </c>
-      <c r="S22" s="21">
+      <c r="T23" s="21">
         <f>[7]Main!$C$36</f>
         <v>-421.2402023888468</v>
       </c>
-      <c r="T22" s="21">
+      <c r="U23" s="21">
         <f>[7]Main!$C$37</f>
         <v>1110.5937430892857</v>
       </c>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="25">
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="25">
         <f>'[7]Financial Model'!$AE$20*F54</f>
         <v>-1091.0700000000002</v>
       </c>
-      <c r="X22" s="25">
+      <c r="Y23" s="25">
         <f>'[7]Financial Model'!$AD$20*F54</f>
         <v>5885.46</v>
       </c>
-      <c r="Y22" s="25">
+      <c r="Z23" s="25">
         <f>'[7]Financial Model'!$AC$20*F54</f>
         <v>1397.25</v>
       </c>
-      <c r="Z22" s="25">
+      <c r="AA23" s="25">
         <f>'[7]Financial Model'!$AC$20*G54</f>
         <v>2129.6296296296296</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AC23" s="18">
         <f>'[7]Financial Model'!$U$27</f>
         <v>0.72890843662534988</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AD23" s="18">
         <f>'[7]Financial Model'!$U$28</f>
         <v>0.2646941223510596</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AE23" s="18">
         <f>'[7]Financial Model'!$U$29</f>
         <v>0.10555777688924431</v>
       </c>
-      <c r="AE22" s="18">
+      <c r="AF23" s="18">
         <f>'[7]Financial Model'!$U$30</f>
         <v>0.34792626728110598</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AH23" s="5">
         <f>[7]Main!$C$24</f>
         <v>1995</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AI23" s="5">
         <f>[7]Main!$C$25</f>
         <v>1998</v>
       </c>
-      <c r="AI22" s="5" t="str">
+      <c r="AJ23" s="5" t="str">
         <f>[7]Main!$C$23</f>
         <v>San Jose, CA</v>
       </c>
-      <c r="AK22" s="5" t="s">
+      <c r="AL23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AL22" s="5" t="s">
+      <c r="AM23" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AK24" s="5" t="s">
+      <c r="AL24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AL24" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM24" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -2993,12 +3130,12 @@
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AK25" s="5" t="s">
+      <c r="AL25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AL25" s="5"/>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3008,12 +3145,12 @@
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AK26" s="5" t="s">
+      <c r="AL26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AL26" s="5"/>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM26" s="5"/>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3023,9 +3160,9 @@
       <c r="D27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AL27" s="5"/>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM27" s="5"/>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3038,11 +3175,11 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AK30" s="5" t="s">
+      <c r="AL30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -3055,11 +3192,11 @@
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AK31" s="5" t="s">
+      <c r="AL31" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3069,14 +3206,14 @@
       <c r="D34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AK34" s="5" t="s">
+      <c r="AL34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AL34" s="5" t="s">
+      <c r="AM34" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3089,17 +3226,17 @@
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="U35" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AK35" s="5" t="s">
+      <c r="AL35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AL35" s="5" t="s">
+      <c r="AM35" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -3109,14 +3246,14 @@
       <c r="D36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AK36" s="5" t="s">
+      <c r="AL36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AL36" s="5" t="s">
+      <c r="AM36" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3139,33 +3276,33 @@
         <f>G39*F39</f>
         <v>482.83839999999998</v>
       </c>
-      <c r="AG39" s="5">
+      <c r="AH39" s="5">
         <v>2007</v>
       </c>
-      <c r="AH39" s="5">
+      <c r="AI39" s="5">
         <v>2021</v>
       </c>
-      <c r="AI39" s="5" t="s">
+      <c r="AJ39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AK39" s="5" t="s">
+      <c r="AL39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AL39" s="5" t="s">
+      <c r="AM39" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
-      <c r="AL40" s="5"/>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM40" s="5"/>
+    </row>
+    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
-      <c r="AL41" s="5"/>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM41" s="5"/>
+    </row>
+    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -3189,14 +3326,14 @@
         <f>G42*F42</f>
         <v>119970.360684</v>
       </c>
-      <c r="AK42" s="5" t="s">
+      <c r="AL42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AL42" s="5" t="s">
+      <c r="AM42" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3220,14 +3357,14 @@
         <f>G43*F43</f>
         <v>14401.433718</v>
       </c>
-      <c r="AK43" s="5" t="s">
+      <c r="AL43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AL43" s="5" t="s">
+      <c r="AM43" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -3250,19 +3387,19 @@
         <f>G44*F44</f>
         <v>65.118500000000012</v>
       </c>
-      <c r="AK44" s="5" t="s">
+      <c r="AL44" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AL44" s="5" t="s">
+      <c r="AM44" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
-      <c r="AL45" s="5"/>
-    </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM45" s="5"/>
+    </row>
+    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
@@ -3271,9 +3408,9 @@
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
-      <c r="AL46" s="5"/>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM46" s="5"/>
+    </row>
+    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -3282,9 +3419,9 @@
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
-      <c r="AL47" s="5"/>
-    </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AM47" s="5"/>
+    </row>
+    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -3293,14 +3430,14 @@
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
-      <c r="AL48" s="5"/>
-    </row>
-    <row r="49" spans="5:38" x14ac:dyDescent="0.2">
+      <c r="AM48" s="5"/>
+    </row>
+    <row r="49" spans="5:39" x14ac:dyDescent="0.2">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
-      <c r="AL49" s="5"/>
-    </row>
-    <row r="53" spans="5:38" x14ac:dyDescent="0.2">
+      <c r="AM49" s="5"/>
+    </row>
+    <row r="53" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E53" s="33" t="s">
         <v>25</v>
       </c>
@@ -3309,7 +3446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="5:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E54" s="10" t="s">
         <v>27</v>
       </c>
@@ -3321,7 +3458,7 @@
         <v>1.2345679012345678</v>
       </c>
     </row>
-    <row r="55" spans="5:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:39" x14ac:dyDescent="0.2">
       <c r="E55" s="13" t="s">
         <v>28</v>
       </c>
@@ -3337,7 +3474,7 @@
   <mergeCells count="3">
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{3A7AD427-356A-4438-8466-A299ED0C08D2}"/>
@@ -3345,11 +3482,12 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{6DFD8629-A4A2-4A11-B5F1-5FDD02B4DC40}"/>
     <hyperlink ref="B19" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{3673F69E-DE49-452E-9A7F-9067CB704A93}"/>
-    <hyperlink ref="B22" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
     <hyperlink ref="B20" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
+    <hyperlink ref="B22" r:id="rId8" xr:uid="{03436A82-476B-4BF2-A855-FEC5F745CF98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FFFB00-7598-43DE-8743-C8C97AFE34D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA1AAA-6189-4F1A-ADBE-92E53ED2C510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -1607,22 +1607,22 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1190</v>
+            <v>1269.4252260000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>62986.7</v>
+            <v>67190.677212180002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0</v>
+            <v>4028.7079999999996</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>62986.7</v>
+            <v>63161.969212180004</v>
           </cell>
         </row>
         <row r="23">
@@ -1640,8 +1640,27 @@
             <v>2015</v>
           </cell>
         </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q322</v>
+          </cell>
+          <cell r="D28">
+            <v>46661</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>7.729278198315245</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="29">
+          <cell r="U29">
+            <v>0.48479871175523354</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1967,10 +1986,10 @@
   <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2937,19 +2956,35 @@
       </c>
       <c r="G22" s="17">
         <f>[8]Main!$C$7</f>
-        <v>1190</v>
+        <v>1269.4252260000001</v>
       </c>
       <c r="H22" s="17">
         <f>[8]Main!$C$8*F54</f>
-        <v>51019.226999999999</v>
+        <v>54424.448541865808</v>
       </c>
       <c r="I22" s="17">
         <f>[8]Main!$C$11*F54</f>
-        <v>0</v>
+        <v>3263.2534799999999</v>
       </c>
       <c r="J22" s="17">
         <f>[8]Main!$C$12*F54</f>
-        <v>51019.226999999999</v>
+        <v>51161.195061865808</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>[8]Main!$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="L22" s="8">
+        <f>[8]Main!$D$28</f>
+        <v>46661</v>
+      </c>
+      <c r="Q22" s="21">
+        <f>[8]Main!$C$33</f>
+        <v>7.729278198315245</v>
+      </c>
+      <c r="AC22" s="18">
+        <f>'[8]Financial Model'!$U$29</f>
+        <v>0.48479871175523354</v>
       </c>
       <c r="AH22" s="5">
         <f>[8]Main!$C$24</f>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA1AAA-6189-4F1A-ADBE-92E53ED2C510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749E1764-BA27-EF40-A5DB-01845CB07B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1468,42 +1478,42 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>49.5</v>
+            <v>52.93</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>542.659087</v>
+            <v>1269.4252260000001</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>26861.6248065</v>
+            <v>67190.677212180002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-4235</v>
+            <v>4028.7079999999996</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>31096.6248065</v>
+            <v>63161.969212180004</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>San Jose, CA</v>
+            <v>Ottowa, Canada</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1995</v>
+            <v>2004</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>1998</v>
+            <v>2015</v>
           </cell>
         </row>
         <row r="28">
@@ -1511,78 +1521,74 @@
             <v>Q322</v>
           </cell>
           <cell r="D28">
-            <v>37561</v>
+            <v>46661</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>5.5350555958170204</v>
+            <v>7.729278198315245</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>2.7138436862497475</v>
+            <v>12.810644455706582</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>3.1417079012426754</v>
+            <v>12.042526794965024</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-421.2402023888468</v>
+            <v>-3.3644129896469788</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>1110.5937430892857</v>
+            <v>-19.688678338041829</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="20">
-          <cell r="AC20">
-            <v>1725</v>
-          </cell>
-          <cell r="AD20">
-            <v>7266</v>
-          </cell>
-          <cell r="AE20">
-            <v>-1347</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AW25">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="U27">
-            <v>0.72890843662534988</v>
+          <cell r="AB20">
+            <v>2914.6589999999997</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AP24">
+            <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="U28">
-            <v>0.2646941223510596</v>
+          <cell r="AP28">
+            <v>26.075206575494708</v>
           </cell>
         </row>
         <row r="29">
           <cell r="U29">
-            <v>0.10555777688924431</v>
-          </cell>
-          <cell r="AW29">
-            <v>57.281112716189718</v>
+            <v>0.48479871175523354</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="U30">
-            <v>0.34792626728110598</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AW31">
-            <v>0.15719419628666098</v>
+          <cell r="AP30">
+            <v>-0.50736431937474569</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="U32">
+            <v>-0.2527931488801054</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="U33">
+            <v>-0.11594861660079051</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="U34">
+            <v>-8.1205093774064027E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -1602,42 +1608,42 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>52.93</v>
+            <v>49.5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1269.4252260000001</v>
+            <v>542.659087</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>67190.677212180002</v>
+            <v>26861.6248065</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>4028.7079999999996</v>
+            <v>-4235</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>63161.969212180004</v>
+            <v>31096.6248065</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Ottowa, Canada</v>
+            <v>San Jose, CA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2004</v>
+            <v>1995</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2015</v>
+            <v>1998</v>
           </cell>
         </row>
         <row r="28">
@@ -1645,19 +1651,78 @@
             <v>Q322</v>
           </cell>
           <cell r="D28">
-            <v>46661</v>
+            <v>37561</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>7.729278198315245</v>
+            <v>5.5350555958170204</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>2.7138436862497475</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>3.1417079012426754</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>-421.2402023888468</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>1110.5937430892857</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="20">
+          <cell r="AC20">
+            <v>1725</v>
+          </cell>
+          <cell r="AD20">
+            <v>7266</v>
+          </cell>
+          <cell r="AE20">
+            <v>-1347</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AW25">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="U27">
+            <v>0.72890843662534988</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="U28">
+            <v>0.2646941223510596</v>
+          </cell>
+        </row>
         <row r="29">
           <cell r="U29">
-            <v>0.48479871175523354</v>
+            <v>0.10555777688924431</v>
+          </cell>
+          <cell r="AW29">
+            <v>57.281112716189718</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="U30">
+            <v>0.34792626728110598</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AW31">
+            <v>0.15719419628666098</v>
           </cell>
         </row>
       </sheetData>
@@ -1972,9 +2037,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1986,39 +2051,39 @@
   <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC22" sqref="AC22"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="27" customWidth="1"/>
-    <col min="14" max="15" width="9.42578125" style="28" customWidth="1"/>
-    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.42578125" style="23" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="32" width="9.140625" style="5"/>
-    <col min="33" max="33" width="9.140625" style="1"/>
-    <col min="34" max="35" width="9.140625" style="5"/>
-    <col min="36" max="36" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="1"/>
-    <col min="38" max="38" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="5"/>
+    <col min="6" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" style="1"/>
+    <col min="11" max="11" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="27" customWidth="1"/>
+    <col min="14" max="15" width="9.5" style="28" customWidth="1"/>
+    <col min="16" max="23" width="9.5" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.5" style="23" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="32" width="9.1640625" style="5"/>
+    <col min="33" max="33" width="9.1640625" style="1"/>
+    <col min="34" max="35" width="9.1640625" style="5"/>
+    <col min="36" max="36" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.1640625" style="1"/>
+    <col min="38" max="38" width="16.5" style="5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F1" s="35" t="s">
         <v>29</v>
       </c>
@@ -2035,7 +2100,7 @@
       <c r="AA1" s="35"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2140,7 +2205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2151,7 +2216,7 @@
       <c r="AA3" s="24"/>
       <c r="AM3" s="5"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2166,7 +2231,7 @@
       </c>
       <c r="F4" s="16">
         <f>[1]Main!$C$6*F54</f>
-        <v>155.31750000000002</v>
+        <v>159.1525</v>
       </c>
       <c r="G4" s="19">
         <f>[1]Main!$C$7</f>
@@ -2174,15 +2239,15 @@
       </c>
       <c r="H4" s="17">
         <f>[1]Main!$C$8*F54</f>
-        <v>10703.987103127502</v>
+        <v>10968.283080982501</v>
       </c>
       <c r="I4" s="17">
         <f>[1]Main!$C$11*F54</f>
-        <v>525.27690000000007</v>
+        <v>538.24670000000003</v>
       </c>
       <c r="J4" s="17">
         <f>[1]Main!$C$12*F54</f>
-        <v>10178.710203127501</v>
+        <v>10430.036380982501</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>[1]Main!$C$28</f>
@@ -2194,7 +2259,7 @@
       </c>
       <c r="M4" s="27">
         <f>'[1]Financial Model'!$AU$27*F54</f>
-        <v>144.21036736217536</v>
+        <v>147.7711171735871</v>
       </c>
       <c r="N4" s="32">
         <f>'[1]Financial Model'!$AU$29</f>
@@ -2220,11 +2285,11 @@
       <c r="W4" s="22"/>
       <c r="X4" s="24">
         <f>'[1]Financial Model'!$AH$21*F54</f>
-        <v>-248.56146000000001</v>
+        <v>-254.69877999999997</v>
       </c>
       <c r="Y4" s="24">
         <f>'[1]Financial Model'!$AG$15*F54</f>
-        <v>-169.53623999999999</v>
+        <v>-173.72231999999997</v>
       </c>
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
@@ -2263,7 +2328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2278,7 +2343,7 @@
       </c>
       <c r="F5" s="16">
         <f>[2]Main!$C$6*F54</f>
-        <v>3.2561999999999998</v>
+        <v>3.3365999999999993</v>
       </c>
       <c r="G5" s="17">
         <f>[2]Main!$C$7</f>
@@ -2286,15 +2351,15 @@
       </c>
       <c r="H5" s="17">
         <f>[2]Main!$C$8*F54</f>
-        <v>191.46897866340001</v>
+        <v>196.19660776619997</v>
       </c>
       <c r="I5" s="17">
         <f>[2]Main!$C$11*F54</f>
-        <v>12.968910000000001</v>
+        <v>13.289129999999998</v>
       </c>
       <c r="J5" s="17">
         <f>[2]Main!$C$12*F54</f>
-        <v>178.50006866340001</v>
+        <v>182.90747776619997</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>[2]Main!$C$28</f>
@@ -2356,7 +2421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2371,7 +2436,7 @@
       <c r="AA6" s="24"/>
       <c r="AM6" s="5"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2386,7 +2451,7 @@
       </c>
       <c r="F7" s="16">
         <f>[3]Main!$C$6*$F$54</f>
-        <v>48.114000000000004</v>
+        <v>49.302</v>
       </c>
       <c r="G7" s="17">
         <f>[3]Main!$C$7</f>
@@ -2394,15 +2459,15 @@
       </c>
       <c r="H7" s="17">
         <f>[3]Main!$C$8*$F$54</f>
-        <v>8838.1840242960006</v>
+        <v>9056.4107903280001</v>
       </c>
       <c r="I7" s="17">
         <f>[3]Main!$C$11*F54</f>
-        <v>2589.3415800000002</v>
+        <v>2653.2759399999995</v>
       </c>
       <c r="J7" s="17">
         <f>[3]Main!$C$12*F54</f>
-        <v>6248.8424442960013</v>
+        <v>6403.1348503280005</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>[3]Main!$C$28</f>
@@ -2414,7 +2479,7 @@
       </c>
       <c r="M7" s="27">
         <f>'[3]Financial Model'!$AP$29*F54</f>
-        <v>42.985358058347664</v>
+        <v>44.04672492398587</v>
       </c>
       <c r="N7" s="32">
         <f>'[3]Financial Model'!$AP$31</f>
@@ -2449,19 +2514,19 @@
       <c r="W7" s="22"/>
       <c r="X7" s="24">
         <f>'[3]Financial Model'!$AB$17*$F$54</f>
-        <v>-769.4190000000001</v>
+        <v>-788.41700000000003</v>
       </c>
       <c r="Y7" s="24">
         <f>'[3]Financial Model'!$AA$17*$F$54</f>
-        <v>-397.6929899999999</v>
+        <v>-407.51256999999981</v>
       </c>
       <c r="Z7" s="24">
         <f>'[3]Financial Model'!$Z$17*$F$54</f>
-        <v>-248.72102999999996</v>
+        <v>-254.86228999999994</v>
       </c>
       <c r="AA7" s="24">
         <f>'[3]Financial Model'!$Y$17*F54</f>
-        <v>-98.778690000000012</v>
+        <v>-101.21767</v>
       </c>
       <c r="AC7" s="18">
         <f>'[3]Financial Model'!$U$24</f>
@@ -2498,7 +2563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -2526,7 +2591,7 @@
       <c r="AF8" s="18"/>
       <c r="AM8" s="5"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2552,7 +2617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2574,7 +2639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -2704,12 +2769,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
       <c r="AM12" s="5"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -2739,7 +2804,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2759,7 +2824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2779,7 +2844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -2794,7 +2859,7 @@
       </c>
       <c r="F19" s="17">
         <f>[5]Main!$C$6*F54</f>
-        <v>30.140100000000004</v>
+        <v>30.8843</v>
       </c>
       <c r="G19" s="17">
         <f>[5]Main!$C$7</f>
@@ -2802,15 +2867,15 @@
       </c>
       <c r="H19" s="17">
         <f>[5]Main!$C$8*F54</f>
-        <v>18017.118837900001</v>
+        <v>18461.985969699999</v>
       </c>
       <c r="I19" s="17">
         <f>[5]Main!$C$11*F54</f>
-        <v>1646.60364</v>
+        <v>1687.26052</v>
       </c>
       <c r="J19" s="17">
         <f>[5]Main!$C$12*F54</f>
-        <v>16370.5151979</v>
+        <v>16774.725449699999</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>[5]Main!$G$11</f>
@@ -2822,7 +2887,7 @@
       </c>
       <c r="M19" s="27">
         <f>'[5]Financial Model'!$AP$26*F54</f>
-        <v>53.598836857595423</v>
+        <v>54.922264928153325</v>
       </c>
       <c r="N19" s="32">
         <f>'[5]Financial Model'!$AP$28</f>
@@ -2842,11 +2907,11 @@
       </c>
       <c r="X19" s="25">
         <f>'[5]Financial Model'!$W$18*F54</f>
-        <v>-407.82689999999997</v>
+        <v>-417.89669999999995</v>
       </c>
       <c r="Y19" s="25">
         <f>'[5]Financial Model'!$V$18*F54</f>
-        <v>-211.26095999999995</v>
+        <v>-216.47727999999992</v>
       </c>
       <c r="Z19" s="23" t="s">
         <v>139</v>
@@ -2889,7 +2954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -2904,7 +2969,7 @@
       </c>
       <c r="F20" s="17">
         <f>[6]Main!$C$6*F54</f>
-        <v>27.078300000000002</v>
+        <v>27.7469</v>
       </c>
       <c r="G20" s="17">
         <f>[6]Main!$C$7</f>
@@ -2912,15 +2977,15 @@
       </c>
       <c r="H20" s="17">
         <f>[6]Main!$C$8*F54</f>
-        <v>8015.5288991349007</v>
+        <v>8213.4431929407001</v>
       </c>
       <c r="I20" s="19">
         <f>[6]Main!$C$11*F54</f>
-        <v>-425.90609999999998</v>
+        <v>-436.42229999999995</v>
       </c>
       <c r="J20" s="17">
         <f>[6]Main!$C$12*F54</f>
-        <v>8441.4349991349009</v>
+        <v>8649.8654929407003</v>
       </c>
       <c r="K20" s="26" t="str">
         <f>[6]Main!$C$26</f>
@@ -2937,7 +3002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
@@ -2951,178 +3016,222 @@
         <v>17</v>
       </c>
       <c r="F22" s="16">
-        <f>[8]Main!$C$6*$F$54</f>
-        <v>42.8733</v>
+        <f>[7]Main!$C$6*$F$54</f>
+        <v>43.931899999999999</v>
       </c>
       <c r="G22" s="17">
+        <f>[7]Main!$C$7</f>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="H22" s="17">
+        <f>[7]Main!$C$8*F54</f>
+        <v>55768.262086109396</v>
+      </c>
+      <c r="I22" s="17">
+        <f>[7]Main!$C$11*F54</f>
+        <v>3343.8276399999995</v>
+      </c>
+      <c r="J22" s="17">
+        <f>[7]Main!$C$12*F54</f>
+        <v>52424.434446109401</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>[7]Main!$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="L22" s="8">
+        <f>[7]Main!$D$28</f>
+        <v>46661</v>
+      </c>
+      <c r="M22" s="27">
+        <f>'[7]Financial Model'!$AP$28</f>
+        <v>26.075206575494708</v>
+      </c>
+      <c r="N22" s="32">
+        <f>'[7]Financial Model'!$AP$30</f>
+        <v>-0.50736431937474569</v>
+      </c>
+      <c r="O22" s="32">
+        <f>'[7]Financial Model'!$AP$24</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q22" s="21">
+        <f>[7]Main!$C$33</f>
+        <v>7.729278198315245</v>
+      </c>
+      <c r="R22" s="21">
+        <f>[7]Main!$C$34</f>
+        <v>12.810644455706582</v>
+      </c>
+      <c r="S22" s="21">
+        <f>[7]Main!$C$35</f>
+        <v>12.042526794965024</v>
+      </c>
+      <c r="T22" s="21">
+        <f>[7]Main!$C$36</f>
+        <v>-3.3644129896469788</v>
+      </c>
+      <c r="U22" s="21">
+        <f>[7]Main!$C$37</f>
+        <v>-19.688678338041829</v>
+      </c>
+      <c r="X22" s="25">
+        <f>'[7]Financial Model'!$AB$20*F54</f>
+        <v>2419.1669699999998</v>
+      </c>
+      <c r="AC22" s="18">
+        <f>'[7]Financial Model'!$U$29</f>
+        <v>0.48479871175523354</v>
+      </c>
+      <c r="AD22" s="18">
+        <f>'[7]Financial Model'!$U$32</f>
+        <v>-0.2527931488801054</v>
+      </c>
+      <c r="AE22" s="18">
+        <f>'[7]Financial Model'!$U$33</f>
+        <v>-0.11594861660079051</v>
+      </c>
+      <c r="AF22" s="18">
+        <f>'[7]Financial Model'!$U$34</f>
+        <v>-8.1205093774064027E-3</v>
+      </c>
+      <c r="AH22" s="5">
+        <f>[7]Main!$C$24</f>
+        <v>2004</v>
+      </c>
+      <c r="AI22" s="5">
+        <f>[7]Main!$C$25</f>
+        <v>2015</v>
+      </c>
+      <c r="AJ22" s="5" t="str">
+        <f>[7]Main!$C$23</f>
+        <v>Ottowa, Canada</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM22" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="B23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="16">
+        <f>[8]Main!$C$6*F54</f>
+        <v>41.085000000000001</v>
+      </c>
+      <c r="G23" s="19">
         <f>[8]Main!$C$7</f>
-        <v>1269.4252260000001</v>
-      </c>
-      <c r="H22" s="17">
+        <v>542.659087</v>
+      </c>
+      <c r="H23" s="17">
         <f>[8]Main!$C$8*F54</f>
-        <v>54424.448541865808</v>
-      </c>
-      <c r="I22" s="17">
+        <v>22295.148589394998</v>
+      </c>
+      <c r="I23" s="17">
         <f>[8]Main!$C$11*F54</f>
-        <v>3263.2534799999999</v>
-      </c>
-      <c r="J22" s="17">
+        <v>-3515.0499999999997</v>
+      </c>
+      <c r="J23" s="17">
         <f>[8]Main!$C$12*F54</f>
-        <v>51161.195061865808</v>
-      </c>
-      <c r="K22" s="5" t="str">
+        <v>25810.198589395</v>
+      </c>
+      <c r="K23" s="5" t="str">
         <f>[8]Main!$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L23" s="8">
         <f>[8]Main!$D$28</f>
-        <v>46661</v>
-      </c>
-      <c r="Q22" s="21">
-        <f>[8]Main!$C$33</f>
-        <v>7.729278198315245</v>
-      </c>
-      <c r="AC22" s="18">
-        <f>'[8]Financial Model'!$U$29</f>
-        <v>0.48479871175523354</v>
-      </c>
-      <c r="AH22" s="5">
-        <f>[8]Main!$C$24</f>
-        <v>2004</v>
-      </c>
-      <c r="AI22" s="5">
-        <f>[8]Main!$C$25</f>
-        <v>2015</v>
-      </c>
-      <c r="AJ22" s="5" t="str">
-        <f>[8]Main!$C$23</f>
-        <v>Ottowa, Canada</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM22" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="16">
-        <f>[7]Main!$C$6*F54</f>
-        <v>40.095000000000006</v>
-      </c>
-      <c r="G23" s="19">
-        <f>[7]Main!$C$7</f>
-        <v>542.659087</v>
-      </c>
-      <c r="H23" s="17">
-        <f>[7]Main!$C$8*F54</f>
-        <v>21757.916093265001</v>
-      </c>
-      <c r="I23" s="17">
-        <f>[7]Main!$C$11*F54</f>
-        <v>-3430.3500000000004</v>
-      </c>
-      <c r="J23" s="17">
-        <f>[7]Main!$C$12*F54</f>
-        <v>25188.266093265003</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>[7]Main!$C$28</f>
-        <v>Q322</v>
-      </c>
-      <c r="L23" s="8">
-        <f>[7]Main!$D$28</f>
         <v>37561</v>
       </c>
       <c r="M23" s="27">
-        <f>'[7]Financial Model'!$AW$29*$F$54</f>
-        <v>46.397701300113674</v>
+        <f>'[8]Financial Model'!$AW$29*$F$54</f>
+        <v>47.543323554437464</v>
       </c>
       <c r="N23" s="32">
-        <f>'[7]Financial Model'!$AW$31</f>
+        <f>'[8]Financial Model'!$AW$31</f>
         <v>0.15719419628666098</v>
       </c>
       <c r="O23" s="32">
-        <f>'[7]Financial Model'!$AW$25</f>
+        <f>'[8]Financial Model'!$AW$25</f>
         <v>0.08</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="21">
-        <f>[7]Main!$C$33</f>
+        <f>[8]Main!$C$33</f>
         <v>5.5350555958170204</v>
       </c>
       <c r="R23" s="21">
-        <f>[7]Main!$C$34</f>
+        <f>[8]Main!$C$34</f>
         <v>2.7138436862497475</v>
       </c>
       <c r="S23" s="21">
-        <f>[7]Main!$C$35</f>
+        <f>[8]Main!$C$35</f>
         <v>3.1417079012426754</v>
       </c>
       <c r="T23" s="21">
-        <f>[7]Main!$C$36</f>
+        <f>[8]Main!$C$36</f>
         <v>-421.2402023888468</v>
       </c>
       <c r="U23" s="21">
-        <f>[7]Main!$C$37</f>
+        <f>[8]Main!$C$37</f>
         <v>1110.5937430892857</v>
       </c>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="25">
-        <f>'[7]Financial Model'!$AE$20*F54</f>
-        <v>-1091.0700000000002</v>
+        <f>'[8]Financial Model'!$AE$20*F54</f>
+        <v>-1118.01</v>
       </c>
       <c r="Y23" s="25">
-        <f>'[7]Financial Model'!$AD$20*F54</f>
-        <v>5885.46</v>
+        <f>'[8]Financial Model'!$AD$20*F54</f>
+        <v>6030.78</v>
       </c>
       <c r="Z23" s="25">
-        <f>'[7]Financial Model'!$AC$20*F54</f>
-        <v>1397.25</v>
+        <f>'[8]Financial Model'!$AC$20*F54</f>
+        <v>1431.75</v>
       </c>
       <c r="AA23" s="25">
-        <f>'[7]Financial Model'!$AC$20*G54</f>
-        <v>2129.6296296296296</v>
+        <f>'[8]Financial Model'!$AC$20*G54</f>
+        <v>2078.3132530120483</v>
       </c>
       <c r="AC23" s="18">
-        <f>'[7]Financial Model'!$U$27</f>
+        <f>'[8]Financial Model'!$U$27</f>
         <v>0.72890843662534988</v>
       </c>
       <c r="AD23" s="18">
-        <f>'[7]Financial Model'!$U$28</f>
+        <f>'[8]Financial Model'!$U$28</f>
         <v>0.2646941223510596</v>
       </c>
       <c r="AE23" s="18">
-        <f>'[7]Financial Model'!$U$29</f>
+        <f>'[8]Financial Model'!$U$29</f>
         <v>0.10555777688924431</v>
       </c>
       <c r="AF23" s="18">
-        <f>'[7]Financial Model'!$U$30</f>
+        <f>'[8]Financial Model'!$U$30</f>
         <v>0.34792626728110598</v>
       </c>
       <c r="AH23" s="5">
-        <f>[7]Main!$C$24</f>
+        <f>[8]Main!$C$24</f>
         <v>1995</v>
       </c>
       <c r="AI23" s="5">
-        <f>[7]Main!$C$25</f>
+        <f>[8]Main!$C$25</f>
         <v>1998</v>
       </c>
       <c r="AJ23" s="5" t="str">
-        <f>[7]Main!$C$23</f>
+        <f>[8]Main!$C$23</f>
         <v>San Jose, CA</v>
       </c>
       <c r="AL23" s="5" t="s">
@@ -3132,7 +3241,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3152,7 +3261,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3170,7 +3279,7 @@
       </c>
       <c r="AM25" s="5"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3185,7 +3294,7 @@
       </c>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3197,7 +3306,7 @@
       </c>
       <c r="AM27" s="5"/>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3214,7 +3323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -3231,7 +3340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3248,7 +3357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3271,7 +3380,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -3288,7 +3397,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3327,17 +3436,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.15">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:39" x14ac:dyDescent="0.15">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -3352,14 +3461,14 @@
       </c>
       <c r="F42" s="16">
         <f>332.82*F54</f>
-        <v>269.58420000000001</v>
+        <v>276.24059999999997</v>
       </c>
       <c r="G42" s="19">
         <v>445.02</v>
       </c>
       <c r="H42" s="17">
         <f>G42*F42</f>
-        <v>119970.360684</v>
+        <v>122932.59181199998</v>
       </c>
       <c r="AL42" s="5" t="s">
         <v>126</v>
@@ -3368,7 +3477,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3383,14 +3492,14 @@
       </c>
       <c r="F43" s="16">
         <f>92.06*F54</f>
-        <v>74.568600000000004</v>
+        <v>76.409800000000004</v>
       </c>
       <c r="G43" s="19">
         <v>193.13</v>
       </c>
       <c r="H43" s="17">
         <f>G43*F43</f>
-        <v>14401.433718</v>
+        <v>14757.024674</v>
       </c>
       <c r="AL43" s="5" t="s">
         <v>126</v>
@@ -3399,7 +3508,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -3429,12 +3538,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.15">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
@@ -3445,7 +3554,7 @@
       <c r="H46" s="17"/>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -3456,7 +3565,7 @@
       <c r="H47" s="17"/>
       <c r="AM47" s="5"/>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -3467,12 +3576,12 @@
       <c r="H48" s="17"/>
       <c r="AM48" s="5"/>
     </row>
-    <row r="49" spans="5:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:39" x14ac:dyDescent="0.15">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="AM49" s="5"/>
     </row>
-    <row r="53" spans="5:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E53" s="33" t="s">
         <v>25</v>
       </c>
@@ -3481,19 +3590,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="5:39" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E54" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F54" s="11">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="G54" s="12">
         <f>1/F54</f>
-        <v>1.2345679012345678</v>
-      </c>
-    </row>
-    <row r="55" spans="5:39" x14ac:dyDescent="0.2">
+        <v>1.2048192771084338</v>
+      </c>
+    </row>
+    <row r="55" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E55" s="13" t="s">
         <v>28</v>
       </c>
@@ -3537,21 +3646,21 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3584,7 +3693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3610,11 +3719,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749E1764-BA27-EF40-A5DB-01845CB07B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F2D308-9237-4CD9-9DFA-78CB279C6423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -32,22 +32,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
   <si>
     <t>Ticker</t>
   </si>
@@ -479,6 +469,24 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>RevG [C]</t>
+  </si>
+  <si>
+    <t>RevG 22</t>
+  </si>
+  <si>
+    <t>RevG21</t>
+  </si>
+  <si>
+    <t>RevG 20</t>
+  </si>
+  <si>
+    <t>RevG 19</t>
+  </si>
+  <si>
+    <t>RevG18</t>
   </si>
 </sst>
 </file>
@@ -716,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -807,6 +815,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -909,6 +920,14 @@
             <v>0.08</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="Y26">
+            <v>0.47038912615197459</v>
+          </cell>
+          <cell r="AH26">
+            <v>0.48003319895660423</v>
+          </cell>
+        </row>
         <row r="27">
           <cell r="AU27">
             <v>178.03749057058687</v>
@@ -1007,6 +1026,11 @@
         </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="25">
+          <cell r="J25">
+            <v>0.21252241299870667</v>
+          </cell>
+        </row>
         <row r="28">
           <cell r="J28">
             <v>0.68957308000457829</v>
@@ -1132,6 +1156,20 @@
             <v>-949.90000000000009</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="U21">
+            <v>0.32810304576208882</v>
+          </cell>
+          <cell r="Z21">
+            <v>0.74515549935622039</v>
+          </cell>
+          <cell r="AA21">
+            <v>0.55295345483521796</v>
+          </cell>
+          <cell r="AB21">
+            <v>0.613053532344634</v>
+          </cell>
+        </row>
         <row r="24">
           <cell r="U24">
             <v>0.47005177868427206</v>
@@ -1166,7 +1204,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1297,6 +1335,21 @@
           </cell>
         </row>
         <row r="22">
+          <cell r="J22">
+            <v>0.11441144114411439</v>
+          </cell>
+          <cell r="S22">
+            <v>4.8754062838569867E-2</v>
+          </cell>
+          <cell r="T22">
+            <v>-1.7045454545454586E-2</v>
+          </cell>
+          <cell r="U22">
+            <v>-2.9952706253284278E-2</v>
+          </cell>
+          <cell r="V22">
+            <v>5.4712892741061836E-2</v>
+          </cell>
           <cell r="AH22">
             <v>6.3308923646501336</v>
           </cell>
@@ -1353,7 +1406,6 @@
           <cell r="G11" t="str">
             <v>Q322</v>
           </cell>
-          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="C12">
@@ -1409,6 +1461,12 @@
           </cell>
         </row>
         <row r="28">
+          <cell r="M28">
+            <v>1.6435123376317362E-2</v>
+          </cell>
+          <cell r="W28">
+            <v>1.0772942519902369</v>
+          </cell>
           <cell r="AP28">
             <v>0.77832312625357636</v>
           </cell>
@@ -1557,6 +1615,12 @@
           </cell>
         </row>
         <row r="24">
+          <cell r="U24">
+            <v>0.2157616530514177</v>
+          </cell>
+          <cell r="AB24">
+            <v>0.57428577182862139</v>
+          </cell>
           <cell r="AP24">
             <v>7.0000000000000007E-2</v>
           </cell>
@@ -1690,6 +1754,23 @@
           </cell>
           <cell r="AE20">
             <v>-1347</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="Y24">
+            <v>-4.8380647740903671E-2</v>
+          </cell>
+          <cell r="AF24">
+            <v>8.2502266545784186E-2</v>
+          </cell>
+          <cell r="AG24">
+            <v>-0.14805509026614549</v>
+          </cell>
+          <cell r="AH24">
+            <v>0.17018022938285093</v>
+          </cell>
+          <cell r="AI24">
+            <v>-2.7349948660505885E-2</v>
           </cell>
         </row>
         <row r="25">
@@ -2037,9 +2118,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2048,42 +2129,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AT55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="5"/>
-    <col min="6" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.1640625" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="5"/>
-    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="27" customWidth="1"/>
-    <col min="14" max="15" width="9.5" style="28" customWidth="1"/>
-    <col min="16" max="23" width="9.5" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.5" style="23" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="32" width="9.1640625" style="5"/>
-    <col min="33" max="33" width="9.1640625" style="1"/>
-    <col min="34" max="35" width="9.1640625" style="5"/>
-    <col min="36" max="36" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.1640625" style="1"/>
-    <col min="38" max="38" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="27" customWidth="1"/>
+    <col min="14" max="15" width="9.42578125" style="28" customWidth="1"/>
+    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.42578125" style="23" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="32" width="9.140625" style="5"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
+    <col min="34" max="39" width="9.140625" style="18"/>
+    <col min="40" max="40" width="9.140625" style="1"/>
+    <col min="41" max="42" width="9.140625" style="5"/>
+    <col min="43" max="43" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="1"/>
+    <col min="45" max="45" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="35" t="s">
         <v>29</v>
       </c>
@@ -2100,7 +2183,7 @@
       <c r="AA1" s="35"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2189,23 +2272,41 @@
       <c r="AF2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI2" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ2" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK2" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL2" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2214,9 +2315,9 @@
       <c r="Y3" s="24"/>
       <c r="Z3" s="24"/>
       <c r="AA3" s="24"/>
-      <c r="AM3" s="5"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AT3" s="5"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2309,26 +2410,34 @@
         <f>'[1]Financial Model'!$X$32</f>
         <v>-2.6326241624645998E-2</v>
       </c>
-      <c r="AH4" s="5">
+      <c r="AH4" s="18">
+        <f>'[1]Financial Model'!$Y$26</f>
+        <v>0.47038912615197459</v>
+      </c>
+      <c r="AJ4" s="18">
+        <f>'[1]Financial Model'!$AH$26</f>
+        <v>0.48003319895660423</v>
+      </c>
+      <c r="AO4" s="5">
         <f>[1]Main!$C24</f>
         <v>2007</v>
       </c>
-      <c r="AI4" s="5">
+      <c r="AP4" s="5">
         <f>[1]Main!$C$25</f>
         <v>2017</v>
       </c>
-      <c r="AJ4" s="5" t="str">
+      <c r="AQ4" s="5" t="str">
         <f>[1]Main!$C$23</f>
         <v>New York City, NY</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AS4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AT4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2402,26 +2511,30 @@
         <f>'[2]Financial Model'!$J$31</f>
         <v>-1.6676961087090797E-3</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="18">
+        <f>'[2]Financial Model'!$J$25</f>
+        <v>0.21252241299870667</v>
+      </c>
+      <c r="AO5" s="5">
         <f>[2]Main!$C$24</f>
         <v>2010</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AP5" s="5">
         <f>[2]Main!$C$25</f>
         <v>2022</v>
       </c>
-      <c r="AJ5" s="5" t="str">
+      <c r="AQ5" s="5" t="str">
         <f>[2]Main!$C$23</f>
         <v>Redwood City, CA</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2434,9 +2547,9 @@
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
-      <c r="AM6" s="5"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AT6" s="5"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2544,26 +2657,42 @@
         <f>'[3]Financial Model'!$U$27</f>
         <v>-7.4778536471246807E-3</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" s="18">
+        <f>'[3]Financial Model'!$U$21</f>
+        <v>0.32810304576208882</v>
+      </c>
+      <c r="AJ7" s="18">
+        <f>'[3]Financial Model'!$AB$21</f>
+        <v>0.613053532344634</v>
+      </c>
+      <c r="AK7" s="18">
+        <f>'[3]Financial Model'!$AA$21</f>
+        <v>0.55295345483521796</v>
+      </c>
+      <c r="AL7" s="18">
+        <f>'[3]Financial Model'!$Z$21</f>
+        <v>0.74515549935622039</v>
+      </c>
+      <c r="AO7" s="5">
         <f>[3]Main!$C$24</f>
         <v>2008</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AP7" s="5">
         <f>[3]Main!$C$25</f>
         <v>2016</v>
       </c>
-      <c r="AJ7" s="5" t="str">
+      <c r="AQ7" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AS7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AM7" s="5" t="s">
+      <c r="AT7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -2589,9 +2718,9 @@
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
-      <c r="AM8" s="5"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AT8" s="5"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2610,14 +2739,14 @@
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
-      <c r="AL9" s="5" t="s">
+      <c r="AS9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AM9" s="5" t="s">
+      <c r="AT9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2632,14 +2761,14 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
-      <c r="AL10" s="5" t="s">
+      <c r="AS10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AM10" s="5" t="s">
+      <c r="AT10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -2750,31 +2879,51 @@
         <f>'[4]Financial Model'!$V$20</f>
         <v>0.24629080118694363</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AH11" s="18">
+        <f>'[4]Financial Model'!$J$22</f>
+        <v>0.11441144114411439</v>
+      </c>
+      <c r="AI11" s="18">
+        <f>'[4]Financial Model'!$V$22</f>
+        <v>5.4712892741061836E-2</v>
+      </c>
+      <c r="AJ11" s="18">
+        <f>'[4]Financial Model'!$U$22</f>
+        <v>-2.9952706253284278E-2</v>
+      </c>
+      <c r="AK11" s="18">
+        <f>'[4]Financial Model'!$T$22</f>
+        <v>-1.7045454545454586E-2</v>
+      </c>
+      <c r="AL11" s="18">
+        <f>'[4]Financial Model'!$S$22</f>
+        <v>4.8754062838569867E-2</v>
+      </c>
+      <c r="AO11" s="5">
         <f>[4]Main!$C$24</f>
         <v>1981</v>
       </c>
-      <c r="AI11" s="5">
+      <c r="AP11" s="5">
         <f>[4]Main!$C$25</f>
         <v>1989</v>
       </c>
-      <c r="AJ11" s="5" t="str">
+      <c r="AQ11" s="5" t="str">
         <f>[4]Main!$C$23</f>
         <v>Newcastle, UK</v>
       </c>
-      <c r="AL11" s="5" t="s">
+      <c r="AS11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AM11" s="5" t="s">
+      <c r="AT11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
-      <c r="AM12" s="5"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AT12" s="5"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -2787,24 +2936,24 @@
       <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AO13" s="5">
         <v>2002</v>
       </c>
-      <c r="AI13" s="5">
+      <c r="AP13" s="5">
         <v>2015</v>
       </c>
-      <c r="AJ13" s="5" t="str">
+      <c r="AQ13" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AL13" s="5" t="s">
+      <c r="AS13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AM13" s="5" t="s">
+      <c r="AT13" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -2817,14 +2966,14 @@
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AL15" s="5" t="s">
+      <c r="AS15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AM15" s="5" t="s">
+      <c r="AT15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2837,14 +2986,14 @@
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AL16" s="5" t="s">
+      <c r="AS16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AM16" s="5" t="s">
+      <c r="AT16" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -2935,26 +3084,34 @@
         <f>'[5]Financial Model'!$M$25</f>
         <v>-1.1673022715967497E-3</v>
       </c>
-      <c r="AH19" s="5">
+      <c r="AH19" s="18">
+        <f>'[5]Financial Model'!$M$28</f>
+        <v>1.6435123376317362E-2</v>
+      </c>
+      <c r="AJ19" s="18">
+        <f>'[5]Financial Model'!$W$28</f>
+        <v>1.0772942519902369</v>
+      </c>
+      <c r="AO19" s="5">
         <f>[5]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AP19" s="5">
         <f>[5]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="AJ19" s="5" t="str">
+      <c r="AQ19" s="5" t="str">
         <f>[5]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="AL19" s="5" t="s">
+      <c r="AS19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AM19" s="5" t="s">
+      <c r="AT19" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -2995,14 +3152,14 @@
         <f>[6]Main!$D$26</f>
         <v>0</v>
       </c>
-      <c r="AL20" s="5" t="s">
+      <c r="AS20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AM20" s="5" t="s">
+      <c r="AT20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
@@ -3095,26 +3252,34 @@
         <f>'[7]Financial Model'!$U$34</f>
         <v>-8.1205093774064027E-3</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AH22" s="18">
+        <f>'[7]Financial Model'!$U$24</f>
+        <v>0.2157616530514177</v>
+      </c>
+      <c r="AJ22" s="18">
+        <f>'[7]Financial Model'!$AB$24</f>
+        <v>0.57428577182862139</v>
+      </c>
+      <c r="AO22" s="5">
         <f>[7]Main!$C$24</f>
         <v>2004</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AP22" s="5">
         <f>[7]Main!$C$25</f>
         <v>2015</v>
       </c>
-      <c r="AJ22" s="5" t="str">
+      <c r="AQ22" s="5" t="str">
         <f>[7]Main!$C$23</f>
         <v>Ottowa, Canada</v>
       </c>
-      <c r="AL22" s="5" t="s">
+      <c r="AS22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM22" s="5" t="s">
+      <c r="AT22" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -3222,26 +3387,46 @@
         <f>'[8]Financial Model'!$U$30</f>
         <v>0.34792626728110598</v>
       </c>
-      <c r="AH23" s="5">
+      <c r="AH23" s="18">
+        <f>'[8]Financial Model'!$Y$24</f>
+        <v>-4.8380647740903671E-2</v>
+      </c>
+      <c r="AJ23" s="18">
+        <f>'[8]Financial Model'!$AI$24</f>
+        <v>-2.7349948660505885E-2</v>
+      </c>
+      <c r="AK23" s="18">
+        <f>'[8]Financial Model'!$AH$24</f>
+        <v>0.17018022938285093</v>
+      </c>
+      <c r="AL23" s="18">
+        <f>'[8]Financial Model'!$AG$24</f>
+        <v>-0.14805509026614549</v>
+      </c>
+      <c r="AM23" s="18">
+        <f>'[8]Financial Model'!$AF$24</f>
+        <v>8.2502266545784186E-2</v>
+      </c>
+      <c r="AO23" s="5">
         <f>[8]Main!$C$24</f>
         <v>1995</v>
       </c>
-      <c r="AI23" s="5">
+      <c r="AP23" s="5">
         <f>[8]Main!$C$25</f>
         <v>1998</v>
       </c>
-      <c r="AJ23" s="5" t="str">
+      <c r="AQ23" s="5" t="str">
         <f>[8]Main!$C$23</f>
         <v>San Jose, CA</v>
       </c>
-      <c r="AL23" s="5" t="s">
+      <c r="AS23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM23" s="5" t="s">
+      <c r="AT23" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3254,14 +3439,14 @@
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AL24" s="5" t="s">
+      <c r="AS24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM24" s="5" t="s">
+      <c r="AT24" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3274,12 +3459,12 @@
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AL25" s="5" t="s">
+      <c r="AS25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM25" s="5"/>
-    </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AT25" s="5"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3289,12 +3474,12 @@
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL26" s="5" t="s">
+      <c r="AS26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM26" s="5"/>
-    </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AT26" s="5"/>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3304,9 +3489,9 @@
       <c r="D27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AM27" s="5"/>
-    </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AT27" s="5"/>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3319,11 +3504,11 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AL30" s="5" t="s">
+      <c r="AS30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -3336,11 +3521,11 @@
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AL31" s="5" t="s">
+      <c r="AS31" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3350,14 +3535,14 @@
       <c r="D34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL34" s="5" t="s">
+      <c r="AS34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM34" s="5" t="s">
+      <c r="AT34" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3373,14 +3558,14 @@
       <c r="U35" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AL35" s="5" t="s">
+      <c r="AS35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM35" s="5" t="s">
+      <c r="AT35" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -3390,14 +3575,14 @@
       <c r="D36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL36" s="5" t="s">
+      <c r="AS36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AM36" s="5" t="s">
+      <c r="AT36" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3420,33 +3605,33 @@
         <f>G39*F39</f>
         <v>482.83839999999998</v>
       </c>
-      <c r="AH39" s="5">
+      <c r="AO39" s="5">
         <v>2007</v>
       </c>
-      <c r="AI39" s="5">
+      <c r="AP39" s="5">
         <v>2021</v>
       </c>
-      <c r="AJ39" s="5" t="s">
+      <c r="AQ39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AL39" s="5" t="s">
+      <c r="AS39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AM39" s="5" t="s">
+      <c r="AT39" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
-      <c r="AM40" s="5"/>
-    </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AT40" s="5"/>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
-      <c r="AM41" s="5"/>
-    </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AT41" s="5"/>
+    </row>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -3470,14 +3655,14 @@
         <f>G42*F42</f>
         <v>122932.59181199998</v>
       </c>
-      <c r="AL42" s="5" t="s">
+      <c r="AS42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AM42" s="5" t="s">
+      <c r="AT42" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3501,14 +3686,14 @@
         <f>G43*F43</f>
         <v>14757.024674</v>
       </c>
-      <c r="AL43" s="5" t="s">
+      <c r="AS43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AM43" s="5" t="s">
+      <c r="AT43" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -3531,19 +3716,19 @@
         <f>G44*F44</f>
         <v>65.118500000000012</v>
       </c>
-      <c r="AL44" s="5" t="s">
+      <c r="AS44" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AM44" s="5" t="s">
+      <c r="AT44" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
-      <c r="AM45" s="5"/>
-    </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AT45" s="5"/>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
@@ -3552,9 +3737,9 @@
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
-      <c r="AM46" s="5"/>
-    </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AT46" s="5"/>
+    </row>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -3563,9 +3748,9 @@
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
-      <c r="AM47" s="5"/>
-    </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AT47" s="5"/>
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -3574,14 +3759,14 @@
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
-      <c r="AM48" s="5"/>
-    </row>
-    <row r="49" spans="5:39" x14ac:dyDescent="0.15">
+      <c r="AT48" s="5"/>
+    </row>
+    <row r="49" spans="5:46" x14ac:dyDescent="0.2">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
-      <c r="AM49" s="5"/>
-    </row>
-    <row r="53" spans="5:39" x14ac:dyDescent="0.15">
+      <c r="AT49" s="5"/>
+    </row>
+    <row r="53" spans="5:46" x14ac:dyDescent="0.2">
       <c r="E53" s="33" t="s">
         <v>25</v>
       </c>
@@ -3590,7 +3775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="5:39" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:46" x14ac:dyDescent="0.2">
       <c r="E54" s="10" t="s">
         <v>27</v>
       </c>
@@ -3602,7 +3787,7 @@
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="55" spans="5:39" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:46" x14ac:dyDescent="0.2">
       <c r="E55" s="13" t="s">
         <v>28</v>
       </c>
@@ -3646,21 +3831,21 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.1640625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3693,7 +3878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3719,11 +3904,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F2D308-9237-4CD9-9DFA-78CB279C6423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D98C8F-9C22-4F86-8FAE-1B1E48E3C704}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -806,6 +806,9 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,9 +816,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1204,7 +1204,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1406,6 +1406,7 @@
           <cell r="G11" t="str">
             <v>Q322</v>
           </cell>
+          <cell r="H11"/>
         </row>
         <row r="12">
           <cell r="C12">
@@ -2135,7 +2136,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20"/>
+      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2167,20 +2168,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="W1" s="35" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2272,22 +2273,22 @@
       <c r="AF2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="36" t="s">
+      <c r="AH2" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AI2" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="36" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="AK2" s="36" t="s">
+      <c r="AK2" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AL2" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AM2" s="33" t="s">
         <v>149</v>
       </c>
       <c r="AO2" s="4" t="s">
@@ -3767,10 +3768,10 @@
       <c r="AT49" s="5"/>
     </row>
     <row r="53" spans="5:46" x14ac:dyDescent="0.2">
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="34"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="9" t="s">
         <v>26</v>
       </c>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D98C8F-9C22-4F86-8FAE-1B1E48E3C704}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883D75B-8360-4829-BBC9-DB7ED81297B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="160">
   <si>
     <t>Ticker</t>
   </si>
@@ -487,6 +488,36 @@
   </si>
   <si>
     <t>RevG18</t>
+  </si>
+  <si>
+    <t>$MSFT</t>
+  </si>
+  <si>
+    <t>$GOOG</t>
+  </si>
+  <si>
+    <t>$META</t>
+  </si>
+  <si>
+    <t>$AAPL</t>
+  </si>
+  <si>
+    <t>Microsoft Corporation</t>
+  </si>
+  <si>
+    <t>Cloud, OS, Gaming, AI</t>
+  </si>
+  <si>
+    <t>Big Tech</t>
+  </si>
+  <si>
+    <t>Facebook, WhatsApp, Instagram</t>
+  </si>
+  <si>
+    <t>Search, Services, Cloud, AI</t>
+  </si>
+  <si>
+    <t>Hardware, Services</t>
   </si>
 </sst>
 </file>
@@ -724,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -818,6 +849,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1808,6 +1840,57 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>256.88</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>7440</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>1911187.2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Redmond, WA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1975</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1986</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2130,13 +2213,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AT55"/>
+  <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
+      <selection pane="bottomRight" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2146,8 +2229,9 @@
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="5"/>
     <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="27" customWidth="1"/>
@@ -2162,8 +2246,8 @@
     <col min="41" max="42" width="9.140625" style="5"/>
     <col min="43" max="43" width="21" style="5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.140625" style="1"/>
-    <col min="45" max="45" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2332,7 +2416,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="16">
-        <f>[1]Main!$C$6*F54</f>
+        <f>[1]Main!$C$6*F57</f>
         <v>159.1525</v>
       </c>
       <c r="G4" s="19">
@@ -2340,15 +2424,15 @@
         <v>68.916813000000005</v>
       </c>
       <c r="H4" s="17">
-        <f>[1]Main!$C$8*F54</f>
+        <f>[1]Main!$C$8*F57</f>
         <v>10968.283080982501</v>
       </c>
       <c r="I4" s="17">
-        <f>[1]Main!$C$11*F54</f>
+        <f>[1]Main!$C$11*F57</f>
         <v>538.24670000000003</v>
       </c>
       <c r="J4" s="17">
-        <f>[1]Main!$C$12*F54</f>
+        <f>[1]Main!$C$12*F57</f>
         <v>10430.036380982501</v>
       </c>
       <c r="K4" s="5" t="str">
@@ -2360,7 +2444,7 @@
         <v>44901</v>
       </c>
       <c r="M4" s="27">
-        <f>'[1]Financial Model'!$AU$27*F54</f>
+        <f>'[1]Financial Model'!$AU$27*F57</f>
         <v>147.7711171735871</v>
       </c>
       <c r="N4" s="32">
@@ -2386,11 +2470,11 @@
       <c r="V4" s="8"/>
       <c r="W4" s="22"/>
       <c r="X4" s="24">
-        <f>'[1]Financial Model'!$AH$21*F54</f>
+        <f>'[1]Financial Model'!$AH$21*F57</f>
         <v>-254.69877999999997</v>
       </c>
       <c r="Y4" s="24">
-        <f>'[1]Financial Model'!$AG$15*F54</f>
+        <f>'[1]Financial Model'!$AG$15*F57</f>
         <v>-173.72231999999997</v>
       </c>
       <c r="Z4" s="24"/>
@@ -2452,7 +2536,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[2]Main!$C$6*F54</f>
+        <f>[2]Main!$C$6*F57</f>
         <v>3.3365999999999993</v>
       </c>
       <c r="G5" s="17">
@@ -2460,15 +2544,15 @@
         <v>58.801357000000003</v>
       </c>
       <c r="H5" s="17">
-        <f>[2]Main!$C$8*F54</f>
+        <f>[2]Main!$C$8*F57</f>
         <v>196.19660776619997</v>
       </c>
       <c r="I5" s="17">
-        <f>[2]Main!$C$11*F54</f>
+        <f>[2]Main!$C$11*F57</f>
         <v>13.289129999999998</v>
       </c>
       <c r="J5" s="17">
-        <f>[2]Main!$C$12*F54</f>
+        <f>[2]Main!$C$12*F57</f>
         <v>182.90747776619997</v>
       </c>
       <c r="K5" s="5" t="str">
@@ -2564,7 +2648,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="16">
-        <f>[3]Main!$C$6*$F$54</f>
+        <f>[3]Main!$C$6*$F$57</f>
         <v>49.302</v>
       </c>
       <c r="G7" s="17">
@@ -2572,15 +2656,15 @@
         <v>183.692564</v>
       </c>
       <c r="H7" s="17">
-        <f>[3]Main!$C$8*$F$54</f>
+        <f>[3]Main!$C$8*$F$57</f>
         <v>9056.4107903280001</v>
       </c>
       <c r="I7" s="17">
-        <f>[3]Main!$C$11*F54</f>
+        <f>[3]Main!$C$11*F57</f>
         <v>2653.2759399999995</v>
       </c>
       <c r="J7" s="17">
-        <f>[3]Main!$C$12*F54</f>
+        <f>[3]Main!$C$12*F57</f>
         <v>6403.1348503280005</v>
       </c>
       <c r="K7" s="5" t="str">
@@ -2592,7 +2676,7 @@
         <v>37926</v>
       </c>
       <c r="M7" s="27">
-        <f>'[3]Financial Model'!$AP$29*F54</f>
+        <f>'[3]Financial Model'!$AP$29*F57</f>
         <v>44.04672492398587</v>
       </c>
       <c r="N7" s="32">
@@ -2627,19 +2711,19 @@
       <c r="V7" s="8"/>
       <c r="W7" s="22"/>
       <c r="X7" s="24">
-        <f>'[3]Financial Model'!$AB$17*$F$54</f>
+        <f>'[3]Financial Model'!$AB$17*$F$57</f>
         <v>-788.41700000000003</v>
       </c>
       <c r="Y7" s="24">
-        <f>'[3]Financial Model'!$AA$17*$F$54</f>
+        <f>'[3]Financial Model'!$AA$17*$F$57</f>
         <v>-407.51256999999981</v>
       </c>
       <c r="Z7" s="24">
-        <f>'[3]Financial Model'!$Z$17*$F$54</f>
+        <f>'[3]Financial Model'!$Z$17*$F$57</f>
         <v>-254.86228999999994</v>
       </c>
       <c r="AA7" s="24">
-        <f>'[3]Financial Model'!$Y$17*F54</f>
+        <f>'[3]Financial Model'!$Y$17*F57</f>
         <v>-101.21767</v>
       </c>
       <c r="AC7" s="18">
@@ -3008,7 +3092,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="17">
-        <f>[5]Main!$C$6*F54</f>
+        <f>[5]Main!$C$6*F57</f>
         <v>30.8843</v>
       </c>
       <c r="G19" s="17">
@@ -3016,15 +3100,15 @@
         <v>597.779</v>
       </c>
       <c r="H19" s="17">
-        <f>[5]Main!$C$8*F54</f>
+        <f>[5]Main!$C$8*F57</f>
         <v>18461.985969699999</v>
       </c>
       <c r="I19" s="17">
-        <f>[5]Main!$C$11*F54</f>
+        <f>[5]Main!$C$11*F57</f>
         <v>1687.26052</v>
       </c>
       <c r="J19" s="17">
-        <f>[5]Main!$C$12*F54</f>
+        <f>[5]Main!$C$12*F57</f>
         <v>16774.725449699999</v>
       </c>
       <c r="K19" s="5" t="str">
@@ -3036,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="27">
-        <f>'[5]Financial Model'!$AP$26*F54</f>
+        <f>'[5]Financial Model'!$AP$26*F57</f>
         <v>54.922264928153325</v>
       </c>
       <c r="N19" s="32">
@@ -3056,11 +3140,11 @@
         <v>11.590025427513091</v>
       </c>
       <c r="X19" s="25">
-        <f>'[5]Financial Model'!$W$18*F54</f>
+        <f>'[5]Financial Model'!$W$18*F57</f>
         <v>-417.89669999999995</v>
       </c>
       <c r="Y19" s="25">
-        <f>'[5]Financial Model'!$V$18*F54</f>
+        <f>'[5]Financial Model'!$V$18*F57</f>
         <v>-216.47727999999992</v>
       </c>
       <c r="Z19" s="23" t="s">
@@ -3126,7 +3210,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="17">
-        <f>[6]Main!$C$6*F54</f>
+        <f>[6]Main!$C$6*F57</f>
         <v>27.7469</v>
       </c>
       <c r="G20" s="17">
@@ -3134,15 +3218,15 @@
         <v>296.01300300000003</v>
       </c>
       <c r="H20" s="17">
-        <f>[6]Main!$C$8*F54</f>
+        <f>[6]Main!$C$8*F57</f>
         <v>8213.4431929407001</v>
       </c>
       <c r="I20" s="19">
-        <f>[6]Main!$C$11*F54</f>
+        <f>[6]Main!$C$11*F57</f>
         <v>-436.42229999999995</v>
       </c>
       <c r="J20" s="17">
-        <f>[6]Main!$C$12*F54</f>
+        <f>[6]Main!$C$12*F57</f>
         <v>8649.8654929407003</v>
       </c>
       <c r="K20" s="26" t="str">
@@ -3174,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="16">
-        <f>[7]Main!$C$6*$F$54</f>
+        <f>[7]Main!$C$6*$F$57</f>
         <v>43.931899999999999</v>
       </c>
       <c r="G22" s="17">
@@ -3182,15 +3266,15 @@
         <v>1269.4252260000001</v>
       </c>
       <c r="H22" s="17">
-        <f>[7]Main!$C$8*F54</f>
+        <f>[7]Main!$C$8*F57</f>
         <v>55768.262086109396</v>
       </c>
       <c r="I22" s="17">
-        <f>[7]Main!$C$11*F54</f>
+        <f>[7]Main!$C$11*F57</f>
         <v>3343.8276399999995</v>
       </c>
       <c r="J22" s="17">
-        <f>[7]Main!$C$12*F54</f>
+        <f>[7]Main!$C$12*F57</f>
         <v>52424.434446109401</v>
       </c>
       <c r="K22" s="5" t="str">
@@ -3234,7 +3318,7 @@
         <v>-19.688678338041829</v>
       </c>
       <c r="X22" s="25">
-        <f>'[7]Financial Model'!$AB$20*F54</f>
+        <f>'[7]Financial Model'!$AB$20*F57</f>
         <v>2419.1669699999998</v>
       </c>
       <c r="AC22" s="18">
@@ -3294,7 +3378,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="16">
-        <f>[8]Main!$C$6*F54</f>
+        <f>[8]Main!$C$6*F57</f>
         <v>41.085000000000001</v>
       </c>
       <c r="G23" s="19">
@@ -3302,15 +3386,15 @@
         <v>542.659087</v>
       </c>
       <c r="H23" s="17">
-        <f>[8]Main!$C$8*F54</f>
+        <f>[8]Main!$C$8*F57</f>
         <v>22295.148589394998</v>
       </c>
       <c r="I23" s="17">
-        <f>[8]Main!$C$11*F54</f>
+        <f>[8]Main!$C$11*F57</f>
         <v>-3515.0499999999997</v>
       </c>
       <c r="J23" s="17">
-        <f>[8]Main!$C$12*F54</f>
+        <f>[8]Main!$C$12*F57</f>
         <v>25810.198589395</v>
       </c>
       <c r="K23" s="5" t="str">
@@ -3322,7 +3406,7 @@
         <v>37561</v>
       </c>
       <c r="M23" s="27">
-        <f>'[8]Financial Model'!$AW$29*$F$54</f>
+        <f>'[8]Financial Model'!$AW$29*$F$57</f>
         <v>47.543323554437464</v>
       </c>
       <c r="N23" s="32">
@@ -3357,19 +3441,19 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="25">
-        <f>'[8]Financial Model'!$AE$20*F54</f>
+        <f>'[8]Financial Model'!$AE$20*F57</f>
         <v>-1118.01</v>
       </c>
       <c r="Y23" s="25">
-        <f>'[8]Financial Model'!$AD$20*F54</f>
+        <f>'[8]Financial Model'!$AD$20*F57</f>
         <v>6030.78</v>
       </c>
       <c r="Z23" s="25">
-        <f>'[8]Financial Model'!$AC$20*F54</f>
+        <f>'[8]Financial Model'!$AC$20*F57</f>
         <v>1431.75</v>
       </c>
       <c r="AA23" s="25">
-        <f>'[8]Financial Model'!$AC$20*G54</f>
+        <f>'[8]Financial Model'!$AC$20*G57</f>
         <v>2078.3132530120483</v>
       </c>
       <c r="AC23" s="18">
@@ -3646,7 +3730,7 @@
         <v>17</v>
       </c>
       <c r="F42" s="16">
-        <f>332.82*F54</f>
+        <f>332.82*F57</f>
         <v>276.24059999999997</v>
       </c>
       <c r="G42" s="19">
@@ -3677,7 +3761,7 @@
         <v>17</v>
       </c>
       <c r="F43" s="16">
-        <f>92.06*F54</f>
+        <f>92.06*F57</f>
         <v>76.409800000000004</v>
       </c>
       <c r="G43" s="19">
@@ -3762,47 +3846,154 @@
       <c r="H48" s="17"/>
       <c r="AT48" s="5"/>
     </row>
-    <row r="49" spans="5:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="AT49" s="5"/>
     </row>
-    <row r="53" spans="5:46" x14ac:dyDescent="0.2">
-      <c r="E53" s="34" t="s">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="G50" s="19"/>
+      <c r="H50" s="17"/>
+      <c r="AT50" s="5"/>
+    </row>
+    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="16">
+        <f>[9]Main!$C$6*$F$57</f>
+        <v>213.21039999999999</v>
+      </c>
+      <c r="G51" s="37">
+        <f>[9]Main!$C$7</f>
+        <v>7440</v>
+      </c>
+      <c r="H51" s="37">
+        <f>[9]Main!$C$12*$F$57</f>
+        <v>1586285.3759999999</v>
+      </c>
+      <c r="I51" s="37">
+        <f>[9]Main!$C$11*$F$57</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="37">
+        <f>[9]Main!$C$12*$F$57</f>
+        <v>1586285.3759999999</v>
+      </c>
+      <c r="K51" s="5">
+        <f>[9]Main!$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <f>[9]Main!$D$29</f>
+        <v>0</v>
+      </c>
+      <c r="AO51" s="5">
+        <f>[9]Main!$C$24</f>
+        <v>1975</v>
+      </c>
+      <c r="AP51" s="5">
+        <f>[9]Main!$C$25</f>
+        <v>1986</v>
+      </c>
+      <c r="AQ51" s="5" t="str">
+        <f>[9]Main!$C$23</f>
+        <v>Redmond, WA</v>
+      </c>
+      <c r="AS51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT51" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS52" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT52" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT53" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT54" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="E56" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="9" t="s">
+      <c r="F56" s="35"/>
+      <c r="G56" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="5:46" x14ac:dyDescent="0.2">
-      <c r="E54" s="10" t="s">
+    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="E57" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F57" s="11">
         <v>0.83</v>
       </c>
-      <c r="G54" s="12">
-        <f>1/F54</f>
+      <c r="G57" s="12">
+        <f>1/F57</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="55" spans="5:46" x14ac:dyDescent="0.2">
-      <c r="E55" s="13" t="s">
+    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="E58" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F58" s="14">
         <v>0.87</v>
       </c>
-      <c r="G55" s="15">
-        <f>1/F55</f>
+      <c r="G58" s="15">
+        <f>1/F58</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E56:F56"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="W1:AA1"/>
   </mergeCells>
@@ -3815,9 +4006,13 @@
     <hyperlink ref="B23" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
     <hyperlink ref="B20" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
     <hyperlink ref="B22" r:id="rId8" xr:uid="{03436A82-476B-4BF2-A855-FEC5F745CF98}"/>
+    <hyperlink ref="B51" r:id="rId9" xr:uid="{46DC7469-9CFC-4610-A22B-3D4E075DFC99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
+  <ignoredErrors>
+    <ignoredError sqref="I51" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883D75B-8360-4829-BBC9-DB7ED81297B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1E57E-B644-4289-ABB4-C58873A81935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
   <si>
     <t>Ticker</t>
   </si>
@@ -518,6 +519,9 @@
   </si>
   <si>
     <t>Hardware, Services</t>
+  </si>
+  <si>
+    <t>Alphabet Inc.</t>
   </si>
 </sst>
 </file>
@@ -840,6 +844,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,7 +854,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -989,6 +993,62 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>95.46</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>13523</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>1290905.5799999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>1290905.5799999998</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Mountain View, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1998</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2216,10 +2276,10 @@
   <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M51" sqref="M51"/>
+      <selection pane="bottomRight" activeCell="AQ53" sqref="AQ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2252,20 +2312,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3873,19 +3933,19 @@
         <f>[9]Main!$C$6*$F$57</f>
         <v>213.21039999999999</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="34">
         <f>[9]Main!$C$7</f>
         <v>7440</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="34">
         <f>[9]Main!$C$12*$F$57</f>
         <v>1586285.3759999999</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="34">
         <f>[9]Main!$C$11*$F$57</f>
         <v>0</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="34">
         <f>[9]Main!$C$12*$F$57</f>
         <v>1586285.3759999999</v>
       </c>
@@ -3917,11 +3977,57 @@
       </c>
     </row>
     <row r="52" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="7" t="s">
         <v>151</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="F52" s="16">
+        <f>[10]Main!$C$6*$F$57</f>
+        <v>79.231799999999993</v>
+      </c>
+      <c r="G52" s="34">
+        <f>[10]Main!$C$7</f>
+        <v>13523</v>
+      </c>
+      <c r="H52" s="34">
+        <f>[10]Main!$C$8*$F$57</f>
+        <v>1071451.6313999998</v>
+      </c>
+      <c r="I52" s="34">
+        <f>[10]Main!$C$11*$F$57</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="34">
+        <f>[10]Main!$C$12*$F$57</f>
+        <v>1071451.6313999998</v>
+      </c>
+      <c r="K52" s="5">
+        <f>[10]Main!$C$28</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <f>[10]Main!$D$28</f>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="5">
+        <f>[10]Main!$C$24</f>
+        <v>1998</v>
+      </c>
+      <c r="AP52" s="5">
+        <f>[10]Main!$C$25</f>
+        <v>2004</v>
+      </c>
+      <c r="AQ52" s="5" t="str">
+        <f>[10]Main!$C$23</f>
+        <v>Mountain View, CA</v>
       </c>
       <c r="AS52" s="5" t="s">
         <v>156</v>
@@ -3959,10 +4065,10 @@
       </c>
     </row>
     <row r="56" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="35"/>
+      <c r="F56" s="36"/>
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>
@@ -4007,9 +4113,10 @@
     <hyperlink ref="B20" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
     <hyperlink ref="B22" r:id="rId8" xr:uid="{03436A82-476B-4BF2-A855-FEC5F745CF98}"/>
     <hyperlink ref="B51" r:id="rId9" xr:uid="{46DC7469-9CFC-4610-A22B-3D4E075DFC99}"/>
+    <hyperlink ref="B52" r:id="rId10" xr:uid="{1F04985A-EB8E-4ED3-BC5F-B6E427A61566}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
     <ignoredError sqref="I51" formula="1"/>
   </ignoredErrors>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1E57E-B644-4289-ABB4-C58873A81935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAEAF9C-7877-4755-9059-9BF2A88F0253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -1047,6 +1047,10 @@
             <v>2004</v>
           </cell>
         </row>
+        <row r="28">
+          <cell r="C28"/>
+          <cell r="D28"/>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
     </sheetDataSet>
@@ -1469,7 +1473,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>37.21</v>
+            <v>41.46</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -1477,7 +1481,7 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>597.779</v>
+            <v>601.85900000000004</v>
           </cell>
           <cell r="G7">
             <v>2021</v>
@@ -1485,7 +1489,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>22243.356589999999</v>
+            <v>24953.074140000001</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -1493,26 +1497,28 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>2032.8440000000001</v>
+            <v>1988.4900000000002</v>
           </cell>
           <cell r="G11" t="str">
-            <v>Q322</v>
-          </cell>
-          <cell r="H11"/>
+            <v>Q422</v>
+          </cell>
+          <cell r="H11">
+            <v>42036</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>20210.512589999998</v>
+            <v>22964.584140000003</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>52.387601721181568</v>
+            <v>81.803970495189361</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>11.590025427513091</v>
+            <v>11.214602687937182</v>
           </cell>
         </row>
       </sheetData>
@@ -1550,7 +1556,7 @@
         </row>
         <row r="26">
           <cell r="AP26">
-            <v>66.171403527895578</v>
+            <v>64.111668818778071</v>
           </cell>
         </row>
         <row r="28">
@@ -1561,7 +1567,7 @@
             <v>1.0772942519902369</v>
           </cell>
           <cell r="AP28">
-            <v>0.77832312625357636</v>
+            <v>0.54634994738972664</v>
           </cell>
         </row>
       </sheetData>
@@ -1948,6 +1954,10 @@
           <cell r="C25">
             <v>1986</v>
           </cell>
+        </row>
+        <row r="29">
+          <cell r="C29"/>
+          <cell r="D29"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -2276,10 +2286,10 @@
   <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ53" sqref="AQ53"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3153,39 +3163,39 @@
       </c>
       <c r="F19" s="17">
         <f>[5]Main!$C$6*F57</f>
-        <v>30.8843</v>
+        <v>34.411799999999999</v>
       </c>
       <c r="G19" s="17">
         <f>[5]Main!$C$7</f>
-        <v>597.779</v>
+        <v>601.85900000000004</v>
       </c>
       <c r="H19" s="17">
         <f>[5]Main!$C$8*F57</f>
-        <v>18461.985969699999</v>
+        <v>20711.051536200001</v>
       </c>
       <c r="I19" s="17">
         <f>[5]Main!$C$11*F57</f>
-        <v>1687.26052</v>
+        <v>1650.4467000000002</v>
       </c>
       <c r="J19" s="17">
         <f>[5]Main!$C$12*F57</f>
-        <v>16774.725449699999</v>
+        <v>19060.6048362</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>[5]Main!$G$11</f>
-        <v>Q322</v>
-      </c>
-      <c r="L19" s="5">
+        <v>Q422</v>
+      </c>
+      <c r="L19" s="8">
         <f>[5]Main!$H$11</f>
-        <v>0</v>
+        <v>42036</v>
       </c>
       <c r="M19" s="27">
         <f>'[5]Financial Model'!$AP$26*F57</f>
-        <v>54.922264928153325</v>
+        <v>53.212685119585799</v>
       </c>
       <c r="N19" s="32">
         <f>'[5]Financial Model'!$AP$28</f>
-        <v>0.77832312625357636</v>
+        <v>0.54634994738972664</v>
       </c>
       <c r="O19" s="32">
         <f>'[5]Financial Model'!$AP$22</f>
@@ -3193,11 +3203,11 @@
       </c>
       <c r="Q19" s="21">
         <f>[5]Main!$G$16</f>
-        <v>52.387601721181568</v>
+        <v>81.803970495189361</v>
       </c>
       <c r="R19" s="21">
         <f>[5]Main!$G$17</f>
-        <v>11.590025427513091</v>
+        <v>11.214602687937182</v>
       </c>
       <c r="X19" s="25">
         <f>'[5]Financial Model'!$W$18*F57</f>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAEAF9C-7877-4755-9059-9BF2A88F0253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67BF954-B96D-4614-A6F3-CF89FB6D2EA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -808,9 +808,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -854,6 +851,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1521,6 +1521,16 @@
             <v>11.214602687937182</v>
           </cell>
         </row>
+        <row r="18">
+          <cell r="G18">
+            <v>-26.466723449006508</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>10.32092020321323</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="18">
@@ -1530,28 +1540,31 @@
           <cell r="W18">
             <v>-503.48999999999995</v>
           </cell>
+          <cell r="X18">
+            <v>-934.68300000000011</v>
+          </cell>
         </row>
         <row r="22">
-          <cell r="M22">
-            <v>0.75577498469211346</v>
+          <cell r="N22">
+            <v>0.75400515367769483</v>
           </cell>
           <cell r="AP22">
             <v>0.09</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="M23">
-            <v>-0.5794918747476856</v>
+          <cell r="N23">
+            <v>-0.52141090562414072</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="M24">
-            <v>-0.5831522463478378</v>
+          <cell r="N24">
+            <v>-0.50342484680589428</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="M25">
-            <v>-1.1673022715967497E-3</v>
+          <cell r="N25">
+            <v>-1.1107141246622243E-2</v>
           </cell>
         </row>
         <row r="26">
@@ -1560,11 +1573,14 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="M28">
-            <v>1.6435123376317362E-2</v>
+          <cell r="N28">
+            <v>1.7995003243847618E-2</v>
           </cell>
           <cell r="W28">
             <v>1.0772942519902369</v>
+          </cell>
+          <cell r="X28">
+            <v>0.15937579623808262</v>
           </cell>
           <cell r="AP28">
             <v>0.54634994738972664</v>
@@ -2289,7 +2305,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2304,10 +2320,10 @@
     <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="27" customWidth="1"/>
-    <col min="14" max="15" width="9.42578125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="26" customWidth="1"/>
+    <col min="14" max="15" width="9.42578125" style="27" customWidth="1"/>
     <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.42578125" style="23" customWidth="1"/>
+    <col min="24" max="27" width="9.42578125" style="22" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="1"/>
     <col min="29" max="32" width="9.140625" style="5"/>
     <col min="33" max="33" width="9.140625" style="1"/>
@@ -2322,20 +2338,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2373,13 +2389,13 @@
       <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>143</v>
       </c>
       <c r="P2" s="4"/>
@@ -2427,22 +2443,22 @@
       <c r="AF2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AJ2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AK2" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AL2" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="32" t="s">
         <v>149</v>
       </c>
       <c r="AO2" s="4" t="s">
@@ -2465,11 +2481,11 @@
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
       <c r="AT3" s="5"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
@@ -2513,15 +2529,15 @@
         <f>[1]Main!$D$28</f>
         <v>44901</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="26">
         <f>'[1]Financial Model'!$AU$27*F57</f>
         <v>147.7711171735871</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="31">
         <f>'[1]Financial Model'!$AU$29</f>
         <v>-7.1512435094722937E-2</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="31">
         <f>'[1]Financial Model'!$AU$23</f>
         <v>0.08</v>
       </c>
@@ -2538,17 +2554,17 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="24">
+      <c r="W4" s="23"/>
+      <c r="X4" s="23">
         <f>'[1]Financial Model'!$AH$21*F57</f>
         <v>-254.69877999999997</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="23">
         <f>'[1]Financial Model'!$AG$15*F57</f>
         <v>-173.72231999999997</v>
       </c>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
       <c r="AC4" s="18">
         <f>'[1]Financial Model'!$X$29</f>
         <v>0.70928999538958049</v>
@@ -2633,8 +2649,8 @@
         <f>[2]Main!$D$28</f>
         <v>42705</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="21">
         <f>[2]Main!$C$34</f>
@@ -2645,11 +2661,11 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
       <c r="AC5" s="18">
         <f>'[2]Financial Model'!$J$28</f>
         <v>0.68957308000457829</v>
@@ -2697,11 +2713,11 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
       <c r="AT6" s="5"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
@@ -2745,15 +2761,15 @@
         <f>[3]Main!$D$28</f>
         <v>37926</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <f>'[3]Financial Model'!$AP$29*F57</f>
         <v>44.04672492398587</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="31">
         <f>'[3]Financial Model'!$AP$31</f>
         <v>-0.10659354744258087</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="31">
         <f>'[3]Financial Model'!$AP$25</f>
         <v>0.08</v>
       </c>
@@ -2779,20 +2795,20 @@
         <v>-5.8527494874135044</v>
       </c>
       <c r="V7" s="8"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="24">
+      <c r="W7" s="23"/>
+      <c r="X7" s="23">
         <f>'[3]Financial Model'!$AB$17*$F$57</f>
         <v>-788.41700000000003</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Y7" s="23">
         <f>'[3]Financial Model'!$AA$17*$F$57</f>
         <v>-407.51256999999981</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="Z7" s="23">
         <f>'[3]Financial Model'!$Z$17*$F$57</f>
         <v>-254.86228999999994</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="23">
         <f>'[3]Financial Model'!$Y$17*F57</f>
         <v>-101.21767</v>
       </c>
@@ -2855,8 +2871,8 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="L8" s="8"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="21"/>
@@ -2864,11 +2880,11 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
@@ -2889,11 +2905,11 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
       <c r="AS9" s="5" t="s">
         <v>15</v>
       </c>
@@ -2911,11 +2927,11 @@
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
       <c r="AS10" s="5" t="s">
         <v>15</v>
       </c>
@@ -2964,15 +2980,15 @@
         <f>[4]Main!$D$27</f>
         <v>44881</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="26">
         <f>'[4]Financial Model'!$AH$22</f>
         <v>6.3308923646501336</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="31">
         <f>'[4]Financial Model'!$AH$24</f>
         <v>-0.14975928489791379</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="31">
         <f>'[4]Financial Model'!$AH$18</f>
         <v>0.06</v>
       </c>
@@ -2998,23 +3014,23 @@
         <v>32.771338582677167</v>
       </c>
       <c r="V11" s="20"/>
-      <c r="W11" s="24">
+      <c r="W11" s="23">
         <f>'[4]Financial Model'!$V$13</f>
         <v>254</v>
       </c>
-      <c r="X11" s="24">
+      <c r="X11" s="23">
         <f>'[4]Financial Model'!$U$13</f>
         <v>285</v>
       </c>
-      <c r="Y11" s="24">
+      <c r="Y11" s="23">
         <f>'[4]Financial Model'!$T$13</f>
         <v>310</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="23">
         <f>'[4]Financial Model'!$S$13</f>
         <v>266</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="23">
         <f>'[4]Financial Model'!$R$13</f>
         <v>295</v>
       </c>
@@ -3076,6 +3092,7 @@
     <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
+      <c r="W12" s="22"/>
       <c r="AT12" s="5"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
@@ -3091,6 +3108,7 @@
       <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="W13" s="22"/>
       <c r="AO13" s="5">
         <v>2002</v>
       </c>
@@ -3108,6 +3126,9 @@
         <v>79</v>
       </c>
     </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="W14" s="22"/>
+    </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>48</v>
@@ -3121,6 +3142,7 @@
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="W15" s="22"/>
       <c r="AS15" s="5" t="s">
         <v>50</v>
       </c>
@@ -3141,12 +3163,19 @@
       <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="W16" s="22"/>
       <c r="AS16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AT16" s="5" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W17" s="22"/>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W18" s="22"/>
     </row>
     <row r="19" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
@@ -3189,15 +3218,15 @@
         <f>[5]Main!$H$11</f>
         <v>42036</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="26">
         <f>'[5]Financial Model'!$AP$26*F57</f>
         <v>53.212685119585799</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="31">
         <f>'[5]Financial Model'!$AP$28</f>
         <v>0.54634994738972664</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="31">
         <f>'[5]Financial Model'!$AP$22</f>
         <v>0.09</v>
       </c>
@@ -3209,39 +3238,55 @@
         <f>[5]Main!$G$17</f>
         <v>11.214602687937182</v>
       </c>
-      <c r="X19" s="25">
+      <c r="S19" s="21">
+        <f>[5]Main!$G$19</f>
+        <v>10.32092020321323</v>
+      </c>
+      <c r="T19" s="21">
+        <f>[5]Main!$G$18</f>
+        <v>-26.466723449006508</v>
+      </c>
+      <c r="W19" s="23">
+        <f>'[5]Financial Model'!$X$18</f>
+        <v>-934.68300000000011</v>
+      </c>
+      <c r="X19" s="24">
         <f>'[5]Financial Model'!$W$18*F57</f>
         <v>-417.89669999999995</v>
       </c>
-      <c r="Y19" s="25">
+      <c r="Y19" s="24">
         <f>'[5]Financial Model'!$V$18*F57</f>
         <v>-216.47727999999992</v>
       </c>
-      <c r="Z19" s="23" t="s">
+      <c r="Z19" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AA19" s="23" t="s">
+      <c r="AA19" s="22" t="s">
         <v>139</v>
       </c>
       <c r="AC19" s="18">
-        <f>'[5]Financial Model'!$M$22</f>
-        <v>0.75577498469211346</v>
+        <f>'[5]Financial Model'!$N$22</f>
+        <v>0.75400515367769483</v>
       </c>
       <c r="AD19" s="18">
-        <f>'[5]Financial Model'!$M$23</f>
-        <v>-0.5794918747476856</v>
+        <f>'[5]Financial Model'!$N$23</f>
+        <v>-0.52141090562414072</v>
       </c>
       <c r="AE19" s="18">
-        <f>'[5]Financial Model'!$M$24</f>
-        <v>-0.5831522463478378</v>
+        <f>'[5]Financial Model'!$N$24</f>
+        <v>-0.50342484680589428</v>
       </c>
       <c r="AF19" s="18">
-        <f>'[5]Financial Model'!$M$25</f>
-        <v>-1.1673022715967497E-3</v>
+        <f>'[5]Financial Model'!$N$25</f>
+        <v>-1.1107141246622243E-2</v>
       </c>
       <c r="AH19" s="18">
-        <f>'[5]Financial Model'!$M$28</f>
-        <v>1.6435123376317362E-2</v>
+        <f>'[5]Financial Model'!$N$28</f>
+        <v>1.7995003243847618E-2</v>
+      </c>
+      <c r="AI19" s="18">
+        <f>'[5]Financial Model'!$X$28</f>
+        <v>0.15937579623808262</v>
       </c>
       <c r="AJ19" s="18">
         <f>'[5]Financial Model'!$W$28</f>
@@ -3299,20 +3344,24 @@
         <f>[6]Main!$C$12*F57</f>
         <v>8649.8654929407003</v>
       </c>
-      <c r="K20" s="26" t="str">
+      <c r="K20" s="25" t="str">
         <f>[6]Main!$C$26</f>
         <v>Q122</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <f>[6]Main!$D$26</f>
         <v>0</v>
       </c>
+      <c r="W20" s="22"/>
       <c r="AS20" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AT20" s="5" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W21" s="22"/>
     </row>
     <row r="22" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
@@ -3355,15 +3404,15 @@
         <f>[7]Main!$D$28</f>
         <v>46661</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="26">
         <f>'[7]Financial Model'!$AP$28</f>
         <v>26.075206575494708</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="31">
         <f>'[7]Financial Model'!$AP$30</f>
         <v>-0.50736431937474569</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="31">
         <f>'[7]Financial Model'!$AP$24</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3387,7 +3436,8 @@
         <f>[7]Main!$C$37</f>
         <v>-19.688678338041829</v>
       </c>
-      <c r="X22" s="25">
+      <c r="W22" s="22"/>
+      <c r="X22" s="24">
         <f>'[7]Financial Model'!$AB$20*F57</f>
         <v>2419.1669699999998</v>
       </c>
@@ -3475,15 +3525,15 @@
         <f>[8]Main!$D$28</f>
         <v>37561</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="26">
         <f>'[8]Financial Model'!$AW$29*$F$57</f>
         <v>47.543323554437464</v>
       </c>
-      <c r="N23" s="32">
+      <c r="N23" s="31">
         <f>'[8]Financial Model'!$AW$31</f>
         <v>0.15719419628666098</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="31">
         <f>'[8]Financial Model'!$AW$25</f>
         <v>0.08</v>
       </c>
@@ -3509,20 +3559,20 @@
         <v>1110.5937430892857</v>
       </c>
       <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="25">
+      <c r="W23" s="37"/>
+      <c r="X23" s="24">
         <f>'[8]Financial Model'!$AE$20*F57</f>
         <v>-1118.01</v>
       </c>
-      <c r="Y23" s="25">
+      <c r="Y23" s="24">
         <f>'[8]Financial Model'!$AD$20*F57</f>
         <v>6030.78</v>
       </c>
-      <c r="Z23" s="25">
+      <c r="Z23" s="24">
         <f>'[8]Financial Model'!$AC$20*F57</f>
         <v>1431.75</v>
       </c>
-      <c r="AA23" s="25">
+      <c r="AA23" s="24">
         <f>'[8]Financial Model'!$AC$20*G57</f>
         <v>2078.3132530120483</v>
       </c>
@@ -3594,6 +3644,7 @@
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="W24" s="22"/>
       <c r="AS24" s="5" t="s">
         <v>84</v>
       </c>
@@ -3614,6 +3665,7 @@
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="W25" s="22"/>
       <c r="AS25" s="5" t="s">
         <v>84</v>
       </c>
@@ -3629,6 +3681,7 @@
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="W26" s="22"/>
       <c r="AS26" s="5" t="s">
         <v>84</v>
       </c>
@@ -3644,7 +3697,14 @@
       <c r="D27" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="W27" s="22"/>
       <c r="AT27" s="5"/>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W29" s="22"/>
     </row>
     <row r="30" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
@@ -3659,6 +3719,7 @@
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="W30" s="22"/>
       <c r="AS30" s="5" t="s">
         <v>70</v>
       </c>
@@ -3676,9 +3737,16 @@
       <c r="E31" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="W31" s="22"/>
       <c r="AS31" s="5" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W32" s="22"/>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W33" s="22"/>
     </row>
     <row r="34" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -3690,6 +3758,7 @@
       <c r="D34" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="W34" s="22"/>
       <c r="AS34" s="5" t="s">
         <v>84</v>
       </c>
@@ -3713,6 +3782,7 @@
       <c r="U35" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="W35" s="22"/>
       <c r="AS35" s="5" t="s">
         <v>84</v>
       </c>
@@ -3730,12 +3800,19 @@
       <c r="D36" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="W36" s="22"/>
       <c r="AS36" s="5" t="s">
         <v>84</v>
       </c>
       <c r="AT36" s="5" t="s">
         <v>112</v>
       </c>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W37" s="22"/>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="W38" s="22"/>
     </row>
     <row r="39" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
@@ -3760,6 +3837,7 @@
         <f>G39*F39</f>
         <v>482.83839999999998</v>
       </c>
+      <c r="W39" s="22"/>
       <c r="AO39" s="5">
         <v>2007</v>
       </c>
@@ -3779,11 +3857,13 @@
     <row r="40" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
+      <c r="W40" s="22"/>
       <c r="AT40" s="5"/>
     </row>
     <row r="41" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
+      <c r="W41" s="22"/>
       <c r="AT41" s="5"/>
     </row>
     <row r="42" spans="2:46" x14ac:dyDescent="0.2">
@@ -3810,6 +3890,7 @@
         <f>G42*F42</f>
         <v>122932.59181199998</v>
       </c>
+      <c r="W42" s="22"/>
       <c r="AS42" s="5" t="s">
         <v>126</v>
       </c>
@@ -3841,6 +3922,7 @@
         <f>G43*F43</f>
         <v>14757.024674</v>
       </c>
+      <c r="W43" s="22"/>
       <c r="AS43" s="5" t="s">
         <v>126</v>
       </c>
@@ -3871,6 +3953,7 @@
         <f>G44*F44</f>
         <v>65.118500000000012</v>
       </c>
+      <c r="W44" s="22"/>
       <c r="AS44" s="5" t="s">
         <v>136</v>
       </c>
@@ -3881,6 +3964,7 @@
     <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
+      <c r="W45" s="22"/>
       <c r="AT45" s="5"/>
     </row>
     <row r="46" spans="2:46" x14ac:dyDescent="0.2">
@@ -3892,6 +3976,7 @@
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
+      <c r="W46" s="22"/>
       <c r="AT46" s="5"/>
     </row>
     <row r="47" spans="2:46" x14ac:dyDescent="0.2">
@@ -3903,6 +3988,7 @@
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
+      <c r="W47" s="22"/>
       <c r="AT47" s="5"/>
     </row>
     <row r="48" spans="2:46" x14ac:dyDescent="0.2">
@@ -3914,16 +4000,19 @@
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
+      <c r="W48" s="22"/>
       <c r="AT48" s="5"/>
     </row>
     <row r="49" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
+      <c r="W49" s="22"/>
       <c r="AT49" s="5"/>
     </row>
     <row r="50" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
+      <c r="W50" s="22"/>
       <c r="AT50" s="5"/>
     </row>
     <row r="51" spans="2:46" x14ac:dyDescent="0.2">
@@ -3943,19 +4032,19 @@
         <f>[9]Main!$C$6*$F$57</f>
         <v>213.21039999999999</v>
       </c>
-      <c r="G51" s="34">
+      <c r="G51" s="33">
         <f>[9]Main!$C$7</f>
         <v>7440</v>
       </c>
-      <c r="H51" s="34">
+      <c r="H51" s="33">
         <f>[9]Main!$C$12*$F$57</f>
         <v>1586285.3759999999</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="33">
         <f>[9]Main!$C$11*$F$57</f>
         <v>0</v>
       </c>
-      <c r="J51" s="34">
+      <c r="J51" s="33">
         <f>[9]Main!$C$12*$F$57</f>
         <v>1586285.3759999999</v>
       </c>
@@ -3967,6 +4056,7 @@
         <f>[9]Main!$D$29</f>
         <v>0</v>
       </c>
+      <c r="W51" s="22"/>
       <c r="AO51" s="5">
         <f>[9]Main!$C$24</f>
         <v>1975</v>
@@ -4003,19 +4093,19 @@
         <f>[10]Main!$C$6*$F$57</f>
         <v>79.231799999999993</v>
       </c>
-      <c r="G52" s="34">
+      <c r="G52" s="33">
         <f>[10]Main!$C$7</f>
         <v>13523</v>
       </c>
-      <c r="H52" s="34">
+      <c r="H52" s="33">
         <f>[10]Main!$C$8*$F$57</f>
         <v>1071451.6313999998</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="33">
         <f>[10]Main!$C$11*$F$57</f>
         <v>0</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="33">
         <f>[10]Main!$C$12*$F$57</f>
         <v>1071451.6313999998</v>
       </c>
@@ -4027,6 +4117,7 @@
         <f>[10]Main!$D$28</f>
         <v>0</v>
       </c>
+      <c r="W52" s="22"/>
       <c r="AO52" s="5">
         <f>[10]Main!$C$24</f>
         <v>1998</v>
@@ -4075,10 +4166,10 @@
       </c>
     </row>
     <row r="56" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="36"/>
+      <c r="F56" s="35"/>
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67BF954-B96D-4614-A6F3-CF89FB6D2EA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0783E0E-75D5-46FD-81B1-30C3B4053740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -842,6 +842,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,9 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1159,33 +1159,34 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
       <sheetName val="Price History"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>59.4</v>
+            <v>66.05</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>183.692564</v>
+            <v>185.12070199999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>10911.338301600001</v>
+            <v>12227.222367099999</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>3196.7179999999998</v>
+            <v>3146.3969999999995</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>7714.6203016000009</v>
+            <v>9080.8253671000002</v>
           </cell>
         </row>
         <row r="23">
@@ -1205,102 +1206,109 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>Q322</v>
+            <v>Q422</v>
           </cell>
           <cell r="D28">
-            <v>37926</v>
+            <v>42036</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>1.0361270864907119</v>
+            <v>1.1580514334355108</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>2.9939265322921638</v>
+            <v>3.1955558268895889</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>2.1167895054755248</v>
+            <v>2.3732523662024172</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-8.1937235256229481</v>
+            <v>-9.6279193177188063</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-5.8527494874135044</v>
+            <v>-7.2291219302707903</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="17">
-          <cell r="Y17">
+        <row r="18">
+          <cell r="Y18">
             <v>-121.94900000000001</v>
           </cell>
-          <cell r="Z17">
+          <cell r="Z18">
             <v>-307.06299999999993</v>
           </cell>
-          <cell r="AA17">
+          <cell r="AA18">
             <v>-490.97899999999981</v>
           </cell>
-          <cell r="AB17">
+          <cell r="AB18">
             <v>-949.90000000000009</v>
           </cell>
-        </row>
-        <row r="21">
-          <cell r="U21">
-            <v>0.32810304576208882</v>
-          </cell>
-          <cell r="Z21">
+          <cell r="AC18">
+            <v>-1256.1449999999998</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="V22">
+            <v>0.21575947144091212</v>
+          </cell>
+          <cell r="Z22">
             <v>0.74515549935622039</v>
           </cell>
-          <cell r="AA21">
+          <cell r="AA22">
             <v>0.55295345483521796</v>
           </cell>
-          <cell r="AB21">
+          <cell r="AB22">
             <v>0.613053532344634</v>
           </cell>
-        </row>
-        <row r="24">
-          <cell r="U24">
+          <cell r="AC22">
+            <v>0.34642426963666861</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="V25">
             <v>0.47005177868427206</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="U25">
-            <v>-0.46488611741249003</v>
-          </cell>
-          <cell r="AP25">
+        <row r="26">
+          <cell r="V26">
+            <v>-0.2133247574113728</v>
+          </cell>
+          <cell r="AP26">
             <v>0.08</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="U26">
-            <v>-0.49065338799426272</v>
-          </cell>
-        </row>
         <row r="27">
-          <cell r="U27">
-            <v>-7.4778536471246807E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AP29">
-            <v>53.068343281910693</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AP31">
-            <v>-0.10659354744258087</v>
+          <cell r="V27">
+            <v>-0.2239194045525261</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="V28">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AP30">
+            <v>52.602738134717463</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AP32">
+            <v>-0.20359215541684383</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1646,12 +1654,13 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>52.93</v>
+            <v>53.35</v>
           </cell>
         </row>
         <row r="7">
@@ -1661,7 +1670,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>67190.677212180002</v>
+            <v>67723.835807100011</v>
           </cell>
         </row>
         <row r="11">
@@ -1671,7 +1680,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>63161.969212180004</v>
+            <v>63695.127807100012</v>
           </cell>
         </row>
         <row r="23">
@@ -1699,27 +1708,27 @@
         </row>
         <row r="33">
           <cell r="C33">
-            <v>7.729278198315245</v>
+            <v>7.7906100865316139</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>12.810644455706582</v>
+            <v>12.912297028376086</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>12.042526794965024</v>
+            <v>12.144179367634528</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-3.3644129896469788</v>
+            <v>-3.3911096353233767</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-19.688678338041829</v>
+            <v>-19.854873094308516</v>
           </cell>
         </row>
       </sheetData>
@@ -1752,7 +1761,7 @@
         </row>
         <row r="30">
           <cell r="AP30">
-            <v>-0.50736431937474569</v>
+            <v>-0.51124261339278898</v>
           </cell>
         </row>
         <row r="32">
@@ -1771,6 +1780,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2305,7 +2315,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2338,20 +2348,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2735,113 +2745,120 @@
       </c>
       <c r="F7" s="16">
         <f>[3]Main!$C$6*$F$57</f>
-        <v>49.302</v>
+        <v>54.821499999999993</v>
       </c>
       <c r="G7" s="17">
         <f>[3]Main!$C$7</f>
-        <v>183.692564</v>
+        <v>185.12070199999999</v>
       </c>
       <c r="H7" s="17">
         <f>[3]Main!$C$8*$F$57</f>
-        <v>9056.4107903280001</v>
+        <v>10148.594564692999</v>
       </c>
       <c r="I7" s="17">
         <f>[3]Main!$C$11*F57</f>
-        <v>2653.2759399999995</v>
+        <v>2611.5095099999994</v>
       </c>
       <c r="J7" s="17">
         <f>[3]Main!$C$12*F57</f>
-        <v>6403.1348503280005</v>
+        <v>7537.0850546929996</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>[3]Main!$C$28</f>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="L7" s="8">
         <f>[3]Main!$D$28</f>
-        <v>37926</v>
+        <v>42036</v>
       </c>
       <c r="M7" s="26">
-        <f>'[3]Financial Model'!$AP$29*F57</f>
-        <v>44.04672492398587</v>
+        <f>'[3]Financial Model'!$AP$30*F57</f>
+        <v>43.66027265181549</v>
       </c>
       <c r="N7" s="31">
-        <f>'[3]Financial Model'!$AP$31</f>
-        <v>-0.10659354744258087</v>
+        <f>'[3]Financial Model'!$AP$32</f>
+        <v>-0.20359215541684383</v>
       </c>
       <c r="O7" s="31">
-        <f>'[3]Financial Model'!$AP$25</f>
+        <f>'[3]Financial Model'!$AP$26</f>
         <v>0.08</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="21">
         <f>[3]Main!$C$33</f>
-        <v>1.0361270864907119</v>
+        <v>1.1580514334355108</v>
       </c>
       <c r="R7" s="21">
         <f>[3]Main!$C$34</f>
-        <v>2.9939265322921638</v>
+        <v>3.1955558268895889</v>
       </c>
       <c r="S7" s="21">
         <f>[3]Main!$C$35</f>
-        <v>2.1167895054755248</v>
+        <v>2.3732523662024172</v>
       </c>
       <c r="T7" s="21">
         <f>[3]Main!$C$36</f>
-        <v>-8.1937235256229481</v>
+        <v>-9.6279193177188063</v>
       </c>
       <c r="U7" s="21">
         <f>[3]Main!$C$37</f>
-        <v>-5.8527494874135044</v>
+        <v>-7.2291219302707903</v>
       </c>
       <c r="V7" s="8"/>
-      <c r="W7" s="23"/>
+      <c r="W7" s="23">
+        <f>'[3]Financial Model'!$AC$18</f>
+        <v>-1256.1449999999998</v>
+      </c>
       <c r="X7" s="23">
-        <f>'[3]Financial Model'!$AB$17*$F$57</f>
+        <f>'[3]Financial Model'!$AB$18*$F$57</f>
         <v>-788.41700000000003</v>
       </c>
       <c r="Y7" s="23">
-        <f>'[3]Financial Model'!$AA$17*$F$57</f>
+        <f>'[3]Financial Model'!$AA$18*$F$57</f>
         <v>-407.51256999999981</v>
       </c>
       <c r="Z7" s="23">
-        <f>'[3]Financial Model'!$Z$17*$F$57</f>
+        <f>'[3]Financial Model'!$Z$18*$F$57</f>
         <v>-254.86228999999994</v>
       </c>
       <c r="AA7" s="23">
-        <f>'[3]Financial Model'!$Y$17*F57</f>
+        <f>'[3]Financial Model'!$Y$18*F57</f>
         <v>-101.21767</v>
       </c>
       <c r="AC7" s="18">
-        <f>'[3]Financial Model'!$U$24</f>
+        <f>'[3]Financial Model'!$V$25</f>
         <v>0.47005177868427206</v>
       </c>
       <c r="AD7" s="18">
-        <f>'[3]Financial Model'!$U$25</f>
-        <v>-0.46488611741249003</v>
+        <f>'[3]Financial Model'!V$26</f>
+        <v>-0.2133247574113728</v>
       </c>
       <c r="AE7" s="18">
-        <f>'[3]Financial Model'!$U$26</f>
-        <v>-0.49065338799426272</v>
+        <f>'[3]Financial Model'!$V$27</f>
+        <v>-0.2239194045525261</v>
       </c>
       <c r="AF7" s="18">
-        <f>'[3]Financial Model'!$U$27</f>
-        <v>-7.4778536471246807E-3</v>
+        <f>'[3]Financial Model'!$V$28</f>
+        <v>-0.01</v>
       </c>
       <c r="AH7" s="18">
-        <f>'[3]Financial Model'!$U$21</f>
-        <v>0.32810304576208882</v>
+        <f>'[3]Financial Model'!$V$22</f>
+        <v>0.21575947144091212</v>
+      </c>
+      <c r="AI7" s="18">
+        <f>'[3]Financial Model'!$AC$22</f>
+        <v>0.34642426963666861</v>
       </c>
       <c r="AJ7" s="18">
-        <f>'[3]Financial Model'!$AB$21</f>
+        <f>'[3]Financial Model'!$AB$22</f>
         <v>0.613053532344634</v>
       </c>
       <c r="AK7" s="18">
-        <f>'[3]Financial Model'!$AA$21</f>
+        <f>'[3]Financial Model'!$AA$22</f>
         <v>0.55295345483521796</v>
       </c>
       <c r="AL7" s="18">
-        <f>'[3]Financial Model'!$Z$21</f>
+        <f>'[3]Financial Model'!$Z$22</f>
         <v>0.74515549935622039</v>
       </c>
       <c r="AO7" s="5">
@@ -3378,7 +3395,7 @@
       </c>
       <c r="F22" s="16">
         <f>[7]Main!$C$6*$F$57</f>
-        <v>43.931899999999999</v>
+        <v>44.280499999999996</v>
       </c>
       <c r="G22" s="17">
         <f>[7]Main!$C$7</f>
@@ -3386,7 +3403,7 @@
       </c>
       <c r="H22" s="17">
         <f>[7]Main!$C$8*F57</f>
-        <v>55768.262086109396</v>
+        <v>56210.783719893006</v>
       </c>
       <c r="I22" s="17">
         <f>[7]Main!$C$11*F57</f>
@@ -3394,7 +3411,7 @@
       </c>
       <c r="J22" s="17">
         <f>[7]Main!$C$12*F57</f>
-        <v>52424.434446109401</v>
+        <v>52866.956079893011</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>[7]Main!$C$28</f>
@@ -3410,7 +3427,7 @@
       </c>
       <c r="N22" s="31">
         <f>'[7]Financial Model'!$AP$30</f>
-        <v>-0.50736431937474569</v>
+        <v>-0.51124261339278898</v>
       </c>
       <c r="O22" s="31">
         <f>'[7]Financial Model'!$AP$24</f>
@@ -3418,23 +3435,23 @@
       </c>
       <c r="Q22" s="21">
         <f>[7]Main!$C$33</f>
-        <v>7.729278198315245</v>
+        <v>7.7906100865316139</v>
       </c>
       <c r="R22" s="21">
         <f>[7]Main!$C$34</f>
-        <v>12.810644455706582</v>
+        <v>12.912297028376086</v>
       </c>
       <c r="S22" s="21">
         <f>[7]Main!$C$35</f>
-        <v>12.042526794965024</v>
+        <v>12.144179367634528</v>
       </c>
       <c r="T22" s="21">
         <f>[7]Main!$C$36</f>
-        <v>-3.3644129896469788</v>
+        <v>-3.3911096353233767</v>
       </c>
       <c r="U22" s="21">
         <f>[7]Main!$C$37</f>
-        <v>-19.688678338041829</v>
+        <v>-19.854873094308516</v>
       </c>
       <c r="W22" s="22"/>
       <c r="X22" s="24">
@@ -3559,7 +3576,7 @@
         <v>1110.5937430892857</v>
       </c>
       <c r="V23" s="8"/>
-      <c r="W23" s="37"/>
+      <c r="W23" s="34"/>
       <c r="X23" s="24">
         <f>'[8]Financial Model'!$AE$20*F57</f>
         <v>-1118.01</v>
@@ -4166,10 +4183,10 @@
       </c>
     </row>
     <row r="56" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="35"/>
+      <c r="F56" s="36"/>
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0783E0E-75D5-46FD-81B1-30C3B4053740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800AD634-03E0-2A45-BFA5-DD04E3F68788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -33,6 +33,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -759,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -845,6 +855,9 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1166,7 +1179,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>66.05</v>
+            <v>74.5</v>
           </cell>
         </row>
         <row r="7">
@@ -1176,7 +1189,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>12227.222367099999</v>
+            <v>13791.492299</v>
           </cell>
         </row>
         <row r="11">
@@ -1186,7 +1199,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>9080.8253671000002</v>
+            <v>10645.095299000001</v>
           </cell>
         </row>
         <row r="23">
@@ -1214,27 +1227,27 @@
         </row>
         <row r="33">
           <cell r="C33">
-            <v>1.1580514334355108</v>
+            <v>1.3062048719295314</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>3.1955558268895889</v>
+            <v>3.6043740969458646</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>2.3732523662024172</v>
+            <v>2.7820706362586933</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-9.6279193177188063</v>
+            <v>-10.859651614989419</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-7.2291219302707903</v>
+            <v>-8.4744160100943784</v>
           </cell>
         </row>
       </sheetData>
@@ -1303,7 +1316,7 @@
         </row>
         <row r="32">
           <cell r="AP32">
-            <v>-0.20359215541684383</v>
+            <v>-0.29392297805748369</v>
           </cell>
         </row>
       </sheetData>
@@ -1660,27 +1673,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>53.35</v>
+            <v>48.2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1269.4252260000001</v>
+            <v>1273.338804</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>67723.835807100011</v>
+            <v>61374.930352800002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>4028.7079999999996</v>
+            <v>4139.6379999999999</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>63695.127807100012</v>
+            <v>57235.292352800003</v>
           </cell>
         </row>
         <row r="23">
@@ -1700,35 +1713,35 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>Q322</v>
+            <v>Q422</v>
           </cell>
           <cell r="D28">
-            <v>46661</v>
+            <v>42036</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>7.7906100865316139</v>
+            <v>7.4494182835574083</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>12.912297028376086</v>
+            <v>10.960075164825431</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>12.144179367634528</v>
+            <v>10.220836140449125</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-3.3911096353233767</v>
+            <v>-3.6325285629149069</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-19.854873094308516</v>
+            <v>-16.539993825254641</v>
           </cell>
         </row>
       </sheetData>
@@ -1737,50 +1750,56 @@
           <cell r="AB20">
             <v>2914.6589999999997</v>
           </cell>
+          <cell r="AC20">
+            <v>-3460.4179999999992</v>
+          </cell>
         </row>
         <row r="24">
-          <cell r="U24">
-            <v>0.2157616530514177</v>
+          <cell r="V24">
+            <v>0.25720857028573407</v>
           </cell>
           <cell r="AB24">
             <v>0.57428577182862139</v>
           </cell>
+          <cell r="AC24">
+            <v>0.21423218764853047</v>
+          </cell>
           <cell r="AP24">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="AP28">
-            <v>26.075206575494708</v>
+            <v>27.310648363768447</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="U29">
-            <v>0.48479871175523354</v>
+          <cell r="V29">
+            <v>0.46024099441030381</v>
           </cell>
         </row>
         <row r="30">
           <cell r="AP30">
-            <v>-0.51124261339278898</v>
+            <v>-0.43338903809609031</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="U32">
-            <v>-0.2527931488801054</v>
+          <cell r="V32">
+            <v>-0.10879042846652805</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="U33">
-            <v>-0.11594861660079051</v>
+          <cell r="V33">
+            <v>-0.35948236807613693</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="U34">
-            <v>-8.1205093774064027E-3</v>
+          <cell r="V34">
+            <v>-1.4783406659203918E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2298,9 +2317,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2315,56 +2334,56 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="26" customWidth="1"/>
-    <col min="14" max="15" width="9.42578125" style="27" customWidth="1"/>
-    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.42578125" style="22" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="32" width="9.140625" style="5"/>
-    <col min="33" max="33" width="9.140625" style="1"/>
-    <col min="34" max="39" width="9.140625" style="18"/>
-    <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="42" width="9.140625" style="5"/>
+    <col min="4" max="5" width="9.1640625" style="5"/>
+    <col min="6" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="26" customWidth="1"/>
+    <col min="14" max="15" width="9.5" style="27" customWidth="1"/>
+    <col min="16" max="23" width="9.5" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.5" style="22" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="32" width="9.1640625" style="5"/>
+    <col min="33" max="33" width="9.1640625" style="1"/>
+    <col min="34" max="39" width="9.1640625" style="18"/>
+    <col min="40" max="40" width="9.1640625" style="1"/>
+    <col min="41" max="42" width="9.1640625" style="5"/>
     <col min="43" max="43" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="1"/>
-    <col min="45" max="45" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.1640625" style="1"/>
+    <col min="45" max="45" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="1"/>
+    <col min="47" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="37" t="s">
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="W1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2487,7 +2506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2498,7 +2517,7 @@
       <c r="AA3" s="23"/>
       <c r="AT3" s="5"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2618,7 +2637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2715,7 +2734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2730,7 +2749,7 @@
       <c r="AA6" s="23"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2745,7 +2764,7 @@
       </c>
       <c r="F7" s="16">
         <f>[3]Main!$C$6*$F$57</f>
-        <v>54.821499999999993</v>
+        <v>61.834999999999994</v>
       </c>
       <c r="G7" s="17">
         <f>[3]Main!$C$7</f>
@@ -2753,7 +2772,7 @@
       </c>
       <c r="H7" s="17">
         <f>[3]Main!$C$8*$F$57</f>
-        <v>10148.594564692999</v>
+        <v>11446.938608169999</v>
       </c>
       <c r="I7" s="17">
         <f>[3]Main!$C$11*F57</f>
@@ -2761,7 +2780,7 @@
       </c>
       <c r="J7" s="17">
         <f>[3]Main!$C$12*F57</f>
-        <v>7537.0850546929996</v>
+        <v>8835.4290981699996</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>[3]Main!$C$28</f>
@@ -2777,7 +2796,7 @@
       </c>
       <c r="N7" s="31">
         <f>'[3]Financial Model'!$AP$32</f>
-        <v>-0.20359215541684383</v>
+        <v>-0.29392297805748369</v>
       </c>
       <c r="O7" s="31">
         <f>'[3]Financial Model'!$AP$26</f>
@@ -2786,28 +2805,28 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="21">
         <f>[3]Main!$C$33</f>
-        <v>1.1580514334355108</v>
+        <v>1.3062048719295314</v>
       </c>
       <c r="R7" s="21">
         <f>[3]Main!$C$34</f>
-        <v>3.1955558268895889</v>
+        <v>3.6043740969458646</v>
       </c>
       <c r="S7" s="21">
         <f>[3]Main!$C$35</f>
-        <v>2.3732523662024172</v>
+        <v>2.7820706362586933</v>
       </c>
       <c r="T7" s="21">
         <f>[3]Main!$C$36</f>
-        <v>-9.6279193177188063</v>
+        <v>-10.859651614989419</v>
       </c>
       <c r="U7" s="21">
         <f>[3]Main!$C$37</f>
-        <v>-7.2291219302707903</v>
+        <v>-8.4744160100943784</v>
       </c>
       <c r="V7" s="8"/>
-      <c r="W7" s="23">
-        <f>'[3]Financial Model'!$AC$18</f>
-        <v>-1256.1449999999998</v>
+      <c r="W7" s="24">
+        <f>'[3]Financial Model'!$AC$18*F57</f>
+        <v>-1042.6003499999997</v>
       </c>
       <c r="X7" s="23">
         <f>'[3]Financial Model'!$AB$18*$F$57</f>
@@ -2880,7 +2899,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -2908,7 +2927,7 @@
       <c r="AF8" s="18"/>
       <c r="AT8" s="5"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2934,7 +2953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2956,7 +2975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3106,13 +3125,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
       <c r="W12" s="22"/>
       <c r="AT12" s="5"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3143,10 +3162,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3167,7 +3186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3188,13 +3207,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -3264,8 +3283,8 @@
         <v>-26.466723449006508</v>
       </c>
       <c r="W19" s="23">
-        <f>'[5]Financial Model'!$X$18</f>
-        <v>-934.68300000000011</v>
+        <f>'[5]Financial Model'!$X$18*F57</f>
+        <v>-775.78689000000008</v>
       </c>
       <c r="X19" s="24">
         <f>'[5]Financial Model'!$W$18*F57</f>
@@ -3328,7 +3347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -3377,10 +3396,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
@@ -3395,39 +3414,39 @@
       </c>
       <c r="F22" s="16">
         <f>[7]Main!$C$6*$F$57</f>
-        <v>44.280499999999996</v>
+        <v>40.006</v>
       </c>
       <c r="G22" s="17">
         <f>[7]Main!$C$7</f>
-        <v>1269.4252260000001</v>
+        <v>1273.338804</v>
       </c>
       <c r="H22" s="17">
         <f>[7]Main!$C$8*F57</f>
-        <v>56210.783719893006</v>
+        <v>50941.192192823997</v>
       </c>
       <c r="I22" s="17">
         <f>[7]Main!$C$11*F57</f>
-        <v>3343.8276399999995</v>
+        <v>3435.8995399999999</v>
       </c>
       <c r="J22" s="17">
         <f>[7]Main!$C$12*F57</f>
-        <v>52866.956079893011</v>
+        <v>47505.292652823999</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>[7]Main!$C$28</f>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="L22" s="8">
         <f>[7]Main!$D$28</f>
-        <v>46661</v>
+        <v>42036</v>
       </c>
       <c r="M22" s="26">
         <f>'[7]Financial Model'!$AP$28</f>
-        <v>26.075206575494708</v>
+        <v>27.310648363768447</v>
       </c>
       <c r="N22" s="31">
         <f>'[7]Financial Model'!$AP$30</f>
-        <v>-0.51124261339278898</v>
+        <v>-0.43338903809609031</v>
       </c>
       <c r="O22" s="31">
         <f>'[7]Financial Model'!$AP$24</f>
@@ -3435,48 +3454,55 @@
       </c>
       <c r="Q22" s="21">
         <f>[7]Main!$C$33</f>
-        <v>7.7906100865316139</v>
+        <v>7.4494182835574083</v>
       </c>
       <c r="R22" s="21">
         <f>[7]Main!$C$34</f>
-        <v>12.912297028376086</v>
+        <v>10.960075164825431</v>
       </c>
       <c r="S22" s="21">
         <f>[7]Main!$C$35</f>
-        <v>12.144179367634528</v>
+        <v>10.220836140449125</v>
       </c>
       <c r="T22" s="21">
         <f>[7]Main!$C$36</f>
-        <v>-3.3911096353233767</v>
+        <v>-3.6325285629149069</v>
       </c>
       <c r="U22" s="21">
         <f>[7]Main!$C$37</f>
-        <v>-19.854873094308516</v>
-      </c>
-      <c r="W22" s="22"/>
+        <v>-16.539993825254641</v>
+      </c>
+      <c r="W22" s="24">
+        <f>'[7]Financial Model'!$AC$20*F57</f>
+        <v>-2872.1469399999992</v>
+      </c>
       <c r="X22" s="24">
         <f>'[7]Financial Model'!$AB$20*F57</f>
         <v>2419.1669699999998</v>
       </c>
       <c r="AC22" s="18">
-        <f>'[7]Financial Model'!$U$29</f>
-        <v>0.48479871175523354</v>
+        <f>'[7]Financial Model'!$V$29</f>
+        <v>0.46024099441030381</v>
       </c>
       <c r="AD22" s="18">
-        <f>'[7]Financial Model'!$U$32</f>
-        <v>-0.2527931488801054</v>
+        <f>'[7]Financial Model'!$V$32</f>
+        <v>-0.10879042846652805</v>
       </c>
       <c r="AE22" s="18">
-        <f>'[7]Financial Model'!$U$33</f>
-        <v>-0.11594861660079051</v>
+        <f>'[7]Financial Model'!$V$33</f>
+        <v>-0.35948236807613693</v>
       </c>
       <c r="AF22" s="18">
-        <f>'[7]Financial Model'!$U$34</f>
-        <v>-8.1205093774064027E-3</v>
+        <f>'[7]Financial Model'!$V$34</f>
+        <v>-1.4783406659203918E-2</v>
       </c>
       <c r="AH22" s="18">
-        <f>'[7]Financial Model'!$U$24</f>
-        <v>0.2157616530514177</v>
+        <f>'[7]Financial Model'!$V$24</f>
+        <v>0.25720857028573407</v>
+      </c>
+      <c r="AI22" s="18">
+        <f>'[7]Financial Model'!$AC$24</f>
+        <v>0.21423218764853047</v>
       </c>
       <c r="AJ22" s="18">
         <f>'[7]Financial Model'!$AB$24</f>
@@ -3501,7 +3527,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -3534,11 +3560,11 @@
         <f>[8]Main!$C$12*F57</f>
         <v>25810.198589395</v>
       </c>
-      <c r="K23" s="5" t="str">
+      <c r="K23" s="25" t="str">
         <f>[8]Main!$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="35">
         <f>[8]Main!$D$28</f>
         <v>37561</v>
       </c>
@@ -3648,7 +3674,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3669,7 +3695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3688,7 +3714,7 @@
       </c>
       <c r="AT25" s="5"/>
     </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3704,7 +3730,7 @@
       </c>
       <c r="AT26" s="5"/>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3717,13 +3743,13 @@
       <c r="W27" s="22"/>
       <c r="AT27" s="5"/>
     </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3741,7 +3767,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -3759,13 +3785,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3783,7 +3809,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3807,7 +3833,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -3825,13 +3851,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3871,19 +3897,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
       <c r="W40" s="22"/>
       <c r="AT40" s="5"/>
     </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="W41" s="22"/>
       <c r="AT41" s="5"/>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -3915,7 +3941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3947,7 +3973,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -3978,13 +4004,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
       <c r="W45" s="22"/>
       <c r="AT45" s="5"/>
     </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
@@ -3996,7 +4022,7 @@
       <c r="W46" s="22"/>
       <c r="AT46" s="5"/>
     </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -4008,7 +4034,7 @@
       <c r="W47" s="22"/>
       <c r="AT47" s="5"/>
     </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -4020,19 +4046,19 @@
       <c r="W48" s="22"/>
       <c r="AT48" s="5"/>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="W49" s="22"/>
       <c r="AT49" s="5"/>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
       <c r="W50" s="22"/>
       <c r="AT50" s="5"/>
     </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
         <v>150</v>
       </c>
@@ -4093,7 +4119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
         <v>151</v>
       </c>
@@ -4154,7 +4180,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
@@ -4168,7 +4194,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>153</v>
       </c>
@@ -4182,16 +4208,16 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="E56" s="35" t="s">
+    <row r="56" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="E56" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="36"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:46" x14ac:dyDescent="0.15">
       <c r="E57" s="10" t="s">
         <v>27</v>
       </c>
@@ -4203,7 +4229,7 @@
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:46" x14ac:dyDescent="0.15">
       <c r="E58" s="13" t="s">
         <v>28</v>
       </c>
@@ -4252,21 +4278,21 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4299,7 +4325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -4325,11 +4351,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800AD634-03E0-2A45-BFA5-DD04E3F68788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B63DD-CF82-4347-94ED-33DC8C9818D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -33,16 +33,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1799,7 +1789,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2317,9 +2307,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,39 +2324,39 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P22:P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="5"/>
-    <col min="6" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="5"/>
-    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="26" customWidth="1"/>
-    <col min="14" max="15" width="9.5" style="27" customWidth="1"/>
-    <col min="16" max="23" width="9.5" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.5" style="22" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="32" width="9.1640625" style="5"/>
-    <col min="33" max="33" width="9.1640625" style="1"/>
-    <col min="34" max="39" width="9.1640625" style="18"/>
-    <col min="40" max="40" width="9.1640625" style="1"/>
-    <col min="41" max="42" width="9.1640625" style="5"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="26" customWidth="1"/>
+    <col min="14" max="15" width="9.42578125" style="27" customWidth="1"/>
+    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.42578125" style="22" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="32" width="9.140625" style="5"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
+    <col min="34" max="39" width="9.140625" style="18"/>
+    <col min="40" max="40" width="9.140625" style="1"/>
+    <col min="41" max="42" width="9.140625" style="5"/>
     <col min="43" max="43" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.1640625" style="1"/>
-    <col min="45" max="45" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="1"/>
+    <col min="45" max="45" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.1640625" style="1"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="38" t="s">
         <v>29</v>
       </c>
@@ -2383,7 +2373,7 @@
       <c r="AA1" s="38"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2506,7 +2496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2517,7 +2507,7 @@
       <c r="AA3" s="23"/>
       <c r="AT3" s="5"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2637,7 +2627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2734,7 +2724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2749,7 +2739,7 @@
       <c r="AA6" s="23"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2899,7 +2889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -2927,7 +2917,7 @@
       <c r="AF8" s="18"/>
       <c r="AT8" s="5"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2953,7 +2943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2975,7 +2965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3125,13 +3115,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
       <c r="W12" s="22"/>
       <c r="AT12" s="5"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3162,10 +3152,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3186,7 +3176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3207,13 +3197,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -3347,7 +3337,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -3396,10 +3386,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
@@ -3527,7 +3517,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -3674,7 +3664,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3695,7 +3685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3714,7 +3704,7 @@
       </c>
       <c r="AT25" s="5"/>
     </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3730,7 +3720,7 @@
       </c>
       <c r="AT26" s="5"/>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3743,13 +3733,13 @@
       <c r="W27" s="22"/>
       <c r="AT27" s="5"/>
     </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3767,7 +3757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -3785,13 +3775,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3809,7 +3799,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3833,7 +3823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -3851,13 +3841,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3897,19 +3887,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
       <c r="W40" s="22"/>
       <c r="AT40" s="5"/>
     </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="W41" s="22"/>
       <c r="AT41" s="5"/>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -3941,7 +3931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3973,7 +3963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -4004,13 +3994,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
       <c r="W45" s="22"/>
       <c r="AT45" s="5"/>
     </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
@@ -4022,7 +4012,7 @@
       <c r="W46" s="22"/>
       <c r="AT46" s="5"/>
     </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -4034,7 +4024,7 @@
       <c r="W47" s="22"/>
       <c r="AT47" s="5"/>
     </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -4046,19 +4036,19 @@
       <c r="W48" s="22"/>
       <c r="AT48" s="5"/>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="W49" s="22"/>
       <c r="AT49" s="5"/>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
       <c r="W50" s="22"/>
       <c r="AT50" s="5"/>
     </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>150</v>
       </c>
@@ -4119,7 +4109,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>151</v>
       </c>
@@ -4180,7 +4170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
@@ -4194,7 +4184,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>153</v>
       </c>
@@ -4208,7 +4198,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
       <c r="E56" s="36" t="s">
         <v>25</v>
       </c>
@@ -4217,7 +4207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
       <c r="E57" s="10" t="s">
         <v>27</v>
       </c>
@@ -4229,7 +4219,7 @@
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
       <c r="E58" s="13" t="s">
         <v>28</v>
       </c>
@@ -4278,21 +4268,21 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.1640625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4325,7 +4315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -4351,11 +4341,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B63DD-CF82-4347-94ED-33DC8C9818D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625DF4B-E277-694F-AB79-974128A2F4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -33,6 +33,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -842,12 +852,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,6 +859,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1801,32 +1811,33 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>49.5</v>
+            <v>45.35</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>542.659087</v>
+            <v>541</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>26861.6248065</v>
+            <v>24534.350000000002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-4235</v>
+            <v>-4092</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>31096.6248065</v>
+            <v>28626.350000000002</v>
           </cell>
         </row>
         <row r="23">
@@ -1846,35 +1857,35 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>Q322</v>
+            <v>Q422</v>
           </cell>
           <cell r="D28">
-            <v>37561</v>
+            <v>44593</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>5.5350555958170204</v>
+            <v>5.071005480208119</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>2.7138436862497475</v>
+            <v>2.4787179228126894</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>3.1417079012426754</v>
+            <v>2.8921347747019603</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-421.2402023888468</v>
+            <v>-385.92410461281213</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>1110.5937430892857</v>
+            <v>1022.3696428571429</v>
           </cell>
         </row>
       </sheetData>
@@ -1889,10 +1900,13 @@
           <cell r="AE20">
             <v>-1347</v>
           </cell>
+          <cell r="AJ20">
+            <v>-1268.75</v>
+          </cell>
         </row>
         <row r="24">
-          <cell r="Y24">
-            <v>-4.8380647740903671E-2</v>
+          <cell r="Z24">
+            <v>-3.9418293149636408E-2</v>
           </cell>
           <cell r="AF24">
             <v>8.2502266545784186E-2</v>
@@ -1905,6 +1919,9 @@
           </cell>
           <cell r="AI24">
             <v>-2.7349948660505885E-2</v>
+          </cell>
+          <cell r="AJ24">
+            <v>-5.9980806142034604E-2</v>
           </cell>
         </row>
         <row r="25">
@@ -1913,34 +1930,35 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="U27">
-            <v>0.72890843662534988</v>
+          <cell r="Z27">
+            <v>0.72868525896414338</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="U28">
-            <v>0.2646941223510596</v>
+          <cell r="Z28">
+            <v>0.22519920318725101</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="U29">
-            <v>0.10555777688924431</v>
+          <cell r="Z29">
+            <v>0.26782868525896414</v>
           </cell>
           <cell r="AW29">
-            <v>57.281112716189718</v>
+            <v>59.008797946830612</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="U30">
-            <v>0.34792626728110598</v>
+          <cell r="Z30">
+            <v>0.19053361471208924</v>
           </cell>
         </row>
         <row r="31">
           <cell r="AW31">
-            <v>0.15719419628666098</v>
+            <v>0.30118628328182151</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2307,9 +2325,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2324,56 +2342,56 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P22:P23"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="26" customWidth="1"/>
-    <col min="14" max="15" width="9.42578125" style="27" customWidth="1"/>
-    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.42578125" style="22" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="32" width="9.140625" style="5"/>
-    <col min="33" max="33" width="9.140625" style="1"/>
-    <col min="34" max="39" width="9.140625" style="18"/>
-    <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="42" width="9.140625" style="5"/>
+    <col min="4" max="5" width="9.1640625" style="5"/>
+    <col min="6" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="26" customWidth="1"/>
+    <col min="14" max="15" width="9.5" style="27" customWidth="1"/>
+    <col min="16" max="23" width="9.5" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.5" style="22" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="32" width="9.1640625" style="5"/>
+    <col min="33" max="33" width="9.1640625" style="1"/>
+    <col min="34" max="39" width="9.1640625" style="18"/>
+    <col min="40" max="40" width="9.1640625" style="1"/>
+    <col min="41" max="42" width="9.1640625" style="5"/>
     <col min="43" max="43" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="1"/>
-    <col min="45" max="45" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.1640625" style="1"/>
+    <col min="45" max="45" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="1"/>
+    <col min="47" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="38" t="s">
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2496,7 +2514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2507,7 +2525,7 @@
       <c r="AA3" s="23"/>
       <c r="AT3" s="5"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2724,7 +2742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2739,7 +2757,7 @@
       <c r="AA6" s="23"/>
       <c r="AT6" s="5"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -2917,7 +2935,7 @@
       <c r="AF8" s="18"/>
       <c r="AT8" s="5"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2965,7 +2983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3115,13 +3133,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
       <c r="W12" s="22"/>
       <c r="AT12" s="5"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3152,10 +3170,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3176,7 +3194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3197,13 +3215,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -3337,7 +3355,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -3386,10 +3404,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
@@ -3517,7 +3535,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -3532,39 +3550,39 @@
       </c>
       <c r="F23" s="16">
         <f>[8]Main!$C$6*F57</f>
-        <v>41.085000000000001</v>
+        <v>37.640499999999996</v>
       </c>
       <c r="G23" s="19">
         <f>[8]Main!$C$7</f>
-        <v>542.659087</v>
+        <v>541</v>
       </c>
       <c r="H23" s="17">
         <f>[8]Main!$C$8*F57</f>
-        <v>22295.148589394998</v>
+        <v>20363.5105</v>
       </c>
       <c r="I23" s="17">
         <f>[8]Main!$C$11*F57</f>
-        <v>-3515.0499999999997</v>
+        <v>-3396.3599999999997</v>
       </c>
       <c r="J23" s="17">
         <f>[8]Main!$C$12*F57</f>
-        <v>25810.198589395</v>
-      </c>
-      <c r="K23" s="25" t="str">
+        <v>23759.870500000001</v>
+      </c>
+      <c r="K23" s="37" t="str">
         <f>[8]Main!$C$28</f>
-        <v>Q322</v>
-      </c>
-      <c r="L23" s="35">
+        <v>Q422</v>
+      </c>
+      <c r="L23" s="38">
         <f>[8]Main!$D$28</f>
-        <v>37561</v>
+        <v>44593</v>
       </c>
       <c r="M23" s="26">
         <f>'[8]Financial Model'!$AW$29*$F$57</f>
-        <v>47.543323554437464</v>
+        <v>48.977302295869407</v>
       </c>
       <c r="N23" s="31">
         <f>'[8]Financial Model'!$AW$31</f>
-        <v>0.15719419628666098</v>
+        <v>0.30118628328182151</v>
       </c>
       <c r="O23" s="31">
         <f>'[8]Financial Model'!$AW$25</f>
@@ -3573,26 +3591,29 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="21">
         <f>[8]Main!$C$33</f>
-        <v>5.5350555958170204</v>
+        <v>5.071005480208119</v>
       </c>
       <c r="R23" s="21">
         <f>[8]Main!$C$34</f>
-        <v>2.7138436862497475</v>
+        <v>2.4787179228126894</v>
       </c>
       <c r="S23" s="21">
         <f>[8]Main!$C$35</f>
-        <v>3.1417079012426754</v>
+        <v>2.8921347747019603</v>
       </c>
       <c r="T23" s="21">
         <f>[8]Main!$C$36</f>
-        <v>-421.2402023888468</v>
+        <v>-385.92410461281213</v>
       </c>
       <c r="U23" s="21">
         <f>[8]Main!$C$37</f>
-        <v>1110.5937430892857</v>
+        <v>1022.3696428571429</v>
       </c>
       <c r="V23" s="8"/>
-      <c r="W23" s="34"/>
+      <c r="W23" s="24">
+        <f>'[8]Financial Model'!$AJ$20*F57</f>
+        <v>-1053.0625</v>
+      </c>
       <c r="X23" s="24">
         <f>'[8]Financial Model'!$AE$20*F57</f>
         <v>-1118.01</v>
@@ -3610,24 +3631,28 @@
         <v>2078.3132530120483</v>
       </c>
       <c r="AC23" s="18">
-        <f>'[8]Financial Model'!$U$27</f>
-        <v>0.72890843662534988</v>
+        <f>'[8]Financial Model'!$Z$27</f>
+        <v>0.72868525896414338</v>
       </c>
       <c r="AD23" s="18">
-        <f>'[8]Financial Model'!$U$28</f>
-        <v>0.2646941223510596</v>
+        <f>'[8]Financial Model'!$Z$28</f>
+        <v>0.22519920318725101</v>
       </c>
       <c r="AE23" s="18">
-        <f>'[8]Financial Model'!$U$29</f>
-        <v>0.10555777688924431</v>
+        <f>'[8]Financial Model'!$Z$29</f>
+        <v>0.26782868525896414</v>
       </c>
       <c r="AF23" s="18">
-        <f>'[8]Financial Model'!$U$30</f>
-        <v>0.34792626728110598</v>
+        <f>'[8]Financial Model'!$Z$30</f>
+        <v>0.19053361471208924</v>
       </c>
       <c r="AH23" s="18">
-        <f>'[8]Financial Model'!$Y$24</f>
-        <v>-4.8380647740903671E-2</v>
+        <f>'[8]Financial Model'!$Z$24</f>
+        <v>-3.9418293149636408E-2</v>
+      </c>
+      <c r="AI23" s="18">
+        <f>'[8]Financial Model'!$AJ$24</f>
+        <v>-5.9980806142034604E-2</v>
       </c>
       <c r="AJ23" s="18">
         <f>'[8]Financial Model'!$AI$24</f>
@@ -3664,7 +3689,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3685,7 +3710,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3704,7 +3729,7 @@
       </c>
       <c r="AT25" s="5"/>
     </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3720,7 +3745,7 @@
       </c>
       <c r="AT26" s="5"/>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3733,13 +3758,13 @@
       <c r="W27" s="22"/>
       <c r="AT27" s="5"/>
     </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3757,7 +3782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -3775,13 +3800,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3799,7 +3824,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3823,7 +3848,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -3841,13 +3866,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.15">
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3887,19 +3912,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
       <c r="W40" s="22"/>
       <c r="AT40" s="5"/>
     </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="W41" s="22"/>
       <c r="AT41" s="5"/>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -3931,7 +3956,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3963,7 +3988,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -3994,13 +4019,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
       <c r="W45" s="22"/>
       <c r="AT45" s="5"/>
     </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
@@ -4012,7 +4037,7 @@
       <c r="W46" s="22"/>
       <c r="AT46" s="5"/>
     </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -4024,7 +4049,7 @@
       <c r="W47" s="22"/>
       <c r="AT47" s="5"/>
     </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -4036,19 +4061,19 @@
       <c r="W48" s="22"/>
       <c r="AT48" s="5"/>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="W49" s="22"/>
       <c r="AT49" s="5"/>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.15">
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
       <c r="W50" s="22"/>
       <c r="AT50" s="5"/>
     </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B51" s="7" t="s">
         <v>150</v>
       </c>
@@ -4109,7 +4134,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B52" s="7" t="s">
         <v>151</v>
       </c>
@@ -4170,7 +4195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
@@ -4184,7 +4209,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>153</v>
       </c>
@@ -4198,16 +4223,16 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="E56" s="36" t="s">
+    <row r="56" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="E56" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="37"/>
+      <c r="F56" s="35"/>
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:46" x14ac:dyDescent="0.15">
       <c r="E57" s="10" t="s">
         <v>27</v>
       </c>
@@ -4219,7 +4244,7 @@
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:46" x14ac:dyDescent="0.15">
       <c r="E58" s="13" t="s">
         <v>28</v>
       </c>
@@ -4268,21 +4293,21 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4315,7 +4340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -4341,11 +4366,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625DF4B-E277-694F-AB79-974128A2F4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C0D0B0-47B1-4E43-9EFE-BF69CA09436A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -34,22 +34,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
   <si>
     <t>Ticker</t>
   </si>
@@ -532,6 +522,9 @@
   </si>
   <si>
     <t>Alphabet Inc.</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
@@ -769,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -852,6 +845,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,10 +860,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1516,6 +1515,11 @@
             <v>2004</v>
           </cell>
         </row>
+        <row r="10">
+          <cell r="G10">
+            <v>2128</v>
+          </cell>
+        </row>
         <row r="11">
           <cell r="C11">
             <v>1988.4900000000002</v>
@@ -1926,7 +1930,7 @@
         </row>
         <row r="25">
           <cell r="AW25">
-            <v>0.08</v>
+            <v>0.09</v>
           </cell>
         </row>
         <row r="27">
@@ -1944,7 +1948,7 @@
             <v>0.26782868525896414</v>
           </cell>
           <cell r="AW29">
-            <v>59.008797946830612</v>
+            <v>53.181611591692423</v>
           </cell>
         </row>
         <row r="30">
@@ -1954,7 +1958,7 @@
         </row>
         <row r="31">
           <cell r="AW31">
-            <v>0.30118628328182151</v>
+            <v>0.17269264810788143</v>
           </cell>
         </row>
       </sheetData>
@@ -2325,9 +2329,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2336,62 +2340,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AT58"/>
+  <dimension ref="A1:AU58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="5"/>
-    <col min="6" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="5"/>
-    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="26" customWidth="1"/>
-    <col min="14" max="15" width="9.5" style="27" customWidth="1"/>
-    <col min="16" max="23" width="9.5" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.5" style="22" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="32" width="9.1640625" style="5"/>
-    <col min="33" max="33" width="9.1640625" style="1"/>
-    <col min="34" max="39" width="9.1640625" style="18"/>
-    <col min="40" max="40" width="9.1640625" style="1"/>
-    <col min="41" max="42" width="9.1640625" style="5"/>
-    <col min="43" max="43" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.1640625" style="1"/>
-    <col min="45" max="45" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="26" customWidth="1"/>
+    <col min="14" max="15" width="9.42578125" style="27" customWidth="1"/>
+    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.42578125" style="22" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="32" width="9.140625" style="5"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
+    <col min="34" max="39" width="9.140625" style="18"/>
+    <col min="40" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="11.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.140625" style="5"/>
+    <col min="44" max="44" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="1"/>
+    <col min="46" max="46" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F1" s="36" t="s">
+    <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="W1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2498,23 +2503,26 @@
       <c r="AM2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2523,9 +2531,9 @@
       <c r="Y3" s="23"/>
       <c r="Z3" s="23"/>
       <c r="AA3" s="23"/>
-      <c r="AT3" s="5"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="AU3" s="5"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2626,26 +2634,26 @@
         <f>'[1]Financial Model'!$AH$26</f>
         <v>0.48003319895660423</v>
       </c>
-      <c r="AO4" s="5">
+      <c r="AP4" s="5">
         <f>[1]Main!$C24</f>
         <v>2007</v>
       </c>
-      <c r="AP4" s="5">
+      <c r="AQ4" s="5">
         <f>[1]Main!$C$25</f>
         <v>2017</v>
       </c>
-      <c r="AQ4" s="5" t="str">
+      <c r="AR4" s="5" t="str">
         <f>[1]Main!$C$23</f>
         <v>New York City, NY</v>
       </c>
-      <c r="AS4" s="5" t="s">
+      <c r="AT4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AU4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2723,26 +2731,26 @@
         <f>'[2]Financial Model'!$J$25</f>
         <v>0.21252241299870667</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AP5" s="5">
         <f>[2]Main!$C$24</f>
         <v>2010</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AQ5" s="5">
         <f>[2]Main!$C$25</f>
         <v>2022</v>
       </c>
-      <c r="AQ5" s="5" t="str">
+      <c r="AR5" s="5" t="str">
         <f>[2]Main!$C$23</f>
         <v>Redwood City, CA</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2755,9 +2763,9 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
       <c r="AA6" s="23"/>
-      <c r="AT6" s="5"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="AU6" s="5"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2888,26 +2896,26 @@
         <f>'[3]Financial Model'!$Z$22</f>
         <v>0.74515549935622039</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AP7" s="5">
         <f>[3]Main!$C$24</f>
         <v>2008</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AQ7" s="5">
         <f>[3]Main!$C$25</f>
         <v>2016</v>
       </c>
-      <c r="AQ7" s="5" t="str">
+      <c r="AR7" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AS7" s="5" t="s">
+      <c r="AT7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AT7" s="5" t="s">
+      <c r="AU7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -2933,9 +2941,9 @@
       <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
       <c r="AF8" s="18"/>
-      <c r="AT8" s="5"/>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="AU8" s="5"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2954,14 +2962,14 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
       <c r="AA9" s="23"/>
-      <c r="AS9" s="5" t="s">
+      <c r="AT9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AT9" s="5" t="s">
+      <c r="AU9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2976,14 +2984,14 @@
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
       <c r="AA10" s="23"/>
-      <c r="AS10" s="5" t="s">
+      <c r="AT10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AT10" s="5" t="s">
+      <c r="AU10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3114,32 +3122,32 @@
         <f>'[4]Financial Model'!$S$22</f>
         <v>4.8754062838569867E-2</v>
       </c>
-      <c r="AO11" s="5">
+      <c r="AP11" s="5">
         <f>[4]Main!$C$24</f>
         <v>1981</v>
       </c>
-      <c r="AP11" s="5">
+      <c r="AQ11" s="5">
         <f>[4]Main!$C$25</f>
         <v>1989</v>
       </c>
-      <c r="AQ11" s="5" t="str">
+      <c r="AR11" s="5" t="str">
         <f>[4]Main!$C$23</f>
         <v>Newcastle, UK</v>
       </c>
-      <c r="AS11" s="5" t="s">
+      <c r="AT11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AT11" s="5" t="s">
+      <c r="AU11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
       <c r="W12" s="22"/>
-      <c r="AT12" s="5"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="AU12" s="5"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3153,27 +3161,27 @@
         <v>17</v>
       </c>
       <c r="W13" s="22"/>
-      <c r="AO13" s="5">
+      <c r="AP13" s="5">
         <v>2002</v>
       </c>
-      <c r="AP13" s="5">
+      <c r="AQ13" s="5">
         <v>2015</v>
       </c>
-      <c r="AQ13" s="5" t="str">
+      <c r="AR13" s="5" t="str">
         <f>[3]Main!$C$23</f>
         <v>San Francisco, CA</v>
       </c>
-      <c r="AS13" s="5" t="s">
+      <c r="AT13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AT13" s="5" t="s">
+      <c r="AU13" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3187,14 +3195,14 @@
         <v>17</v>
       </c>
       <c r="W15" s="22"/>
-      <c r="AS15" s="5" t="s">
+      <c r="AT15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AT15" s="5" t="s">
+      <c r="AU15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3208,20 +3216,20 @@
         <v>17</v>
       </c>
       <c r="W16" s="22"/>
-      <c r="AS16" s="5" t="s">
+      <c r="AT16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AT16" s="5" t="s">
+      <c r="AU16" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -3336,26 +3344,30 @@
         <f>'[5]Financial Model'!$W$28</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="AO19" s="5">
+      <c r="AO19" s="39">
+        <f>[5]Main!$G$10</f>
+        <v>2128</v>
+      </c>
+      <c r="AP19" s="5">
         <f>[5]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="AP19" s="5">
+      <c r="AQ19" s="5">
         <f>[5]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="AQ19" s="5" t="str">
+      <c r="AR19" s="5" t="str">
         <f>[5]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="AS19" s="5" t="s">
+      <c r="AT19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AT19" s="5" t="s">
+      <c r="AU19" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -3397,17 +3409,17 @@
         <v>0</v>
       </c>
       <c r="W20" s="22"/>
-      <c r="AS20" s="5" t="s">
+      <c r="AT20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AT20" s="5" t="s">
+      <c r="AU20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
@@ -3516,26 +3528,26 @@
         <f>'[7]Financial Model'!$AB$24</f>
         <v>0.57428577182862139</v>
       </c>
-      <c r="AO22" s="5">
+      <c r="AP22" s="5">
         <f>[7]Main!$C$24</f>
         <v>2004</v>
       </c>
-      <c r="AP22" s="5">
+      <c r="AQ22" s="5">
         <f>[7]Main!$C$25</f>
         <v>2015</v>
       </c>
-      <c r="AQ22" s="5" t="str">
+      <c r="AR22" s="5" t="str">
         <f>[7]Main!$C$23</f>
         <v>Ottowa, Canada</v>
       </c>
-      <c r="AS22" s="5" t="s">
+      <c r="AT22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT22" s="5" t="s">
+      <c r="AU22" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -3568,25 +3580,25 @@
         <f>[8]Main!$C$12*F57</f>
         <v>23759.870500000001</v>
       </c>
-      <c r="K23" s="37" t="str">
+      <c r="K23" s="34" t="str">
         <f>[8]Main!$C$28</f>
         <v>Q422</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="35">
         <f>[8]Main!$D$28</f>
         <v>44593</v>
       </c>
       <c r="M23" s="26">
         <f>'[8]Financial Model'!$AW$29*$F$57</f>
-        <v>48.977302295869407</v>
+        <v>44.140737621104712</v>
       </c>
       <c r="N23" s="31">
         <f>'[8]Financial Model'!$AW$31</f>
-        <v>0.30118628328182151</v>
+        <v>0.17269264810788143</v>
       </c>
       <c r="O23" s="31">
         <f>'[8]Financial Model'!$AW$25</f>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="21">
@@ -3670,26 +3682,26 @@
         <f>'[8]Financial Model'!$AF$24</f>
         <v>8.2502266545784186E-2</v>
       </c>
-      <c r="AO23" s="5">
+      <c r="AP23" s="5">
         <f>[8]Main!$C$24</f>
         <v>1995</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AQ23" s="5">
         <f>[8]Main!$C$25</f>
         <v>1998</v>
       </c>
-      <c r="AQ23" s="5" t="str">
+      <c r="AR23" s="5" t="str">
         <f>[8]Main!$C$23</f>
         <v>San Jose, CA</v>
       </c>
-      <c r="AS23" s="5" t="s">
+      <c r="AT23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT23" s="5" t="s">
+      <c r="AU23" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3703,14 +3715,14 @@
         <v>17</v>
       </c>
       <c r="W24" s="22"/>
-      <c r="AS24" s="5" t="s">
+      <c r="AT24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT24" s="5" t="s">
+      <c r="AU24" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3724,12 +3736,12 @@
         <v>17</v>
       </c>
       <c r="W25" s="22"/>
-      <c r="AS25" s="5" t="s">
+      <c r="AT25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT25" s="5"/>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU25" s="5"/>
+    </row>
+    <row r="26" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3740,12 +3752,12 @@
         <v>30</v>
       </c>
       <c r="W26" s="22"/>
-      <c r="AS26" s="5" t="s">
+      <c r="AT26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT26" s="5"/>
-    </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU26" s="5"/>
+    </row>
+    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3756,15 +3768,15 @@
         <v>33</v>
       </c>
       <c r="W27" s="22"/>
-      <c r="AT27" s="5"/>
-    </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU27" s="5"/>
+    </row>
+    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3778,11 +3790,11 @@
         <v>16</v>
       </c>
       <c r="W30" s="22"/>
-      <c r="AS30" s="5" t="s">
+      <c r="AT30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -3796,17 +3808,17 @@
         <v>17</v>
       </c>
       <c r="W31" s="22"/>
-      <c r="AS31" s="5" t="s">
+      <c r="AT31" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -3817,14 +3829,14 @@
         <v>30</v>
       </c>
       <c r="W34" s="22"/>
-      <c r="AS34" s="5" t="s">
+      <c r="AT34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT34" s="5" t="s">
+      <c r="AU34" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3841,14 +3853,14 @@
         <v>119</v>
       </c>
       <c r="W35" s="22"/>
-      <c r="AS35" s="5" t="s">
+      <c r="AT35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT35" s="5" t="s">
+      <c r="AU35" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -3859,20 +3871,20 @@
         <v>30</v>
       </c>
       <c r="W36" s="22"/>
-      <c r="AS36" s="5" t="s">
+      <c r="AT36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT36" s="5" t="s">
+      <c r="AU36" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -3896,35 +3908,35 @@
         <v>482.83839999999998</v>
       </c>
       <c r="W39" s="22"/>
-      <c r="AO39" s="5">
+      <c r="AP39" s="5">
         <v>2007</v>
       </c>
-      <c r="AP39" s="5">
+      <c r="AQ39" s="5">
         <v>2021</v>
       </c>
-      <c r="AQ39" s="5" t="s">
+      <c r="AR39" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AS39" s="5" t="s">
+      <c r="AT39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AT39" s="5" t="s">
+      <c r="AU39" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
       <c r="W40" s="22"/>
-      <c r="AT40" s="5"/>
-    </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU40" s="5"/>
+    </row>
+    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="W41" s="22"/>
-      <c r="AT41" s="5"/>
-    </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU41" s="5"/>
+    </row>
+    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -3949,14 +3961,14 @@
         <v>122932.59181199998</v>
       </c>
       <c r="W42" s="22"/>
-      <c r="AS42" s="5" t="s">
+      <c r="AT42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AT42" s="5" t="s">
+      <c r="AU42" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3981,14 +3993,14 @@
         <v>14757.024674</v>
       </c>
       <c r="W43" s="22"/>
-      <c r="AS43" s="5" t="s">
+      <c r="AT43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AT43" s="5" t="s">
+      <c r="AU43" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -4012,20 +4024,20 @@
         <v>65.118500000000012</v>
       </c>
       <c r="W44" s="22"/>
-      <c r="AS44" s="5" t="s">
+      <c r="AT44" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AT44" s="5" t="s">
+      <c r="AU44" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
       <c r="W45" s="22"/>
-      <c r="AT45" s="5"/>
-    </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU45" s="5"/>
+    </row>
+    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
@@ -4035,9 +4047,9 @@
       <c r="G46" s="19"/>
       <c r="H46" s="17"/>
       <c r="W46" s="22"/>
-      <c r="AT46" s="5"/>
-    </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU46" s="5"/>
+    </row>
+    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -4047,9 +4059,9 @@
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
       <c r="W47" s="22"/>
-      <c r="AT47" s="5"/>
-    </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU47" s="5"/>
+    </row>
+    <row r="48" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -4059,21 +4071,21 @@
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
       <c r="W48" s="22"/>
-      <c r="AT48" s="5"/>
-    </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU48" s="5"/>
+    </row>
+    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="W49" s="22"/>
-      <c r="AT49" s="5"/>
-    </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU49" s="5"/>
+    </row>
+    <row r="50" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
       <c r="W50" s="22"/>
-      <c r="AT50" s="5"/>
-    </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.15">
+      <c r="AU50" s="5"/>
+    </row>
+    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>150</v>
       </c>
@@ -4115,26 +4127,26 @@
         <v>0</v>
       </c>
       <c r="W51" s="22"/>
-      <c r="AO51" s="5">
+      <c r="AP51" s="5">
         <f>[9]Main!$C$24</f>
         <v>1975</v>
       </c>
-      <c r="AP51" s="5">
+      <c r="AQ51" s="5">
         <f>[9]Main!$C$25</f>
         <v>1986</v>
       </c>
-      <c r="AQ51" s="5" t="str">
+      <c r="AR51" s="5" t="str">
         <f>[9]Main!$C$23</f>
         <v>Redmond, WA</v>
       </c>
-      <c r="AS51" s="5" t="s">
+      <c r="AT51" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AT51" s="5" t="s">
+      <c r="AU51" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>151</v>
       </c>
@@ -4176,63 +4188,63 @@
         <v>0</v>
       </c>
       <c r="W52" s="22"/>
-      <c r="AO52" s="5">
+      <c r="AP52" s="5">
         <f>[10]Main!$C$24</f>
         <v>1998</v>
       </c>
-      <c r="AP52" s="5">
+      <c r="AQ52" s="5">
         <f>[10]Main!$C$25</f>
         <v>2004</v>
       </c>
-      <c r="AQ52" s="5" t="str">
+      <c r="AR52" s="5" t="str">
         <f>[10]Main!$C$23</f>
         <v>Mountain View, CA</v>
       </c>
-      <c r="AS52" s="5" t="s">
+      <c r="AT52" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AT52" s="5" t="s">
+      <c r="AU52" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AS53" s="5" t="s">
+      <c r="AT53" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AT53" s="5" t="s">
+      <c r="AU53" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AS54" s="5" t="s">
+      <c r="AT54" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AT54" s="5" t="s">
+      <c r="AU54" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="E56" s="34" t="s">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="E56" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="35"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E57" s="10" t="s">
         <v>27</v>
       </c>
@@ -4244,7 +4256,7 @@
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E58" s="13" t="s">
         <v>28</v>
       </c>
@@ -4293,21 +4305,21 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.1640625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4340,7 +4352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -4366,11 +4378,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C0D0B0-47B1-4E43-9EFE-BF69CA09436A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7298E1-EE1D-4EA9-9C06-D4F1E80D7467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -851,6 +851,12 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,12 +864,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -933,6 +933,11 @@
             <v>2017</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="C26">
+            <v>3544</v>
+          </cell>
+        </row>
         <row r="28">
           <cell r="C28" t="str">
             <v>FQ323</v>
@@ -1216,6 +1221,11 @@
             <v>2016</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="C26">
+            <v>8156</v>
+          </cell>
+        </row>
         <row r="28">
           <cell r="C28" t="str">
             <v>Q422</v>
@@ -1337,7 +1347,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>7.4459999999999997</v>
+            <v>7.62</v>
           </cell>
         </row>
         <row r="7">
@@ -1347,7 +1357,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>7594.92</v>
+            <v>7772.4000000000005</v>
           </cell>
         </row>
         <row r="11">
@@ -1357,7 +1367,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>8323.92</v>
+            <v>8501.4000000000015</v>
           </cell>
         </row>
         <row r="23">
@@ -1375,6 +1385,11 @@
             <v>1989</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="C26">
+            <v>11228</v>
+          </cell>
+        </row>
         <row r="27">
           <cell r="C27" t="str">
             <v>FY22</v>
@@ -1385,27 +1400,27 @@
         </row>
         <row r="32">
           <cell r="C32">
-            <v>29.901259842519682</v>
+            <v>30.6</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>3.9008320493066257</v>
+            <v>3.9919876733436057</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>5.5155555555555553</v>
+            <v>5.6444444444444439</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>4.2752542372881353</v>
+            <v>4.3664098613251161</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>32.771338582677167</v>
+            <v>33.470078740157483</v>
           </cell>
         </row>
       </sheetData>
@@ -1472,7 +1487,7 @@
         </row>
         <row r="24">
           <cell r="AH24">
-            <v>-0.14975928489791379</v>
+            <v>-0.16917423036087487</v>
           </cell>
         </row>
       </sheetData>
@@ -1493,7 +1508,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>41.46</v>
+            <v>39.229999999999997</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -1509,7 +1524,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>24953.074140000001</v>
+            <v>23610.92857</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -1533,27 +1548,27 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>22964.584140000003</v>
+            <v>21622.438570000002</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>81.803970495189361</v>
+            <v>77.403998131362243</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>11.214602687937182</v>
+            <v>10.611405292999896</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>-26.466723449006508</v>
+            <v>-25.043163552931144</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19">
-            <v>10.32092020321323</v>
+            <v>9.7177228082759441</v>
           </cell>
         </row>
       </sheetData>
@@ -1608,7 +1623,7 @@
             <v>0.15937579623808262</v>
           </cell>
           <cell r="AP28">
-            <v>0.54634994738972664</v>
+            <v>0.63425105324440678</v>
           </cell>
         </row>
       </sheetData>
@@ -1715,6 +1730,11 @@
             <v>2015</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="C26">
+            <v>11600</v>
+          </cell>
+        </row>
         <row r="28">
           <cell r="C28" t="str">
             <v>Q422</v>
@@ -1859,6 +1879,11 @@
             <v>1998</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="C26">
+            <v>11600</v>
+          </cell>
+        </row>
         <row r="28">
           <cell r="C28" t="str">
             <v>Q422</v>
@@ -1962,7 +1987,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2343,10 +2368,10 @@
   <dimension ref="A1:AU58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
+      <selection pane="bottomRight" activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2370,7 +2395,7 @@
     <col min="33" max="33" width="9.140625" style="1"/>
     <col min="34" max="39" width="9.140625" style="18"/>
     <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="11.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="9.140625" style="5"/>
     <col min="44" max="44" width="21" style="5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="9.140625" style="1"/>
@@ -2380,20 +2405,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2503,7 +2528,7 @@
       <c r="AM2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="AO2" s="40" t="s">
+      <c r="AO2" s="37" t="s">
         <v>161</v>
       </c>
       <c r="AP2" s="4" t="s">
@@ -2633,6 +2658,10 @@
       <c r="AJ4" s="18">
         <f>'[1]Financial Model'!$AH$26</f>
         <v>0.48003319895660423</v>
+      </c>
+      <c r="AO4" s="36">
+        <f>[1]Main!$C$26</f>
+        <v>3544</v>
       </c>
       <c r="AP4" s="5">
         <f>[1]Main!$C24</f>
@@ -2895,6 +2924,10 @@
       <c r="AL7" s="18">
         <f>'[3]Financial Model'!$Z$22</f>
         <v>0.74515549935622039</v>
+      </c>
+      <c r="AO7" s="36">
+        <f>[3]Main!$C$26</f>
+        <v>8156</v>
       </c>
       <c r="AP7" s="5">
         <f>[3]Main!$C$24</f>
@@ -3006,7 +3039,7 @@
       </c>
       <c r="F11" s="16">
         <f>[4]Main!$C$6</f>
-        <v>7.4459999999999997</v>
+        <v>7.62</v>
       </c>
       <c r="G11" s="17">
         <f>[4]Main!$C$7</f>
@@ -3014,7 +3047,7 @@
       </c>
       <c r="H11" s="17">
         <f>[4]Main!$C$8</f>
-        <v>7594.92</v>
+        <v>7772.4000000000005</v>
       </c>
       <c r="I11" s="17">
         <f>[4]Main!$C$11</f>
@@ -3022,7 +3055,7 @@
       </c>
       <c r="J11" s="17">
         <f>[4]Main!$C$12</f>
-        <v>8323.92</v>
+        <v>8501.4000000000015</v>
       </c>
       <c r="K11" s="5" t="str">
         <f>[4]Main!$C$27</f>
@@ -3038,7 +3071,7 @@
       </c>
       <c r="N11" s="31">
         <f>'[4]Financial Model'!$AH$24</f>
-        <v>-0.14975928489791379</v>
+        <v>-0.16917423036087487</v>
       </c>
       <c r="O11" s="31">
         <f>'[4]Financial Model'!$AH$18</f>
@@ -3047,23 +3080,23 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="21">
         <f>[4]Main!$C$34</f>
-        <v>5.5155555555555553</v>
+        <v>5.6444444444444439</v>
       </c>
       <c r="R11" s="21">
         <f>[4]Main!$C$33</f>
-        <v>3.9008320493066257</v>
+        <v>3.9919876733436057</v>
       </c>
       <c r="S11" s="21">
         <f>[4]Main!$C$35</f>
-        <v>4.2752542372881353</v>
+        <v>4.3664098613251161</v>
       </c>
       <c r="T11" s="21">
         <f>[4]Main!$C$32</f>
-        <v>29.901259842519682</v>
+        <v>30.6</v>
       </c>
       <c r="U11" s="21">
         <f>[4]Main!$C$36</f>
-        <v>32.771338582677167</v>
+        <v>33.470078740157483</v>
       </c>
       <c r="V11" s="20"/>
       <c r="W11" s="23">
@@ -3121,6 +3154,10 @@
       <c r="AL11" s="18">
         <f>'[4]Financial Model'!$S$22</f>
         <v>4.8754062838569867E-2</v>
+      </c>
+      <c r="AO11" s="36">
+        <f>[4]Main!$C$26</f>
+        <v>11228</v>
       </c>
       <c r="AP11" s="5">
         <f>[4]Main!$C$24</f>
@@ -3244,7 +3281,7 @@
       </c>
       <c r="F19" s="17">
         <f>[5]Main!$C$6*F57</f>
-        <v>34.411799999999999</v>
+        <v>32.560899999999997</v>
       </c>
       <c r="G19" s="17">
         <f>[5]Main!$C$7</f>
@@ -3252,7 +3289,7 @@
       </c>
       <c r="H19" s="17">
         <f>[5]Main!$C$8*F57</f>
-        <v>20711.051536200001</v>
+        <v>19597.070713099998</v>
       </c>
       <c r="I19" s="17">
         <f>[5]Main!$C$11*F57</f>
@@ -3260,7 +3297,7 @@
       </c>
       <c r="J19" s="17">
         <f>[5]Main!$C$12*F57</f>
-        <v>19060.6048362</v>
+        <v>17946.624013100001</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>[5]Main!$G$11</f>
@@ -3276,7 +3313,7 @@
       </c>
       <c r="N19" s="31">
         <f>'[5]Financial Model'!$AP$28</f>
-        <v>0.54634994738972664</v>
+        <v>0.63425105324440678</v>
       </c>
       <c r="O19" s="31">
         <f>'[5]Financial Model'!$AP$22</f>
@@ -3284,19 +3321,19 @@
       </c>
       <c r="Q19" s="21">
         <f>[5]Main!$G$16</f>
-        <v>81.803970495189361</v>
+        <v>77.403998131362243</v>
       </c>
       <c r="R19" s="21">
         <f>[5]Main!$G$17</f>
-        <v>11.214602687937182</v>
+        <v>10.611405292999896</v>
       </c>
       <c r="S19" s="21">
         <f>[5]Main!$G$19</f>
-        <v>10.32092020321323</v>
+        <v>9.7177228082759441</v>
       </c>
       <c r="T19" s="21">
         <f>[5]Main!$G$18</f>
-        <v>-26.466723449006508</v>
+        <v>-25.043163552931144</v>
       </c>
       <c r="W19" s="23">
         <f>'[5]Financial Model'!$X$18*F57</f>
@@ -3344,7 +3381,7 @@
         <f>'[5]Financial Model'!$W$28</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="AO19" s="39">
+      <c r="AO19" s="36">
         <f>[5]Main!$G$10</f>
         <v>2128</v>
       </c>
@@ -3527,6 +3564,10 @@
       <c r="AJ22" s="18">
         <f>'[7]Financial Model'!$AB$24</f>
         <v>0.57428577182862139</v>
+      </c>
+      <c r="AO22" s="36">
+        <f>[7]Main!$C$26</f>
+        <v>11600</v>
       </c>
       <c r="AP22" s="5">
         <f>[7]Main!$C$24</f>
@@ -3681,6 +3722,10 @@
       <c r="AM23" s="18">
         <f>'[8]Financial Model'!$AF$24</f>
         <v>8.2502266545784186E-2</v>
+      </c>
+      <c r="AO23" s="36">
+        <f>[8]Main!$C$26</f>
+        <v>11600</v>
       </c>
       <c r="AP23" s="5">
         <f>[8]Main!$C$24</f>
@@ -4236,10 +4281,10 @@
       </c>
     </row>
     <row r="56" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="37"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="9" t="s">
         <v>26</v>
       </c>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7298E1-EE1D-4EA9-9C06-D4F1E80D7467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5BE281-4B9D-4912-9FE0-7875537107F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -1329,8 +1329,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1987,7 +1987,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2368,10 +2368,10 @@
   <dimension ref="A1:AU58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO23" sqref="AO23"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5BE281-4B9D-4912-9FE0-7875537107F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB41250-15F7-4A0E-A50C-01B829D4249D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -890,32 +890,33 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>191.75</v>
+            <v>207.67</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>68.916813000000005</v>
+            <v>69.525238000000002</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>13214.798892750001</v>
+            <v>14438.30617546</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>648.49</v>
+            <v>696.75</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>12566.308892750001</v>
+            <v>13741.55617546</v>
           </cell>
         </row>
         <row r="23">
@@ -940,76 +941,93 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>FQ323</v>
+            <v>FQ423</v>
           </cell>
           <cell r="D28">
-            <v>44901</v>
+            <v>44994</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>19.311919490429393</v>
+            <v>19.524205519696878</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>11.112137929461445</v>
+            <v>11.244436447042149</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>10.701813164278372</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>-39.784701056346599</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="15">
-          <cell r="AG15">
+          <cell r="AH15">
             <v>-209.30399999999997</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="AH21">
+          <cell r="AI21">
             <v>-306.86599999999999</v>
           </cell>
+          <cell r="AJ21">
+            <v>-345.39800000000014</v>
+          </cell>
         </row>
         <row r="23">
-          <cell r="AU23">
+          <cell r="AV23">
             <v>0.08</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="Y26">
-            <v>0.47038912615197459</v>
-          </cell>
-          <cell r="AH26">
+          <cell r="Z26">
+            <v>0.35579787912673444</v>
+          </cell>
+          <cell r="AI26">
             <v>0.48003319895660423</v>
           </cell>
+          <cell r="AJ26">
+            <v>0.46951985735572488</v>
+          </cell>
         </row>
         <row r="27">
-          <cell r="AU27">
-            <v>178.03749057058687</v>
+          <cell r="AV27">
+            <v>175.28977476034504</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="X29">
-            <v>0.70928999538958049</v>
-          </cell>
-          <cell r="AU29">
-            <v>-7.1512435094722937E-2</v>
+          <cell r="AJ29">
+            <v>0.72796486090775991</v>
+          </cell>
+          <cell r="AV29">
+            <v>-0.15592153531879882</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="X30">
-            <v>-0.37819600869393383</v>
+          <cell r="AJ30">
+            <v>-0.26997211924862163</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="X31">
-            <v>-0.39144108542448774</v>
+          <cell r="AJ31">
+            <v>-0.26899317778262372</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="X32">
-            <v>-2.6326241624645998E-2</v>
+          <cell r="AJ32">
+            <v>-3.6440672880145464E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1329,8 +1347,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2371,7 +2389,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2573,90 +2591,106 @@
       </c>
       <c r="F4" s="16">
         <f>[1]Main!$C$6*F57</f>
-        <v>159.1525</v>
+        <v>172.36609999999999</v>
       </c>
       <c r="G4" s="19">
         <f>[1]Main!$C$7</f>
-        <v>68.916813000000005</v>
+        <v>69.525238000000002</v>
       </c>
       <c r="H4" s="17">
         <f>[1]Main!$C$8*F57</f>
-        <v>10968.283080982501</v>
+        <v>11983.794125631799</v>
       </c>
       <c r="I4" s="17">
         <f>[1]Main!$C$11*F57</f>
-        <v>538.24670000000003</v>
+        <v>578.30250000000001</v>
       </c>
       <c r="J4" s="17">
         <f>[1]Main!$C$12*F57</f>
-        <v>10430.036380982501</v>
+        <v>11405.491625631799</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>[1]Main!$C$28</f>
-        <v>FQ323</v>
+        <v>FQ423</v>
       </c>
       <c r="L4" s="8">
         <f>[1]Main!$D$28</f>
-        <v>44901</v>
+        <v>44994</v>
       </c>
       <c r="M4" s="26">
-        <f>'[1]Financial Model'!$AU$27*F57</f>
-        <v>147.7711171735871</v>
+        <f>'[1]Financial Model'!$AV$27*F57</f>
+        <v>145.49051305108637</v>
       </c>
       <c r="N4" s="31">
-        <f>'[1]Financial Model'!$AU$29</f>
-        <v>-7.1512435094722937E-2</v>
+        <f>'[1]Financial Model'!$AV$29</f>
+        <v>-0.15592153531879882</v>
       </c>
       <c r="O4" s="31">
-        <f>'[1]Financial Model'!$AU$23</f>
+        <f>'[1]Financial Model'!$AV$23</f>
         <v>0.08</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="21">
         <f>[1]Main!$C$33</f>
-        <v>19.311919490429393</v>
+        <v>19.524205519696878</v>
       </c>
       <c r="R4" s="21">
         <f>[1]Main!$C$34</f>
-        <v>11.112137929461445</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+        <v>11.244436447042149</v>
+      </c>
+      <c r="S4" s="21">
+        <f>[1]Main!$C$35</f>
+        <v>10.701813164278372</v>
+      </c>
+      <c r="T4" s="21">
+        <f>[1]Main!$C$33</f>
+        <v>19.524205519696878</v>
+      </c>
+      <c r="U4" s="21">
+        <f>[1]Main!$C$37</f>
+        <v>-39.784701056346599</v>
+      </c>
       <c r="V4" s="8"/>
-      <c r="W4" s="23"/>
+      <c r="W4" s="23">
+        <f>'[1]Financial Model'!$AJ$21*$F$57</f>
+        <v>-286.68034000000011</v>
+      </c>
       <c r="X4" s="23">
-        <f>'[1]Financial Model'!$AH$21*F57</f>
+        <f>'[1]Financial Model'!$AI$21*F57</f>
         <v>-254.69877999999997</v>
       </c>
       <c r="Y4" s="23">
-        <f>'[1]Financial Model'!$AG$15*F57</f>
+        <f>'[1]Financial Model'!$AH$15*F57</f>
         <v>-173.72231999999997</v>
       </c>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23"/>
       <c r="AC4" s="18">
-        <f>'[1]Financial Model'!$X$29</f>
-        <v>0.70928999538958049</v>
+        <f>'[1]Financial Model'!$AJ$29</f>
+        <v>0.72796486090775991</v>
       </c>
       <c r="AD4" s="18">
-        <f>'[1]Financial Model'!$X$30</f>
-        <v>-0.37819600869393383</v>
+        <f>'[1]Financial Model'!$AJ$30</f>
+        <v>-0.26997211924862163</v>
       </c>
       <c r="AE4" s="18">
-        <f>'[1]Financial Model'!$X$31</f>
-        <v>-0.39144108542448774</v>
+        <f>'[1]Financial Model'!$AJ$31</f>
+        <v>-0.26899317778262372</v>
       </c>
       <c r="AF4" s="18">
-        <f>'[1]Financial Model'!$X$32</f>
-        <v>-2.6326241624645998E-2</v>
+        <f>'[1]Financial Model'!$AJ$32</f>
+        <v>-3.6440672880145464E-2</v>
       </c>
       <c r="AH4" s="18">
-        <f>'[1]Financial Model'!$Y$26</f>
-        <v>0.47038912615197459</v>
+        <f>'[1]Financial Model'!$Z$26</f>
+        <v>0.35579787912673444</v>
+      </c>
+      <c r="AI4" s="18">
+        <f>'[1]Financial Model'!$AJ$26</f>
+        <v>0.46951985735572488</v>
       </c>
       <c r="AJ4" s="18">
-        <f>'[1]Financial Model'!$AH$26</f>
+        <f>'[1]Financial Model'!$AI$26</f>
         <v>0.48003319895660423</v>
       </c>
       <c r="AO4" s="36">

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB41250-15F7-4A0E-A50C-01B829D4249D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4DDC98-58F9-472D-A503-BE0AD9D532BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -2389,7 +2389,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4DDC98-58F9-472D-A503-BE0AD9D532BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DF8019-D7FD-4CD7-A113-39CD4F5BADC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -2383,13 +2383,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AU58"/>
+  <dimension ref="A1:AU71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4345,6 +4345,11 @@
       <c r="G58" s="15">
         <f>1/F58</f>
         <v>1.1494252873563218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DF8019-D7FD-4CD7-A113-39CD4F5BADC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18D0E57-2C16-4F42-8F1D-C517B7A372B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="162">
   <si>
     <t>Ticker</t>
   </si>
@@ -1104,27 +1104,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>4.0199999999999996</v>
+            <v>1.4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>58.801357000000003</v>
+            <v>66.483192000000003</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>236.38145513999999</v>
+            <v>93.076468800000001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>16.010999999999999</v>
+            <v>11.821999999999999</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>220.37045513999999</v>
+            <v>81.254468799999998</v>
           </cell>
         </row>
         <row r="23">
@@ -1144,42 +1144,42 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>Q322</v>
+            <v>Q422</v>
           </cell>
           <cell r="D28">
-            <v>42705</v>
+            <v>41306</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>26.782399177430296</v>
+            <v>-3.0918082009604722</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="25">
-          <cell r="J25">
-            <v>0.21252241299870667</v>
+          <cell r="K25">
+            <v>0.19672897196261663</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="J28">
-            <v>0.68957308000457829</v>
+          <cell r="K28">
+            <v>0.73721202655212803</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="J29">
-            <v>-1.1077257639922169</v>
+          <cell r="K29">
+            <v>-0.99711050370948873</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="J30">
-            <v>-1.1136774636602953</v>
+          <cell r="K30">
+            <v>-1.0185083951581417</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="J31">
-            <v>-1.6676961087090797E-3</v>
+          <cell r="K31">
+            <v>4.2754619025805463E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -2389,7 +2389,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2731,38 +2731,38 @@
       </c>
       <c r="F5" s="16">
         <f>[2]Main!$C$6*F57</f>
-        <v>3.3365999999999993</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="G5" s="17">
         <f>[2]Main!$C$7</f>
-        <v>58.801357000000003</v>
+        <v>66.483192000000003</v>
       </c>
       <c r="H5" s="17">
         <f>[2]Main!$C$8*F57</f>
-        <v>196.19660776619997</v>
+        <v>77.25346910399999</v>
       </c>
       <c r="I5" s="17">
         <f>[2]Main!$C$11*F57</f>
-        <v>13.289129999999998</v>
+        <v>9.8122599999999984</v>
       </c>
       <c r="J5" s="17">
         <f>[2]Main!$C$12*F57</f>
-        <v>182.90747776619997</v>
+        <v>67.441209103999995</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>[2]Main!$C$28</f>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="L5" s="8">
         <f>[2]Main!$D$28</f>
-        <v>42705</v>
+        <v>41306</v>
       </c>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="21">
         <f>[2]Main!$C$34</f>
-        <v>26.782399177430296</v>
+        <v>-3.0918082009604722</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
@@ -2775,24 +2775,24 @@
       <c r="Z5" s="23"/>
       <c r="AA5" s="23"/>
       <c r="AC5" s="18">
-        <f>'[2]Financial Model'!$J$28</f>
-        <v>0.68957308000457829</v>
+        <f>'[2]Financial Model'!$K$28</f>
+        <v>0.73721202655212803</v>
       </c>
       <c r="AD5" s="18">
-        <f>'[2]Financial Model'!$J$29</f>
-        <v>-1.1077257639922169</v>
+        <f>'[2]Financial Model'!$K$29</f>
+        <v>-0.99711050370948873</v>
       </c>
       <c r="AE5" s="18">
-        <f>'[2]Financial Model'!$J$30</f>
-        <v>-1.1136774636602953</v>
+        <f>'[2]Financial Model'!$K$30</f>
+        <v>-1.0185083951581417</v>
       </c>
       <c r="AF5" s="18">
-        <f>'[2]Financial Model'!$J$31</f>
-        <v>-1.6676961087090797E-3</v>
+        <f>'[2]Financial Model'!$K$31</f>
+        <v>4.2754619025805463E-3</v>
       </c>
       <c r="AH5" s="18">
-        <f>'[2]Financial Model'!$J$25</f>
-        <v>0.21252241299870667</v>
+        <f>'[2]Financial Model'!$K$25</f>
+        <v>0.19672897196261663</v>
       </c>
       <c r="AP5" s="5">
         <f>[2]Main!$C$24</f>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18D0E57-2C16-4F42-8F1D-C517B7A372B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA9007E-1AE8-4270-A572-04DE347025BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="166">
   <si>
     <t>Ticker</t>
   </si>
@@ -525,6 +526,18 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>$ZM</t>
+  </si>
+  <si>
+    <t>Zoom Video Communications Inc.</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Video Conferencing</t>
   </si>
 </sst>
 </file>
@@ -1093,6 +1106,60 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>68.569999999999993</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>293.836386</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>20148.360988019998</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>San Jose, CA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Q422</v>
+          </cell>
+          <cell r="D29">
+            <v>37681</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2383,20 +2450,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AU71"/>
+  <dimension ref="A1:AU62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="5"/>
     <col min="6" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2590,7 +2657,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="16">
-        <f>[1]Main!$C$6*F57</f>
+        <f>[1]Main!$C$6*F61</f>
         <v>172.36609999999999</v>
       </c>
       <c r="G4" s="19">
@@ -2598,15 +2665,15 @@
         <v>69.525238000000002</v>
       </c>
       <c r="H4" s="17">
-        <f>[1]Main!$C$8*F57</f>
+        <f>[1]Main!$C$8*F61</f>
         <v>11983.794125631799</v>
       </c>
       <c r="I4" s="17">
-        <f>[1]Main!$C$11*F57</f>
+        <f>[1]Main!$C$11*F61</f>
         <v>578.30250000000001</v>
       </c>
       <c r="J4" s="17">
-        <f>[1]Main!$C$12*F57</f>
+        <f>[1]Main!$C$12*F61</f>
         <v>11405.491625631799</v>
       </c>
       <c r="K4" s="5" t="str">
@@ -2618,7 +2685,7 @@
         <v>44994</v>
       </c>
       <c r="M4" s="26">
-        <f>'[1]Financial Model'!$AV$27*F57</f>
+        <f>'[1]Financial Model'!$AV$27*F61</f>
         <v>145.49051305108637</v>
       </c>
       <c r="N4" s="31">
@@ -2652,15 +2719,15 @@
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="23">
-        <f>'[1]Financial Model'!$AJ$21*$F$57</f>
+        <f>'[1]Financial Model'!$AJ$21*$F$61</f>
         <v>-286.68034000000011</v>
       </c>
       <c r="X4" s="23">
-        <f>'[1]Financial Model'!$AI$21*F57</f>
+        <f>'[1]Financial Model'!$AI$21*F61</f>
         <v>-254.69877999999997</v>
       </c>
       <c r="Y4" s="23">
-        <f>'[1]Financial Model'!$AH$15*F57</f>
+        <f>'[1]Financial Model'!$AH$15*F61</f>
         <v>-173.72231999999997</v>
       </c>
       <c r="Z4" s="23"/>
@@ -2730,7 +2797,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="16">
-        <f>[2]Main!$C$6*F57</f>
+        <f>[2]Main!$C$6*F61</f>
         <v>1.1619999999999999</v>
       </c>
       <c r="G5" s="17">
@@ -2738,15 +2805,15 @@
         <v>66.483192000000003</v>
       </c>
       <c r="H5" s="17">
-        <f>[2]Main!$C$8*F57</f>
+        <f>[2]Main!$C$8*F61</f>
         <v>77.25346910399999</v>
       </c>
       <c r="I5" s="17">
-        <f>[2]Main!$C$11*F57</f>
+        <f>[2]Main!$C$11*F61</f>
         <v>9.8122599999999984</v>
       </c>
       <c r="J5" s="17">
-        <f>[2]Main!$C$12*F57</f>
+        <f>[2]Main!$C$12*F61</f>
         <v>67.441209103999995</v>
       </c>
       <c r="K5" s="5" t="str">
@@ -2842,7 +2909,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="16">
-        <f>[3]Main!$C$6*$F$57</f>
+        <f>[3]Main!$C$6*$F$61</f>
         <v>61.834999999999994</v>
       </c>
       <c r="G7" s="17">
@@ -2850,15 +2917,15 @@
         <v>185.12070199999999</v>
       </c>
       <c r="H7" s="17">
-        <f>[3]Main!$C$8*$F$57</f>
+        <f>[3]Main!$C$8*$F$61</f>
         <v>11446.938608169999</v>
       </c>
       <c r="I7" s="17">
-        <f>[3]Main!$C$11*F57</f>
+        <f>[3]Main!$C$11*F61</f>
         <v>2611.5095099999994</v>
       </c>
       <c r="J7" s="17">
-        <f>[3]Main!$C$12*F57</f>
+        <f>[3]Main!$C$12*F61</f>
         <v>8835.4290981699996</v>
       </c>
       <c r="K7" s="5" t="str">
@@ -2870,7 +2937,7 @@
         <v>42036</v>
       </c>
       <c r="M7" s="26">
-        <f>'[3]Financial Model'!$AP$30*F57</f>
+        <f>'[3]Financial Model'!$AP$30*F61</f>
         <v>43.66027265181549</v>
       </c>
       <c r="N7" s="31">
@@ -2904,23 +2971,23 @@
       </c>
       <c r="V7" s="8"/>
       <c r="W7" s="24">
-        <f>'[3]Financial Model'!$AC$18*F57</f>
+        <f>'[3]Financial Model'!$AC$18*F61</f>
         <v>-1042.6003499999997</v>
       </c>
       <c r="X7" s="23">
-        <f>'[3]Financial Model'!$AB$18*$F$57</f>
+        <f>'[3]Financial Model'!$AB$18*$F$61</f>
         <v>-788.41700000000003</v>
       </c>
       <c r="Y7" s="23">
-        <f>'[3]Financial Model'!$AA$18*$F$57</f>
+        <f>'[3]Financial Model'!$AA$18*$F$61</f>
         <v>-407.51256999999981</v>
       </c>
       <c r="Z7" s="23">
-        <f>'[3]Financial Model'!$Z$18*$F$57</f>
+        <f>'[3]Financial Model'!$Z$18*$F$61</f>
         <v>-254.86228999999994</v>
       </c>
       <c r="AA7" s="23">
-        <f>'[3]Financial Model'!$Y$18*F57</f>
+        <f>'[3]Financial Model'!$Y$18*F61</f>
         <v>-101.21767</v>
       </c>
       <c r="AC7" s="18">
@@ -3314,7 +3381,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="17">
-        <f>[5]Main!$C$6*F57</f>
+        <f>[5]Main!$C$6*F61</f>
         <v>32.560899999999997</v>
       </c>
       <c r="G19" s="17">
@@ -3322,15 +3389,15 @@
         <v>601.85900000000004</v>
       </c>
       <c r="H19" s="17">
-        <f>[5]Main!$C$8*F57</f>
+        <f>[5]Main!$C$8*F61</f>
         <v>19597.070713099998</v>
       </c>
       <c r="I19" s="17">
-        <f>[5]Main!$C$11*F57</f>
+        <f>[5]Main!$C$11*F61</f>
         <v>1650.4467000000002</v>
       </c>
       <c r="J19" s="17">
-        <f>[5]Main!$C$12*F57</f>
+        <f>[5]Main!$C$12*F61</f>
         <v>17946.624013100001</v>
       </c>
       <c r="K19" s="5" t="str">
@@ -3342,7 +3409,7 @@
         <v>42036</v>
       </c>
       <c r="M19" s="26">
-        <f>'[5]Financial Model'!$AP$26*F57</f>
+        <f>'[5]Financial Model'!$AP$26*F61</f>
         <v>53.212685119585799</v>
       </c>
       <c r="N19" s="31">
@@ -3370,15 +3437,15 @@
         <v>-25.043163552931144</v>
       </c>
       <c r="W19" s="23">
-        <f>'[5]Financial Model'!$X$18*F57</f>
+        <f>'[5]Financial Model'!$X$18*F61</f>
         <v>-775.78689000000008</v>
       </c>
       <c r="X19" s="24">
-        <f>'[5]Financial Model'!$W$18*F57</f>
+        <f>'[5]Financial Model'!$W$18*F61</f>
         <v>-417.89669999999995</v>
       </c>
       <c r="Y19" s="24">
-        <f>'[5]Financial Model'!$V$18*F57</f>
+        <f>'[5]Financial Model'!$V$18*F61</f>
         <v>-216.47727999999992</v>
       </c>
       <c r="Z19" s="22" t="s">
@@ -3452,7 +3519,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="17">
-        <f>[6]Main!$C$6*F57</f>
+        <f>[6]Main!$C$6*F61</f>
         <v>27.7469</v>
       </c>
       <c r="G20" s="17">
@@ -3460,15 +3527,15 @@
         <v>296.01300300000003</v>
       </c>
       <c r="H20" s="17">
-        <f>[6]Main!$C$8*F57</f>
+        <f>[6]Main!$C$8*F61</f>
         <v>8213.4431929407001</v>
       </c>
       <c r="I20" s="19">
-        <f>[6]Main!$C$11*F57</f>
+        <f>[6]Main!$C$11*F61</f>
         <v>-436.42229999999995</v>
       </c>
       <c r="J20" s="17">
-        <f>[6]Main!$C$12*F57</f>
+        <f>[6]Main!$C$12*F61</f>
         <v>8649.8654929407003</v>
       </c>
       <c r="K20" s="25" t="str">
@@ -3504,7 +3571,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="16">
-        <f>[7]Main!$C$6*$F$57</f>
+        <f>[7]Main!$C$6*$F$61</f>
         <v>40.006</v>
       </c>
       <c r="G22" s="17">
@@ -3512,15 +3579,15 @@
         <v>1273.338804</v>
       </c>
       <c r="H22" s="17">
-        <f>[7]Main!$C$8*F57</f>
+        <f>[7]Main!$C$8*F61</f>
         <v>50941.192192823997</v>
       </c>
       <c r="I22" s="17">
-        <f>[7]Main!$C$11*F57</f>
+        <f>[7]Main!$C$11*F61</f>
         <v>3435.8995399999999</v>
       </c>
       <c r="J22" s="17">
-        <f>[7]Main!$C$12*F57</f>
+        <f>[7]Main!$C$12*F61</f>
         <v>47505.292652823999</v>
       </c>
       <c r="K22" s="5" t="str">
@@ -3564,11 +3631,11 @@
         <v>-16.539993825254641</v>
       </c>
       <c r="W22" s="24">
-        <f>'[7]Financial Model'!$AC$20*F57</f>
+        <f>'[7]Financial Model'!$AC$20*F61</f>
         <v>-2872.1469399999992</v>
       </c>
       <c r="X22" s="24">
-        <f>'[7]Financial Model'!$AB$20*F57</f>
+        <f>'[7]Financial Model'!$AB$20*F61</f>
         <v>2419.1669699999998</v>
       </c>
       <c r="AC22" s="18">
@@ -3636,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="16">
-        <f>[8]Main!$C$6*F57</f>
+        <f>[8]Main!$C$6*F61</f>
         <v>37.640499999999996</v>
       </c>
       <c r="G23" s="19">
@@ -3644,15 +3711,15 @@
         <v>541</v>
       </c>
       <c r="H23" s="17">
-        <f>[8]Main!$C$8*F57</f>
+        <f>[8]Main!$C$8*F61</f>
         <v>20363.5105</v>
       </c>
       <c r="I23" s="17">
-        <f>[8]Main!$C$11*F57</f>
+        <f>[8]Main!$C$11*F61</f>
         <v>-3396.3599999999997</v>
       </c>
       <c r="J23" s="17">
-        <f>[8]Main!$C$12*F57</f>
+        <f>[8]Main!$C$12*F61</f>
         <v>23759.870500000001</v>
       </c>
       <c r="K23" s="34" t="str">
@@ -3664,7 +3731,7 @@
         <v>44593</v>
       </c>
       <c r="M23" s="26">
-        <f>'[8]Financial Model'!$AW$29*$F$57</f>
+        <f>'[8]Financial Model'!$AW$29*$F$61</f>
         <v>44.140737621104712</v>
       </c>
       <c r="N23" s="31">
@@ -3698,23 +3765,23 @@
       </c>
       <c r="V23" s="8"/>
       <c r="W23" s="24">
-        <f>'[8]Financial Model'!$AJ$20*F57</f>
+        <f>'[8]Financial Model'!$AJ$20*F61</f>
         <v>-1053.0625</v>
       </c>
       <c r="X23" s="24">
-        <f>'[8]Financial Model'!$AE$20*F57</f>
+        <f>'[8]Financial Model'!$AE$20*F61</f>
         <v>-1118.01</v>
       </c>
       <c r="Y23" s="24">
-        <f>'[8]Financial Model'!$AD$20*F57</f>
+        <f>'[8]Financial Model'!$AD$20*F61</f>
         <v>6030.78</v>
       </c>
       <c r="Z23" s="24">
-        <f>'[8]Financial Model'!$AC$20*F57</f>
+        <f>'[8]Financial Model'!$AC$20*F61</f>
         <v>1431.75</v>
       </c>
       <c r="AA23" s="24">
-        <f>'[8]Financial Model'!$AC$20*G57</f>
+        <f>'[8]Financial Model'!$AC$20*G61</f>
         <v>2078.3132530120483</v>
       </c>
       <c r="AC23" s="18">
@@ -4029,7 +4096,7 @@
         <v>17</v>
       </c>
       <c r="F42" s="16">
-        <f>332.82*F57</f>
+        <f>332.82*F61</f>
         <v>276.24059999999997</v>
       </c>
       <c r="G42" s="19">
@@ -4061,7 +4128,7 @@
         <v>17</v>
       </c>
       <c r="F43" s="16">
-        <f>92.06*F57</f>
+        <f>92.06*F61</f>
         <v>76.409800000000004</v>
       </c>
       <c r="G43" s="19">
@@ -4117,24 +4184,63 @@
       <c r="AU45" s="5"/>
     </row>
     <row r="46" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>130</v>
+      <c r="B46" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="16">
+        <f>[11]Main!$C$6*F61</f>
+        <v>56.913099999999993</v>
+      </c>
+      <c r="G46" s="19">
+        <f>[11]Main!$C$7</f>
+        <v>293.836386</v>
+      </c>
+      <c r="H46" s="17">
+        <f>[11]Main!$C$8*F61</f>
+        <v>16723.139620056598</v>
+      </c>
+      <c r="K46" s="8" t="str">
+        <f>[11]Main!$C$29</f>
+        <v>Q422</v>
+      </c>
+      <c r="L46" s="8">
+        <f>[11]Main!$D$29</f>
+        <v>37681</v>
+      </c>
       <c r="W46" s="22"/>
-      <c r="AU46" s="5"/>
+      <c r="AO46" s="36">
+        <f>[11]Main!$C$27</f>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="5">
+        <f>[11]Main!$C$24</f>
+        <v>2011</v>
+      </c>
+      <c r="AQ46" s="5">
+        <f>[11]Main!$C$25</f>
+        <v>2019</v>
+      </c>
+      <c r="AR46" s="5" t="str">
+        <f>[11]Main!$C$23</f>
+        <v>San Jose, CA</v>
+      </c>
+      <c r="AT46" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU46" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
       <c r="W47" s="22"/>
@@ -4142,10 +4248,10 @@
     </row>
     <row r="48" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
@@ -4153,208 +4259,239 @@
       <c r="AU48" s="5"/>
     </row>
     <row r="49" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="W49" s="22"/>
       <c r="AU49" s="5"/>
     </row>
     <row r="50" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
       <c r="W50" s="22"/>
       <c r="AU50" s="5"/>
     </row>
     <row r="51" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="s">
+      <c r="G51" s="19"/>
+      <c r="H51" s="17"/>
+      <c r="W51" s="22"/>
+      <c r="AU51" s="5"/>
+    </row>
+    <row r="52" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="G52" s="19"/>
+      <c r="H52" s="17"/>
+      <c r="W52" s="22"/>
+      <c r="AU52" s="5"/>
+    </row>
+    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="G53" s="19"/>
+      <c r="H53" s="17"/>
+      <c r="W53" s="22"/>
+      <c r="AU53" s="5"/>
+    </row>
+    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="G54" s="19"/>
+      <c r="H54" s="17"/>
+      <c r="W54" s="22"/>
+      <c r="AU54" s="5"/>
+    </row>
+    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="16">
-        <f>[9]Main!$C$6*$F$57</f>
+      <c r="F55" s="16">
+        <f>[9]Main!$C$6*$F$61</f>
         <v>213.21039999999999</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G55" s="33">
         <f>[9]Main!$C$7</f>
         <v>7440</v>
       </c>
-      <c r="H51" s="33">
-        <f>[9]Main!$C$12*$F$57</f>
+      <c r="H55" s="33">
+        <f>[9]Main!$C$12*$F$61</f>
         <v>1586285.3759999999</v>
       </c>
-      <c r="I51" s="33">
-        <f>[9]Main!$C$11*$F$57</f>
+      <c r="I55" s="33">
+        <f>[9]Main!$C$11*$F$61</f>
         <v>0</v>
       </c>
-      <c r="J51" s="33">
-        <f>[9]Main!$C$12*$F$57</f>
+      <c r="J55" s="33">
+        <f>[9]Main!$C$12*$F$61</f>
         <v>1586285.3759999999</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K55" s="5">
         <f>[9]Main!$C$29</f>
         <v>0</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L55" s="5">
         <f>[9]Main!$D$29</f>
         <v>0</v>
       </c>
-      <c r="W51" s="22"/>
-      <c r="AP51" s="5">
+      <c r="W55" s="22"/>
+      <c r="AP55" s="5">
         <f>[9]Main!$C$24</f>
         <v>1975</v>
       </c>
-      <c r="AQ51" s="5">
+      <c r="AQ55" s="5">
         <f>[9]Main!$C$25</f>
         <v>1986</v>
       </c>
-      <c r="AR51" s="5" t="str">
+      <c r="AR55" s="5" t="str">
         <f>[9]Main!$C$23</f>
         <v>Redmond, WA</v>
       </c>
-      <c r="AT51" s="5" t="s">
+      <c r="AT55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AU51" s="5" t="s">
+      <c r="AU55" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="s">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="16">
-        <f>[10]Main!$C$6*$F$57</f>
+      <c r="F56" s="16">
+        <f>[10]Main!$C$6*$F$61</f>
         <v>79.231799999999993</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G56" s="33">
         <f>[10]Main!$C$7</f>
         <v>13523</v>
       </c>
-      <c r="H52" s="33">
-        <f>[10]Main!$C$8*$F$57</f>
+      <c r="H56" s="33">
+        <f>[10]Main!$C$8*$F$61</f>
         <v>1071451.6313999998</v>
       </c>
-      <c r="I52" s="33">
-        <f>[10]Main!$C$11*$F$57</f>
+      <c r="I56" s="33">
+        <f>[10]Main!$C$11*$F$61</f>
         <v>0</v>
       </c>
-      <c r="J52" s="33">
-        <f>[10]Main!$C$12*$F$57</f>
+      <c r="J56" s="33">
+        <f>[10]Main!$C$12*$F$61</f>
         <v>1071451.6313999998</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K56" s="5">
         <f>[10]Main!$C$28</f>
         <v>0</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L56" s="5">
         <f>[10]Main!$D$28</f>
         <v>0</v>
       </c>
-      <c r="W52" s="22"/>
-      <c r="AP52" s="5">
+      <c r="W56" s="22"/>
+      <c r="AP56" s="5">
         <f>[10]Main!$C$24</f>
         <v>1998</v>
       </c>
-      <c r="AQ52" s="5">
+      <c r="AQ56" s="5">
         <f>[10]Main!$C$25</f>
         <v>2004</v>
       </c>
-      <c r="AR52" s="5" t="str">
+      <c r="AR56" s="5" t="str">
         <f>[10]Main!$C$23</f>
         <v>Mountain View, CA</v>
       </c>
-      <c r="AT52" s="5" t="s">
+      <c r="AT56" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AU52" s="5" t="s">
+      <c r="AU56" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AT53" s="5" t="s">
+      <c r="AT57" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AU53" s="5" t="s">
+      <c r="AU57" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AT54" s="5" t="s">
+      <c r="AT58" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AU54" s="5" t="s">
+      <c r="AU58" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E56" s="38" t="s">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="E60" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="9" t="s">
+      <c r="F60" s="39"/>
+      <c r="G60" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E57" s="10" t="s">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="E61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F61" s="11">
         <v>0.83</v>
       </c>
-      <c r="G57" s="12">
-        <f>1/F57</f>
+      <c r="G61" s="12">
+        <f>1/F61</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E58" s="13" t="s">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="E62" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F62" s="14">
         <v>0.87</v>
       </c>
-      <c r="G58" s="15">
-        <f>1/F58</f>
+      <c r="G62" s="15">
+        <f>1/F62</f>
         <v>1.1494252873563218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="W1:AA1"/>
   </mergeCells>
@@ -4367,13 +4504,14 @@
     <hyperlink ref="B23" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
     <hyperlink ref="B20" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
     <hyperlink ref="B22" r:id="rId8" xr:uid="{03436A82-476B-4BF2-A855-FEC5F745CF98}"/>
-    <hyperlink ref="B51" r:id="rId9" xr:uid="{46DC7469-9CFC-4610-A22B-3D4E075DFC99}"/>
-    <hyperlink ref="B52" r:id="rId10" xr:uid="{1F04985A-EB8E-4ED3-BC5F-B6E427A61566}"/>
+    <hyperlink ref="B55" r:id="rId9" xr:uid="{46DC7469-9CFC-4610-A22B-3D4E075DFC99}"/>
+    <hyperlink ref="B56" r:id="rId10" xr:uid="{1F04985A-EB8E-4ED3-BC5F-B6E427A61566}"/>
+    <hyperlink ref="B46" r:id="rId11" xr:uid="{C2513205-805A-4E29-899C-EDFC3E7F9BF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId12"/>
   <ignoredErrors>
-    <ignoredError sqref="I51" formula="1"/>
+    <ignoredError sqref="I55" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4386,7 +4524,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA9007E-1AE8-4270-A572-04DE347025BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E6C716-E321-4023-9191-F890CE072D3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -1130,6 +1130,16 @@
             <v>20148.360988019998</v>
           </cell>
         </row>
+        <row r="11">
+          <cell r="C11">
+            <v>5412.6660000000002</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>14735.694988019997</v>
+          </cell>
+        </row>
         <row r="23">
           <cell r="C23" t="str">
             <v>San Jose, CA</v>
@@ -1145,6 +1155,11 @@
             <v>2019</v>
           </cell>
         </row>
+        <row r="27">
+          <cell r="C27">
+            <v>8484</v>
+          </cell>
+        </row>
         <row r="29">
           <cell r="C29" t="str">
             <v>Q422</v>
@@ -1153,8 +1168,58 @@
             <v>37681</v>
           </cell>
         </row>
+        <row r="34">
+          <cell r="C34">
+            <v>2.9780786109979251</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>178.2237520954381</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="16">
+          <cell r="AB16">
+            <v>672.31600000000003</v>
+          </cell>
+          <cell r="AC16">
+            <v>1375.6389999999994</v>
+          </cell>
+          <cell r="AD16">
+            <v>103.7110000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AC20">
+            <v>0.54632023921236117</v>
+          </cell>
+          <cell r="AD20">
+            <v>7.1489200617386395E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AD23">
+            <v>0.74949669471153846</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AD24">
+            <v>5.5868708114801886E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AD25">
+            <v>2.3608455346736619E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AD26">
+            <v>0.58395112245061676</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1414,8 +1479,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2453,10 +2518,10 @@
   <dimension ref="A1:AU62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4208,6 +4273,14 @@
         <f>[11]Main!$C$8*F61</f>
         <v>16723.139620056598</v>
       </c>
+      <c r="I46" s="17">
+        <f>[11]Main!$C$11*F61</f>
+        <v>4492.51278</v>
+      </c>
+      <c r="J46" s="17">
+        <f>[11]Main!$C$12*F61</f>
+        <v>12230.626840056597</v>
+      </c>
       <c r="K46" s="8" t="str">
         <f>[11]Main!$C$29</f>
         <v>Q422</v>
@@ -4216,10 +4289,53 @@
         <f>[11]Main!$D$29</f>
         <v>37681</v>
       </c>
-      <c r="W46" s="22"/>
+      <c r="Q46" s="21">
+        <f>[11]Main!$C$34</f>
+        <v>2.9780786109979251</v>
+      </c>
+      <c r="T46" s="21">
+        <f>[11]Main!$C$37</f>
+        <v>178.2237520954381</v>
+      </c>
+      <c r="W46" s="24">
+        <f>'[11]Financial Model'!$AD$16*F61</f>
+        <v>86.080130000000082</v>
+      </c>
+      <c r="X46" s="24">
+        <f>'[11]Financial Model'!$AC$16*F61</f>
+        <v>1141.7803699999995</v>
+      </c>
+      <c r="Y46" s="24">
+        <f>'[11]Financial Model'!$AB$16*F61</f>
+        <v>558.02228000000002</v>
+      </c>
+      <c r="AC46" s="18">
+        <f>'[11]Financial Model'!$AD$23</f>
+        <v>0.74949669471153846</v>
+      </c>
+      <c r="AD46" s="18">
+        <f>'[11]Financial Model'!$AD$24</f>
+        <v>5.5868708114801886E-2</v>
+      </c>
+      <c r="AE46" s="18">
+        <f>'[11]Financial Model'!$AD$25</f>
+        <v>2.3608455346736619E-2</v>
+      </c>
+      <c r="AF46" s="18">
+        <f>'[11]Financial Model'!$AD$26</f>
+        <v>0.58395112245061676</v>
+      </c>
+      <c r="AI46" s="18">
+        <f>'[11]Financial Model'!$AD$20</f>
+        <v>7.1489200617386395E-2</v>
+      </c>
+      <c r="AJ46" s="18">
+        <f>'[11]Financial Model'!$AC$20</f>
+        <v>0.54632023921236117</v>
+      </c>
       <c r="AO46" s="36">
         <f>[11]Main!$C$27</f>
-        <v>0</v>
+        <v>8484</v>
       </c>
       <c r="AP46" s="5">
         <f>[11]Main!$C$24</f>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E6C716-E321-4023-9191-F890CE072D3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A766A-3719-4AF7-9740-1880B5FD36D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="166">
   <si>
     <t>Ticker</t>
   </si>
@@ -1057,17 +1057,12 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>95.46</v>
+            <v>256.88</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>13523</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>1290905.5799999998</v>
+            <v>7440</v>
           </cell>
         </row>
         <row r="11">
@@ -1077,27 +1072,27 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>1290905.5799999998</v>
+            <v>1911187.2</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Mountain View, CA</v>
+            <v>Redmond, WA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1998</v>
+            <v>1975</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2004</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28"/>
-          <cell r="D28"/>
+            <v>1986</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29"/>
+          <cell r="D29"/>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -1117,109 +1112,50 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>68.569999999999993</v>
+            <v>95.46</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>293.836386</v>
+            <v>13523</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>20148.360988019998</v>
+            <v>1290905.5799999998</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>5412.6660000000002</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>14735.694988019997</v>
+            <v>1290905.5799999998</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>San Jose, CA</v>
+            <v>Mountain View, CA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2011</v>
+            <v>1998</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>8484</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Q422</v>
-          </cell>
-          <cell r="D29">
-            <v>37681</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>2.9780786109979251</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>178.2237520954381</v>
-          </cell>
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28"/>
+          <cell r="D28"/>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="16">
-          <cell r="AB16">
-            <v>672.31600000000003</v>
-          </cell>
-          <cell r="AC16">
-            <v>1375.6389999999994</v>
-          </cell>
-          <cell r="AD16">
-            <v>103.7110000000001</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AC20">
-            <v>0.54632023921236117</v>
-          </cell>
-          <cell r="AD20">
-            <v>7.1489200617386395E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AD23">
-            <v>0.74949669471153846</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AD24">
-            <v>5.5868708114801886E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AD25">
-            <v>2.3608455346736619E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AD26">
-            <v>0.58395112245061676</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1479,8 +1415,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2154,45 +2090,109 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>256.88</v>
+            <v>68.569999999999993</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>7440</v>
+            <v>293.836386</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>20148.360988019998</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0</v>
+            <v>5412.6660000000002</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>1911187.2</v>
+            <v>14735.694988019997</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Redmond, WA</v>
+            <v>San Jose, CA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1975</v>
+            <v>2011</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>1986</v>
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>8484</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="C29"/>
-          <cell r="D29"/>
+          <cell r="C29" t="str">
+            <v>Q422</v>
+          </cell>
+          <cell r="D29">
+            <v>37681</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>2.9780786109979251</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>178.2237520954381</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="16">
+          <cell r="AB16">
+            <v>672.31600000000003</v>
+          </cell>
+          <cell r="AC16">
+            <v>1375.6389999999994</v>
+          </cell>
+          <cell r="AD16">
+            <v>103.7110000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AC20">
+            <v>0.54632023921236117</v>
+          </cell>
+          <cell r="AD20">
+            <v>7.1489200617386395E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AD23">
+            <v>0.74949669471153846</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AD24">
+            <v>5.5868708114801886E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AD25">
+            <v>2.3608455346736619E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AD26">
+            <v>0.58395112245061676</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2521,7 +2521,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3149,6 +3149,9 @@
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
@@ -3175,6 +3178,9 @@
       <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
@@ -4262,91 +4268,91 @@
         <v>17</v>
       </c>
       <c r="F46" s="16">
-        <f>[11]Main!$C$6*F61</f>
+        <f>[9]Main!$C$6*F61</f>
         <v>56.913099999999993</v>
       </c>
       <c r="G46" s="19">
-        <f>[11]Main!$C$7</f>
+        <f>[9]Main!$C$7</f>
         <v>293.836386</v>
       </c>
       <c r="H46" s="17">
-        <f>[11]Main!$C$8*F61</f>
+        <f>[9]Main!$C$8*F61</f>
         <v>16723.139620056598</v>
       </c>
       <c r="I46" s="17">
-        <f>[11]Main!$C$11*F61</f>
+        <f>[9]Main!$C$11*F61</f>
         <v>4492.51278</v>
       </c>
       <c r="J46" s="17">
-        <f>[11]Main!$C$12*F61</f>
+        <f>[9]Main!$C$12*F61</f>
         <v>12230.626840056597</v>
       </c>
       <c r="K46" s="8" t="str">
-        <f>[11]Main!$C$29</f>
+        <f>[9]Main!$C$29</f>
         <v>Q422</v>
       </c>
       <c r="L46" s="8">
-        <f>[11]Main!$D$29</f>
+        <f>[9]Main!$D$29</f>
         <v>37681</v>
       </c>
       <c r="Q46" s="21">
-        <f>[11]Main!$C$34</f>
+        <f>[9]Main!$C$34</f>
         <v>2.9780786109979251</v>
       </c>
       <c r="T46" s="21">
-        <f>[11]Main!$C$37</f>
+        <f>[9]Main!$C$37</f>
         <v>178.2237520954381</v>
       </c>
       <c r="W46" s="24">
-        <f>'[11]Financial Model'!$AD$16*F61</f>
+        <f>'[9]Financial Model'!$AD$16*F61</f>
         <v>86.080130000000082</v>
       </c>
       <c r="X46" s="24">
-        <f>'[11]Financial Model'!$AC$16*F61</f>
+        <f>'[9]Financial Model'!$AC$16*F61</f>
         <v>1141.7803699999995</v>
       </c>
       <c r="Y46" s="24">
-        <f>'[11]Financial Model'!$AB$16*F61</f>
+        <f>'[9]Financial Model'!$AB$16*F61</f>
         <v>558.02228000000002</v>
       </c>
       <c r="AC46" s="18">
-        <f>'[11]Financial Model'!$AD$23</f>
+        <f>'[9]Financial Model'!$AD$23</f>
         <v>0.74949669471153846</v>
       </c>
       <c r="AD46" s="18">
-        <f>'[11]Financial Model'!$AD$24</f>
+        <f>'[9]Financial Model'!$AD$24</f>
         <v>5.5868708114801886E-2</v>
       </c>
       <c r="AE46" s="18">
-        <f>'[11]Financial Model'!$AD$25</f>
+        <f>'[9]Financial Model'!$AD$25</f>
         <v>2.3608455346736619E-2</v>
       </c>
       <c r="AF46" s="18">
-        <f>'[11]Financial Model'!$AD$26</f>
+        <f>'[9]Financial Model'!$AD$26</f>
         <v>0.58395112245061676</v>
       </c>
       <c r="AI46" s="18">
-        <f>'[11]Financial Model'!$AD$20</f>
+        <f>'[9]Financial Model'!$AD$20</f>
         <v>7.1489200617386395E-2</v>
       </c>
       <c r="AJ46" s="18">
-        <f>'[11]Financial Model'!$AC$20</f>
+        <f>'[9]Financial Model'!$AC$20</f>
         <v>0.54632023921236117</v>
       </c>
       <c r="AO46" s="36">
-        <f>[11]Main!$C$27</f>
+        <f>[9]Main!$C$27</f>
         <v>8484</v>
       </c>
       <c r="AP46" s="5">
-        <f>[11]Main!$C$24</f>
+        <f>[9]Main!$C$24</f>
         <v>2011</v>
       </c>
       <c r="AQ46" s="5">
-        <f>[11]Main!$C$25</f>
+        <f>[9]Main!$C$25</f>
         <v>2019</v>
       </c>
       <c r="AR46" s="5" t="str">
-        <f>[11]Main!$C$23</f>
+        <f>[9]Main!$C$23</f>
         <v>San Jose, CA</v>
       </c>
       <c r="AT46" s="5" t="s">
@@ -4369,6 +4375,9 @@
       <c r="C48" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="D48" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="G48" s="19"/>
       <c r="H48" s="17"/>
       <c r="W48" s="22"/>
@@ -4381,6 +4390,9 @@
       <c r="C49" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="D49" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G49" s="19"/>
       <c r="H49" s="17"/>
       <c r="W49" s="22"/>
@@ -4392,6 +4404,9 @@
       </c>
       <c r="C50" s="6" t="s">
         <v>129</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="17"/>
@@ -4436,44 +4451,44 @@
         <v>17</v>
       </c>
       <c r="F55" s="16">
-        <f>[9]Main!$C$6*$F$61</f>
+        <f>[10]Main!$C$6*$F$61</f>
         <v>213.21039999999999</v>
       </c>
       <c r="G55" s="33">
-        <f>[9]Main!$C$7</f>
+        <f>[10]Main!$C$7</f>
         <v>7440</v>
       </c>
       <c r="H55" s="33">
-        <f>[9]Main!$C$12*$F$61</f>
+        <f>[10]Main!$C$12*$F$61</f>
         <v>1586285.3759999999</v>
       </c>
       <c r="I55" s="33">
-        <f>[9]Main!$C$11*$F$61</f>
+        <f>[10]Main!$C$11*$F$61</f>
         <v>0</v>
       </c>
       <c r="J55" s="33">
-        <f>[9]Main!$C$12*$F$61</f>
+        <f>[10]Main!$C$12*$F$61</f>
         <v>1586285.3759999999</v>
       </c>
       <c r="K55" s="5">
-        <f>[9]Main!$C$29</f>
+        <f>[10]Main!$C$29</f>
         <v>0</v>
       </c>
       <c r="L55" s="5">
-        <f>[9]Main!$D$29</f>
+        <f>[10]Main!$D$29</f>
         <v>0</v>
       </c>
       <c r="W55" s="22"/>
       <c r="AP55" s="5">
-        <f>[9]Main!$C$24</f>
+        <f>[10]Main!$C$24</f>
         <v>1975</v>
       </c>
       <c r="AQ55" s="5">
-        <f>[9]Main!$C$25</f>
+        <f>[10]Main!$C$25</f>
         <v>1986</v>
       </c>
       <c r="AR55" s="5" t="str">
-        <f>[9]Main!$C$23</f>
+        <f>[10]Main!$C$23</f>
         <v>Redmond, WA</v>
       </c>
       <c r="AT55" s="5" t="s">
@@ -4497,44 +4512,44 @@
         <v>17</v>
       </c>
       <c r="F56" s="16">
-        <f>[10]Main!$C$6*$F$61</f>
+        <f>[11]Main!$C$6*$F$61</f>
         <v>79.231799999999993</v>
       </c>
       <c r="G56" s="33">
-        <f>[10]Main!$C$7</f>
+        <f>[11]Main!$C$7</f>
         <v>13523</v>
       </c>
       <c r="H56" s="33">
-        <f>[10]Main!$C$8*$F$61</f>
+        <f>[11]Main!$C$8*$F$61</f>
         <v>1071451.6313999998</v>
       </c>
       <c r="I56" s="33">
-        <f>[10]Main!$C$11*$F$61</f>
+        <f>[11]Main!$C$11*$F$61</f>
         <v>0</v>
       </c>
       <c r="J56" s="33">
-        <f>[10]Main!$C$12*$F$61</f>
+        <f>[11]Main!$C$12*$F$61</f>
         <v>1071451.6313999998</v>
       </c>
       <c r="K56" s="5">
-        <f>[10]Main!$C$28</f>
+        <f>[11]Main!$C$28</f>
         <v>0</v>
       </c>
       <c r="L56" s="5">
-        <f>[10]Main!$D$28</f>
+        <f>[11]Main!$D$28</f>
         <v>0</v>
       </c>
       <c r="W56" s="22"/>
       <c r="AP56" s="5">
-        <f>[10]Main!$C$24</f>
+        <f>[11]Main!$C$24</f>
         <v>1998</v>
       </c>
       <c r="AQ56" s="5">
-        <f>[10]Main!$C$25</f>
+        <f>[11]Main!$C$25</f>
         <v>2004</v>
       </c>
       <c r="AR56" s="5" t="str">
-        <f>[10]Main!$C$23</f>
+        <f>[11]Main!$C$23</f>
         <v>Mountain View, CA</v>
       </c>
       <c r="AT56" s="5" t="s">
@@ -4548,6 +4563,9 @@
       <c r="B57" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="D57" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E57" s="5" t="s">
         <v>17</v>
       </c>
@@ -4561,6 +4579,9 @@
     <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>17</v>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A766A-3719-4AF7-9740-1880B5FD36D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289A372-A21A-D44B-BCD7-4E0337822074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -34,6 +34,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -775,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -858,12 +868,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1778,27 +1782,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>48.2</v>
+            <v>57.3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1273.338804</v>
+            <v>1276.884726</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>61374.930352800002</v>
+            <v>73165.494799799999</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>4139.6379999999999</v>
+            <v>3949</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>57235.292352800003</v>
+            <v>69216.494799799999</v>
           </cell>
         </row>
         <row r="23">
@@ -1823,89 +1827,89 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>Q422</v>
+            <v>Q123</v>
           </cell>
           <cell r="D28">
-            <v>42036</v>
+            <v>38108</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>7.4494182835574083</v>
+            <v>8.6514715383469305</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>10.960075164825431</v>
+            <v>12.392023767288633</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>10.220836140449125</v>
+            <v>11.723182505558293</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-3.6325285629149069</v>
+            <v>-37.814244475197256</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-16.539993825254641</v>
+            <v>-36.08766106527078</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="20">
-          <cell r="AB20">
+          <cell r="AC20">
             <v>2914.6589999999997</v>
           </cell>
-          <cell r="AC20">
+          <cell r="AD20">
             <v>-3460.4179999999992</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="V24">
-            <v>0.25720857028573407</v>
-          </cell>
-          <cell r="AB24">
+          <cell r="W24">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="AC24">
             <v>0.57428577182862139</v>
           </cell>
-          <cell r="AC24">
+          <cell r="AD24">
             <v>0.21423218764853047</v>
           </cell>
-          <cell r="AP24">
+          <cell r="AQ24">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="AP28">
-            <v>27.310648363768447</v>
+          <cell r="AQ28">
+            <v>27.384105716043681</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="V29">
-            <v>0.46024099441030381</v>
+          <cell r="W29">
+            <v>0.46</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="AP30">
-            <v>-0.43338903809609031</v>
+          <cell r="AQ30">
+            <v>-0.522092395880564</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="V32">
-            <v>-0.10879042846652805</v>
+          <cell r="W32">
+            <v>-0.12798408488063662</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="V33">
-            <v>-0.35948236807613693</v>
+          <cell r="W33">
+            <v>4.5092838196286469E-2</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="V34">
-            <v>-1.4783406659203918E-2</v>
+          <cell r="W34">
+            <v>0.10526315789473684</v>
           </cell>
         </row>
       </sheetData>
@@ -2504,9 +2508,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2521,57 +2525,57 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="30.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="26" customWidth="1"/>
-    <col min="14" max="15" width="9.42578125" style="27" customWidth="1"/>
-    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.42578125" style="22" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="32" width="9.140625" style="5"/>
-    <col min="33" max="33" width="9.140625" style="1"/>
-    <col min="34" max="39" width="9.140625" style="18"/>
-    <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="30.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" style="5"/>
+    <col min="6" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="26" customWidth="1"/>
+    <col min="14" max="15" width="9.5" style="27" customWidth="1"/>
+    <col min="16" max="23" width="9.5" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.5" style="22" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="32" width="9.1640625" style="5"/>
+    <col min="33" max="33" width="9.1640625" style="1"/>
+    <col min="34" max="39" width="9.1640625" style="18"/>
+    <col min="40" max="40" width="9.1640625" style="1"/>
+    <col min="41" max="41" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.1640625" style="5"/>
     <col min="44" max="44" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" style="1"/>
-    <col min="46" max="46" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.1640625" style="1"/>
+    <col min="46" max="46" width="17.5" style="5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="1"/>
+    <col min="48" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="40" t="s">
+    <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="W1" s="40" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="W1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2678,7 +2682,7 @@
       <c r="AM2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AO2" s="35" t="s">
         <v>161</v>
       </c>
       <c r="AP2" s="4" t="s">
@@ -2697,7 +2701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.15">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2708,7 +2712,7 @@
       <c r="AA3" s="23"/>
       <c r="AU3" s="5"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2825,7 +2829,7 @@
         <f>'[1]Financial Model'!$AI$26</f>
         <v>0.48003319895660423</v>
       </c>
-      <c r="AO4" s="36">
+      <c r="AO4" s="34">
         <f>[1]Main!$C$26</f>
         <v>3544</v>
       </c>
@@ -2848,7 +2852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.15">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2960,7 +2964,7 @@
       <c r="AA6" s="23"/>
       <c r="AU6" s="5"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -3091,7 +3095,7 @@
         <f>'[3]Financial Model'!$Z$22</f>
         <v>0.74515549935622039</v>
       </c>
-      <c r="AO7" s="36">
+      <c r="AO7" s="34">
         <f>[3]Main!$C$26</f>
         <v>8156</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -3142,7 +3146,7 @@
       <c r="AF8" s="18"/>
       <c r="AU8" s="5"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3331,7 @@
         <f>'[4]Financial Model'!$S$22</f>
         <v>4.8754062838569867E-2</v>
       </c>
-      <c r="AO11" s="36">
+      <c r="AO11" s="34">
         <f>[4]Main!$C$26</f>
         <v>11228</v>
       </c>
@@ -3350,13 +3354,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
       <c r="W12" s="22"/>
       <c r="AU12" s="5"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3387,10 +3391,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.15">
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3411,7 +3415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3432,13 +3436,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -3553,7 +3557,7 @@
         <f>'[5]Financial Model'!$W$28</f>
         <v>1.0772942519902369</v>
       </c>
-      <c r="AO19" s="36">
+      <c r="AO19" s="34">
         <f>[5]Main!$G$10</f>
         <v>2128</v>
       </c>
@@ -3576,7 +3580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -3625,10 +3629,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
@@ -3643,101 +3647,101 @@
       </c>
       <c r="F22" s="16">
         <f>[7]Main!$C$6*$F$61</f>
-        <v>40.006</v>
+        <v>47.558999999999997</v>
       </c>
       <c r="G22" s="17">
         <f>[7]Main!$C$7</f>
-        <v>1273.338804</v>
+        <v>1276.884726</v>
       </c>
       <c r="H22" s="17">
         <f>[7]Main!$C$8*F61</f>
-        <v>50941.192192823997</v>
+        <v>60727.360683833998</v>
       </c>
       <c r="I22" s="17">
         <f>[7]Main!$C$11*F61</f>
-        <v>3435.8995399999999</v>
+        <v>3277.6699999999996</v>
       </c>
       <c r="J22" s="17">
         <f>[7]Main!$C$12*F61</f>
-        <v>47505.292652823999</v>
+        <v>57449.690683833993</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>[7]Main!$C$28</f>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="L22" s="8">
         <f>[7]Main!$D$28</f>
-        <v>42036</v>
+        <v>38108</v>
       </c>
       <c r="M22" s="26">
-        <f>'[7]Financial Model'!$AP$28</f>
-        <v>27.310648363768447</v>
+        <f>'[7]Financial Model'!$AQ$28</f>
+        <v>27.384105716043681</v>
       </c>
       <c r="N22" s="31">
-        <f>'[7]Financial Model'!$AP$30</f>
-        <v>-0.43338903809609031</v>
+        <f>'[7]Financial Model'!$AQ$30</f>
+        <v>-0.522092395880564</v>
       </c>
       <c r="O22" s="31">
-        <f>'[7]Financial Model'!$AP$24</f>
+        <f>'[7]Financial Model'!$AQ$24</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q22" s="21">
         <f>[7]Main!$C$33</f>
-        <v>7.4494182835574083</v>
+        <v>8.6514715383469305</v>
       </c>
       <c r="R22" s="21">
         <f>[7]Main!$C$34</f>
-        <v>10.960075164825431</v>
+        <v>12.392023767288633</v>
       </c>
       <c r="S22" s="21">
         <f>[7]Main!$C$35</f>
-        <v>10.220836140449125</v>
+        <v>11.723182505558293</v>
       </c>
       <c r="T22" s="21">
         <f>[7]Main!$C$36</f>
-        <v>-3.6325285629149069</v>
+        <v>-37.814244475197256</v>
       </c>
       <c r="U22" s="21">
         <f>[7]Main!$C$37</f>
-        <v>-16.539993825254641</v>
+        <v>-36.08766106527078</v>
       </c>
       <c r="W22" s="24">
+        <f>'[7]Financial Model'!$AD$20*F61</f>
+        <v>-2872.1469399999992</v>
+      </c>
+      <c r="X22" s="24">
         <f>'[7]Financial Model'!$AC$20*F61</f>
-        <v>-2872.1469399999992</v>
-      </c>
-      <c r="X22" s="24">
-        <f>'[7]Financial Model'!$AB$20*F61</f>
         <v>2419.1669699999998</v>
       </c>
       <c r="AC22" s="18">
-        <f>'[7]Financial Model'!$V$29</f>
-        <v>0.46024099441030381</v>
+        <f>'[7]Financial Model'!$W$29</f>
+        <v>0.46</v>
       </c>
       <c r="AD22" s="18">
-        <f>'[7]Financial Model'!$V$32</f>
-        <v>-0.10879042846652805</v>
+        <f>'[7]Financial Model'!$W$32</f>
+        <v>-0.12798408488063662</v>
       </c>
       <c r="AE22" s="18">
-        <f>'[7]Financial Model'!$V$33</f>
-        <v>-0.35948236807613693</v>
+        <f>'[7]Financial Model'!$W$33</f>
+        <v>4.5092838196286469E-2</v>
       </c>
       <c r="AF22" s="18">
-        <f>'[7]Financial Model'!$V$34</f>
-        <v>-1.4783406659203918E-2</v>
+        <f>'[7]Financial Model'!$W$34</f>
+        <v>0.10526315789473684</v>
       </c>
       <c r="AH22" s="18">
-        <f>'[7]Financial Model'!$V$24</f>
-        <v>0.25720857028573407</v>
+        <f>'[7]Financial Model'!$W$24</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AI22" s="18">
+        <f>'[7]Financial Model'!$AD$24</f>
+        <v>0.21423218764853047</v>
+      </c>
+      <c r="AJ22" s="18">
         <f>'[7]Financial Model'!$AC$24</f>
-        <v>0.21423218764853047</v>
-      </c>
-      <c r="AJ22" s="18">
-        <f>'[7]Financial Model'!$AB$24</f>
         <v>0.57428577182862139</v>
       </c>
-      <c r="AO22" s="36">
+      <c r="AO22" s="34">
         <f>[7]Main!$C$26</f>
         <v>11600</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -3793,11 +3797,11 @@
         <f>[8]Main!$C$12*F61</f>
         <v>23759.870500000001</v>
       </c>
-      <c r="K23" s="34" t="str">
+      <c r="K23" s="5" t="str">
         <f>[8]Main!$C$28</f>
         <v>Q422</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="8">
         <f>[8]Main!$D$28</f>
         <v>44593</v>
       </c>
@@ -3895,7 +3899,7 @@
         <f>'[8]Financial Model'!$AF$24</f>
         <v>8.2502266545784186E-2</v>
       </c>
-      <c r="AO23" s="36">
+      <c r="AO23" s="34">
         <f>[8]Main!$C$26</f>
         <v>11600</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3958,7 +3962,7 @@
       </c>
       <c r="AU25" s="5"/>
     </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3974,7 +3978,7 @@
       </c>
       <c r="AU26" s="5"/>
     </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3987,13 +3991,13 @@
       <c r="W27" s="22"/>
       <c r="AU27" s="5"/>
     </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -4029,13 +4033,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -4095,13 +4099,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.15">
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -4141,19 +4145,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.15">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
       <c r="W40" s="22"/>
       <c r="AU40" s="5"/>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.15">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="W41" s="22"/>
       <c r="AU41" s="5"/>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -4248,13 +4252,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.15">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
       <c r="W45" s="22"/>
       <c r="AU45" s="5"/>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B46" s="7" t="s">
         <v>162</v>
       </c>
@@ -4339,7 +4343,7 @@
         <f>'[9]Financial Model'!$AC$20</f>
         <v>0.54632023921236117</v>
       </c>
-      <c r="AO46" s="36">
+      <c r="AO46" s="34">
         <f>[9]Main!$C$27</f>
         <v>8484</v>
       </c>
@@ -4362,13 +4366,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.15">
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
       <c r="W47" s="22"/>
       <c r="AU47" s="5"/>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>130</v>
       </c>
@@ -4383,7 +4387,7 @@
       <c r="W48" s="22"/>
       <c r="AU48" s="5"/>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>131</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="W49" s="22"/>
       <c r="AU49" s="5"/>
     </row>
-    <row r="50" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>132</v>
       </c>
@@ -4413,31 +4417,31 @@
       <c r="W50" s="22"/>
       <c r="AU50" s="5"/>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.15">
       <c r="G51" s="19"/>
       <c r="H51" s="17"/>
       <c r="W51" s="22"/>
       <c r="AU51" s="5"/>
     </row>
-    <row r="52" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:47" x14ac:dyDescent="0.15">
       <c r="G52" s="19"/>
       <c r="H52" s="17"/>
       <c r="W52" s="22"/>
       <c r="AU52" s="5"/>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.15">
       <c r="G53" s="19"/>
       <c r="H53" s="17"/>
       <c r="W53" s="22"/>
       <c r="AU53" s="5"/>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.15">
       <c r="G54" s="19"/>
       <c r="H54" s="17"/>
       <c r="W54" s="22"/>
       <c r="AU54" s="5"/>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B55" s="7" t="s">
         <v>150</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B56" s="7" t="s">
         <v>151</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>152</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>153</v>
       </c>
@@ -4593,16 +4597,16 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E60" s="38" t="s">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.15">
+      <c r="E60" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="39"/>
+      <c r="F60" s="37"/>
       <c r="G60" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.15">
       <c r="E61" s="10" t="s">
         <v>27</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.15">
       <c r="E62" s="13" t="s">
         <v>28</v>
       </c>
@@ -4664,21 +4668,21 @@
       <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
+    <col min="4" max="8" width="9.1640625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4711,7 +4715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -4737,11 +4741,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289A372-A21A-D44B-BCD7-4E0337822074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2967D977-DA50-4F38-A323-B8E2A30DFF42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="2" r:id="rId1"/>
@@ -35,22 +35,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="166">
   <si>
     <t>Ticker</t>
   </si>
@@ -785,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -883,6 +873,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1598,7 +1591,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>39.229999999999997</v>
+            <v>33.409999999999997</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -1606,7 +1599,7 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>601.85900000000004</v>
+            <v>606.63699999999994</v>
           </cell>
           <cell r="G7">
             <v>2021</v>
@@ -1614,7 +1607,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>23610.92857</v>
+            <v>20267.742169999998</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -1627,93 +1620,93 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>1988.4900000000002</v>
+            <v>1251.683</v>
           </cell>
           <cell r="G11" t="str">
-            <v>Q422</v>
+            <v>Q123</v>
           </cell>
           <cell r="H11">
-            <v>42036</v>
+            <v>40299</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>21622.438570000002</v>
+            <v>19016.059169999997</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>77.403998131362243</v>
+            <v>82.664070649558042</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>10.611405292999896</v>
+            <v>8.6493709068810904</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>-25.043163552931144</v>
+            <v>-19.243065324183306</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19">
-            <v>9.7177228082759441</v>
+            <v>8.1152082737653721</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="18">
-          <cell r="V18">
+          <cell r="Y18">
             <v>-260.81599999999992</v>
           </cell>
-          <cell r="W18">
+          <cell r="Z18">
             <v>-503.48999999999995</v>
           </cell>
-          <cell r="X18">
+          <cell r="AA18">
             <v>-934.68300000000011</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="N22">
-            <v>0.75400515367769483</v>
-          </cell>
-          <cell r="AP22">
+          <cell r="O22">
+            <v>0.76830336433994972</v>
+          </cell>
+          <cell r="AS22">
             <v>0.09</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="N23">
-            <v>-0.52141090562414072</v>
+          <cell r="O23">
+            <v>-0.44228222124563565</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="N24">
-            <v>-0.50342484680589428</v>
+          <cell r="O24">
+            <v>-0.41191801557655194</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="N25">
-            <v>-1.1107141246622243E-2</v>
+          <cell r="O25">
+            <v>-2.7152817244081922E-3</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="AP26">
-            <v>64.111668818778071</v>
+          <cell r="AS26">
+            <v>62.392135467505206</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="N28">
-            <v>1.7995003243847618E-2</v>
-          </cell>
-          <cell r="W28">
+          <cell r="O28">
+            <v>0.22007543741412761</v>
+          </cell>
+          <cell r="Z28">
             <v>1.0772942519902369</v>
           </cell>
-          <cell r="X28">
+          <cell r="AA28">
             <v>0.15937579623808262</v>
           </cell>
-          <cell r="AP28">
-            <v>0.63425105324440678</v>
+          <cell r="AS28">
+            <v>0.86746888558830326</v>
           </cell>
         </row>
       </sheetData>
@@ -2508,9 +2501,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2525,40 +2518,40 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="30.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" style="5"/>
-    <col min="6" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="5"/>
-    <col min="12" max="12" width="9.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="26" customWidth="1"/>
-    <col min="14" max="15" width="9.5" style="27" customWidth="1"/>
-    <col min="16" max="23" width="9.5" style="5" customWidth="1"/>
-    <col min="24" max="27" width="9.5" style="22" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="32" width="9.1640625" style="5"/>
-    <col min="33" max="33" width="9.1640625" style="1"/>
-    <col min="34" max="39" width="9.1640625" style="18"/>
-    <col min="40" max="40" width="9.1640625" style="1"/>
-    <col min="41" max="41" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="30.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="5"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="26" customWidth="1"/>
+    <col min="14" max="15" width="9.42578125" style="27" customWidth="1"/>
+    <col min="16" max="23" width="9.42578125" style="5" customWidth="1"/>
+    <col min="24" max="27" width="9.42578125" style="22" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="32" width="9.140625" style="5"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
+    <col min="34" max="39" width="9.140625" style="18"/>
+    <col min="40" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.140625" style="5"/>
     <col min="44" max="44" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.1640625" style="1"/>
-    <col min="46" max="46" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="1"/>
+    <col min="46" max="46" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.1640625" style="1"/>
+    <col min="48" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="38" t="s">
         <v>29</v>
       </c>
@@ -2575,7 +2568,7 @@
       <c r="AA1" s="38"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2701,7 +2694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -2712,7 +2705,7 @@
       <c r="AA3" s="23"/>
       <c r="AU3" s="5"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
@@ -2852,7 +2845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
@@ -2949,7 +2942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="F6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2964,7 +2957,7 @@
       <c r="AA6" s="23"/>
       <c r="AU6" s="5"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2997,11 +2990,11 @@
         <f>[3]Main!$C$12*F61</f>
         <v>8835.4290981699996</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K7" s="25" t="str">
         <f>[3]Main!$C$28</f>
         <v>Q422</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="39">
         <f>[3]Main!$D$28</f>
         <v>42036</v>
       </c>
@@ -3118,7 +3111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -3146,7 +3139,7 @@
       <c r="AF8" s="18"/>
       <c r="AU8" s="5"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -3175,7 +3168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
@@ -3200,7 +3193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3354,13 +3347,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="F12" s="16"/>
       <c r="W12" s="22"/>
       <c r="AU12" s="5"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
@@ -3391,10 +3384,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -3415,7 +3408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3436,13 +3429,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
@@ -3457,70 +3450,70 @@
       </c>
       <c r="F19" s="17">
         <f>[5]Main!$C$6*F61</f>
-        <v>32.560899999999997</v>
+        <v>27.730299999999996</v>
       </c>
       <c r="G19" s="17">
         <f>[5]Main!$C$7</f>
-        <v>601.85900000000004</v>
+        <v>606.63699999999994</v>
       </c>
       <c r="H19" s="17">
         <f>[5]Main!$C$8*F61</f>
-        <v>19597.070713099998</v>
+        <v>16822.226001099996</v>
       </c>
       <c r="I19" s="17">
         <f>[5]Main!$C$11*F61</f>
-        <v>1650.4467000000002</v>
+        <v>1038.89689</v>
       </c>
       <c r="J19" s="17">
         <f>[5]Main!$C$12*F61</f>
-        <v>17946.624013100001</v>
+        <v>15783.329111099996</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>[5]Main!$G$11</f>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="L19" s="8">
         <f>[5]Main!$H$11</f>
-        <v>42036</v>
+        <v>40299</v>
       </c>
       <c r="M19" s="26">
-        <f>'[5]Financial Model'!$AP$26*F61</f>
-        <v>53.212685119585799</v>
+        <f>'[5]Financial Model'!$AS$26*F61</f>
+        <v>51.785472438029316</v>
       </c>
       <c r="N19" s="31">
-        <f>'[5]Financial Model'!$AP$28</f>
-        <v>0.63425105324440678</v>
+        <f>'[5]Financial Model'!$AS$28</f>
+        <v>0.86746888558830326</v>
       </c>
       <c r="O19" s="31">
-        <f>'[5]Financial Model'!$AP$22</f>
+        <f>'[5]Financial Model'!$AS$22</f>
         <v>0.09</v>
       </c>
       <c r="Q19" s="21">
         <f>[5]Main!$G$16</f>
-        <v>77.403998131362243</v>
+        <v>82.664070649558042</v>
       </c>
       <c r="R19" s="21">
         <f>[5]Main!$G$17</f>
-        <v>10.611405292999896</v>
+        <v>8.6493709068810904</v>
       </c>
       <c r="S19" s="21">
         <f>[5]Main!$G$19</f>
-        <v>9.7177228082759441</v>
+        <v>8.1152082737653721</v>
       </c>
       <c r="T19" s="21">
         <f>[5]Main!$G$18</f>
-        <v>-25.043163552931144</v>
+        <v>-19.243065324183306</v>
       </c>
       <c r="W19" s="23">
-        <f>'[5]Financial Model'!$X$18*F61</f>
+        <f>'[5]Financial Model'!$AA$18*F61</f>
         <v>-775.78689000000008</v>
       </c>
       <c r="X19" s="24">
-        <f>'[5]Financial Model'!$W$18*F61</f>
+        <f>'[5]Financial Model'!$Z$18*F61</f>
         <v>-417.89669999999995</v>
       </c>
       <c r="Y19" s="24">
-        <f>'[5]Financial Model'!$V$18*F61</f>
+        <f>'[5]Financial Model'!$Y$18*F61</f>
         <v>-216.47727999999992</v>
       </c>
       <c r="Z19" s="22" t="s">
@@ -3530,31 +3523,31 @@
         <v>139</v>
       </c>
       <c r="AC19" s="18">
-        <f>'[5]Financial Model'!$N$22</f>
-        <v>0.75400515367769483</v>
+        <f>'[5]Financial Model'!$O$22</f>
+        <v>0.76830336433994972</v>
       </c>
       <c r="AD19" s="18">
-        <f>'[5]Financial Model'!$N$23</f>
-        <v>-0.52141090562414072</v>
+        <f>'[5]Financial Model'!$O$23</f>
+        <v>-0.44228222124563565</v>
       </c>
       <c r="AE19" s="18">
-        <f>'[5]Financial Model'!$N$24</f>
-        <v>-0.50342484680589428</v>
+        <f>'[5]Financial Model'!$O$24</f>
+        <v>-0.41191801557655194</v>
       </c>
       <c r="AF19" s="18">
-        <f>'[5]Financial Model'!$N$25</f>
-        <v>-1.1107141246622243E-2</v>
+        <f>'[5]Financial Model'!$O$25</f>
+        <v>-2.7152817244081922E-3</v>
       </c>
       <c r="AH19" s="18">
-        <f>'[5]Financial Model'!$N$28</f>
-        <v>1.7995003243847618E-2</v>
+        <f>'[5]Financial Model'!$O$28</f>
+        <v>0.22007543741412761</v>
       </c>
       <c r="AI19" s="18">
-        <f>'[5]Financial Model'!$X$28</f>
+        <f>'[5]Financial Model'!$AA$28</f>
         <v>0.15937579623808262</v>
       </c>
       <c r="AJ19" s="18">
-        <f>'[5]Financial Model'!$W$28</f>
+        <f>'[5]Financial Model'!$Z$28</f>
         <v>1.0772942519902369</v>
       </c>
       <c r="AO19" s="34">
@@ -3580,7 +3573,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
@@ -3629,10 +3622,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>87</v>
       </c>
@@ -3665,11 +3658,11 @@
         <f>[7]Main!$C$12*F61</f>
         <v>57449.690683833993</v>
       </c>
-      <c r="K22" s="5" t="str">
+      <c r="K22" s="25" t="str">
         <f>[7]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="39">
         <f>[7]Main!$D$28</f>
         <v>38108</v>
       </c>
@@ -3764,7 +3757,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
@@ -3922,7 +3915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -3943,7 +3936,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3962,7 +3955,7 @@
       </c>
       <c r="AU25" s="5"/>
     </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
@@ -3978,7 +3971,7 @@
       </c>
       <c r="AU26" s="5"/>
     </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3991,13 +3984,13 @@
       <c r="W27" s="22"/>
       <c r="AU27" s="5"/>
     </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -4015,7 +4008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
@@ -4033,13 +4026,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -4057,7 +4050,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -4081,7 +4074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
@@ -4099,13 +4092,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.2">
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
@@ -4145,19 +4138,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G40" s="19"/>
       <c r="H40" s="17"/>
       <c r="W40" s="22"/>
       <c r="AU40" s="5"/>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G41" s="19"/>
       <c r="H41" s="17"/>
       <c r="W41" s="22"/>
       <c r="AU41" s="5"/>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>121</v>
       </c>
@@ -4189,7 +4182,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
@@ -4221,7 +4214,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
@@ -4252,13 +4245,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G45" s="19"/>
       <c r="H45" s="17"/>
       <c r="W45" s="22"/>
       <c r="AU45" s="5"/>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>162</v>
       </c>
@@ -4366,13 +4359,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G47" s="19"/>
       <c r="H47" s="17"/>
       <c r="W47" s="22"/>
       <c r="AU47" s="5"/>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>130</v>
       </c>
@@ -4387,7 +4380,7 @@
       <c r="W48" s="22"/>
       <c r="AU48" s="5"/>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>131</v>
       </c>
@@ -4402,7 +4395,7 @@
       <c r="W49" s="22"/>
       <c r="AU49" s="5"/>
     </row>
-    <row r="50" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>132</v>
       </c>
@@ -4417,31 +4410,31 @@
       <c r="W50" s="22"/>
       <c r="AU50" s="5"/>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G51" s="19"/>
       <c r="H51" s="17"/>
       <c r="W51" s="22"/>
       <c r="AU51" s="5"/>
     </row>
-    <row r="52" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G52" s="19"/>
       <c r="H52" s="17"/>
       <c r="W52" s="22"/>
       <c r="AU52" s="5"/>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G53" s="19"/>
       <c r="H53" s="17"/>
       <c r="W53" s="22"/>
       <c r="AU53" s="5"/>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G54" s="19"/>
       <c r="H54" s="17"/>
       <c r="W54" s="22"/>
       <c r="AU54" s="5"/>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>150</v>
       </c>
@@ -4502,7 +4495,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>151</v>
       </c>
@@ -4563,7 +4556,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>152</v>
       </c>
@@ -4580,7 +4573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>153</v>
       </c>
@@ -4597,7 +4590,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E60" s="36" t="s">
         <v>25</v>
       </c>
@@ -4606,7 +4599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E61" s="10" t="s">
         <v>27</v>
       </c>
@@ -4618,7 +4611,7 @@
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E62" s="13" t="s">
         <v>28</v>
       </c>
@@ -4668,21 +4661,21 @@
       <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.1640625" style="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4715,7 +4708,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -4741,11 +4734,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2967D977-DA50-4F38-A323-B8E2A30DFF42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB25DA6-E134-4B83-AA0F-B00068DFDD21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="166">
   <si>
     <t>Ticker</t>
   </si>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,7 +873,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1266,27 +1269,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>74.5</v>
+            <v>48.92</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>185.12070199999999</v>
+            <v>186.40334899999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>13791.492299</v>
+            <v>9118.8518330799998</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>3146.3969999999995</v>
+            <v>2939.7060000000001</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>10645.095299000001</v>
+            <v>6179.1458330799996</v>
           </cell>
         </row>
         <row r="23">
@@ -1306,114 +1309,114 @@
         </row>
         <row r="26">
           <cell r="C26">
-            <v>8156</v>
+            <v>6766</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>Q422</v>
+            <v>Q123</v>
           </cell>
           <cell r="D28">
-            <v>42036</v>
+            <v>39934</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>1.3062048719295314</v>
+            <v>0.88370677873712089</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>3.6043740969458646</v>
+            <v>2.3041822213698371</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>2.7820706362586933</v>
+            <v>1.5613673993675841</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-10.859651614989419</v>
+            <v>-6.5483454041765832</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-8.4744160100943784</v>
+            <v>-4.4885151734092084</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="18">
-          <cell r="Y18">
+          <cell r="Z18">
             <v>-121.94900000000001</v>
           </cell>
-          <cell r="Z18">
+          <cell r="AA18">
             <v>-307.06299999999993</v>
           </cell>
-          <cell r="AA18">
+          <cell r="AB18">
             <v>-490.97899999999981</v>
           </cell>
-          <cell r="AB18">
+          <cell r="AC18">
             <v>-949.90000000000009</v>
           </cell>
-          <cell r="AC18">
+          <cell r="AD18">
             <v>-1256.1449999999998</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="V22">
-            <v>0.21575947144091212</v>
-          </cell>
-          <cell r="Z22">
+          <cell r="W22">
+            <v>0.14988182045619913</v>
+          </cell>
+          <cell r="AA22">
             <v>0.74515549935622039</v>
           </cell>
-          <cell r="AA22">
+          <cell r="AB22">
             <v>0.55295345483521796</v>
           </cell>
-          <cell r="AB22">
+          <cell r="AC22">
             <v>0.613053532344634</v>
           </cell>
-          <cell r="AC22">
+          <cell r="AD22">
             <v>0.34642426963666861</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="V25">
+          <cell r="W25">
             <v>0.47005177868427206</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="V26">
-            <v>-0.2133247574113728</v>
-          </cell>
-          <cell r="AP26">
+          <cell r="W26">
+            <v>-0.26236185677214768</v>
+          </cell>
+          <cell r="AQ26">
             <v>0.08</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="V27">
-            <v>-0.2239194045525261</v>
+          <cell r="W27">
+            <v>-0.33990784490603682</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="V28">
+          <cell r="W28">
             <v>-0.01</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="AP30">
-            <v>52.602738134717463</v>
+          <cell r="AQ30">
+            <v>51.131939751903637</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="AP32">
-            <v>-0.29392297805748369</v>
+          <cell r="AQ32">
+            <v>4.5215448730654861E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1620,7 +1623,7 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>1251.683</v>
+            <v>2102.6120000000001</v>
           </cell>
           <cell r="G11" t="str">
             <v>Q123</v>
@@ -1631,7 +1634,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>19016.059169999997</v>
+            <v>18165.13017</v>
           </cell>
         </row>
         <row r="16">
@@ -1651,7 +1654,7 @@
         </row>
         <row r="19">
           <cell r="G19">
-            <v>8.1152082737653721</v>
+            <v>7.7520696234565314</v>
           </cell>
         </row>
       </sheetData>
@@ -1692,7 +1695,7 @@
         </row>
         <row r="26">
           <cell r="AS26">
-            <v>62.392135467505206</v>
+            <v>62.602343431050087</v>
           </cell>
         </row>
         <row r="28">
@@ -1706,7 +1709,7 @@
             <v>0.15937579623808262</v>
           </cell>
           <cell r="AS28">
-            <v>0.86746888558830326</v>
+            <v>0.87376065342861708</v>
           </cell>
         </row>
       </sheetData>
@@ -1906,7 +1909,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2518,7 +2521,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2972,125 +2975,125 @@
       </c>
       <c r="F7" s="16">
         <f>[3]Main!$C$6*$F$61</f>
-        <v>61.834999999999994</v>
+        <v>40.6036</v>
       </c>
       <c r="G7" s="17">
         <f>[3]Main!$C$7</f>
-        <v>185.12070199999999</v>
+        <v>186.40334899999999</v>
       </c>
       <c r="H7" s="17">
         <f>[3]Main!$C$8*$F$61</f>
-        <v>11446.938608169999</v>
+        <v>7568.6470214563997</v>
       </c>
       <c r="I7" s="17">
         <f>[3]Main!$C$11*F61</f>
-        <v>2611.5095099999994</v>
+        <v>2439.9559800000002</v>
       </c>
       <c r="J7" s="17">
         <f>[3]Main!$C$12*F61</f>
-        <v>8835.4290981699996</v>
-      </c>
-      <c r="K7" s="25" t="str">
+        <v>5128.691041456399</v>
+      </c>
+      <c r="K7" s="39" t="str">
         <f>[3]Main!$C$28</f>
-        <v>Q422</v>
-      </c>
-      <c r="L7" s="39">
+        <v>Q123</v>
+      </c>
+      <c r="L7" s="40">
         <f>[3]Main!$D$28</f>
-        <v>42036</v>
+        <v>39934</v>
       </c>
       <c r="M7" s="26">
-        <f>'[3]Financial Model'!$AP$30*F61</f>
-        <v>43.66027265181549</v>
+        <f>'[3]Financial Model'!$AQ$30*F61</f>
+        <v>42.439509994080019</v>
       </c>
       <c r="N7" s="31">
-        <f>'[3]Financial Model'!$AP$32</f>
-        <v>-0.29392297805748369</v>
+        <f>'[3]Financial Model'!$AQ$32</f>
+        <v>4.5215448730654861E-2</v>
       </c>
       <c r="O7" s="31">
-        <f>'[3]Financial Model'!$AP$26</f>
+        <f>'[3]Financial Model'!$AQ$26</f>
         <v>0.08</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="21">
         <f>[3]Main!$C$33</f>
-        <v>1.3062048719295314</v>
+        <v>0.88370677873712089</v>
       </c>
       <c r="R7" s="21">
         <f>[3]Main!$C$34</f>
-        <v>3.6043740969458646</v>
+        <v>2.3041822213698371</v>
       </c>
       <c r="S7" s="21">
         <f>[3]Main!$C$35</f>
-        <v>2.7820706362586933</v>
+        <v>1.5613673993675841</v>
       </c>
       <c r="T7" s="21">
         <f>[3]Main!$C$36</f>
-        <v>-10.859651614989419</v>
+        <v>-6.5483454041765832</v>
       </c>
       <c r="U7" s="21">
         <f>[3]Main!$C$37</f>
-        <v>-8.4744160100943784</v>
+        <v>-4.4885151734092084</v>
       </c>
       <c r="V7" s="8"/>
       <c r="W7" s="24">
-        <f>'[3]Financial Model'!$AC$18*F61</f>
+        <f>'[3]Financial Model'!$AD$18*F61</f>
         <v>-1042.6003499999997</v>
       </c>
       <c r="X7" s="23">
+        <f>'[3]Financial Model'!$AC$18*$F$61</f>
+        <v>-788.41700000000003</v>
+      </c>
+      <c r="Y7" s="23">
         <f>'[3]Financial Model'!$AB$18*$F$61</f>
-        <v>-788.41700000000003</v>
-      </c>
-      <c r="Y7" s="23">
+        <v>-407.51256999999981</v>
+      </c>
+      <c r="Z7" s="23">
         <f>'[3]Financial Model'!$AA$18*$F$61</f>
-        <v>-407.51256999999981</v>
-      </c>
-      <c r="Z7" s="23">
-        <f>'[3]Financial Model'!$Z$18*$F$61</f>
         <v>-254.86228999999994</v>
       </c>
       <c r="AA7" s="23">
-        <f>'[3]Financial Model'!$Y$18*F61</f>
+        <f>'[3]Financial Model'!$Z$18*F61</f>
         <v>-101.21767</v>
       </c>
       <c r="AC7" s="18">
-        <f>'[3]Financial Model'!$V$25</f>
+        <f>'[3]Financial Model'!$W$25</f>
         <v>0.47005177868427206</v>
       </c>
       <c r="AD7" s="18">
-        <f>'[3]Financial Model'!V$26</f>
-        <v>-0.2133247574113728</v>
+        <f>'[3]Financial Model'!W$26</f>
+        <v>-0.26236185677214768</v>
       </c>
       <c r="AE7" s="18">
-        <f>'[3]Financial Model'!$V$27</f>
-        <v>-0.2239194045525261</v>
+        <f>'[3]Financial Model'!$W$27</f>
+        <v>-0.33990784490603682</v>
       </c>
       <c r="AF7" s="18">
-        <f>'[3]Financial Model'!$V$28</f>
+        <f>'[3]Financial Model'!$W$28</f>
         <v>-0.01</v>
       </c>
       <c r="AH7" s="18">
-        <f>'[3]Financial Model'!$V$22</f>
-        <v>0.21575947144091212</v>
+        <f>'[3]Financial Model'!$W$22</f>
+        <v>0.14988182045619913</v>
       </c>
       <c r="AI7" s="18">
+        <f>'[3]Financial Model'!$AD$22</f>
+        <v>0.34642426963666861</v>
+      </c>
+      <c r="AJ7" s="18">
         <f>'[3]Financial Model'!$AC$22</f>
-        <v>0.34642426963666861</v>
-      </c>
-      <c r="AJ7" s="18">
+        <v>0.613053532344634</v>
+      </c>
+      <c r="AK7" s="18">
         <f>'[3]Financial Model'!$AB$22</f>
-        <v>0.613053532344634</v>
-      </c>
-      <c r="AK7" s="18">
+        <v>0.55295345483521796</v>
+      </c>
+      <c r="AL7" s="18">
         <f>'[3]Financial Model'!$AA$22</f>
-        <v>0.55295345483521796</v>
-      </c>
-      <c r="AL7" s="18">
-        <f>'[3]Financial Model'!$Z$22</f>
         <v>0.74515549935622039</v>
       </c>
       <c r="AO7" s="34">
         <f>[3]Main!$C$26</f>
-        <v>8156</v>
+        <v>6766</v>
       </c>
       <c r="AP7" s="5">
         <f>[3]Main!$C$24</f>
@@ -3462,11 +3465,11 @@
       </c>
       <c r="I19" s="17">
         <f>[5]Main!$C$11*F61</f>
-        <v>1038.89689</v>
+        <v>1745.16796</v>
       </c>
       <c r="J19" s="17">
         <f>[5]Main!$C$12*F61</f>
-        <v>15783.329111099996</v>
+        <v>15077.058041099999</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>[5]Main!$G$11</f>
@@ -3478,11 +3481,11 @@
       </c>
       <c r="M19" s="26">
         <f>'[5]Financial Model'!$AS$26*F61</f>
-        <v>51.785472438029316</v>
+        <v>51.959945047771569</v>
       </c>
       <c r="N19" s="31">
         <f>'[5]Financial Model'!$AS$28</f>
-        <v>0.86746888558830326</v>
+        <v>0.87376065342861708</v>
       </c>
       <c r="O19" s="31">
         <f>'[5]Financial Model'!$AS$22</f>
@@ -3498,7 +3501,7 @@
       </c>
       <c r="S19" s="21">
         <f>[5]Main!$G$19</f>
-        <v>8.1152082737653721</v>
+        <v>7.7520696234565314</v>
       </c>
       <c r="T19" s="21">
         <f>[5]Main!$G$18</f>
@@ -3550,6 +3553,15 @@
         <f>'[5]Financial Model'!$Z$28</f>
         <v>1.0772942519902369</v>
       </c>
+      <c r="AK19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM19" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="AO19" s="34">
         <f>[5]Main!$G$10</f>
         <v>2128</v>
@@ -3658,11 +3670,11 @@
         <f>[7]Main!$C$12*F61</f>
         <v>57449.690683833993</v>
       </c>
-      <c r="K22" s="25" t="str">
+      <c r="K22" s="39" t="str">
         <f>[7]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="40">
         <f>[7]Main!$D$28</f>
         <v>38108</v>
       </c>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB25DA6-E134-4B83-AA0F-B00068DFDD21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F59D7-6677-4E38-81B2-641A002AA473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -864,6 +864,12 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,12 +877,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1415,8 +1415,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1909,7 +1909,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2521,7 +2521,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29:U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2555,20 +2555,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2993,11 +2993,11 @@
         <f>[3]Main!$C$12*F61</f>
         <v>5128.691041456399</v>
       </c>
-      <c r="K7" s="39" t="str">
+      <c r="K7" s="36" t="str">
         <f>[3]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="37">
         <f>[3]Main!$D$28</f>
         <v>39934</v>
       </c>
@@ -3670,11 +3670,11 @@
         <f>[7]Main!$C$12*F61</f>
         <v>57449.690683833993</v>
       </c>
-      <c r="K22" s="39" t="str">
+      <c r="K22" s="36" t="str">
         <f>[7]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="37">
         <f>[7]Main!$D$28</f>
         <v>38108</v>
       </c>
@@ -4603,10 +4603,10 @@
       </c>
     </row>
     <row r="60" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="37"/>
+      <c r="F60" s="39"/>
       <c r="G60" s="9" t="s">
         <v>26</v>
       </c>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F59D7-6677-4E38-81B2-641A002AA473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922E107-DAAD-465A-BA63-176C115AF6B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -1433,27 +1433,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>7.62</v>
+            <v>8.6059999999999999</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1020</v>
+            <v>1018</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>7772.4000000000005</v>
+            <v>8760.9079999999994</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-729</v>
+            <v>-685</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>8501.4000000000015</v>
+            <v>9445.9079999999994</v>
           </cell>
         </row>
         <row r="23">
@@ -1478,35 +1478,35 @@
         </row>
         <row r="27">
           <cell r="C27" t="str">
-            <v>FY22</v>
+            <v>H123</v>
           </cell>
           <cell r="D27">
-            <v>44881</v>
+            <v>45063</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
-            <v>30.6</v>
+            <v>43.413815659068383</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>3.9919876733436057</v>
+            <v>4.1718609523809524</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>5.6444444444444439</v>
+            <v>6.7081990811638583</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>4.3664098613251161</v>
+            <v>4.4980514285714284</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>33.470078740157483</v>
+            <v>46.761920792079202</v>
           </cell>
         </row>
       </sheetData>
@@ -1529,31 +1529,31 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="V17">
-            <v>0.92912172573189522</v>
+          <cell r="K17">
+            <v>0.93008279668813243</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="V18">
-            <v>0.18849512069851052</v>
+          <cell r="K18">
+            <v>0.14443422263109476</v>
           </cell>
           <cell r="AH18">
-            <v>0.06</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="V19">
-            <v>0.13045711350796096</v>
+          <cell r="K19">
+            <v>9.1996320147194111E-2</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="V20">
-            <v>0.24629080118694363</v>
+          <cell r="K20">
+            <v>0.2805755395683453</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="J22">
-            <v>0.11441144114411439</v>
+          <cell r="K22">
+            <v>0.16381156316916479</v>
           </cell>
           <cell r="S22">
             <v>4.8754062838569867E-2</v>
@@ -1568,12 +1568,12 @@
             <v>5.4712892741061836E-2</v>
           </cell>
           <cell r="AH22">
-            <v>6.3308923646501336</v>
+            <v>8.1283387836295784</v>
           </cell>
         </row>
         <row r="24">
           <cell r="AH24">
-            <v>-0.16917423036087487</v>
+            <v>-5.5503278685849589E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2518,10 +2518,10 @@
   <dimension ref="A1:AU62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29:U37"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3211,64 +3211,64 @@
       </c>
       <c r="F11" s="16">
         <f>[4]Main!$C$6</f>
-        <v>7.62</v>
+        <v>8.6059999999999999</v>
       </c>
       <c r="G11" s="17">
         <f>[4]Main!$C$7</f>
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H11" s="17">
         <f>[4]Main!$C$8</f>
-        <v>7772.4000000000005</v>
+        <v>8760.9079999999994</v>
       </c>
       <c r="I11" s="17">
         <f>[4]Main!$C$11</f>
-        <v>-729</v>
+        <v>-685</v>
       </c>
       <c r="J11" s="17">
         <f>[4]Main!$C$12</f>
-        <v>8501.4000000000015</v>
+        <v>9445.9079999999994</v>
       </c>
       <c r="K11" s="5" t="str">
         <f>[4]Main!$C$27</f>
-        <v>FY22</v>
+        <v>H123</v>
       </c>
       <c r="L11" s="20">
         <f>[4]Main!$D$27</f>
-        <v>44881</v>
+        <v>45063</v>
       </c>
       <c r="M11" s="26">
         <f>'[4]Financial Model'!$AH$22</f>
-        <v>6.3308923646501336</v>
+        <v>8.1283387836295784</v>
       </c>
       <c r="N11" s="31">
         <f>'[4]Financial Model'!$AH$24</f>
-        <v>-0.16917423036087487</v>
+        <v>-5.5503278685849589E-2</v>
       </c>
       <c r="O11" s="31">
         <f>'[4]Financial Model'!$AH$18</f>
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="P11" s="20"/>
       <c r="Q11" s="21">
         <f>[4]Main!$C$34</f>
-        <v>5.6444444444444439</v>
+        <v>6.7081990811638583</v>
       </c>
       <c r="R11" s="21">
         <f>[4]Main!$C$33</f>
-        <v>3.9919876733436057</v>
+        <v>4.1718609523809524</v>
       </c>
       <c r="S11" s="21">
         <f>[4]Main!$C$35</f>
-        <v>4.3664098613251161</v>
+        <v>4.4980514285714284</v>
       </c>
       <c r="T11" s="21">
         <f>[4]Main!$C$32</f>
-        <v>30.6</v>
+        <v>43.413815659068383</v>
       </c>
       <c r="U11" s="21">
         <f>[4]Main!$C$36</f>
-        <v>33.470078740157483</v>
+        <v>46.761920792079202</v>
       </c>
       <c r="V11" s="20"/>
       <c r="W11" s="23">
@@ -3292,24 +3292,24 @@
         <v>295</v>
       </c>
       <c r="AC11" s="18">
-        <f>'[4]Financial Model'!$V$17</f>
-        <v>0.92912172573189522</v>
+        <f>'[4]Financial Model'!$K$17</f>
+        <v>0.93008279668813243</v>
       </c>
       <c r="AD11" s="18">
-        <f>'[4]Financial Model'!$V$18</f>
-        <v>0.18849512069851052</v>
+        <f>'[4]Financial Model'!$K$18</f>
+        <v>0.14443422263109476</v>
       </c>
       <c r="AE11" s="18">
-        <f>'[4]Financial Model'!$V$19</f>
-        <v>0.13045711350796096</v>
+        <f>'[4]Financial Model'!$K$19</f>
+        <v>9.1996320147194111E-2</v>
       </c>
       <c r="AF11" s="18">
-        <f>'[4]Financial Model'!$V$20</f>
-        <v>0.24629080118694363</v>
+        <f>'[4]Financial Model'!$K$20</f>
+        <v>0.2805755395683453</v>
       </c>
       <c r="AH11" s="18">
-        <f>'[4]Financial Model'!$J$22</f>
-        <v>0.11441144114411439</v>
+        <f>'[4]Financial Model'!$K$22</f>
+        <v>0.16381156316916479</v>
       </c>
       <c r="AI11" s="18">
         <f>'[4]Financial Model'!$V$22</f>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F922E107-DAAD-465A-BA63-176C115AF6B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C29DF-06E8-4204-A6D3-4C7006C25BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -909,27 +909,27 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>207.67</v>
+            <v>293.95999999999998</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>69.525238000000002</v>
+            <v>70.177498999999997</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>14438.30617546</v>
+            <v>20629.377606039998</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>696.75</v>
+            <v>762.70100000000002</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>13741.55617546</v>
+            <v>19866.676606039997</v>
           </cell>
         </row>
         <row r="23">
@@ -954,30 +954,30 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>FQ423</v>
+            <v>FQ124</v>
           </cell>
           <cell r="D28">
-            <v>44994</v>
+            <v>45078</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>19.524205519696878</v>
+            <v>26.033092688480593</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>11.244436447042149</v>
+            <v>15.092387958530161</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>10.701813164278372</v>
+            <v>14.534398298920234</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>-39.784701056346599</v>
+            <v>-61.630763474608322</v>
           </cell>
         </row>
       </sheetData>
@@ -1013,7 +1013,7 @@
         </row>
         <row r="27">
           <cell r="AV27">
-            <v>175.28977476034504</v>
+            <v>172.72077919418848</v>
           </cell>
         </row>
         <row r="29">
@@ -1021,7 +1021,7 @@
             <v>0.72796486090775991</v>
           </cell>
           <cell r="AV29">
-            <v>-0.15592153531879882</v>
+            <v>-0.4124344155865135</v>
           </cell>
         </row>
         <row r="30">
@@ -1040,7 +1040,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2518,10 +2518,10 @@
   <dimension ref="A1:AU62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2723,39 +2723,39 @@
       </c>
       <c r="F4" s="16">
         <f>[1]Main!$C$6*F61</f>
-        <v>172.36609999999999</v>
+        <v>243.98679999999996</v>
       </c>
       <c r="G4" s="19">
         <f>[1]Main!$C$7</f>
-        <v>69.525238000000002</v>
+        <v>70.177498999999997</v>
       </c>
       <c r="H4" s="17">
         <f>[1]Main!$C$8*F61</f>
-        <v>11983.794125631799</v>
+        <v>17122.383413013198</v>
       </c>
       <c r="I4" s="17">
         <f>[1]Main!$C$11*F61</f>
-        <v>578.30250000000001</v>
+        <v>633.04183</v>
       </c>
       <c r="J4" s="17">
         <f>[1]Main!$C$12*F61</f>
-        <v>11405.491625631799</v>
+        <v>16489.341583013196</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>[1]Main!$C$28</f>
-        <v>FQ423</v>
+        <v>FQ124</v>
       </c>
       <c r="L4" s="8">
         <f>[1]Main!$D$28</f>
-        <v>44994</v>
+        <v>45078</v>
       </c>
       <c r="M4" s="26">
         <f>'[1]Financial Model'!$AV$27*F61</f>
-        <v>145.49051305108637</v>
+        <v>143.35824673117642</v>
       </c>
       <c r="N4" s="31">
         <f>'[1]Financial Model'!$AV$29</f>
-        <v>-0.15592153531879882</v>
+        <v>-0.4124344155865135</v>
       </c>
       <c r="O4" s="31">
         <f>'[1]Financial Model'!$AV$23</f>
@@ -2764,23 +2764,23 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="21">
         <f>[1]Main!$C$33</f>
-        <v>19.524205519696878</v>
+        <v>26.033092688480593</v>
       </c>
       <c r="R4" s="21">
         <f>[1]Main!$C$34</f>
-        <v>11.244436447042149</v>
+        <v>15.092387958530161</v>
       </c>
       <c r="S4" s="21">
         <f>[1]Main!$C$35</f>
-        <v>10.701813164278372</v>
+        <v>14.534398298920234</v>
       </c>
       <c r="T4" s="21">
         <f>[1]Main!$C$33</f>
-        <v>19.524205519696878</v>
+        <v>26.033092688480593</v>
       </c>
       <c r="U4" s="21">
         <f>[1]Main!$C$37</f>
-        <v>-39.784701056346599</v>
+        <v>-61.630763474608322</v>
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="23">

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C29DF-06E8-4204-A6D3-4C7006C25BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF50572-AD06-45DB-B0E9-D5C70E59DDCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -1040,7 +1040,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1589,12 +1589,13 @@
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
       <sheetName val="Metrics"/>
+      <sheetName val="Earnings Call Notes"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>33.409999999999997</v>
+            <v>30.01</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -1602,7 +1603,7 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>606.63699999999994</v>
+            <v>612.68899999999996</v>
           </cell>
           <cell r="G7">
             <v>2021</v>
@@ -1610,7 +1611,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>20267.742169999998</v>
+            <v>18386.796890000001</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -1623,59 +1624,56 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>2102.6120000000001</v>
+            <v>2020.4279999999999</v>
           </cell>
           <cell r="G11" t="str">
-            <v>Q123</v>
+            <v>Q223</v>
           </cell>
           <cell r="H11">
-            <v>40299</v>
+            <v>40026</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>18165.13017</v>
+            <v>16366.368890000002</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>82.664070649558042</v>
+            <v>111.9780565773442</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>8.6493709068810904</v>
+            <v>7.5578091811933561</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>-19.243065324183306</v>
+            <v>-15.801046113854976</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19">
-            <v>7.7520696234565314</v>
+            <v>6.7273214469950737</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="18">
-          <cell r="Y18">
+          <cell r="Z18">
             <v>-260.81599999999992</v>
           </cell>
-          <cell r="Z18">
+          <cell r="AA18">
             <v>-503.48999999999995</v>
-          </cell>
-          <cell r="AA18">
-            <v>-934.68300000000011</v>
           </cell>
         </row>
         <row r="22">
           <cell r="O22">
             <v>0.76830336433994972</v>
           </cell>
-          <cell r="AS22">
-            <v>0.09</v>
+          <cell r="AS22" t="str">
+            <v>Discount Rate</v>
           </cell>
         </row>
         <row r="23">
@@ -1694,26 +1692,25 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="AS26">
-            <v>62.602343431050087</v>
+          <cell r="AS26" t="str">
+            <v>Per Share</v>
           </cell>
         </row>
         <row r="28">
           <cell r="O28">
             <v>0.22007543741412761</v>
           </cell>
-          <cell r="Z28">
+          <cell r="Z28"/>
+          <cell r="AA28">
             <v>1.0772942519902369</v>
           </cell>
-          <cell r="AA28">
-            <v>0.15937579623808262</v>
-          </cell>
-          <cell r="AS28">
-            <v>0.87376065342861708</v>
+          <cell r="AS28" t="str">
+            <v>Projected Upside</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2521,7 +2518,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3453,71 +3450,71 @@
       </c>
       <c r="F19" s="17">
         <f>[5]Main!$C$6*F61</f>
-        <v>27.730299999999996</v>
+        <v>24.908300000000001</v>
       </c>
       <c r="G19" s="17">
         <f>[5]Main!$C$7</f>
-        <v>606.63699999999994</v>
+        <v>612.68899999999996</v>
       </c>
       <c r="H19" s="17">
         <f>[5]Main!$C$8*F61</f>
-        <v>16822.226001099996</v>
+        <v>15261.041418700001</v>
       </c>
       <c r="I19" s="17">
         <f>[5]Main!$C$11*F61</f>
-        <v>1745.16796</v>
+        <v>1676.9552399999998</v>
       </c>
       <c r="J19" s="17">
         <f>[5]Main!$C$12*F61</f>
-        <v>15077.058041099999</v>
+        <v>13584.086178700001</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>[5]Main!$G$11</f>
-        <v>Q123</v>
+        <v>Q223</v>
       </c>
       <c r="L19" s="8">
         <f>[5]Main!$H$11</f>
-        <v>40299</v>
-      </c>
-      <c r="M19" s="26">
+        <v>40026</v>
+      </c>
+      <c r="M19" s="26" t="e">
         <f>'[5]Financial Model'!$AS$26*F61</f>
-        <v>51.959945047771569</v>
-      </c>
-      <c r="N19" s="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" s="31" t="str">
         <f>'[5]Financial Model'!$AS$28</f>
-        <v>0.87376065342861708</v>
-      </c>
-      <c r="O19" s="31">
+        <v>Projected Upside</v>
+      </c>
+      <c r="O19" s="31" t="str">
         <f>'[5]Financial Model'!$AS$22</f>
-        <v>0.09</v>
+        <v>Discount Rate</v>
       </c>
       <c r="Q19" s="21">
         <f>[5]Main!$G$16</f>
-        <v>82.664070649558042</v>
+        <v>111.9780565773442</v>
       </c>
       <c r="R19" s="21">
         <f>[5]Main!$G$17</f>
-        <v>8.6493709068810904</v>
+        <v>7.5578091811933561</v>
       </c>
       <c r="S19" s="21">
         <f>[5]Main!$G$19</f>
-        <v>7.7520696234565314</v>
+        <v>6.7273214469950737</v>
       </c>
       <c r="T19" s="21">
         <f>[5]Main!$G$18</f>
-        <v>-19.243065324183306</v>
+        <v>-15.801046113854976</v>
       </c>
       <c r="W19" s="23">
         <f>'[5]Financial Model'!$AA$18*F61</f>
-        <v>-775.78689000000008</v>
+        <v>-417.89669999999995</v>
       </c>
       <c r="X19" s="24">
         <f>'[5]Financial Model'!$Z$18*F61</f>
-        <v>-417.89669999999995</v>
+        <v>-216.47727999999992</v>
       </c>
       <c r="Y19" s="24">
         <f>'[5]Financial Model'!$Y$18*F61</f>
-        <v>-216.47727999999992</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="22" t="s">
         <v>139</v>
@@ -3547,11 +3544,11 @@
       </c>
       <c r="AI19" s="18">
         <f>'[5]Financial Model'!$AA$28</f>
-        <v>0.15937579623808262</v>
+        <v>1.0772942519902369</v>
       </c>
       <c r="AJ19" s="18">
         <f>'[5]Financial Model'!$Z$28</f>
-        <v>1.0772942519902369</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="18" t="s">
         <v>139</v>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF50572-AD06-45DB-B0E9-D5C70E59DDCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F783B-D901-41C0-AC5F-913BE96FF15A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -1672,8 +1672,8 @@
           <cell r="O22">
             <v>0.76830336433994972</v>
           </cell>
-          <cell r="AS22" t="str">
-            <v>Discount Rate</v>
+          <cell r="AT22">
+            <v>0.09</v>
           </cell>
         </row>
         <row r="23">
@@ -1692,25 +1692,24 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="AS26" t="str">
-            <v>Per Share</v>
+          <cell r="AT26">
+            <v>61.849835417286634</v>
           </cell>
         </row>
         <row r="28">
           <cell r="O28">
             <v>0.22007543741412761</v>
           </cell>
-          <cell r="Z28"/>
           <cell r="AA28">
             <v>1.0772942519902369</v>
           </cell>
-          <cell r="AS28" t="str">
-            <v>Projected Upside</v>
+          <cell r="AT28">
+            <v>1.0609741891798277</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2518,7 +2517,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:J1"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3476,17 +3475,17 @@
         <f>[5]Main!$H$11</f>
         <v>40026</v>
       </c>
-      <c r="M19" s="26" t="e">
-        <f>'[5]Financial Model'!$AS$26*F61</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" s="31" t="str">
-        <f>'[5]Financial Model'!$AS$28</f>
-        <v>Projected Upside</v>
-      </c>
-      <c r="O19" s="31" t="str">
-        <f>'[5]Financial Model'!$AS$22</f>
-        <v>Discount Rate</v>
+      <c r="M19" s="26">
+        <f>'[5]Financial Model'!$AT$26</f>
+        <v>61.849835417286634</v>
+      </c>
+      <c r="N19" s="31">
+        <f>'[5]Financial Model'!$AT$28</f>
+        <v>1.0609741891798277</v>
+      </c>
+      <c r="O19" s="31">
+        <f>'[5]Financial Model'!$AT$22</f>
+        <v>0.09</v>
       </c>
       <c r="Q19" s="21">
         <f>[5]Main!$G$16</f>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F783B-D901-41C0-AC5F-913BE96FF15A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB89AC-270A-4BC0-BC48-882D11050742}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -29,6 +29,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="167">
   <si>
     <t>Ticker</t>
   </si>
@@ -513,9 +514,6 @@
     <t>Big Tech</t>
   </si>
   <si>
-    <t>Facebook, WhatsApp, Instagram</t>
-  </si>
-  <si>
     <t>Search, Services, Cloud, AI</t>
   </si>
   <si>
@@ -538,6 +536,12 @@
   </si>
   <si>
     <t>Video Conferencing</t>
+  </si>
+  <si>
+    <t>Meta Platforms, Inc.</t>
+  </si>
+  <si>
+    <t>Social Media, AR, AI</t>
   </si>
 </sst>
 </file>
@@ -613,7 +617,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +663,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -870,6 +880,37 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,6 +918,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -903,140 +947,101 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
-      <sheetName val="Historical Projections"/>
+      <sheetName val="Price History"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>293.95999999999998</v>
+            <v>578.16</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>70.177498999999997</v>
+            <v>2534</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>20629.377606039998</v>
+            <v>1465057.44</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>762.70100000000002</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>19866.676606039997</v>
+            <v>39691</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>New York City, NY</v>
+            <v>San Francisco, CA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2007</v>
+            <v>2004</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>3544</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>FQ124</v>
-          </cell>
-          <cell r="D28">
-            <v>45078</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>26.033092688480593</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>15.092387958530161</v>
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>Q224</v>
+          </cell>
+          <cell r="D31">
+            <v>45505</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>14.534398298920234</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>-61.630763474608322</v>
+            <v>9.3456838667287556</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>9.7811344335843611</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>28.74079215928019</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="15">
-          <cell r="AH15">
-            <v>-209.30399999999997</v>
+        <row r="18">
+          <cell r="X18">
+            <v>0.81295590079598679</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="X19">
+            <v>0.38000051188861306</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="X20">
+            <v>0.34462900872770086</v>
+          </cell>
+          <cell r="AU20">
+            <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="AI21">
-            <v>-306.86599999999999</v>
-          </cell>
-          <cell r="AJ21">
-            <v>-345.39800000000014</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AV23">
-            <v>0.08</v>
+          <cell r="X21">
+            <v>0.10863233152389778</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AU24">
+            <v>702.62033627404003</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="Z26">
-            <v>0.35579787912673444</v>
-          </cell>
-          <cell r="AI26">
-            <v>0.48003319895660423</v>
-          </cell>
-          <cell r="AJ26">
-            <v>0.46951985735572488</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AV27">
-            <v>172.72077919418848</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AJ29">
-            <v>0.72796486090775991</v>
-          </cell>
-          <cell r="AV29">
-            <v>-0.4124344155865135</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AJ30">
-            <v>-0.26997211924862163</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AJ31">
-            <v>-0.26899317778262372</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="AJ32">
-            <v>-3.6440672880145464E-2</v>
+          <cell r="AU26">
+            <v>0.21526971128068362</v>
           </cell>
         </row>
       </sheetData>
@@ -1057,45 +1062,109 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>256.88</v>
+            <v>68.569999999999993</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>7440</v>
+            <v>293.836386</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>20148.360988019998</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0</v>
+            <v>5412.6660000000002</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>1911187.2</v>
+            <v>14735.694988019997</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>Redmond, WA</v>
+            <v>San Jose, CA</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1975</v>
+            <v>2011</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>1986</v>
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>8484</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="C29"/>
-          <cell r="D29"/>
+          <cell r="C29" t="str">
+            <v>Q422</v>
+          </cell>
+          <cell r="D29">
+            <v>37681</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>2.9780786109979251</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>178.2237520954381</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="16">
+          <cell r="AB16">
+            <v>672.31600000000003</v>
+          </cell>
+          <cell r="AC16">
+            <v>1375.6389999999994</v>
+          </cell>
+          <cell r="AD16">
+            <v>103.7110000000001</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AC20">
+            <v>0.54632023921236117</v>
+          </cell>
+          <cell r="AD20">
+            <v>7.1489200617386395E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AD23">
+            <v>0.74949669471153846</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AD24">
+            <v>5.5868708114801886E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AD25">
+            <v>2.3608455346736619E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AD26">
+            <v>0.58395112245061676</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1112,6 +1181,61 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
+            <v>256.88</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>7440</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>1911187.2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Redmond, WA</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1975</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1986</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29"/>
+          <cell r="D29"/>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
             <v>95.46</v>
           </cell>
         </row>
@@ -1167,6 +1291,155 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>293.95999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>70.177498999999997</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>20629.377606039998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>762.70100000000002</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>19866.676606039997</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>New York City, NY</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>3544</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>FQ124</v>
+          </cell>
+          <cell r="D28">
+            <v>45078</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>26.033092688480593</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>15.092387958530161</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>14.534398298920234</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>-61.630763474608322</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="15">
+          <cell r="AH15">
+            <v>-209.30399999999997</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AI21">
+            <v>-306.86599999999999</v>
+          </cell>
+          <cell r="AJ21">
+            <v>-345.39800000000014</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AV23">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="Z26">
+            <v>0.35579787912673444</v>
+          </cell>
+          <cell r="AI26">
+            <v>0.48003319895660423</v>
+          </cell>
+          <cell r="AJ26">
+            <v>0.46951985735572488</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AV27">
+            <v>172.72077919418848</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AJ29">
+            <v>0.72796486090775991</v>
+          </cell>
+          <cell r="AV29">
+            <v>-0.4124344155865135</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AJ30">
+            <v>-0.26997211924862163</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AJ31">
+            <v>-0.26899317778262372</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AJ32">
+            <v>-3.6440672880145464E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1256,7 +1529,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1422,7 +1695,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1582,7 +1855,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1595,7 +1868,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>30.01</v>
+            <v>37.33</v>
           </cell>
           <cell r="G6" t="str">
             <v>San Mateo, CA</v>
@@ -1603,7 +1876,7 @@
         </row>
         <row r="7">
           <cell r="C7">
-            <v>612.68899999999996</v>
+            <v>641.81399999999996</v>
           </cell>
           <cell r="G7">
             <v>2021</v>
@@ -1611,7 +1884,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>18386.796890000001</v>
+            <v>23958.916619999996</v>
           </cell>
           <cell r="G8">
             <v>2004</v>
@@ -1624,48 +1897,48 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>2020.4279999999999</v>
+            <v>2595.5510000000004</v>
           </cell>
           <cell r="G11" t="str">
-            <v>Q223</v>
+            <v>Q224</v>
           </cell>
           <cell r="H11">
-            <v>40026</v>
+            <v>39661</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>16366.368890000002</v>
+            <v>21363.365619999997</v>
           </cell>
         </row>
         <row r="16">
           <cell r="G16">
-            <v>111.9780565773442</v>
+            <v>378.15331089378986</v>
           </cell>
         </row>
         <row r="17">
           <cell r="G17">
-            <v>7.5578091811933561</v>
+            <v>8.134820241543105</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>-15.801046113854976</v>
+            <v>-20.045025987117658</v>
           </cell>
         </row>
         <row r="19">
           <cell r="G19">
-            <v>6.7273214469950737</v>
+            <v>7.2535474716745378</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="18">
+          <cell r="Y18">
+            <v>-128.48232482799997</v>
+          </cell>
           <cell r="Z18">
-            <v>-260.81599999999992</v>
-          </cell>
-          <cell r="AA18">
-            <v>-503.48999999999995</v>
+            <v>-292.89600599999994</v>
           </cell>
         </row>
         <row r="22">
@@ -1673,7 +1946,7 @@
             <v>0.76830336433994972</v>
           </cell>
           <cell r="AT22">
-            <v>0.09</v>
+            <v>0.77</v>
           </cell>
         </row>
         <row r="23">
@@ -1691,31 +1964,29 @@
             <v>-2.7152817244081922E-3</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="AT26">
-            <v>61.849835417286634</v>
-          </cell>
-        </row>
         <row r="28">
           <cell r="O28">
             <v>0.22007543741412761</v>
           </cell>
+          <cell r="Z28">
+            <v>9.2268390154878199E-2</v>
+          </cell>
           <cell r="AA28">
-            <v>1.0772942519902369</v>
+            <v>0.13184829111543861</v>
           </cell>
           <cell r="AT28">
-            <v>1.0609741891798277</v>
+            <v>0.14999999999999991</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1757,155 +2028,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Financial Model"/>
-      <sheetName val="Historical Projections"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="C6">
-            <v>57.3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1276.884726</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>73165.494799799999</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>3949</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>69216.494799799999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Ottowa, Canada</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>2004</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>11600</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Q123</v>
-          </cell>
-          <cell r="D28">
-            <v>38108</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>8.6514715383469305</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>12.392023767288633</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>11.723182505558293</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>-37.814244475197256</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>-36.08766106527078</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="20">
-          <cell r="AC20">
-            <v>2914.6589999999997</v>
-          </cell>
-          <cell r="AD20">
-            <v>-3460.4179999999992</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="W24">
-            <v>0.28000000000000003</v>
-          </cell>
-          <cell r="AC24">
-            <v>0.57428577182862139</v>
-          </cell>
-          <cell r="AD24">
-            <v>0.21423218764853047</v>
-          </cell>
-          <cell r="AQ24">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AQ28">
-            <v>27.384105716043681</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="W29">
-            <v>0.46</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AQ30">
-            <v>-0.522092395880564</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="W32">
-            <v>-0.12798408488063662</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="W33">
-            <v>4.5092838196286469E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="W34">
-            <v>0.10526315789473684</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1923,42 +2045,42 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>45.35</v>
+            <v>57.3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>541</v>
+            <v>1276.884726</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>24534.350000000002</v>
+            <v>73165.494799799999</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>-4092</v>
+            <v>3949</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>28626.350000000002</v>
+            <v>69216.494799799999</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>San Jose, CA</v>
+            <v>Ottowa, Canada</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
-            <v>1995</v>
+            <v>2004</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>1998</v>
+            <v>2015</v>
           </cell>
         </row>
         <row r="26">
@@ -1968,104 +2090,89 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>Q422</v>
+            <v>Q123</v>
           </cell>
           <cell r="D28">
-            <v>44593</v>
+            <v>38108</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
-            <v>5.071005480208119</v>
+            <v>8.6514715383469305</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>2.4787179228126894</v>
+            <v>12.392023767288633</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>2.8921347747019603</v>
+            <v>11.723182505558293</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>-385.92410461281213</v>
+            <v>-37.814244475197256</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>1022.3696428571429</v>
+            <v>-36.08766106527078</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="20">
           <cell r="AC20">
-            <v>1725</v>
+            <v>2914.6589999999997</v>
           </cell>
           <cell r="AD20">
-            <v>7266</v>
-          </cell>
-          <cell r="AE20">
-            <v>-1347</v>
-          </cell>
-          <cell r="AJ20">
-            <v>-1268.75</v>
+            <v>-3460.4179999999992</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="Z24">
-            <v>-3.9418293149636408E-2</v>
-          </cell>
-          <cell r="AF24">
-            <v>8.2502266545784186E-2</v>
-          </cell>
-          <cell r="AG24">
-            <v>-0.14805509026614549</v>
-          </cell>
-          <cell r="AH24">
-            <v>0.17018022938285093</v>
-          </cell>
-          <cell r="AI24">
-            <v>-2.7349948660505885E-2</v>
-          </cell>
-          <cell r="AJ24">
-            <v>-5.9980806142034604E-2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AW25">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Z27">
-            <v>0.72868525896414338</v>
+          <cell r="W24">
+            <v>0.28000000000000003</v>
+          </cell>
+          <cell r="AC24">
+            <v>0.57428577182862139</v>
+          </cell>
+          <cell r="AD24">
+            <v>0.21423218764853047</v>
+          </cell>
+          <cell r="AQ24">
+            <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="Z28">
-            <v>0.22519920318725101</v>
+          <cell r="AQ28">
+            <v>27.384105716043681</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="Z29">
-            <v>0.26782868525896414</v>
-          </cell>
-          <cell r="AW29">
-            <v>53.181611591692423</v>
+          <cell r="W29">
+            <v>0.46</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="Z30">
-            <v>0.19053361471208924</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AW31">
-            <v>0.17269264810788143</v>
+          <cell r="AQ30">
+            <v>-0.522092395880564</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="W32">
+            <v>-0.12798408488063662</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="W33">
+            <v>4.5092838196286469E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="W34">
+            <v>0.10526315789473684</v>
           </cell>
         </row>
       </sheetData>
@@ -2081,32 +2188,33 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Financial Model"/>
+      <sheetName val="Historical Projections"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>68.569999999999993</v>
+            <v>45.35</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>293.836386</v>
+            <v>541</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>20148.360988019998</v>
+            <v>24534.350000000002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>5412.6660000000002</v>
+            <v>-4092</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>14735.694988019997</v>
+            <v>28626.350000000002</v>
           </cell>
         </row>
         <row r="23">
@@ -2116,79 +2224,123 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2011</v>
+            <v>1995</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>8484</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
+            <v>1998</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>11600</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
             <v>Q422</v>
           </cell>
-          <cell r="D29">
-            <v>37681</v>
+          <cell r="D28">
+            <v>44593</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>5.071005480208119</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
-            <v>2.9780786109979251</v>
+            <v>2.4787179228126894</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>2.8921347747019603</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>-385.92410461281213</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
-            <v>178.2237520954381</v>
+            <v>1022.3696428571429</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
-        <row r="16">
-          <cell r="AB16">
-            <v>672.31600000000003</v>
-          </cell>
-          <cell r="AC16">
-            <v>1375.6389999999994</v>
-          </cell>
-          <cell r="AD16">
-            <v>103.7110000000001</v>
-          </cell>
-        </row>
         <row r="20">
           <cell r="AC20">
-            <v>0.54632023921236117</v>
+            <v>1725</v>
           </cell>
           <cell r="AD20">
-            <v>7.1489200617386395E-2</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AD23">
-            <v>0.74949669471153846</v>
+            <v>7266</v>
+          </cell>
+          <cell r="AE20">
+            <v>-1347</v>
+          </cell>
+          <cell r="AJ20">
+            <v>-1268.75</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="AD24">
-            <v>5.5868708114801886E-2</v>
+          <cell r="Z24">
+            <v>-3.9418293149636408E-2</v>
+          </cell>
+          <cell r="AF24">
+            <v>8.2502266545784186E-2</v>
+          </cell>
+          <cell r="AG24">
+            <v>-0.14805509026614549</v>
+          </cell>
+          <cell r="AH24">
+            <v>0.17018022938285093</v>
+          </cell>
+          <cell r="AI24">
+            <v>-2.7349948660505885E-2</v>
+          </cell>
+          <cell r="AJ24">
+            <v>-5.9980806142034604E-2</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="AD25">
-            <v>2.3608455346736619E-2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AD26">
-            <v>0.58395112245061676</v>
+          <cell r="AW25">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Z27">
+            <v>0.72868525896414338</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Z28">
+            <v>0.22519920318725101</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="Z29">
+            <v>0.26782868525896414</v>
+          </cell>
+          <cell r="AW29">
+            <v>53.181611591692423</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="Z30">
+            <v>0.19053361471208924</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AW31">
+            <v>0.17269264810788143</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2511,13 +2663,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873CD5B-C727-4CC0-ACC4-210B76523995}">
-  <dimension ref="A1:AU62"/>
+  <dimension ref="A1:AU64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2527,9 +2679,9 @@
     <col min="3" max="3" width="30.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="5"/>
     <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="33"/>
+    <col min="10" max="10" width="9.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
     <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="26" customWidth="1"/>
@@ -2551,20 +2703,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="W1" s="40" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="W1" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2587,13 +2739,13 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -2675,7 +2827,7 @@
         <v>149</v>
       </c>
       <c r="AO2" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP2" s="4" t="s">
         <v>12</v>
@@ -2695,8 +2847,6 @@
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="F3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
@@ -2704,264 +2854,277 @@
       <c r="AA3" s="23"/>
       <c r="AU3" s="5"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:47" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="16">
-        <f>[1]Main!$C$6*F61</f>
-        <v>243.98679999999996</v>
-      </c>
-      <c r="G4" s="19">
-        <f>[1]Main!$C$7</f>
-        <v>70.177498999999997</v>
-      </c>
-      <c r="H4" s="17">
-        <f>[1]Main!$C$8*F61</f>
-        <v>17122.383413013198</v>
-      </c>
-      <c r="I4" s="17">
-        <f>[1]Main!$C$11*F61</f>
-        <v>633.04183</v>
-      </c>
-      <c r="J4" s="17">
-        <f>[1]Main!$C$12*F61</f>
-        <v>16489.341583013196</v>
-      </c>
-      <c r="K4" s="5" t="str">
-        <f>[1]Main!$C$28</f>
-        <v>FQ124</v>
-      </c>
-      <c r="L4" s="8">
-        <f>[1]Main!$D$28</f>
-        <v>45078</v>
-      </c>
-      <c r="M4" s="26">
-        <f>'[1]Financial Model'!$AV$27*F61</f>
-        <v>143.35824673117642</v>
-      </c>
-      <c r="N4" s="31">
-        <f>'[1]Financial Model'!$AV$29</f>
-        <v>-0.4124344155865135</v>
-      </c>
-      <c r="O4" s="31">
-        <f>'[1]Financial Model'!$AV$23</f>
-        <v>0.08</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="21">
-        <f>[1]Main!$C$33</f>
-        <v>26.033092688480593</v>
-      </c>
-      <c r="R4" s="21">
-        <f>[1]Main!$C$34</f>
-        <v>15.092387958530161</v>
-      </c>
-      <c r="S4" s="21">
-        <f>[1]Main!$C$35</f>
-        <v>14.534398298920234</v>
-      </c>
-      <c r="T4" s="21">
-        <f>[1]Main!$C$33</f>
-        <v>26.033092688480593</v>
-      </c>
-      <c r="U4" s="21">
-        <f>[1]Main!$C$37</f>
-        <v>-61.630763474608322</v>
-      </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="23">
-        <f>'[1]Financial Model'!$AJ$21*$F$61</f>
-        <v>-286.68034000000011</v>
-      </c>
-      <c r="X4" s="23">
-        <f>'[1]Financial Model'!$AI$21*F61</f>
-        <v>-254.69877999999997</v>
-      </c>
-      <c r="Y4" s="23">
-        <f>'[1]Financial Model'!$AH$15*F61</f>
-        <v>-173.72231999999997</v>
-      </c>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AC4" s="18">
-        <f>'[1]Financial Model'!$AJ$29</f>
-        <v>0.72796486090775991</v>
-      </c>
-      <c r="AD4" s="18">
-        <f>'[1]Financial Model'!$AJ$30</f>
-        <v>-0.26997211924862163</v>
-      </c>
-      <c r="AE4" s="18">
-        <f>'[1]Financial Model'!$AJ$31</f>
-        <v>-0.26899317778262372</v>
-      </c>
-      <c r="AF4" s="18">
-        <f>'[1]Financial Model'!$AJ$32</f>
-        <v>-3.6440672880145464E-2</v>
-      </c>
-      <c r="AH4" s="18">
-        <f>'[1]Financial Model'!$Z$26</f>
-        <v>0.35579787912673444</v>
-      </c>
-      <c r="AI4" s="18">
-        <f>'[1]Financial Model'!$AJ$26</f>
-        <v>0.46951985735572488</v>
-      </c>
-      <c r="AJ4" s="18">
-        <f>'[1]Financial Model'!$AI$26</f>
-        <v>0.48003319895660423</v>
-      </c>
-      <c r="AO4" s="34">
-        <f>[1]Main!$C$26</f>
-        <v>3544</v>
-      </c>
-      <c r="AP4" s="5">
-        <f>[1]Main!$C24</f>
-        <v>2007</v>
-      </c>
-      <c r="AQ4" s="5">
-        <f>[1]Main!$C$25</f>
-        <v>2017</v>
-      </c>
-      <c r="AR4" s="5" t="str">
-        <f>[1]Main!$C$23</f>
-        <v>New York City, NY</v>
-      </c>
-      <c r="AT4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU4" s="5" t="s">
-        <v>39</v>
+      <c r="F4" s="43">
+        <f>+[1]Main!C$6</f>
+        <v>578.16</v>
+      </c>
+      <c r="G4" s="44">
+        <f>+[1]Main!$C$7</f>
+        <v>2534</v>
+      </c>
+      <c r="H4" s="44">
+        <f>+[1]Main!$C$8</f>
+        <v>1465057.44</v>
+      </c>
+      <c r="I4" s="44">
+        <f>+[1]Main!$C$11</f>
+        <v>39691</v>
+      </c>
+      <c r="J4" s="44">
+        <f>+[1]Main!$C$8</f>
+        <v>1465057.44</v>
+      </c>
+      <c r="K4" s="42" t="str">
+        <f>+[1]Main!$C$31</f>
+        <v>Q224</v>
+      </c>
+      <c r="L4" s="45">
+        <f>+[1]Main!$D$31</f>
+        <v>45505</v>
+      </c>
+      <c r="M4" s="46">
+        <f>+'[1]Financial Model'!$AU$24</f>
+        <v>702.62033627404003</v>
+      </c>
+      <c r="N4" s="54">
+        <f>+'[1]Financial Model'!$AU$26</f>
+        <v>0.21526971128068362</v>
+      </c>
+      <c r="O4" s="54">
+        <f>+'[1]Financial Model'!$AU$20</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="47">
+        <f>+[1]Main!$C$35</f>
+        <v>9.3456838667287556</v>
+      </c>
+      <c r="R4" s="47">
+        <f>+[1]Main!$C$36</f>
+        <v>9.7811344335843611</v>
+      </c>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47">
+        <f>+[1]Main!$C$38</f>
+        <v>28.74079215928019</v>
+      </c>
+      <c r="U4" s="47"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AC4" s="49">
+        <f>+'[1]Financial Model'!$X$18</f>
+        <v>0.81295590079598679</v>
+      </c>
+      <c r="AD4" s="49">
+        <f>+'[1]Financial Model'!$X$19</f>
+        <v>0.38000051188861306</v>
+      </c>
+      <c r="AE4" s="49">
+        <f>+'[1]Financial Model'!$X$20</f>
+        <v>0.34462900872770086</v>
+      </c>
+      <c r="AF4" s="49">
+        <f>+'[1]Financial Model'!$X$21</f>
+        <v>0.10863233152389778</v>
+      </c>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="42">
+        <f>+[1]Main!$C$24</f>
+        <v>2004</v>
+      </c>
+      <c r="AQ4" s="42">
+        <f>+[1]Main!$C$25</f>
+        <v>2012</v>
+      </c>
+      <c r="AR4" s="42" t="str">
+        <f>+[1]Main!$C$23</f>
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="AT4" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU4" s="42" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="16">
-        <f>[2]Main!$C$6*F61</f>
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="G5" s="17">
-        <f>[2]Main!$C$7</f>
-        <v>66.483192000000003</v>
-      </c>
-      <c r="H5" s="17">
-        <f>[2]Main!$C$8*F61</f>
-        <v>77.25346910399999</v>
-      </c>
-      <c r="I5" s="17">
-        <f>[2]Main!$C$11*F61</f>
-        <v>9.8122599999999984</v>
-      </c>
-      <c r="J5" s="17">
-        <f>[2]Main!$C$12*F61</f>
-        <v>67.441209103999995</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f>[2]Main!$C$28</f>
-        <v>Q422</v>
-      </c>
-      <c r="L5" s="8">
-        <f>[2]Main!$D$28</f>
-        <v>41306</v>
-      </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="21">
-        <f>[2]Main!$C$34</f>
-        <v>-3.0918082009604722</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="8"/>
+      <c r="F5" s="16"/>
       <c r="W5" s="23"/>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="Z5" s="23"/>
       <c r="AA5" s="23"/>
-      <c r="AC5" s="18">
-        <f>'[2]Financial Model'!$K$28</f>
-        <v>0.73721202655212803</v>
-      </c>
-      <c r="AD5" s="18">
-        <f>'[2]Financial Model'!$K$29</f>
-        <v>-0.99711050370948873</v>
-      </c>
-      <c r="AE5" s="18">
-        <f>'[2]Financial Model'!$K$30</f>
-        <v>-1.0185083951581417</v>
-      </c>
-      <c r="AF5" s="18">
-        <f>'[2]Financial Model'!$K$31</f>
-        <v>4.2754619025805463E-3</v>
-      </c>
-      <c r="AH5" s="18">
-        <f>'[2]Financial Model'!$K$25</f>
-        <v>0.19672897196261663</v>
-      </c>
-      <c r="AP5" s="5">
-        <f>[2]Main!$C$24</f>
-        <v>2010</v>
-      </c>
-      <c r="AQ5" s="5">
-        <f>[2]Main!$C$25</f>
-        <v>2022</v>
-      </c>
-      <c r="AR5" s="5" t="str">
-        <f>[2]Main!$C$23</f>
-        <v>Redwood City, CA</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="AU5" s="5"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="F6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="16">
+        <f>[2]Main!$C$6*F63</f>
+        <v>243.98679999999996</v>
+      </c>
+      <c r="G6" s="19">
+        <f>[2]Main!$C$7</f>
+        <v>70.177498999999997</v>
+      </c>
+      <c r="H6" s="33">
+        <f>[2]Main!$C$8*F63</f>
+        <v>17122.383413013198</v>
+      </c>
+      <c r="I6" s="33">
+        <f>[2]Main!$C$11*F63</f>
+        <v>633.04183</v>
+      </c>
+      <c r="J6" s="33">
+        <f>[2]Main!$C$12*F63</f>
+        <v>16489.341583013196</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f>[2]Main!$C$28</f>
+        <v>FQ124</v>
+      </c>
+      <c r="L6" s="8">
+        <f>[2]Main!$D$28</f>
+        <v>45078</v>
+      </c>
+      <c r="M6" s="26">
+        <f>'[2]Financial Model'!$AV$27*F63</f>
+        <v>143.35824673117642</v>
+      </c>
+      <c r="N6" s="31">
+        <f>'[2]Financial Model'!$AV$29</f>
+        <v>-0.4124344155865135</v>
+      </c>
+      <c r="O6" s="31">
+        <f>'[2]Financial Model'!$AV$23</f>
+        <v>0.08</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="21">
+        <f>[2]Main!$C$33</f>
+        <v>26.033092688480593</v>
+      </c>
+      <c r="R6" s="21">
+        <f>[2]Main!$C$34</f>
+        <v>15.092387958530161</v>
+      </c>
+      <c r="S6" s="21">
+        <f>[2]Main!$C$35</f>
+        <v>14.534398298920234</v>
+      </c>
+      <c r="T6" s="21">
+        <f>[2]Main!$C$33</f>
+        <v>26.033092688480593</v>
+      </c>
+      <c r="U6" s="21">
+        <f>[2]Main!$C$37</f>
+        <v>-61.630763474608322</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="23">
+        <f>'[2]Financial Model'!$AJ$21*$F$63</f>
+        <v>-286.68034000000011</v>
+      </c>
+      <c r="X6" s="23">
+        <f>'[2]Financial Model'!$AI$21*F63</f>
+        <v>-254.69877999999997</v>
+      </c>
+      <c r="Y6" s="23">
+        <f>'[2]Financial Model'!$AH$15*F63</f>
+        <v>-173.72231999999997</v>
+      </c>
       <c r="Z6" s="23"/>
       <c r="AA6" s="23"/>
-      <c r="AU6" s="5"/>
+      <c r="AC6" s="18">
+        <f>'[2]Financial Model'!$AJ$29</f>
+        <v>0.72796486090775991</v>
+      </c>
+      <c r="AD6" s="18">
+        <f>'[2]Financial Model'!$AJ$30</f>
+        <v>-0.26997211924862163</v>
+      </c>
+      <c r="AE6" s="18">
+        <f>'[2]Financial Model'!$AJ$31</f>
+        <v>-0.26899317778262372</v>
+      </c>
+      <c r="AF6" s="18">
+        <f>'[2]Financial Model'!$AJ$32</f>
+        <v>-3.6440672880145464E-2</v>
+      </c>
+      <c r="AH6" s="18">
+        <f>'[2]Financial Model'!$Z$26</f>
+        <v>0.35579787912673444</v>
+      </c>
+      <c r="AI6" s="18">
+        <f>'[2]Financial Model'!$AJ$26</f>
+        <v>0.46951985735572488</v>
+      </c>
+      <c r="AJ6" s="18">
+        <f>'[2]Financial Model'!$AI$26</f>
+        <v>0.48003319895660423</v>
+      </c>
+      <c r="AO6" s="34">
+        <f>[2]Main!$C$26</f>
+        <v>3544</v>
+      </c>
+      <c r="AP6" s="5">
+        <f>[2]Main!$C24</f>
+        <v>2007</v>
+      </c>
+      <c r="AQ6" s="5">
+        <f>[2]Main!$C$25</f>
+        <v>2017</v>
+      </c>
+      <c r="AR6" s="5" t="str">
+        <f>[2]Main!$C$23</f>
+        <v>New York City, NY</v>
+      </c>
+      <c r="AT6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU6" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>30</v>
@@ -2970,180 +3133,108 @@
         <v>17</v>
       </c>
       <c r="F7" s="16">
-        <f>[3]Main!$C$6*$F$61</f>
-        <v>40.6036</v>
+        <f>[3]Main!$C$6*F63</f>
+        <v>1.1619999999999999</v>
       </c>
       <c r="G7" s="17">
         <f>[3]Main!$C$7</f>
-        <v>186.40334899999999</v>
-      </c>
-      <c r="H7" s="17">
-        <f>[3]Main!$C$8*$F$61</f>
-        <v>7568.6470214563997</v>
-      </c>
-      <c r="I7" s="17">
-        <f>[3]Main!$C$11*F61</f>
-        <v>2439.9559800000002</v>
-      </c>
-      <c r="J7" s="17">
-        <f>[3]Main!$C$12*F61</f>
-        <v>5128.691041456399</v>
-      </c>
-      <c r="K7" s="36" t="str">
+        <v>66.483192000000003</v>
+      </c>
+      <c r="H7" s="33">
+        <f>[3]Main!$C$8*F63</f>
+        <v>77.25346910399999</v>
+      </c>
+      <c r="I7" s="33">
+        <f>[3]Main!$C$11*F63</f>
+        <v>9.8122599999999984</v>
+      </c>
+      <c r="J7" s="33">
+        <f>[3]Main!$C$12*F63</f>
+        <v>67.441209103999995</v>
+      </c>
+      <c r="K7" s="5" t="str">
         <f>[3]Main!$C$28</f>
-        <v>Q123</v>
-      </c>
-      <c r="L7" s="37">
+        <v>Q422</v>
+      </c>
+      <c r="L7" s="8">
         <f>[3]Main!$D$28</f>
-        <v>39934</v>
-      </c>
-      <c r="M7" s="26">
-        <f>'[3]Financial Model'!$AQ$30*F61</f>
-        <v>42.439509994080019</v>
-      </c>
-      <c r="N7" s="31">
-        <f>'[3]Financial Model'!$AQ$32</f>
-        <v>4.5215448730654861E-2</v>
-      </c>
-      <c r="O7" s="31">
-        <f>'[3]Financial Model'!$AQ$26</f>
-        <v>0.08</v>
-      </c>
+        <v>41306</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="21">
-        <f>[3]Main!$C$33</f>
-        <v>0.88370677873712089</v>
-      </c>
-      <c r="R7" s="21">
         <f>[3]Main!$C$34</f>
-        <v>2.3041822213698371</v>
-      </c>
-      <c r="S7" s="21">
-        <f>[3]Main!$C$35</f>
-        <v>1.5613673993675841</v>
-      </c>
-      <c r="T7" s="21">
-        <f>[3]Main!$C$36</f>
-        <v>-6.5483454041765832</v>
-      </c>
-      <c r="U7" s="21">
-        <f>[3]Main!$C$37</f>
-        <v>-4.4885151734092084</v>
-      </c>
+        <v>-3.0918082009604722</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="24">
-        <f>'[3]Financial Model'!$AD$18*F61</f>
-        <v>-1042.6003499999997</v>
-      </c>
-      <c r="X7" s="23">
-        <f>'[3]Financial Model'!$AC$18*$F$61</f>
-        <v>-788.41700000000003</v>
-      </c>
-      <c r="Y7" s="23">
-        <f>'[3]Financial Model'!$AB$18*$F$61</f>
-        <v>-407.51256999999981</v>
-      </c>
-      <c r="Z7" s="23">
-        <f>'[3]Financial Model'!$AA$18*$F$61</f>
-        <v>-254.86228999999994</v>
-      </c>
-      <c r="AA7" s="23">
-        <f>'[3]Financial Model'!$Z$18*F61</f>
-        <v>-101.21767</v>
-      </c>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
       <c r="AC7" s="18">
-        <f>'[3]Financial Model'!$W$25</f>
-        <v>0.47005177868427206</v>
+        <f>'[3]Financial Model'!$K$28</f>
+        <v>0.73721202655212803</v>
       </c>
       <c r="AD7" s="18">
-        <f>'[3]Financial Model'!W$26</f>
-        <v>-0.26236185677214768</v>
+        <f>'[3]Financial Model'!$K$29</f>
+        <v>-0.99711050370948873</v>
       </c>
       <c r="AE7" s="18">
-        <f>'[3]Financial Model'!$W$27</f>
-        <v>-0.33990784490603682</v>
+        <f>'[3]Financial Model'!$K$30</f>
+        <v>-1.0185083951581417</v>
       </c>
       <c r="AF7" s="18">
-        <f>'[3]Financial Model'!$W$28</f>
-        <v>-0.01</v>
+        <f>'[3]Financial Model'!$K$31</f>
+        <v>4.2754619025805463E-3</v>
       </c>
       <c r="AH7" s="18">
-        <f>'[3]Financial Model'!$W$22</f>
-        <v>0.14988182045619913</v>
-      </c>
-      <c r="AI7" s="18">
-        <f>'[3]Financial Model'!$AD$22</f>
-        <v>0.34642426963666861</v>
-      </c>
-      <c r="AJ7" s="18">
-        <f>'[3]Financial Model'!$AC$22</f>
-        <v>0.613053532344634</v>
-      </c>
-      <c r="AK7" s="18">
-        <f>'[3]Financial Model'!$AB$22</f>
-        <v>0.55295345483521796</v>
-      </c>
-      <c r="AL7" s="18">
-        <f>'[3]Financial Model'!$AA$22</f>
-        <v>0.74515549935622039</v>
-      </c>
-      <c r="AO7" s="34">
-        <f>[3]Main!$C$26</f>
-        <v>6766</v>
+        <f>'[3]Financial Model'!$K$25</f>
+        <v>0.19672897196261663</v>
       </c>
       <c r="AP7" s="5">
         <f>[3]Main!$C$24</f>
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="AQ7" s="5">
         <f>[3]Main!$C$25</f>
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="AR7" s="5" t="str">
         <f>[3]Main!$C$23</f>
-        <v>San Francisco, CA</v>
+        <v>Redwood City, CA</v>
       </c>
       <c r="AT7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="L8" s="8"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="8"/>
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="23"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
       <c r="AU8" s="5"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>34</v>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>30</v>
@@ -3151,494 +3242,621 @@
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
+      <c r="F9" s="16">
+        <f>[4]Main!$C$6*$F$63</f>
+        <v>40.6036</v>
+      </c>
+      <c r="G9" s="17">
+        <f>[4]Main!$C$7</f>
+        <v>186.40334899999999</v>
+      </c>
+      <c r="H9" s="33">
+        <f>[4]Main!$C$8*$F$63</f>
+        <v>7568.6470214563997</v>
+      </c>
+      <c r="I9" s="33">
+        <f>[4]Main!$C$11*F63</f>
+        <v>2439.9559800000002</v>
+      </c>
+      <c r="J9" s="33">
+        <f>[4]Main!$C$12*F63</f>
+        <v>5128.691041456399</v>
+      </c>
+      <c r="K9" s="36" t="str">
+        <f>[4]Main!$C$28</f>
+        <v>Q123</v>
+      </c>
+      <c r="L9" s="37">
+        <f>[4]Main!$D$28</f>
+        <v>39934</v>
+      </c>
+      <c r="M9" s="26">
+        <f>'[4]Financial Model'!$AQ$30*F63</f>
+        <v>42.439509994080019</v>
+      </c>
+      <c r="N9" s="31">
+        <f>'[4]Financial Model'!$AQ$32</f>
+        <v>4.5215448730654861E-2</v>
+      </c>
+      <c r="O9" s="31">
+        <f>'[4]Financial Model'!$AQ$26</f>
+        <v>0.08</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="21">
+        <f>[4]Main!$C$33</f>
+        <v>0.88370677873712089</v>
+      </c>
+      <c r="R9" s="21">
+        <f>[4]Main!$C$34</f>
+        <v>2.3041822213698371</v>
+      </c>
+      <c r="S9" s="21">
+        <f>[4]Main!$C$35</f>
+        <v>1.5613673993675841</v>
+      </c>
+      <c r="T9" s="21">
+        <f>[4]Main!$C$36</f>
+        <v>-6.5483454041765832</v>
+      </c>
+      <c r="U9" s="21">
+        <f>[4]Main!$C$37</f>
+        <v>-4.4885151734092084</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="24">
+        <f>'[4]Financial Model'!$AD$18*F63</f>
+        <v>-1042.6003499999997</v>
+      </c>
+      <c r="X9" s="23">
+        <f>'[4]Financial Model'!$AC$18*$F$63</f>
+        <v>-788.41700000000003</v>
+      </c>
+      <c r="Y9" s="23">
+        <f>'[4]Financial Model'!$AB$18*$F$63</f>
+        <v>-407.51256999999981</v>
+      </c>
+      <c r="Z9" s="23">
+        <f>'[4]Financial Model'!$AA$18*$F$63</f>
+        <v>-254.86228999999994</v>
+      </c>
+      <c r="AA9" s="23">
+        <f>'[4]Financial Model'!$Z$18*F63</f>
+        <v>-101.21767</v>
+      </c>
+      <c r="AC9" s="18">
+        <f>'[4]Financial Model'!$W$25</f>
+        <v>0.47005177868427206</v>
+      </c>
+      <c r="AD9" s="18">
+        <f>'[4]Financial Model'!W$26</f>
+        <v>-0.26236185677214768</v>
+      </c>
+      <c r="AE9" s="18">
+        <f>'[4]Financial Model'!$W$27</f>
+        <v>-0.33990784490603682</v>
+      </c>
+      <c r="AF9" s="18">
+        <f>'[4]Financial Model'!$W$28</f>
+        <v>-0.01</v>
+      </c>
+      <c r="AH9" s="18">
+        <f>'[4]Financial Model'!$W$22</f>
+        <v>0.14988182045619913</v>
+      </c>
+      <c r="AI9" s="18">
+        <f>'[4]Financial Model'!$AD$22</f>
+        <v>0.34642426963666861</v>
+      </c>
+      <c r="AJ9" s="18">
+        <f>'[4]Financial Model'!$AC$22</f>
+        <v>0.613053532344634</v>
+      </c>
+      <c r="AK9" s="18">
+        <f>'[4]Financial Model'!$AB$22</f>
+        <v>0.55295345483521796</v>
+      </c>
+      <c r="AL9" s="18">
+        <f>'[4]Financial Model'!$AA$22</f>
+        <v>0.74515549935622039</v>
+      </c>
+      <c r="AO9" s="34">
+        <f>[4]Main!$C$26</f>
+        <v>6766</v>
+      </c>
+      <c r="AP9" s="5">
+        <f>[4]Main!$C$24</f>
+        <v>2008</v>
+      </c>
+      <c r="AQ9" s="5">
+        <f>[4]Main!$C$25</f>
+        <v>2016</v>
+      </c>
+      <c r="AR9" s="5" t="str">
+        <f>[4]Main!$C$23</f>
+        <v>San Francisco, CA</v>
+      </c>
       <c r="AT9" s="5" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="L10" s="8"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="8"/>
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
       <c r="AA10" s="23"/>
-      <c r="AT10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU10" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AU10" s="5"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>9</v>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="16">
-        <f>[4]Main!$C$6</f>
-        <v>8.6059999999999999</v>
-      </c>
-      <c r="G11" s="17">
-        <f>[4]Main!$C$7</f>
-        <v>1018</v>
-      </c>
-      <c r="H11" s="17">
-        <f>[4]Main!$C$8</f>
-        <v>8760.9079999999994</v>
-      </c>
-      <c r="I11" s="17">
-        <f>[4]Main!$C$11</f>
-        <v>-685</v>
-      </c>
-      <c r="J11" s="17">
-        <f>[4]Main!$C$12</f>
-        <v>9445.9079999999994</v>
-      </c>
-      <c r="K11" s="5" t="str">
-        <f>[4]Main!$C$27</f>
-        <v>H123</v>
-      </c>
-      <c r="L11" s="20">
-        <f>[4]Main!$D$27</f>
-        <v>45063</v>
-      </c>
-      <c r="M11" s="26">
-        <f>'[4]Financial Model'!$AH$22</f>
-        <v>8.1283387836295784</v>
-      </c>
-      <c r="N11" s="31">
-        <f>'[4]Financial Model'!$AH$24</f>
-        <v>-5.5503278685849589E-2</v>
-      </c>
-      <c r="O11" s="31">
-        <f>'[4]Financial Model'!$AH$18</f>
-        <v>0.05</v>
-      </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21">
-        <f>[4]Main!$C$34</f>
-        <v>6.7081990811638583</v>
-      </c>
-      <c r="R11" s="21">
-        <f>[4]Main!$C$33</f>
-        <v>4.1718609523809524</v>
-      </c>
-      <c r="S11" s="21">
-        <f>[4]Main!$C$35</f>
-        <v>4.4980514285714284</v>
-      </c>
-      <c r="T11" s="21">
-        <f>[4]Main!$C$32</f>
-        <v>43.413815659068383</v>
-      </c>
-      <c r="U11" s="21">
-        <f>[4]Main!$C$36</f>
-        <v>46.761920792079202</v>
-      </c>
-      <c r="V11" s="20"/>
-      <c r="W11" s="23">
-        <f>'[4]Financial Model'!$V$13</f>
-        <v>254</v>
-      </c>
-      <c r="X11" s="23">
-        <f>'[4]Financial Model'!$U$13</f>
-        <v>285</v>
-      </c>
-      <c r="Y11" s="23">
-        <f>'[4]Financial Model'!$T$13</f>
-        <v>310</v>
-      </c>
-      <c r="Z11" s="23">
-        <f>'[4]Financial Model'!$S$13</f>
-        <v>266</v>
-      </c>
-      <c r="AA11" s="23">
-        <f>'[4]Financial Model'!$R$13</f>
-        <v>295</v>
-      </c>
-      <c r="AC11" s="18">
-        <f>'[4]Financial Model'!$K$17</f>
-        <v>0.93008279668813243</v>
-      </c>
-      <c r="AD11" s="18">
-        <f>'[4]Financial Model'!$K$18</f>
-        <v>0.14443422263109476</v>
-      </c>
-      <c r="AE11" s="18">
-        <f>'[4]Financial Model'!$K$19</f>
-        <v>9.1996320147194111E-2</v>
-      </c>
-      <c r="AF11" s="18">
-        <f>'[4]Financial Model'!$K$20</f>
-        <v>0.2805755395683453</v>
-      </c>
-      <c r="AH11" s="18">
-        <f>'[4]Financial Model'!$K$22</f>
-        <v>0.16381156316916479</v>
-      </c>
-      <c r="AI11" s="18">
-        <f>'[4]Financial Model'!$V$22</f>
-        <v>5.4712892741061836E-2</v>
-      </c>
-      <c r="AJ11" s="18">
-        <f>'[4]Financial Model'!$U$22</f>
-        <v>-2.9952706253284278E-2</v>
-      </c>
-      <c r="AK11" s="18">
-        <f>'[4]Financial Model'!$T$22</f>
-        <v>-1.7045454545454586E-2</v>
-      </c>
-      <c r="AL11" s="18">
-        <f>'[4]Financial Model'!$S$22</f>
-        <v>4.8754062838569867E-2</v>
-      </c>
-      <c r="AO11" s="34">
-        <f>[4]Main!$C$26</f>
-        <v>11228</v>
-      </c>
-      <c r="AP11" s="5">
-        <f>[4]Main!$C$24</f>
-        <v>1981</v>
-      </c>
-      <c r="AQ11" s="5">
-        <f>[4]Main!$C$25</f>
-        <v>1989</v>
-      </c>
-      <c r="AR11" s="5" t="str">
-        <f>[4]Main!$C$23</f>
-        <v>Newcastle, UK</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
       <c r="AT11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AU11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AT12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU12" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="16">
+        <f>[5]Main!$C$6</f>
+        <v>8.6059999999999999</v>
+      </c>
+      <c r="G13" s="17">
+        <f>[5]Main!$C$7</f>
+        <v>1018</v>
+      </c>
+      <c r="H13" s="33">
+        <f>[5]Main!$C$8</f>
+        <v>8760.9079999999994</v>
+      </c>
+      <c r="I13" s="33">
+        <f>[5]Main!$C$11</f>
+        <v>-685</v>
+      </c>
+      <c r="J13" s="33">
+        <f>[5]Main!$C$12</f>
+        <v>9445.9079999999994</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f>[5]Main!$C$27</f>
+        <v>H123</v>
+      </c>
+      <c r="L13" s="20">
+        <f>[5]Main!$D$27</f>
+        <v>45063</v>
+      </c>
+      <c r="M13" s="26">
+        <f>'[5]Financial Model'!$AH$22</f>
+        <v>8.1283387836295784</v>
+      </c>
+      <c r="N13" s="31">
+        <f>'[5]Financial Model'!$AH$24</f>
+        <v>-5.5503278685849589E-2</v>
+      </c>
+      <c r="O13" s="31">
+        <f>'[5]Financial Model'!$AH$18</f>
+        <v>0.05</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21">
+        <f>[5]Main!$C$34</f>
+        <v>6.7081990811638583</v>
+      </c>
+      <c r="R13" s="21">
+        <f>[5]Main!$C$33</f>
+        <v>4.1718609523809524</v>
+      </c>
+      <c r="S13" s="21">
+        <f>[5]Main!$C$35</f>
+        <v>4.4980514285714284</v>
+      </c>
+      <c r="T13" s="21">
+        <f>[5]Main!$C$32</f>
+        <v>43.413815659068383</v>
+      </c>
+      <c r="U13" s="21">
+        <f>[5]Main!$C$36</f>
+        <v>46.761920792079202</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="23">
+        <f>'[5]Financial Model'!$V$13</f>
+        <v>254</v>
+      </c>
+      <c r="X13" s="23">
+        <f>'[5]Financial Model'!$U$13</f>
+        <v>285</v>
+      </c>
+      <c r="Y13" s="23">
+        <f>'[5]Financial Model'!$T$13</f>
+        <v>310</v>
+      </c>
+      <c r="Z13" s="23">
+        <f>'[5]Financial Model'!$S$13</f>
+        <v>266</v>
+      </c>
+      <c r="AA13" s="23">
+        <f>'[5]Financial Model'!$R$13</f>
+        <v>295</v>
+      </c>
+      <c r="AC13" s="18">
+        <f>'[5]Financial Model'!$K$17</f>
+        <v>0.93008279668813243</v>
+      </c>
+      <c r="AD13" s="18">
+        <f>'[5]Financial Model'!$K$18</f>
+        <v>0.14443422263109476</v>
+      </c>
+      <c r="AE13" s="18">
+        <f>'[5]Financial Model'!$K$19</f>
+        <v>9.1996320147194111E-2</v>
+      </c>
+      <c r="AF13" s="18">
+        <f>'[5]Financial Model'!$K$20</f>
+        <v>0.2805755395683453</v>
+      </c>
+      <c r="AH13" s="18">
+        <f>'[5]Financial Model'!$K$22</f>
+        <v>0.16381156316916479</v>
+      </c>
+      <c r="AI13" s="18">
+        <f>'[5]Financial Model'!$V$22</f>
+        <v>5.4712892741061836E-2</v>
+      </c>
+      <c r="AJ13" s="18">
+        <f>'[5]Financial Model'!$U$22</f>
+        <v>-2.9952706253284278E-2</v>
+      </c>
+      <c r="AK13" s="18">
+        <f>'[5]Financial Model'!$T$22</f>
+        <v>-1.7045454545454586E-2</v>
+      </c>
+      <c r="AL13" s="18">
+        <f>'[5]Financial Model'!$S$22</f>
+        <v>4.8754062838569867E-2</v>
+      </c>
+      <c r="AO13" s="34">
+        <f>[5]Main!$C$26</f>
+        <v>11228</v>
+      </c>
+      <c r="AP13" s="5">
+        <f>[5]Main!$C$24</f>
+        <v>1981</v>
+      </c>
+      <c r="AQ13" s="5">
+        <f>[5]Main!$C$25</f>
+        <v>1989</v>
+      </c>
+      <c r="AR13" s="5" t="str">
+        <f>[5]Main!$C$23</f>
+        <v>Newcastle, UK</v>
+      </c>
+      <c r="AT13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="F12" s="16"/>
-      <c r="W12" s="22"/>
-      <c r="AU12" s="5"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W13" s="22"/>
-      <c r="AP13" s="5">
-        <v>2002</v>
-      </c>
-      <c r="AQ13" s="5">
-        <v>2015</v>
-      </c>
-      <c r="AR13" s="5" t="str">
-        <f>[3]Main!$C$23</f>
-        <v>San Francisco, CA</v>
-      </c>
-      <c r="AT13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU13" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+      <c r="F14" s="16"/>
       <c r="W14" s="22"/>
+      <c r="AU14" s="5"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="W15" s="22"/>
+      <c r="AP15" s="5">
+        <v>2002</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>2015</v>
+      </c>
+      <c r="AR15" s="5" t="str">
+        <f>[4]Main!$C$23</f>
+        <v>San Francisco, CA</v>
+      </c>
       <c r="AT15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU15" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="22"/>
+      <c r="AT17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AU15" s="5" t="s">
+      <c r="AU17" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W16" s="22"/>
-      <c r="AT16" s="5" t="s">
+      <c r="W18" s="22"/>
+      <c r="AT18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AU16" s="5" t="s">
+      <c r="AU18" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="W17" s="22"/>
-    </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="W18" s="22"/>
-    </row>
     <row r="19" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="W19" s="22"/>
+    </row>
+    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="17">
-        <f>[5]Main!$C$6*F61</f>
-        <v>24.908300000000001</v>
-      </c>
-      <c r="G19" s="17">
-        <f>[5]Main!$C$7</f>
-        <v>612.68899999999996</v>
-      </c>
-      <c r="H19" s="17">
-        <f>[5]Main!$C$8*F61</f>
-        <v>15261.041418700001</v>
-      </c>
-      <c r="I19" s="17">
-        <f>[5]Main!$C$11*F61</f>
-        <v>1676.9552399999998</v>
-      </c>
-      <c r="J19" s="17">
-        <f>[5]Main!$C$12*F61</f>
-        <v>13584.086178700001</v>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f>[5]Main!$G$11</f>
-        <v>Q223</v>
-      </c>
-      <c r="L19" s="8">
-        <f>[5]Main!$H$11</f>
-        <v>40026</v>
-      </c>
-      <c r="M19" s="26">
-        <f>'[5]Financial Model'!$AT$26</f>
-        <v>61.849835417286634</v>
-      </c>
-      <c r="N19" s="31">
-        <f>'[5]Financial Model'!$AT$28</f>
-        <v>1.0609741891798277</v>
-      </c>
-      <c r="O19" s="31">
-        <f>'[5]Financial Model'!$AT$22</f>
-        <v>0.09</v>
-      </c>
-      <c r="Q19" s="21">
-        <f>[5]Main!$G$16</f>
-        <v>111.9780565773442</v>
-      </c>
-      <c r="R19" s="21">
-        <f>[5]Main!$G$17</f>
-        <v>7.5578091811933561</v>
-      </c>
-      <c r="S19" s="21">
-        <f>[5]Main!$G$19</f>
-        <v>6.7273214469950737</v>
-      </c>
-      <c r="T19" s="21">
-        <f>[5]Main!$G$18</f>
-        <v>-15.801046113854976</v>
-      </c>
-      <c r="W19" s="23">
-        <f>'[5]Financial Model'!$AA$18*F61</f>
-        <v>-417.89669999999995</v>
-      </c>
-      <c r="X19" s="24">
-        <f>'[5]Financial Model'!$Z$18*F61</f>
-        <v>-216.47727999999992</v>
-      </c>
-      <c r="Y19" s="24">
-        <f>'[5]Financial Model'!$Y$18*F61</f>
+      <c r="F21" s="17">
+        <f>[6]Main!$C$6*F63</f>
+        <v>30.983899999999998</v>
+      </c>
+      <c r="G21" s="17">
+        <f>[6]Main!$C$7</f>
+        <v>641.81399999999996</v>
+      </c>
+      <c r="H21" s="33">
+        <f>[6]Main!$C$8*F63</f>
+        <v>19885.900794599995</v>
+      </c>
+      <c r="I21" s="33">
+        <f>[6]Main!$C$11*F63</f>
+        <v>2154.3073300000001</v>
+      </c>
+      <c r="J21" s="33">
+        <f>[6]Main!$C$12*F63</f>
+        <v>17731.593464599995</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>[6]Main!$G$11</f>
+        <v>Q224</v>
+      </c>
+      <c r="L21" s="8">
+        <f>[6]Main!$H$11</f>
+        <v>39661</v>
+      </c>
+      <c r="M21" s="26">
+        <f>'[6]Financial Model'!$AT$26</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="22" t="s">
+      <c r="N21" s="31">
+        <f>'[6]Financial Model'!$AT$28</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="O21" s="31">
+        <f>'[6]Financial Model'!$AT$22</f>
+        <v>0.77</v>
+      </c>
+      <c r="Q21" s="21">
+        <f>[6]Main!$G$16</f>
+        <v>378.15331089378986</v>
+      </c>
+      <c r="R21" s="21">
+        <f>[6]Main!$G$17</f>
+        <v>8.134820241543105</v>
+      </c>
+      <c r="S21" s="21">
+        <f>[6]Main!$G$19</f>
+        <v>7.2535474716745378</v>
+      </c>
+      <c r="T21" s="21">
+        <f>[6]Main!$G$18</f>
+        <v>-20.045025987117658</v>
+      </c>
+      <c r="W21" s="23">
+        <f>'[6]Financial Model'!$AA$18*F63</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="24">
+        <f>'[6]Financial Model'!$Z$18*F63</f>
+        <v>-243.10368497999994</v>
+      </c>
+      <c r="Y21" s="24">
+        <f>'[6]Financial Model'!$Y$18*F63</f>
+        <v>-106.64032960723998</v>
+      </c>
+      <c r="Z21" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AA19" s="22" t="s">
+      <c r="AA21" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="AC19" s="18">
-        <f>'[5]Financial Model'!$O$22</f>
+      <c r="AC21" s="18">
+        <f>'[6]Financial Model'!$O$22</f>
         <v>0.76830336433994972</v>
       </c>
-      <c r="AD19" s="18">
-        <f>'[5]Financial Model'!$O$23</f>
+      <c r="AD21" s="18">
+        <f>'[6]Financial Model'!$O$23</f>
         <v>-0.44228222124563565</v>
       </c>
-      <c r="AE19" s="18">
-        <f>'[5]Financial Model'!$O$24</f>
+      <c r="AE21" s="18">
+        <f>'[6]Financial Model'!$O$24</f>
         <v>-0.41191801557655194</v>
       </c>
-      <c r="AF19" s="18">
-        <f>'[5]Financial Model'!$O$25</f>
+      <c r="AF21" s="18">
+        <f>'[6]Financial Model'!$O$25</f>
         <v>-2.7152817244081922E-3</v>
       </c>
-      <c r="AH19" s="18">
-        <f>'[5]Financial Model'!$O$28</f>
+      <c r="AH21" s="18">
+        <f>'[6]Financial Model'!$O$28</f>
         <v>0.22007543741412761</v>
       </c>
-      <c r="AI19" s="18">
-        <f>'[5]Financial Model'!$AA$28</f>
-        <v>1.0772942519902369</v>
-      </c>
-      <c r="AJ19" s="18">
-        <f>'[5]Financial Model'!$Z$28</f>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="18" t="s">
+      <c r="AI21" s="18">
+        <f>'[6]Financial Model'!$AA$28</f>
+        <v>0.13184829111543861</v>
+      </c>
+      <c r="AJ21" s="18">
+        <f>'[6]Financial Model'!$Z$28</f>
+        <v>9.2268390154878199E-2</v>
+      </c>
+      <c r="AK21" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="AL19" s="18" t="s">
+      <c r="AL21" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="AM19" s="18" t="s">
+      <c r="AM21" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="AO19" s="34">
-        <f>[5]Main!$G$10</f>
+      <c r="AO21" s="34">
+        <f>[6]Main!$G$10</f>
         <v>2128</v>
       </c>
-      <c r="AP19" s="5">
-        <f>[5]Main!$G$8</f>
+      <c r="AP21" s="5">
+        <f>[6]Main!$G$8</f>
         <v>2004</v>
       </c>
-      <c r="AQ19" s="5">
-        <f>[5]Main!$G$7</f>
+      <c r="AQ21" s="5">
+        <f>[6]Main!$G$7</f>
         <v>2021</v>
       </c>
-      <c r="AR19" s="5" t="str">
-        <f>[5]Main!$G$6</f>
+      <c r="AR21" s="5" t="str">
+        <f>[6]Main!$G$6</f>
         <v>San Mateo, CA</v>
       </c>
-      <c r="AT19" s="5" t="s">
+      <c r="AT21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AU19" s="5" t="s">
+      <c r="AU21" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="17">
-        <f>[6]Main!$C$6*F61</f>
-        <v>27.7469</v>
-      </c>
-      <c r="G20" s="17">
-        <f>[6]Main!$C$7</f>
-        <v>296.01300300000003</v>
-      </c>
-      <c r="H20" s="17">
-        <f>[6]Main!$C$8*F61</f>
-        <v>8213.4431929407001</v>
-      </c>
-      <c r="I20" s="19">
-        <f>[6]Main!$C$11*F61</f>
-        <v>-436.42229999999995</v>
-      </c>
-      <c r="J20" s="17">
-        <f>[6]Main!$C$12*F61</f>
-        <v>8649.8654929407003</v>
-      </c>
-      <c r="K20" s="25" t="str">
-        <f>[6]Main!$C$26</f>
-        <v>Q122</v>
-      </c>
-      <c r="L20" s="25">
-        <f>[6]Main!$D$26</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="22"/>
-      <c r="AT20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="W21" s="22"/>
     </row>
     <row r="22" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>30</v>
@@ -3646,310 +3864,183 @@
       <c r="E22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="16">
-        <f>[7]Main!$C$6*$F$61</f>
-        <v>47.558999999999997</v>
+      <c r="F22" s="17">
+        <f>[7]Main!$C$6*F63</f>
+        <v>27.7469</v>
       </c>
       <c r="G22" s="17">
         <f>[7]Main!$C$7</f>
+        <v>296.01300300000003</v>
+      </c>
+      <c r="H22" s="33">
+        <f>[7]Main!$C$8*F63</f>
+        <v>8213.4431929407001</v>
+      </c>
+      <c r="I22" s="33">
+        <f>[7]Main!$C$11*F63</f>
+        <v>-436.42229999999995</v>
+      </c>
+      <c r="J22" s="33">
+        <f>[7]Main!$C$12*F63</f>
+        <v>8649.8654929407003</v>
+      </c>
+      <c r="K22" s="25" t="str">
+        <f>[7]Main!$C$26</f>
+        <v>Q122</v>
+      </c>
+      <c r="L22" s="25">
+        <f>[7]Main!$D$26</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="22"/>
+      <c r="AT22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="16">
+        <f>[8]Main!$C$6*$F$63</f>
+        <v>47.558999999999997</v>
+      </c>
+      <c r="G24" s="17">
+        <f>[8]Main!$C$7</f>
         <v>1276.884726</v>
       </c>
-      <c r="H22" s="17">
-        <f>[7]Main!$C$8*F61</f>
+      <c r="H24" s="33">
+        <f>[8]Main!$C$8*F63</f>
         <v>60727.360683833998</v>
       </c>
-      <c r="I22" s="17">
-        <f>[7]Main!$C$11*F61</f>
+      <c r="I24" s="33">
+        <f>[8]Main!$C$11*F63</f>
         <v>3277.6699999999996</v>
       </c>
-      <c r="J22" s="17">
-        <f>[7]Main!$C$12*F61</f>
+      <c r="J24" s="33">
+        <f>[8]Main!$C$12*F63</f>
         <v>57449.690683833993</v>
       </c>
-      <c r="K22" s="36" t="str">
-        <f>[7]Main!$C$28</f>
+      <c r="K24" s="36" t="str">
+        <f>[8]Main!$C$28</f>
         <v>Q123</v>
       </c>
-      <c r="L22" s="37">
-        <f>[7]Main!$D$28</f>
+      <c r="L24" s="37">
+        <f>[8]Main!$D$28</f>
         <v>38108</v>
       </c>
-      <c r="M22" s="26">
-        <f>'[7]Financial Model'!$AQ$28</f>
+      <c r="M24" s="26">
+        <f>'[8]Financial Model'!$AQ$28</f>
         <v>27.384105716043681</v>
       </c>
-      <c r="N22" s="31">
-        <f>'[7]Financial Model'!$AQ$30</f>
+      <c r="N24" s="31">
+        <f>'[8]Financial Model'!$AQ$30</f>
         <v>-0.522092395880564</v>
       </c>
-      <c r="O22" s="31">
-        <f>'[7]Financial Model'!$AQ$24</f>
+      <c r="O24" s="31">
+        <f>'[8]Financial Model'!$AQ$24</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q22" s="21">
-        <f>[7]Main!$C$33</f>
+      <c r="Q24" s="21">
+        <f>[8]Main!$C$33</f>
         <v>8.6514715383469305</v>
       </c>
-      <c r="R22" s="21">
-        <f>[7]Main!$C$34</f>
+      <c r="R24" s="21">
+        <f>[8]Main!$C$34</f>
         <v>12.392023767288633</v>
       </c>
-      <c r="S22" s="21">
-        <f>[7]Main!$C$35</f>
+      <c r="S24" s="21">
+        <f>[8]Main!$C$35</f>
         <v>11.723182505558293</v>
       </c>
-      <c r="T22" s="21">
-        <f>[7]Main!$C$36</f>
+      <c r="T24" s="21">
+        <f>[8]Main!$C$36</f>
         <v>-37.814244475197256</v>
       </c>
-      <c r="U22" s="21">
-        <f>[7]Main!$C$37</f>
+      <c r="U24" s="21">
+        <f>[8]Main!$C$37</f>
         <v>-36.08766106527078</v>
       </c>
-      <c r="W22" s="24">
-        <f>'[7]Financial Model'!$AD$20*F61</f>
+      <c r="W24" s="24">
+        <f>'[8]Financial Model'!$AD$20*F63</f>
         <v>-2872.1469399999992</v>
       </c>
-      <c r="X22" s="24">
-        <f>'[7]Financial Model'!$AC$20*F61</f>
+      <c r="X24" s="24">
+        <f>'[8]Financial Model'!$AC$20*F63</f>
         <v>2419.1669699999998</v>
       </c>
-      <c r="AC22" s="18">
-        <f>'[7]Financial Model'!$W$29</f>
+      <c r="AC24" s="18">
+        <f>'[8]Financial Model'!$W$29</f>
         <v>0.46</v>
       </c>
-      <c r="AD22" s="18">
-        <f>'[7]Financial Model'!$W$32</f>
+      <c r="AD24" s="18">
+        <f>'[8]Financial Model'!$W$32</f>
         <v>-0.12798408488063662</v>
       </c>
-      <c r="AE22" s="18">
-        <f>'[7]Financial Model'!$W$33</f>
+      <c r="AE24" s="18">
+        <f>'[8]Financial Model'!$W$33</f>
         <v>4.5092838196286469E-2</v>
       </c>
-      <c r="AF22" s="18">
-        <f>'[7]Financial Model'!$W$34</f>
+      <c r="AF24" s="18">
+        <f>'[8]Financial Model'!$W$34</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="AH22" s="18">
-        <f>'[7]Financial Model'!$W$24</f>
+      <c r="AH24" s="18">
+        <f>'[8]Financial Model'!$W$24</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AI22" s="18">
-        <f>'[7]Financial Model'!$AD$24</f>
+      <c r="AI24" s="18">
+        <f>'[8]Financial Model'!$AD$24</f>
         <v>0.21423218764853047</v>
       </c>
-      <c r="AJ22" s="18">
-        <f>'[7]Financial Model'!$AC$24</f>
+      <c r="AJ24" s="18">
+        <f>'[8]Financial Model'!$AC$24</f>
         <v>0.57428577182862139</v>
       </c>
-      <c r="AO22" s="34">
-        <f>[7]Main!$C$26</f>
-        <v>11600</v>
-      </c>
-      <c r="AP22" s="5">
-        <f>[7]Main!$C$24</f>
-        <v>2004</v>
-      </c>
-      <c r="AQ22" s="5">
-        <f>[7]Main!$C$25</f>
-        <v>2015</v>
-      </c>
-      <c r="AR22" s="5" t="str">
-        <f>[7]Main!$C$23</f>
-        <v>Ottowa, Canada</v>
-      </c>
-      <c r="AT22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU22" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="16">
-        <f>[8]Main!$C$6*F61</f>
-        <v>37.640499999999996</v>
-      </c>
-      <c r="G23" s="19">
-        <f>[8]Main!$C$7</f>
-        <v>541</v>
-      </c>
-      <c r="H23" s="17">
-        <f>[8]Main!$C$8*F61</f>
-        <v>20363.5105</v>
-      </c>
-      <c r="I23" s="17">
-        <f>[8]Main!$C$11*F61</f>
-        <v>-3396.3599999999997</v>
-      </c>
-      <c r="J23" s="17">
-        <f>[8]Main!$C$12*F61</f>
-        <v>23759.870500000001</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>[8]Main!$C$28</f>
-        <v>Q422</v>
-      </c>
-      <c r="L23" s="8">
-        <f>[8]Main!$D$28</f>
-        <v>44593</v>
-      </c>
-      <c r="M23" s="26">
-        <f>'[8]Financial Model'!$AW$29*$F$61</f>
-        <v>44.140737621104712</v>
-      </c>
-      <c r="N23" s="31">
-        <f>'[8]Financial Model'!$AW$31</f>
-        <v>0.17269264810788143</v>
-      </c>
-      <c r="O23" s="31">
-        <f>'[8]Financial Model'!$AW$25</f>
-        <v>0.09</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="21">
-        <f>[8]Main!$C$33</f>
-        <v>5.071005480208119</v>
-      </c>
-      <c r="R23" s="21">
-        <f>[8]Main!$C$34</f>
-        <v>2.4787179228126894</v>
-      </c>
-      <c r="S23" s="21">
-        <f>[8]Main!$C$35</f>
-        <v>2.8921347747019603</v>
-      </c>
-      <c r="T23" s="21">
-        <f>[8]Main!$C$36</f>
-        <v>-385.92410461281213</v>
-      </c>
-      <c r="U23" s="21">
-        <f>[8]Main!$C$37</f>
-        <v>1022.3696428571429</v>
-      </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="24">
-        <f>'[8]Financial Model'!$AJ$20*F61</f>
-        <v>-1053.0625</v>
-      </c>
-      <c r="X23" s="24">
-        <f>'[8]Financial Model'!$AE$20*F61</f>
-        <v>-1118.01</v>
-      </c>
-      <c r="Y23" s="24">
-        <f>'[8]Financial Model'!$AD$20*F61</f>
-        <v>6030.78</v>
-      </c>
-      <c r="Z23" s="24">
-        <f>'[8]Financial Model'!$AC$20*F61</f>
-        <v>1431.75</v>
-      </c>
-      <c r="AA23" s="24">
-        <f>'[8]Financial Model'!$AC$20*G61</f>
-        <v>2078.3132530120483</v>
-      </c>
-      <c r="AC23" s="18">
-        <f>'[8]Financial Model'!$Z$27</f>
-        <v>0.72868525896414338</v>
-      </c>
-      <c r="AD23" s="18">
-        <f>'[8]Financial Model'!$Z$28</f>
-        <v>0.22519920318725101</v>
-      </c>
-      <c r="AE23" s="18">
-        <f>'[8]Financial Model'!$Z$29</f>
-        <v>0.26782868525896414</v>
-      </c>
-      <c r="AF23" s="18">
-        <f>'[8]Financial Model'!$Z$30</f>
-        <v>0.19053361471208924</v>
-      </c>
-      <c r="AH23" s="18">
-        <f>'[8]Financial Model'!$Z$24</f>
-        <v>-3.9418293149636408E-2</v>
-      </c>
-      <c r="AI23" s="18">
-        <f>'[8]Financial Model'!$AJ$24</f>
-        <v>-5.9980806142034604E-2</v>
-      </c>
-      <c r="AJ23" s="18">
-        <f>'[8]Financial Model'!$AI$24</f>
-        <v>-2.7349948660505885E-2</v>
-      </c>
-      <c r="AK23" s="18">
-        <f>'[8]Financial Model'!$AH$24</f>
-        <v>0.17018022938285093</v>
-      </c>
-      <c r="AL23" s="18">
-        <f>'[8]Financial Model'!$AG$24</f>
-        <v>-0.14805509026614549</v>
-      </c>
-      <c r="AM23" s="18">
-        <f>'[8]Financial Model'!$AF$24</f>
-        <v>8.2502266545784186E-2</v>
-      </c>
-      <c r="AO23" s="34">
+      <c r="AO24" s="34">
         <f>[8]Main!$C$26</f>
         <v>11600</v>
       </c>
-      <c r="AP23" s="5">
+      <c r="AP24" s="5">
         <f>[8]Main!$C$24</f>
-        <v>1995</v>
-      </c>
-      <c r="AQ23" s="5">
+        <v>2004</v>
+      </c>
+      <c r="AQ24" s="5">
         <f>[8]Main!$C$25</f>
-        <v>1998</v>
-      </c>
-      <c r="AR23" s="5" t="str">
+        <v>2015</v>
+      </c>
+      <c r="AR24" s="5" t="str">
         <f>[8]Main!$C$23</f>
-        <v>San Jose, CA</v>
-      </c>
-      <c r="AT23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU23" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="W24" s="22"/>
+        <v>Ottowa, Canada</v>
+      </c>
       <c r="AT24" s="5" t="s">
         <v>84</v>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>89</v>
+      <c r="B25" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>33</v>
@@ -3957,137 +4048,274 @@
       <c r="E25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W25" s="22"/>
+      <c r="F25" s="16">
+        <f>[9]Main!$C$6*F63</f>
+        <v>37.640499999999996</v>
+      </c>
+      <c r="G25" s="19">
+        <f>[9]Main!$C$7</f>
+        <v>541</v>
+      </c>
+      <c r="H25" s="33">
+        <f>[9]Main!$C$8*F63</f>
+        <v>20363.5105</v>
+      </c>
+      <c r="I25" s="33">
+        <f>[9]Main!$C$11*F63</f>
+        <v>-3396.3599999999997</v>
+      </c>
+      <c r="J25" s="33">
+        <f>[9]Main!$C$12*F63</f>
+        <v>23759.870500000001</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>[9]Main!$C$28</f>
+        <v>Q422</v>
+      </c>
+      <c r="L25" s="8">
+        <f>[9]Main!$D$28</f>
+        <v>44593</v>
+      </c>
+      <c r="M25" s="26">
+        <f>'[9]Financial Model'!$AW$29*$F$63</f>
+        <v>44.140737621104712</v>
+      </c>
+      <c r="N25" s="31">
+        <f>'[9]Financial Model'!$AW$31</f>
+        <v>0.17269264810788143</v>
+      </c>
+      <c r="O25" s="31">
+        <f>'[9]Financial Model'!$AW$25</f>
+        <v>0.09</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="21">
+        <f>[9]Main!$C$33</f>
+        <v>5.071005480208119</v>
+      </c>
+      <c r="R25" s="21">
+        <f>[9]Main!$C$34</f>
+        <v>2.4787179228126894</v>
+      </c>
+      <c r="S25" s="21">
+        <f>[9]Main!$C$35</f>
+        <v>2.8921347747019603</v>
+      </c>
+      <c r="T25" s="21">
+        <f>[9]Main!$C$36</f>
+        <v>-385.92410461281213</v>
+      </c>
+      <c r="U25" s="21">
+        <f>[9]Main!$C$37</f>
+        <v>1022.3696428571429</v>
+      </c>
+      <c r="V25" s="8"/>
+      <c r="W25" s="24">
+        <f>'[9]Financial Model'!$AJ$20*F63</f>
+        <v>-1053.0625</v>
+      </c>
+      <c r="X25" s="24">
+        <f>'[9]Financial Model'!$AE$20*F63</f>
+        <v>-1118.01</v>
+      </c>
+      <c r="Y25" s="24">
+        <f>'[9]Financial Model'!$AD$20*F63</f>
+        <v>6030.78</v>
+      </c>
+      <c r="Z25" s="24">
+        <f>'[9]Financial Model'!$AC$20*F63</f>
+        <v>1431.75</v>
+      </c>
+      <c r="AA25" s="24">
+        <f>'[9]Financial Model'!$AC$20*G63</f>
+        <v>2078.3132530120483</v>
+      </c>
+      <c r="AC25" s="18">
+        <f>'[9]Financial Model'!$Z$27</f>
+        <v>0.72868525896414338</v>
+      </c>
+      <c r="AD25" s="18">
+        <f>'[9]Financial Model'!$Z$28</f>
+        <v>0.22519920318725101</v>
+      </c>
+      <c r="AE25" s="18">
+        <f>'[9]Financial Model'!$Z$29</f>
+        <v>0.26782868525896414</v>
+      </c>
+      <c r="AF25" s="18">
+        <f>'[9]Financial Model'!$Z$30</f>
+        <v>0.19053361471208924</v>
+      </c>
+      <c r="AH25" s="18">
+        <f>'[9]Financial Model'!$Z$24</f>
+        <v>-3.9418293149636408E-2</v>
+      </c>
+      <c r="AI25" s="18">
+        <f>'[9]Financial Model'!$AJ$24</f>
+        <v>-5.9980806142034604E-2</v>
+      </c>
+      <c r="AJ25" s="18">
+        <f>'[9]Financial Model'!$AI$24</f>
+        <v>-2.7349948660505885E-2</v>
+      </c>
+      <c r="AK25" s="18">
+        <f>'[9]Financial Model'!$AH$24</f>
+        <v>0.17018022938285093</v>
+      </c>
+      <c r="AL25" s="18">
+        <f>'[9]Financial Model'!$AG$24</f>
+        <v>-0.14805509026614549</v>
+      </c>
+      <c r="AM25" s="18">
+        <f>'[9]Financial Model'!$AF$24</f>
+        <v>8.2502266545784186E-2</v>
+      </c>
+      <c r="AO25" s="34">
+        <f>[9]Main!$C$26</f>
+        <v>11600</v>
+      </c>
+      <c r="AP25" s="5">
+        <f>[9]Main!$C$24</f>
+        <v>1995</v>
+      </c>
+      <c r="AQ25" s="5">
+        <f>[9]Main!$C$25</f>
+        <v>1998</v>
+      </c>
+      <c r="AR25" s="5" t="str">
+        <f>[9]Main!$C$23</f>
+        <v>San Jose, CA</v>
+      </c>
       <c r="AT25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU25" s="5"/>
+      <c r="AU25" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="W26" s="22"/>
       <c r="AT26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU26" s="5"/>
+      <c r="AU26" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="27" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="E27" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="W27" s="22"/>
+      <c r="AT27" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="AU27" s="5"/>
     </row>
     <row r="28" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="W28" s="22"/>
+      <c r="AT28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU28" s="5"/>
     </row>
     <row r="29" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="W29" s="22"/>
+      <c r="AU29" s="5"/>
     </row>
     <row r="30" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="W30" s="22"/>
+    </row>
+    <row r="31" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="W31" s="22"/>
+    </row>
+    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W30" s="22"/>
-      <c r="AT30" s="5" t="s">
+      <c r="W32" s="22"/>
+      <c r="AT32" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W31" s="22"/>
-      <c r="AT31" s="5" t="s">
+      <c r="W33" s="22"/>
+      <c r="AT33" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="W32" s="22"/>
-    </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="W33" s="22"/>
-    </row>
     <row r="34" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="W34" s="22"/>
-      <c r="AT34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU34" s="5" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="35" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="W35" s="22"/>
-      <c r="AT35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU35" s="5" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="36" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>30</v>
@@ -4101,472 +4329,384 @@
       </c>
     </row>
     <row r="37" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="W37" s="22"/>
+      <c r="AT37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU37" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="38" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="W38" s="22"/>
+      <c r="AT38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU38" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="39" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="W39" s="22"/>
+    </row>
+    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="W40" s="22"/>
+    </row>
+    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F41" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G41" s="19">
         <v>416.24</v>
       </c>
-      <c r="H39" s="17">
-        <f>G39*F39</f>
+      <c r="H41" s="33">
+        <f>G41*F41</f>
         <v>482.83839999999998</v>
       </c>
-      <c r="W39" s="22"/>
-      <c r="AP39" s="5">
+      <c r="W41" s="22"/>
+      <c r="AP41" s="5">
         <v>2007</v>
       </c>
-      <c r="AQ39" s="5">
+      <c r="AQ41" s="5">
         <v>2021</v>
       </c>
-      <c r="AR39" s="5" t="s">
+      <c r="AR41" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AT39" s="5" t="s">
+      <c r="AT41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AU39" s="5" t="s">
+      <c r="AU41" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="G40" s="19"/>
-      <c r="H40" s="17"/>
-      <c r="W40" s="22"/>
-      <c r="AU40" s="5"/>
-    </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="G41" s="19"/>
-      <c r="H41" s="17"/>
-      <c r="W41" s="22"/>
-      <c r="AU41" s="5"/>
-    </row>
     <row r="42" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="16">
-        <f>332.82*F61</f>
-        <v>276.24059999999997</v>
-      </c>
-      <c r="G42" s="19">
-        <v>445.02</v>
-      </c>
-      <c r="H42" s="17">
-        <f>G42*F42</f>
-        <v>122932.59181199998</v>
-      </c>
+      <c r="G42" s="19"/>
       <c r="W42" s="22"/>
-      <c r="AT42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU42" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="AU42" s="5"/>
     </row>
     <row r="43" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="16">
-        <f>92.06*F61</f>
-        <v>76.409800000000004</v>
-      </c>
-      <c r="G43" s="19">
-        <v>193.13</v>
-      </c>
-      <c r="H43" s="17">
-        <f>G43*F43</f>
-        <v>14757.024674</v>
-      </c>
+      <c r="G43" s="19"/>
       <c r="W43" s="22"/>
-      <c r="AT43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU43" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="AU43" s="5"/>
     </row>
     <row r="44" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" s="16">
-        <v>3.9950000000000001</v>
+        <f>332.82*F63</f>
+        <v>276.24059999999997</v>
       </c>
       <c r="G44" s="19">
-        <v>16.3</v>
-      </c>
-      <c r="H44" s="17">
+        <v>445.02</v>
+      </c>
+      <c r="H44" s="33">
         <f>G44*F44</f>
-        <v>65.118500000000012</v>
+        <v>122932.59181199998</v>
       </c>
       <c r="W44" s="22"/>
       <c r="AT44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU44" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="16">
+        <f>92.06*F63</f>
+        <v>76.409800000000004</v>
+      </c>
+      <c r="G45" s="19">
+        <v>193.13</v>
+      </c>
+      <c r="H45" s="33">
+        <f>G45*F45</f>
+        <v>14757.024674</v>
+      </c>
+      <c r="W45" s="22"/>
+      <c r="AT45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU45" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="16">
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="G46" s="19">
+        <v>16.3</v>
+      </c>
+      <c r="H46" s="33">
+        <f>G46*F46</f>
+        <v>65.118500000000012</v>
+      </c>
+      <c r="W46" s="22"/>
+      <c r="AT46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AU44" s="5" t="s">
+      <c r="AU46" s="5" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="G45" s="19"/>
-      <c r="H45" s="17"/>
-      <c r="W45" s="22"/>
-      <c r="AU45" s="5"/>
-    </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="16">
-        <f>[9]Main!$C$6*F61</f>
-        <v>56.913099999999993</v>
-      </c>
-      <c r="G46" s="19">
-        <f>[9]Main!$C$7</f>
-        <v>293.836386</v>
-      </c>
-      <c r="H46" s="17">
-        <f>[9]Main!$C$8*F61</f>
-        <v>16723.139620056598</v>
-      </c>
-      <c r="I46" s="17">
-        <f>[9]Main!$C$11*F61</f>
-        <v>4492.51278</v>
-      </c>
-      <c r="J46" s="17">
-        <f>[9]Main!$C$12*F61</f>
-        <v>12230.626840056597</v>
-      </c>
-      <c r="K46" s="8" t="str">
-        <f>[9]Main!$C$29</f>
-        <v>Q422</v>
-      </c>
-      <c r="L46" s="8">
-        <f>[9]Main!$D$29</f>
-        <v>37681</v>
-      </c>
-      <c r="Q46" s="21">
-        <f>[9]Main!$C$34</f>
-        <v>2.9780786109979251</v>
-      </c>
-      <c r="T46" s="21">
-        <f>[9]Main!$C$37</f>
-        <v>178.2237520954381</v>
-      </c>
-      <c r="W46" s="24">
-        <f>'[9]Financial Model'!$AD$16*F61</f>
-        <v>86.080130000000082</v>
-      </c>
-      <c r="X46" s="24">
-        <f>'[9]Financial Model'!$AC$16*F61</f>
-        <v>1141.7803699999995</v>
-      </c>
-      <c r="Y46" s="24">
-        <f>'[9]Financial Model'!$AB$16*F61</f>
-        <v>558.02228000000002</v>
-      </c>
-      <c r="AC46" s="18">
-        <f>'[9]Financial Model'!$AD$23</f>
-        <v>0.74949669471153846</v>
-      </c>
-      <c r="AD46" s="18">
-        <f>'[9]Financial Model'!$AD$24</f>
-        <v>5.5868708114801886E-2</v>
-      </c>
-      <c r="AE46" s="18">
-        <f>'[9]Financial Model'!$AD$25</f>
-        <v>2.3608455346736619E-2</v>
-      </c>
-      <c r="AF46" s="18">
-        <f>'[9]Financial Model'!$AD$26</f>
-        <v>0.58395112245061676</v>
-      </c>
-      <c r="AI46" s="18">
-        <f>'[9]Financial Model'!$AD$20</f>
-        <v>7.1489200617386395E-2</v>
-      </c>
-      <c r="AJ46" s="18">
-        <f>'[9]Financial Model'!$AC$20</f>
-        <v>0.54632023921236117</v>
-      </c>
-      <c r="AO46" s="34">
-        <f>[9]Main!$C$27</f>
-        <v>8484</v>
-      </c>
-      <c r="AP46" s="5">
-        <f>[9]Main!$C$24</f>
-        <v>2011</v>
-      </c>
-      <c r="AQ46" s="5">
-        <f>[9]Main!$C$25</f>
-        <v>2019</v>
-      </c>
-      <c r="AR46" s="5" t="str">
-        <f>[9]Main!$C$23</f>
-        <v>San Jose, CA</v>
-      </c>
-      <c r="AT46" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU46" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G47" s="19"/>
-      <c r="H47" s="17"/>
       <c r="W47" s="22"/>
       <c r="AU47" s="5"/>
     </row>
     <row r="48" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>130</v>
+      <c r="B48" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="17"/>
-      <c r="W48" s="22"/>
-      <c r="AU48" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="16">
+        <f>[10]Main!$C$6*F63</f>
+        <v>56.913099999999993</v>
+      </c>
+      <c r="G48" s="19">
+        <f>[10]Main!$C$7</f>
+        <v>293.836386</v>
+      </c>
+      <c r="H48" s="33">
+        <f>[10]Main!$C$8*F63</f>
+        <v>16723.139620056598</v>
+      </c>
+      <c r="I48" s="33">
+        <f>[10]Main!$C$11*F63</f>
+        <v>4492.51278</v>
+      </c>
+      <c r="J48" s="33">
+        <f>[10]Main!$C$12*F63</f>
+        <v>12230.626840056597</v>
+      </c>
+      <c r="K48" s="8" t="str">
+        <f>[10]Main!$C$29</f>
+        <v>Q422</v>
+      </c>
+      <c r="L48" s="8">
+        <f>[10]Main!$D$29</f>
+        <v>37681</v>
+      </c>
+      <c r="Q48" s="21">
+        <f>[10]Main!$C$34</f>
+        <v>2.9780786109979251</v>
+      </c>
+      <c r="T48" s="21">
+        <f>[10]Main!$C$37</f>
+        <v>178.2237520954381</v>
+      </c>
+      <c r="W48" s="24">
+        <f>'[10]Financial Model'!$AD$16*F63</f>
+        <v>86.080130000000082</v>
+      </c>
+      <c r="X48" s="24">
+        <f>'[10]Financial Model'!$AC$16*F63</f>
+        <v>1141.7803699999995</v>
+      </c>
+      <c r="Y48" s="24">
+        <f>'[10]Financial Model'!$AB$16*F63</f>
+        <v>558.02228000000002</v>
+      </c>
+      <c r="AC48" s="18">
+        <f>'[10]Financial Model'!$AD$23</f>
+        <v>0.74949669471153846</v>
+      </c>
+      <c r="AD48" s="18">
+        <f>'[10]Financial Model'!$AD$24</f>
+        <v>5.5868708114801886E-2</v>
+      </c>
+      <c r="AE48" s="18">
+        <f>'[10]Financial Model'!$AD$25</f>
+        <v>2.3608455346736619E-2</v>
+      </c>
+      <c r="AF48" s="18">
+        <f>'[10]Financial Model'!$AD$26</f>
+        <v>0.58395112245061676</v>
+      </c>
+      <c r="AI48" s="18">
+        <f>'[10]Financial Model'!$AD$20</f>
+        <v>7.1489200617386395E-2</v>
+      </c>
+      <c r="AJ48" s="18">
+        <f>'[10]Financial Model'!$AC$20</f>
+        <v>0.54632023921236117</v>
+      </c>
+      <c r="AO48" s="34">
+        <f>[10]Main!$C$27</f>
+        <v>8484</v>
+      </c>
+      <c r="AP48" s="5">
+        <f>[10]Main!$C$24</f>
+        <v>2011</v>
+      </c>
+      <c r="AQ48" s="5">
+        <f>[10]Main!$C$25</f>
+        <v>2019</v>
+      </c>
+      <c r="AR48" s="5" t="str">
+        <f>[10]Main!$C$23</f>
+        <v>San Jose, CA</v>
+      </c>
+      <c r="AT48" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU48" s="5" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="49" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G49" s="19"/>
-      <c r="H49" s="17"/>
       <c r="W49" s="22"/>
       <c r="AU49" s="5"/>
     </row>
     <row r="50" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="G50" s="19"/>
-      <c r="H50" s="17"/>
       <c r="W50" s="22"/>
       <c r="AU50" s="5"/>
     </row>
     <row r="51" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G51" s="19"/>
-      <c r="H51" s="17"/>
       <c r="W51" s="22"/>
       <c r="AU51" s="5"/>
     </row>
     <row r="52" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G52" s="19"/>
-      <c r="H52" s="17"/>
       <c r="W52" s="22"/>
       <c r="AU52" s="5"/>
     </row>
     <row r="53" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G53" s="19"/>
-      <c r="H53" s="17"/>
       <c r="W53" s="22"/>
       <c r="AU53" s="5"/>
     </row>
     <row r="54" spans="2:47" x14ac:dyDescent="0.2">
       <c r="G54" s="19"/>
-      <c r="H54" s="17"/>
       <c r="W54" s="22"/>
       <c r="AU54" s="5"/>
     </row>
     <row r="55" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B55" s="7" t="s">
+      <c r="G55" s="19"/>
+      <c r="W55" s="22"/>
+      <c r="AU55" s="5"/>
+    </row>
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="G56" s="19"/>
+      <c r="W56" s="22"/>
+      <c r="AU56" s="5"/>
+    </row>
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="16">
-        <f>[10]Main!$C$6*$F$61</f>
-        <v>213.21039999999999</v>
-      </c>
-      <c r="G55" s="33">
-        <f>[10]Main!$C$7</f>
-        <v>7440</v>
-      </c>
-      <c r="H55" s="33">
-        <f>[10]Main!$C$12*$F$61</f>
-        <v>1586285.3759999999</v>
-      </c>
-      <c r="I55" s="33">
-        <f>[10]Main!$C$11*$F$61</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="33">
-        <f>[10]Main!$C$12*$F$61</f>
-        <v>1586285.3759999999</v>
-      </c>
-      <c r="K55" s="5">
-        <f>[10]Main!$C$29</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="5">
-        <f>[10]Main!$D$29</f>
-        <v>0</v>
-      </c>
-      <c r="W55" s="22"/>
-      <c r="AP55" s="5">
-        <f>[10]Main!$C$24</f>
-        <v>1975</v>
-      </c>
-      <c r="AQ55" s="5">
-        <f>[10]Main!$C$25</f>
-        <v>1986</v>
-      </c>
-      <c r="AR55" s="5" t="str">
-        <f>[10]Main!$C$23</f>
-        <v>Redmond, WA</v>
-      </c>
-      <c r="AT55" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU55" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="16">
-        <f>[11]Main!$C$6*$F$61</f>
-        <v>79.231799999999993</v>
-      </c>
-      <c r="G56" s="33">
-        <f>[11]Main!$C$7</f>
-        <v>13523</v>
-      </c>
-      <c r="H56" s="33">
-        <f>[11]Main!$C$8*$F$61</f>
-        <v>1071451.6313999998</v>
-      </c>
-      <c r="I56" s="33">
-        <f>[11]Main!$C$11*$F$61</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="33">
-        <f>[11]Main!$C$12*$F$61</f>
-        <v>1071451.6313999998</v>
-      </c>
-      <c r="K56" s="5">
-        <f>[11]Main!$C$28</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="5">
-        <f>[11]Main!$D$28</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="22"/>
-      <c r="AP56" s="5">
-        <f>[11]Main!$C$24</f>
-        <v>1998</v>
-      </c>
-      <c r="AQ56" s="5">
-        <f>[11]Main!$C$25</f>
-        <v>2004</v>
-      </c>
-      <c r="AR56" s="5" t="str">
-        <f>[11]Main!$C$23</f>
-        <v>Mountain View, CA</v>
-      </c>
-      <c r="AT56" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU56" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>33</v>
@@ -4574,16 +4714,60 @@
       <c r="E57" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="F57" s="16">
+        <f>[11]Main!$C$6*$F$63</f>
+        <v>213.21039999999999</v>
+      </c>
+      <c r="G57" s="33">
+        <f>[11]Main!$C$7</f>
+        <v>7440</v>
+      </c>
+      <c r="H57" s="33">
+        <f>[11]Main!$C$12*$F$63</f>
+        <v>1586285.3759999999</v>
+      </c>
+      <c r="I57" s="33">
+        <f>[11]Main!$C$11*$F$63</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="33">
+        <f>[11]Main!$C$12*$F$63</f>
+        <v>1586285.3759999999</v>
+      </c>
+      <c r="K57" s="5">
+        <f>[11]Main!$C$29</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="5">
+        <f>[11]Main!$D$29</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="22"/>
+      <c r="AP57" s="5">
+        <f>[11]Main!$C$24</f>
+        <v>1975</v>
+      </c>
+      <c r="AQ57" s="5">
+        <f>[11]Main!$C$25</f>
+        <v>1986</v>
+      </c>
+      <c r="AR57" s="5" t="str">
+        <f>[11]Main!$C$23</f>
+        <v>Redmond, WA</v>
+      </c>
       <c r="AT57" s="5" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>153</v>
+      <c r="B58" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>33</v>
@@ -4591,69 +4775,128 @@
       <c r="E58" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="F58" s="16">
+        <f>[12]Main!$C$6*$F$63</f>
+        <v>79.231799999999993</v>
+      </c>
+      <c r="G58" s="33">
+        <f>[12]Main!$C$7</f>
+        <v>13523</v>
+      </c>
+      <c r="H58" s="33">
+        <f>[12]Main!$C$8*$F$63</f>
+        <v>1071451.6313999998</v>
+      </c>
+      <c r="I58" s="33">
+        <f>[12]Main!$C$11*$F$63</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="33">
+        <f>[12]Main!$C$12*$F$63</f>
+        <v>1071451.6313999998</v>
+      </c>
+      <c r="K58" s="5">
+        <f>[12]Main!$C$28</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <f>[12]Main!$D$28</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="22"/>
+      <c r="AP58" s="5">
+        <f>[12]Main!$C$24</f>
+        <v>1998</v>
+      </c>
+      <c r="AQ58" s="5">
+        <f>[12]Main!$C$25</f>
+        <v>2004</v>
+      </c>
+      <c r="AR58" s="5" t="str">
+        <f>[12]Main!$C$23</f>
+        <v>Mountain View, CA</v>
+      </c>
       <c r="AT58" s="5" t="s">
         <v>156</v>
       </c>
       <c r="AU58" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E60" s="38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT59" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU59" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="E62" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="9" t="s">
+      <c r="F62" s="52"/>
+      <c r="G62" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E61" s="10" t="s">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="E63" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F63" s="11">
         <v>0.83</v>
       </c>
-      <c r="G61" s="12">
-        <f>1/F61</f>
+      <c r="G63" s="12">
+        <f>1/F63</f>
         <v>1.2048192771084338</v>
       </c>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E62" s="13" t="s">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="E64" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F64" s="14">
         <v>0.87</v>
       </c>
-      <c r="G62" s="15">
-        <f>1/F62</f>
+      <c r="G64" s="15">
+        <f>1/F64</f>
         <v>1.1494252873563218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{3A7AD427-356A-4438-8466-A299ED0C08D2}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{1CE3F47D-3D30-470A-966F-AA684282F9ED}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6DFD8629-A4A2-4A11-B5F1-5FDD02B4DC40}"/>
-    <hyperlink ref="B19" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{3673F69E-DE49-452E-9A7F-9067CB704A93}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
-    <hyperlink ref="B20" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
-    <hyperlink ref="B22" r:id="rId8" xr:uid="{03436A82-476B-4BF2-A855-FEC5F745CF98}"/>
-    <hyperlink ref="B55" r:id="rId9" xr:uid="{46DC7469-9CFC-4610-A22B-3D4E075DFC99}"/>
-    <hyperlink ref="B56" r:id="rId10" xr:uid="{1F04985A-EB8E-4ED3-BC5F-B6E427A61566}"/>
-    <hyperlink ref="B46" r:id="rId11" xr:uid="{C2513205-805A-4E29-899C-EDFC3E7F9BF4}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{3A7AD427-356A-4438-8466-A299ED0C08D2}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{1CE3F47D-3D30-470A-966F-AA684282F9ED}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{6DFD8629-A4A2-4A11-B5F1-5FDD02B4DC40}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{2D896F8C-26D2-4CA9-8601-44232CD47DF4}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{3673F69E-DE49-452E-9A7F-9067CB704A93}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{21F4A07B-A91C-4255-B949-9908C8EAC551}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{B9C2E740-5539-4983-8CC4-F329408A4445}"/>
+    <hyperlink ref="B24" r:id="rId8" xr:uid="{03436A82-476B-4BF2-A855-FEC5F745CF98}"/>
+    <hyperlink ref="B57" r:id="rId9" xr:uid="{46DC7469-9CFC-4610-A22B-3D4E075DFC99}"/>
+    <hyperlink ref="B58" r:id="rId10" xr:uid="{1F04985A-EB8E-4ED3-BC5F-B6E427A61566}"/>
+    <hyperlink ref="B48" r:id="rId11" xr:uid="{C2513205-805A-4E29-899C-EDFC3E7F9BF4}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{5B7E8149-F217-4CC0-A36E-4D5E6D4CE364}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId12"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId13"/>
   <ignoredErrors>
-    <ignoredError sqref="I55" formula="1"/>
+    <ignoredError sqref="I57 I4" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Overview - Software.xlsx
+++ b/Overview - Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DB89AC-270A-4BC0-BC48-882D11050742}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A394F-0076-47ED-AC97-D80883E438D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18825" activeTab="1" xr2:uid="{034066B2-28C3-4551-8F6C-62966FA785BB}"/>
   </bookViews>
@@ -911,6 +911,9 @@
     <xf numFmtId="3" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,9 +921,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -953,22 +953,22 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>578.16</v>
+            <v>575.27</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>2534</v>
+            <v>2529</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>1465057.44</v>
+            <v>1454857.8299999998</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>39691</v>
+            <v>42077</v>
           </cell>
         </row>
         <row r="23">
@@ -988,60 +988,52 @@
         </row>
         <row r="31">
           <cell r="C31" t="str">
-            <v>Q224</v>
+            <v>Q324</v>
           </cell>
           <cell r="D31">
-            <v>45505</v>
+            <v>45595</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
-            <v>9.3456838667287556</v>
+            <v>8.8425616760571089</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
-            <v>9.7811344335843611</v>
+            <v>9.3124609062453985</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
-            <v>28.74079215928019</v>
+            <v>26.360609283332796</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="18">
           <cell r="X18">
-            <v>0.81295590079598679</v>
+            <v>13465</v>
           </cell>
         </row>
         <row r="19">
           <cell r="X19">
-            <v>0.38000051188861306</v>
+            <v>5.3137332280978686</v>
           </cell>
         </row>
         <row r="20">
           <cell r="X20">
-            <v>0.34462900872770086</v>
-          </cell>
-          <cell r="AU20">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="X21">
-            <v>0.10863233152389778</v>
+            <v>2534</v>
           </cell>
         </row>
         <row r="24">
           <cell r="AU24">
-            <v>702.62033627404003</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="26">
           <cell r="AU26">
-            <v>0.21526971128068362</v>
+            <v>42077</v>
           </cell>
         </row>
       </sheetData>
@@ -1940,6 +1932,7 @@
           <cell r="Z18">
             <v>-292.89600599999994</v>
           </cell>
+          <cell r="AA18"/>
         </row>
         <row r="22">
           <cell r="O22">
@@ -2669,7 +2662,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2703,20 +2696,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="W1" s="53" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2869,57 +2862,57 @@
       </c>
       <c r="F4" s="43">
         <f>+[1]Main!C$6</f>
-        <v>578.16</v>
+        <v>575.27</v>
       </c>
       <c r="G4" s="44">
         <f>+[1]Main!$C$7</f>
-        <v>2534</v>
+        <v>2529</v>
       </c>
       <c r="H4" s="44">
         <f>+[1]Main!$C$8</f>
-        <v>1465057.44</v>
+        <v>1454857.8299999998</v>
       </c>
       <c r="I4" s="44">
         <f>+[1]Main!$C$11</f>
-        <v>39691</v>
+        <v>42077</v>
       </c>
       <c r="J4" s="44">
         <f>+[1]Main!$C$8</f>
-        <v>1465057.44</v>
+        <v>1454857.8299999998</v>
       </c>
       <c r="K4" s="42" t="str">
         <f>+[1]Main!$C$31</f>
-        <v>Q224</v>
+        <v>Q324</v>
       </c>
       <c r="L4" s="45">
         <f>+[1]Main!$D$31</f>
-        <v>45505</v>
+        <v>45595</v>
       </c>
       <c r="M4" s="46">
         <f>+'[1]Financial Model'!$AU$24</f>
-        <v>702.62033627404003</v>
-      </c>
-      <c r="N4" s="54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N4" s="51">
         <f>+'[1]Financial Model'!$AU$26</f>
-        <v>0.21526971128068362</v>
-      </c>
-      <c r="O4" s="54">
+        <v>42077</v>
+      </c>
+      <c r="O4" s="51">
         <f>+'[1]Financial Model'!$AU$20</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="47">
         <f>+[1]Main!$C$35</f>
-        <v>9.3456838667287556</v>
+        <v>8.8425616760571089</v>
       </c>
       <c r="R4" s="47">
         <f>+[1]Main!$C$36</f>
-        <v>9.7811344335843611</v>
+        <v>9.3124609062453985</v>
       </c>
       <c r="S4" s="47"/>
       <c r="T4" s="47">
         <f>+[1]Main!$C$38</f>
-        <v>28.74079215928019</v>
+        <v>26.360609283332796</v>
       </c>
       <c r="U4" s="47"/>
       <c r="V4" s="42"/>
@@ -2930,19 +2923,19 @@
       <c r="AA4" s="48"/>
       <c r="AC4" s="49">
         <f>+'[1]Financial Model'!$X$18</f>
-        <v>0.81295590079598679</v>
+        <v>13465</v>
       </c>
       <c r="AD4" s="49">
         <f>+'[1]Financial Model'!$X$19</f>
-        <v>0.38000051188861306</v>
+        <v>5.3137332280978686</v>
       </c>
       <c r="AE4" s="49">
         <f>+'[1]Financial Model'!$X$20</f>
-        <v>0.34462900872770086</v>
+        <v>2534</v>
       </c>
       <c r="AF4" s="49">
         <f>+'[1]Financial Model'!$X$21</f>
-        <v>0.10863233152389778</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="49"/>
       <c r="AI4" s="49"/>
@@ -4841,10 +4834,10 @@
       </c>
     </row>
     <row r="62" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="E62" s="51" t="s">
+      <c r="E62" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="52"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="9" t="s">
         <v>26</v>
       </c>
